--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="1" r:id="rId1"/>
     <sheet name="Presentations" sheetId="2" r:id="rId2"/>
     <sheet name="Jobs" sheetId="3" r:id="rId3"/>
-    <sheet name="ArtItems" sheetId="6" r:id="rId4"/>
-    <sheet name="ProgrammingItems" sheetId="4" r:id="rId5"/>
+    <sheet name="Art" sheetId="6" r:id="rId4"/>
+    <sheet name="Programming" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24053F2-2CC5-4EAC-BEAB-64F1B89D9BFF}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,6 +1276,9 @@
         <v>86</v>
       </c>
     </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -295,13 +295,73 @@
     <t>ERC Postdoctoral Research Fellow</t>
   </si>
   <si>
-    <t>2016-Now</t>
-  </si>
-  <si>
     <t>Department of Computer Science, Ben Gurion University of the Negev</t>
   </si>
   <si>
-    <t>ERC Proect: "Combinatorial Aspects of Computational Geometry"</t>
+    <t>Web Administrator</t>
+  </si>
+  <si>
+    <t>2016 - Now</t>
+  </si>
+  <si>
+    <t>ERC Project: "Combinatorial Aspects of Computational Geometry"</t>
+  </si>
+  <si>
+    <t>2013 - Now</t>
+  </si>
+  <si>
+    <t>Olimpiada Mexicana de Matemáticas</t>
+  </si>
+  <si>
+    <t>Server set-up, domain management and annual update of official website</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>2016 - 2018</t>
+  </si>
+  <si>
+    <t>Asian Pacific Mathematical Olympiad</t>
+  </si>
+  <si>
+    <t>Lead the organization of annual competition for students in 45 countries &lt;br&gt; Set up of official website to publish resullts and statistics.</t>
+  </si>
+  <si>
+    <t>Jury Member and Coordinator</t>
+  </si>
+  <si>
+    <t>International Mathematical Olympiad</t>
+  </si>
+  <si>
+    <t>2012 - 2017</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt; 2012-2015 Member of the Jury of the International Mathematical Olympiad. Select problems and marking schemes for the competition. Grading and coordination of scores as Team Leader for Mexico &lt;/li&gt; &lt;li&gt; 2017 Coordinator of the International Matematical Olympiad. Ellaboration of marking schemes and grading of international students &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Audiovisual Translator</t>
+  </si>
+  <si>
+    <t>2012 - 2014</t>
+  </si>
+  <si>
+    <t>Khan Academy via Fundación Slim</t>
+  </si>
+  <si>
+    <t>Translation from English to Spanish of 550 videos in mathematics, finance and physics</t>
+  </si>
+  <si>
+    <t>Adjunct Professor and Teaching Assistant</t>
+  </si>
+  <si>
+    <t>2010 - 2013</t>
+  </si>
+  <si>
+    <t>Universidad Nacional Autónoma de México</t>
+  </si>
+  <si>
+    <t>Courses: Analytic Geometry, Calculus, Complex Analysis, Probability, Problem-Solving Seminar, Real Analysis, Stochastic Processes</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24053F2-2CC5-4EAC-BEAB-64F1B89D9BFF}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,17 +1207,99 @@
         <v>89</v>
       </c>
       <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
         <v>90</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1230,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Papers" sheetId="1" r:id="rId1"/>
-    <sheet name="Presentations" sheetId="2" r:id="rId2"/>
+    <sheet name="Awards" sheetId="7" r:id="rId1"/>
+    <sheet name="Art" sheetId="6" r:id="rId2"/>
     <sheet name="Jobs" sheetId="3" r:id="rId3"/>
-    <sheet name="Art" sheetId="6" r:id="rId4"/>
-    <sheet name="Programming" sheetId="4" r:id="rId5"/>
+    <sheet name="Papers" sheetId="1" r:id="rId4"/>
+    <sheet name="Presentations" sheetId="2" r:id="rId5"/>
+    <sheet name="Programming" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -362,6 +363,30 @@
   </si>
   <si>
     <t>Courses: Analytic Geometry, Calculus, Complex Analysis, Probability, Problem-Solving Seminar, Real Analysis, Stochastic Processes</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>Great institution</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Award Name</t>
+  </si>
+  <si>
+    <t>award</t>
+  </si>
+  <si>
+    <t>Given to 3 people!</t>
+  </si>
+  <si>
+    <t>Diamond Medal</t>
   </si>
 </sst>
 </file>
@@ -688,6 +713,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAE7294-192C-46DF-96EB-A7CACD84CB01}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE156D2-7E33-4447-A53C-1EA25432072D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24053F2-2CC5-4EAC-BEAB-64F1B89D9BFF}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -1094,7 +1411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1155,220 +1472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24053F2-2CC5-4EAC-BEAB-64F1B89D9BFF}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE156D2-7E33-4447-A53C-1EA25432072D}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
   <dimension ref="A1:G21"/>
   <sheetViews>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -371,22 +371,103 @@
     <t>institution</t>
   </si>
   <si>
-    <t>Great institution</t>
-  </si>
-  <si>
-    <t>Moon</t>
-  </si>
-  <si>
     <t>Award Name</t>
   </si>
   <si>
     <t>award</t>
   </si>
   <si>
-    <t>Given to 3 people!</t>
-  </si>
-  <si>
-    <t>Diamond Medal</t>
+    <t>In conference "A New Era of Discrete and Computational Geometry, 30 years later"</t>
+  </si>
+  <si>
+    <t>Ascona, Switzerland</t>
+  </si>
+  <si>
+    <t>Best Poster Award</t>
+  </si>
+  <si>
+    <t>Sociedad Matemática Mexicana</t>
+  </si>
+  <si>
+    <t>PhD Level, in 1er Encuentro de Mujeres Matemáticas Mexicanas</t>
+  </si>
+  <si>
+    <t>Querétaro, México</t>
+  </si>
+  <si>
+    <t>Honourable Mention</t>
+  </si>
+  <si>
+    <t>Sotero Prieto Award for best undergraduate thesis in mathematics</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Gold Medal</t>
+  </si>
+  <si>
+    <t>Silver Medal</t>
+  </si>
+  <si>
+    <t>UAN, Colombia</t>
+  </si>
+  <si>
+    <t>IMPA, Brasil</t>
+  </si>
+  <si>
+    <t>First place</t>
+  </si>
+  <si>
+    <t>Competencia Iberoamericana Interuniversitaria de Matemáticas</t>
+  </si>
+  <si>
+    <t>Instituto Politécnico Nacional</t>
+  </si>
+  <si>
+    <t>Pierre Fermat National Contest in Mathematics, Undergraduate Level</t>
+  </si>
+  <si>
+    <t>Mexico City, México</t>
+  </si>
+  <si>
+    <t>Finalist</t>
+  </si>
+  <si>
+    <t>Pierre Fermat National Contest in Mathematics, High School Level</t>
+  </si>
+  <si>
+    <t>XXII Iberoamerican Undergraduate Mathematical Olympiad</t>
+  </si>
+  <si>
+    <t>Excellence Fellowship</t>
+  </si>
+  <si>
+    <t>Secretaría de Educación Pública</t>
+  </si>
+  <si>
+    <t>XX Mexican Mathematical Olympiad</t>
+  </si>
+  <si>
+    <t>Zacatecas, México</t>
+  </si>
+  <si>
+    <t>SNI Level C</t>
+  </si>
+  <si>
+    <t>Consejo Nacional de Ciencia y Tecnología</t>
+  </si>
+  <si>
+    <t>2008, 2009</t>
+  </si>
+  <si>
+    <t>2018, 2019</t>
+  </si>
+  <si>
+    <t>Best Contribution Award</t>
+  </si>
+  <si>
+    <t>Research Fellow at Sistema Nacional de Investigadores in Mexico</t>
   </si>
 </sst>
 </file>
@@ -714,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAE7294-192C-46DF-96EB-A7CACD84CB01}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
         <v>113</v>
@@ -750,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
         <v>114</v>
@@ -766,26 +847,235 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>2020</v>
+      <c r="B3" t="s">
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2014</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
         <v>120</v>
       </c>
-      <c r="D3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2012</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2010</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2009</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2008</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2007</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2007</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2006</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2006</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="B3:F14">
+    <sortCondition descending="1" ref="B3:B14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Awards" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -287,12 +287,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
     <t>ERC Postdoctoral Research Fellow</t>
   </si>
   <si>
@@ -468,13 +462,154 @@
   </si>
   <si>
     <t>Research Fellow at Sistema Nacional de Investigadores in Mexico</t>
+  </si>
+  <si>
+    <t>GH1</t>
+  </si>
+  <si>
+    <t>GH2</t>
+  </si>
+  <si>
+    <t>GH3</t>
+  </si>
+  <si>
+    <t>Python scripts to create the official webpage of the Asian Pacific Mathematical Olympiad for the period 2016 - 2018. It includes functions to create problem difficulty statistics and plots.</t>
+  </si>
+  <si>
+    <t>APMO Website Scripts</t>
+  </si>
+  <si>
+    <t>Personal Page</t>
+  </si>
+  <si>
+    <t>Flask webapp to create a personal professional page using a CV managed with CV Utilities. This personal page is created itself with personalpage!</t>
+  </si>
+  <si>
+    <t>Collect Definitions</t>
+  </si>
+  <si>
+    <t>GH4</t>
+  </si>
+  <si>
+    <t>Golden Cookie Clicker</t>
+  </si>
+  <si>
+    <t>GH5</t>
+  </si>
+  <si>
+    <t>This is a computer vision project. In the game &lt;a href="http://orteil.dashnet.org/cookieclicker/" target="_blank"&gt; Cookie Clicker&lt;/a&gt; there is a golden cookie that appears from time to time and boosts the cookie production. It is one of the few mechanics that require that the user is paying attention. This is a Python bot that automatically clicks on a golden cookie when it appears.</t>
+  </si>
+  <si>
+    <t>Object Oriented library for managing a Curriculum Vitae from an .xlsx file. Implements basically everything that you can see in this page.</t>
+  </si>
+  <si>
+    <t>CV Utilities (cvutils)</t>
+  </si>
+  <si>
+    <t>ConvierTex</t>
+  </si>
+  <si>
+    <t>Personal Blog</t>
+  </si>
+  <si>
+    <t>Mexican Mathematical Olympiad Website</t>
+  </si>
+  <si>
+    <t>technologies</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>webadmin</t>
+  </si>
+  <si>
+    <t>http://blog.nekomath.com</t>
+  </si>
+  <si>
+    <t>http://www.ommenlinea.org</t>
+  </si>
+  <si>
+    <t>VII CIIM Website</t>
+  </si>
+  <si>
+    <t>SNI Conacyt</t>
+  </si>
+  <si>
+    <t>Technologies</t>
+  </si>
+  <si>
+    <t>matplotlib, openpyxl</t>
+  </si>
+  <si>
+    <t>flask, cvutils, HTML, CSS, JavaScript, AJAX, jinja2</t>
+  </si>
+  <si>
+    <t>open_cv, SIFT, winsound, time, pyautogui, ImageGrab</t>
+  </si>
+  <si>
+    <t>openpyxl, numpy, matplotlib, HTML, CSS, JavaScript</t>
+  </si>
+  <si>
+    <t>API, CSS, HTML, BeautifulSoup</t>
+  </si>
+  <si>
+    <t>LaTeX, sha, HTML, CSS, BeautifulSoup</t>
+  </si>
+  <si>
+    <t>WordPress, HTML, CSS, PHP, FTP, SSH, MathJax</t>
+  </si>
+  <si>
+    <t>HTML, CSS, lightbox</t>
+  </si>
+  <si>
+    <t>python, pandas, matplotlib</t>
+  </si>
+  <si>
+    <t>WordPress, HTML, CSS, WPStats, PHP, Avada, FTP, SSH, MathJax, SQL</t>
+  </si>
+  <si>
+    <t>Mexico City Mathematical Olympiad Website</t>
+  </si>
+  <si>
+    <t>Write a LaTeX formula, click a button, and share it with the world! Created from scratch.</t>
+  </si>
+  <si>
+    <t>Do you have troubles reading english text with unusual words? By giving a list of words to this script, it gathers all the definitions that you need from … and creates an HTML file to see all of them in a beautiful way.</t>
+  </si>
+  <si>
+    <t>My personal blog.</t>
+  </si>
+  <si>
+    <t>The official website of the Mexican Mathematical Olympiad.</t>
+  </si>
+  <si>
+    <t>The official website of the VII Competencia Iberoamericana Interuniversitaria de Matemáticas.</t>
+  </si>
+  <si>
+    <t>Data visualization project on the information of the researchers at Conacyt in Mexico.</t>
+  </si>
+  <si>
+    <t>The official webpage for the Mathematical Olympiad of Mexico City from 2010 to 2013 (check).</t>
+  </si>
+  <si>
+    <t>webdev</t>
+  </si>
+  <si>
+    <t>datasc</t>
+  </si>
+  <si>
+    <t>http://ciim2015.ommenlinea.org</t>
+  </si>
+  <si>
+    <t>WordPress, HTML, CSS, FTP, SSH, Nirvana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +621,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,15 +651,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAE7294-192C-46DF-96EB-A7CACD84CB01}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -811,10 +957,10 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
         <v>81</v>
@@ -831,10 +977,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>82</v>
@@ -848,19 +994,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" t="s">
-        <v>147</v>
-      </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,16 +1017,16 @@
         <v>2016</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -891,16 +1037,16 @@
         <v>2014</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
         <v>119</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>120</v>
-      </c>
-      <c r="E5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -911,16 +1057,16 @@
         <v>2012</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -931,13 +1077,13 @@
         <v>2010</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
         <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -948,13 +1094,13 @@
         <v>2009</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" t="s">
         <v>126</v>
-      </c>
-      <c r="D8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -962,17 +1108,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -983,16 +1129,16 @@
         <v>2008</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
         <v>130</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" t="s">
         <v>132</v>
-      </c>
-      <c r="E10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1003,16 +1149,16 @@
         <v>2007</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" t="s">
         <v>130</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" t="s">
         <v>132</v>
-      </c>
-      <c r="E11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,13 +1169,13 @@
         <v>2007</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1040,16 +1186,16 @@
         <v>2006</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1060,16 +1206,16 @@
         <v>2006</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" t="s">
         <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1191,16 +1337,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1208,16 +1354,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
         <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1225,16 +1371,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1242,16 +1388,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
         <v>101</v>
       </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
       <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
         <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1259,16 +1405,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
         <v>105</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1276,16 +1422,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
         <v>109</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1764,15 +1910,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1783,16 +1929,19 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1803,20 +1952,279 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="2"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5">
+        <v>2017</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>2016</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7">
+        <v>2015</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>2011</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9">
+        <v>2011</v>
+      </c>
+      <c r="D9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10">
+        <v>2013</v>
+      </c>
+      <c r="D10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11">
+        <v>2015</v>
+      </c>
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12">
+        <v>2016</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13">
+        <v>2010</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="B3:G7">
+    <sortCondition descending="1" ref="C3:C7"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{905EA6D7-19FC-40A7-9776-023EBCA825B9}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{D02A8CA5-EDC0-4CAF-8C51-DF4FD7EEB47B}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{12AC93BA-BAD2-443D-93F3-0E0A59751E0F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Awards" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
@@ -299,9 +299,6 @@
     <t>2016 - Now</t>
   </si>
   <si>
-    <t>ERC Project: "Combinatorial Aspects of Computational Geometry"</t>
-  </si>
-  <si>
     <t>2013 - Now</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>Asian Pacific Mathematical Olympiad</t>
   </si>
   <si>
-    <t>Lead the organization of annual competition for students in 45 countries &lt;br&gt; Set up of official website to publish resullts and statistics.</t>
-  </si>
-  <si>
     <t>Jury Member and Coordinator</t>
   </si>
   <si>
@@ -479,12 +473,6 @@
     <t>APMO Website Scripts</t>
   </si>
   <si>
-    <t>Personal Page</t>
-  </si>
-  <si>
-    <t>Flask webapp to create a personal professional page using a CV managed with CV Utilities. This personal page is created itself with personalpage!</t>
-  </si>
-  <si>
     <t>Collect Definitions</t>
   </si>
   <si>
@@ -497,9 +485,6 @@
     <t>GH5</t>
   </si>
   <si>
-    <t>This is a computer vision project. In the game &lt;a href="http://orteil.dashnet.org/cookieclicker/" target="_blank"&gt; Cookie Clicker&lt;/a&gt; there is a golden cookie that appears from time to time and boosts the cookie production. It is one of the few mechanics that require that the user is paying attention. This is a Python bot that automatically clicks on a golden cookie when it appears.</t>
-  </si>
-  <si>
     <t>Object Oriented library for managing a Curriculum Vitae from an .xlsx file. Implements basically everything that you can see in this page.</t>
   </si>
   <si>
@@ -521,9 +506,6 @@
     <t>python</t>
   </si>
   <si>
-    <t>webadmin</t>
-  </si>
-  <si>
     <t>http://blog.nekomath.com</t>
   </si>
   <si>
@@ -560,9 +542,6 @@
     <t>WordPress, HTML, CSS, PHP, FTP, SSH, MathJax</t>
   </si>
   <si>
-    <t>HTML, CSS, lightbox</t>
-  </si>
-  <si>
     <t>python, pandas, matplotlib</t>
   </si>
   <si>
@@ -578,9 +557,6 @@
     <t>Do you have troubles reading english text with unusual words? By giving a list of words to this script, it gathers all the definitions that you need from … and creates an HTML file to see all of them in a beautiful way.</t>
   </si>
   <si>
-    <t>My personal blog.</t>
-  </si>
-  <si>
     <t>The official website of the Mexican Mathematical Olympiad.</t>
   </si>
   <si>
@@ -603,6 +579,57 @@
   </si>
   <si>
     <t>WordPress, HTML, CSS, FTP, SSH, Nirvana</t>
+  </si>
+  <si>
+    <t>This is an image detection project. In the game &lt;a href="http://orteil.dashnet.org/cookieclicker/" target="_blank"&gt; Cookie Clicker&lt;/a&gt; there is a golden cookie that appears from time to time and boosts the cookie production. It is one of the few mechanics that require that the user is paying attention. This is a Python bot that automatically clicks on a golden cookie when it appears.</t>
+  </si>
+  <si>
+    <t>Flask webapp to create a personal/professional page using a CV managed with CV Utilities. This personal page is created itself with PyPersonalPage!</t>
+  </si>
+  <si>
+    <t>PyPersonalPage</t>
+  </si>
+  <si>
+    <t>My personal blog about life and mathematics.</t>
+  </si>
+  <si>
+    <t>HTML, CSS, lightbox, SSH</t>
+  </si>
+  <si>
+    <t>European Research Council H2020 Project: "Combinatorial Aspects of Computational Geometry"</t>
+  </si>
+  <si>
+    <t>Lead the organization of annual competition for students in 45 countries &lt;br&gt; Set up of official website to publish resullts and statistics</t>
+  </si>
+  <si>
+    <t>OIMU Organizers</t>
+  </si>
+  <si>
+    <t>CIIM Organizers</t>
+  </si>
+  <si>
+    <t>For an outstanding results in undergraduate studies</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>Distinct circumradii, geometric Hall-type theorems, fractional Turán-type theorems, lattice path matroids and Kneser transversals</t>
+  </si>
+  <si>
+    <t>El problema del ángel de Conway y gráficas angelicales</t>
+  </si>
+  <si>
+    <t>L. I. Martínez Sandoval</t>
+  </si>
+  <si>
+    <t>L. Martínez</t>
+  </si>
+  <si>
+    <t>PhD Dissertation</t>
+  </si>
+  <si>
+    <t>BSc Dissertation</t>
   </si>
 </sst>
 </file>
@@ -944,7 +971,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,10 +984,10 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
         <v>81</v>
@@ -977,10 +1004,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>82</v>
@@ -994,19 +1021,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
-      </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1017,16 +1044,16 @@
         <v>2016</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1037,16 +1064,16 @@
         <v>2014</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
         <v>117</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>118</v>
-      </c>
-      <c r="E5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1057,16 +1084,16 @@
         <v>2012</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
         <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1077,13 +1104,16 @@
         <v>2010</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1094,13 +1124,16 @@
         <v>2009</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
         <v>124</v>
-      </c>
-      <c r="D8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1108,17 +1141,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1129,16 +1164,16 @@
         <v>2008</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
         <v>128</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" t="s">
         <v>130</v>
-      </c>
-      <c r="E10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1149,16 +1184,16 @@
         <v>2007</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
         <v>128</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s">
         <v>130</v>
-      </c>
-      <c r="E11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1169,13 +1204,16 @@
         <v>2007</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1186,16 +1224,16 @@
         <v>2006</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1206,16 +1244,16 @@
         <v>2006</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" t="s">
         <v>130</v>
-      </c>
-      <c r="E14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1331,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,7 +1384,7 @@
         <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1357,13 +1395,13 @@
         <v>89</v>
       </c>
       <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1371,16 +1409,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1388,16 +1426,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
         <v>99</v>
       </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
       <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
         <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1405,16 +1443,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
         <v>103</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1422,16 +1460,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
         <v>107</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1444,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1830,6 +1868,46 @@
       </c>
       <c r="I14" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16">
+        <v>2011</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
@@ -1912,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1932,7 +2010,7 @@
         <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
         <v>81</v>
@@ -1955,7 +2033,7 @@
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
         <v>82</v>
@@ -1969,22 +2047,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C3">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1992,22 +2070,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="C4">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2015,22 +2093,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5">
         <v>2017</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2038,22 +2116,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6">
         <v>2016</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -2062,22 +2140,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C7">
         <v>2015</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2085,22 +2163,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C8">
         <v>2011</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2108,22 +2186,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2131,22 +2209,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C10">
         <v>2013</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2154,22 +2232,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C11">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2177,19 +2255,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C12">
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2197,32 +2275,32 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C13">
         <v>2010</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="B3:G7">
-    <sortCondition descending="1" ref="C3:C7"/>
+  <sortState ref="B9:G11">
+    <sortCondition descending="1" ref="C9:C11"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{905EA6D7-19FC-40A7-9776-023EBCA825B9}"/>
+    <hyperlink ref="G11" r:id="rId1" xr:uid="{905EA6D7-19FC-40A7-9776-023EBCA825B9}"/>
     <hyperlink ref="G10" r:id="rId2" xr:uid="{D02A8CA5-EDC0-4CAF-8C51-DF4FD7EEB47B}"/>
-    <hyperlink ref="G11" r:id="rId3" xr:uid="{12AC93BA-BAD2-443D-93F3-0E0A59751E0F}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{12AC93BA-BAD2-443D-93F3-0E0A59751E0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -4,15 +4,22 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="714" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Awards" sheetId="7" r:id="rId1"/>
-    <sheet name="Art" sheetId="6" r:id="rId2"/>
-    <sheet name="Jobs" sheetId="3" r:id="rId3"/>
-    <sheet name="Papers" sheetId="1" r:id="rId4"/>
-    <sheet name="Presentations" sheetId="2" r:id="rId5"/>
-    <sheet name="Programming" sheetId="4" r:id="rId6"/>
+    <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
+    <sheet name="Award" sheetId="7" r:id="rId2"/>
+    <sheet name="Education" sheetId="9" r:id="rId3"/>
+    <sheet name="Job" sheetId="3" r:id="rId4"/>
+    <sheet name="Contest" sheetId="13" r:id="rId5"/>
+    <sheet name="Course" sheetId="8" r:id="rId6"/>
+    <sheet name="ScienceFair" sheetId="14" r:id="rId7"/>
+    <sheet name="Talk" sheetId="2" r:id="rId8"/>
+    <sheet name="ArtItem" sheetId="6" r:id="rId9"/>
+    <sheet name="CodingItem" sheetId="4" r:id="rId10"/>
+    <sheet name="Book" sheetId="12" r:id="rId11"/>
+    <sheet name="MainstreamMedia" sheetId="10" r:id="rId12"/>
+    <sheet name="ScientificPublication" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="438">
   <si>
     <t>ID</t>
   </si>
@@ -50,12 +57,6 @@
     <t>journal</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>Pages</t>
   </si>
   <si>
@@ -74,12 +75,6 @@
     <t>doi</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>On lattice path matroid polytopes: integer points and Ehrhart polynomial</t>
   </si>
   <si>
@@ -152,9 +147,6 @@
     <t>10.1007/s00454-018-9965-4</t>
   </si>
   <si>
-    <t>Accepted</t>
-  </si>
-  <si>
     <t>In Review</t>
   </si>
   <si>
@@ -179,12 +171,6 @@
     <t>ArXiV e-prints</t>
   </si>
   <si>
-    <t>Ext. Abstract</t>
-  </si>
-  <si>
-    <t>Preprint</t>
-  </si>
-  <si>
     <t>Fractional Turan's theorem and bounds for the chromatic number</t>
   </si>
   <si>
@@ -227,48 +213,12 @@
     <t>Geometric Variants of Hall's Theorem through Sperner's Lemma</t>
   </si>
   <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>Venue</t>
-  </si>
-  <si>
-    <t>venue</t>
-  </si>
-  <si>
-    <t>Conference</t>
-  </si>
-  <si>
-    <t>conference</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>Employer</t>
-  </si>
-  <si>
-    <t>employer</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -278,15 +228,9 @@
     <t>Technique</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>technique</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>ERC Postdoctoral Research Fellow</t>
   </si>
   <si>
@@ -296,12 +240,6 @@
     <t>Web Administrator</t>
   </si>
   <si>
-    <t>2016 - Now</t>
-  </si>
-  <si>
-    <t>2013 - Now</t>
-  </si>
-  <si>
     <t>Olimpiada Mexicana de Matemáticas</t>
   </si>
   <si>
@@ -311,9 +249,6 @@
     <t>Chair</t>
   </si>
   <si>
-    <t>2016 - 2018</t>
-  </si>
-  <si>
     <t>Asian Pacific Mathematical Olympiad</t>
   </si>
   <si>
@@ -323,18 +258,12 @@
     <t>International Mathematical Olympiad</t>
   </si>
   <si>
-    <t>2012 - 2017</t>
-  </si>
-  <si>
     <t>&lt;ul&gt; &lt;li&gt; 2012-2015 Member of the Jury of the International Mathematical Olympiad. Select problems and marking schemes for the competition. Grading and coordination of scores as Team Leader for Mexico &lt;/li&gt; &lt;li&gt; 2017 Coordinator of the International Matematical Olympiad. Ellaboration of marking schemes and grading of international students &lt;/li&gt; &lt;/ul&gt;</t>
   </si>
   <si>
     <t>Audiovisual Translator</t>
   </si>
   <si>
-    <t>2012 - 2014</t>
-  </si>
-  <si>
     <t>Khan Academy via Fundación Slim</t>
   </si>
   <si>
@@ -344,9 +273,6 @@
     <t>Adjunct Professor and Teaching Assistant</t>
   </si>
   <si>
-    <t>2010 - 2013</t>
-  </si>
-  <si>
     <t>Universidad Nacional Autónoma de México</t>
   </si>
   <si>
@@ -359,12 +285,6 @@
     <t>institution</t>
   </si>
   <si>
-    <t>Award Name</t>
-  </si>
-  <si>
-    <t>award</t>
-  </si>
-  <si>
     <t>In conference "A New Era of Discrete and Computational Geometry, 30 years later"</t>
   </si>
   <si>
@@ -542,9 +462,6 @@
     <t>WordPress, HTML, CSS, PHP, FTP, SSH, MathJax</t>
   </si>
   <si>
-    <t>python, pandas, matplotlib</t>
-  </si>
-  <si>
     <t>WordPress, HTML, CSS, WPStats, PHP, Avada, FTP, SSH, MathJax, SQL</t>
   </si>
   <si>
@@ -611,9 +528,6 @@
     <t>For an outstanding results in undergraduate studies</t>
   </si>
   <si>
-    <t>Thesis</t>
-  </si>
-  <si>
     <t>Distinct circumradii, geometric Hall-type theorems, fractional Turán-type theorems, lattice path matroids and Kneser transversals</t>
   </si>
   <si>
@@ -630,13 +544,815 @@
   </si>
   <si>
     <t>BSc Dissertation</t>
+  </si>
+  <si>
+    <t>python, pandas, matplotlib, Jupyter</t>
+  </si>
+  <si>
+    <t>A Hall-type theorem for points in general position</t>
+  </si>
+  <si>
+    <t>Stabbing all the k-convex hulls of points in a cyclic polytope using Kneser transversals</t>
+  </si>
+  <si>
+    <t>Fractional Turan’s theorem and bounds for the chromatic number</t>
+  </si>
+  <si>
+    <t>Geometric variants of Hall's theorem through Sperner's Lemma</t>
+  </si>
+  <si>
+    <t>Transversal, Helly and Tverberg type Theorems in Geometry, Combinatorics and Topology III</t>
+  </si>
+  <si>
+    <t>Oaxaca, México</t>
+  </si>
+  <si>
+    <t>Malmö, Sweden</t>
+  </si>
+  <si>
+    <t>A New Era of Discrete and Computational Geometry, 30 Years Later</t>
+  </si>
+  <si>
+    <t>Charles University</t>
+  </si>
+  <si>
+    <t>Mathematics of Jiri Matousek</t>
+  </si>
+  <si>
+    <t>Prague, Czech Republic</t>
+  </si>
+  <si>
+    <t>Latin-American Algorithms, Graphs and Optimization Symposium (LAGOS)</t>
+  </si>
+  <si>
+    <t>Praia das Fontes, Brazil</t>
+  </si>
+  <si>
+    <t>Kaleidoscope (poster)</t>
+  </si>
+  <si>
+    <t>Ixtapa, México</t>
+  </si>
+  <si>
+    <t>seminar</t>
+  </si>
+  <si>
+    <t>Université de Montpellier 2</t>
+  </si>
+  <si>
+    <t>Further Consequences of the Colorful Helly's Hypothesis</t>
+  </si>
+  <si>
+    <t>Hebrew University of Jerusalem</t>
+  </si>
+  <si>
+    <t>Ben-Gurion University of the Negev</t>
+  </si>
+  <si>
+    <t>Beersheva, Israel</t>
+  </si>
+  <si>
+    <t>Jersusalem, Israel</t>
+  </si>
+  <si>
+    <t>Montpellier, France</t>
+  </si>
+  <si>
+    <t>La conjetura de Merino-Welsh es cierta para los matroides de caminos latices</t>
+  </si>
+  <si>
+    <t>UMDI Facultad de Ciencias</t>
+  </si>
+  <si>
+    <t>Instituto de Matemáticas</t>
+  </si>
+  <si>
+    <t>Seminario Preguntón</t>
+  </si>
+  <si>
+    <t>Coloquio Oaxaqueño</t>
+  </si>
+  <si>
+    <t>Serpientes, escaleras y una conjetura de Merino y Welsh</t>
+  </si>
+  <si>
+    <t>UNISON</t>
+  </si>
+  <si>
+    <t>Congreso Nacional de la Sociedad Matemática Mexicana</t>
+  </si>
+  <si>
+    <t>Sonora, México</t>
+  </si>
+  <si>
+    <t>Turán proporcional y cotas para el número cromático</t>
+  </si>
+  <si>
+    <t>UAEH</t>
+  </si>
+  <si>
+    <t>Seminario de Investigaciión</t>
+  </si>
+  <si>
+    <t>Pachuca, México</t>
+  </si>
+  <si>
+    <t>El diámetro de una gráfica que viene de caminos de colores</t>
+  </si>
+  <si>
+    <t>UAED</t>
+  </si>
+  <si>
+    <t>Durango, México</t>
+  </si>
+  <si>
+    <t>CINNMA</t>
+  </si>
+  <si>
+    <t>Facultad de Ciencias, UNAM</t>
+  </si>
+  <si>
+    <t>Aquelarre Matemático</t>
+  </si>
+  <si>
+    <t>Teoremas de Turán proporcionales y otros problemas de matemáticas discretas</t>
+  </si>
+  <si>
+    <t>Primer Encuentro de Estudiantes del Posgrado en Matemáticas</t>
+  </si>
+  <si>
+    <t>Cuernavaca, México</t>
+  </si>
+  <si>
+    <t>Conjuntos de puntos con circunradios distintos</t>
+  </si>
+  <si>
+    <t>Coloquio Víctor Neumann-Lara</t>
+  </si>
+  <si>
+    <t>Veracruz, México</t>
+  </si>
+  <si>
+    <t>Matrimonios en gráficas $S_L$-estrella libres</t>
+  </si>
+  <si>
+    <t>1er Encuentro de Mujeres Matemáticas Mexicanas (póster)</t>
+  </si>
+  <si>
+    <t>Matrimonios sin enemigas mortales</t>
+  </si>
+  <si>
+    <t>CIMAT</t>
+  </si>
+  <si>
+    <t>Seminario Junior</t>
+  </si>
+  <si>
+    <t>Guanajuato, México</t>
+  </si>
+  <si>
+    <t>El problma del Ángel de Conway y gráficas angelicales</t>
+  </si>
+  <si>
+    <t>UMICH</t>
+  </si>
+  <si>
+    <t>Seminario de Combinatoria</t>
+  </si>
+  <si>
+    <t>UAQ</t>
+  </si>
+  <si>
+    <t>Seminario de Matemáticas</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>professor</t>
+  </si>
+  <si>
+    <t>undergraduate</t>
+  </si>
+  <si>
+    <t>Seminar on Problem Solving Techniques</t>
+  </si>
+  <si>
+    <t>2014-2</t>
+  </si>
+  <si>
+    <t>2012-2</t>
+  </si>
+  <si>
+    <t>2011-2</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>Mathematical Analysis</t>
+  </si>
+  <si>
+    <t>2010-2</t>
+  </si>
+  <si>
+    <t>2010-1</t>
+  </si>
+  <si>
+    <t>Complex Analysis</t>
+  </si>
+  <si>
+    <t>Calculus I</t>
+  </si>
+  <si>
+    <t>2011-1</t>
+  </si>
+  <si>
+    <t>Calculus II</t>
+  </si>
+  <si>
+    <t>Calculus III</t>
+  </si>
+  <si>
+    <t>Probability II</t>
+  </si>
+  <si>
+    <t>Probability I</t>
+  </si>
+  <si>
+    <t>Stochastic Processes</t>
+  </si>
+  <si>
+    <t>Analytic Geometry</t>
+  </si>
+  <si>
+    <t>2012-1</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>highschool</t>
+  </si>
+  <si>
+    <t>Stanford University Mathematics Camp</t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>A new perspective on four classical theorems in additive number theory</t>
+  </si>
+  <si>
+    <t>Facultad de Ciencias, Unidad Juriquilla, UNAM</t>
+  </si>
+  <si>
+    <t>Spanish Translation Team for Khan Academy</t>
+  </si>
+  <si>
+    <t>Translation and making of educational videos using a pen tablet</t>
+  </si>
+  <si>
+    <t>olympiad</t>
+  </si>
+  <si>
+    <t>Course for coaches for the Mexican Mathematical Olympiad</t>
+  </si>
+  <si>
+    <t>Universidad del Papaloapan</t>
+  </si>
+  <si>
+    <t>Workshop for coaches for the Mexican Mathematical Olympiad</t>
+  </si>
+  <si>
+    <t>Training camps of mexican teams for international olympiads</t>
+  </si>
+  <si>
+    <t>2008-2017</t>
+  </si>
+  <si>
+    <t>Álgebra creativa: Álgebra de Olimpiada</t>
+  </si>
+  <si>
+    <t>UP Campus Bonaterra</t>
+  </si>
+  <si>
+    <t>J. Hernández-Santiago, D. López Aguayo, L. Martínez Sandoval</t>
+  </si>
+  <si>
+    <t>Un baúl de problemas olvidado: Parte I</t>
+  </si>
+  <si>
+    <t>Un baúl de problemas olvidado: Parte II</t>
+  </si>
+  <si>
+    <t>Un baúl de problemas olvidado: Parte III</t>
+  </si>
+  <si>
+    <t>Un baúl de problemas olvidado: Parte IV</t>
+  </si>
+  <si>
+    <t>Un baúl de problemas olvidado: Parte V</t>
+  </si>
+  <si>
+    <t>Un baúl de problemas olvidado: Parte VI</t>
+  </si>
+  <si>
+    <t>universo.math</t>
+  </si>
+  <si>
+    <t>1(3)</t>
+  </si>
+  <si>
+    <t>2(3)</t>
+  </si>
+  <si>
+    <t>2(1)</t>
+  </si>
+  <si>
+    <t>2(2)</t>
+  </si>
+  <si>
+    <t>3(1)</t>
+  </si>
+  <si>
+    <t>thesis</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>preprint</t>
+  </si>
+  <si>
+    <t>Contar de dos formas distintas</t>
+  </si>
+  <si>
+    <t>Estrategias básicas de conteo</t>
+  </si>
+  <si>
+    <t>Revolviendo cartas suficientes veces</t>
+  </si>
+  <si>
+    <t>Tzaloa</t>
+  </si>
+  <si>
+    <t>Miscelánea Matemática</t>
+  </si>
+  <si>
+    <t>3(3)</t>
+  </si>
+  <si>
+    <t>3(2)</t>
+  </si>
+  <si>
+    <t>1-11</t>
+  </si>
+  <si>
+    <t>Leonardo Ignacio Martínez Sandoval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VII Competencia Iberoamericana Interuniversitaria de Matemáticas en la Facultad de Ciencias de la UNAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Éxito internacional en matemáticas. Medalla queretana, parte de los excelentes resultados internacionales </t>
+  </si>
+  <si>
+    <t>El Universal Querétaro</t>
+  </si>
+  <si>
+    <t>Magazine de Querétaro</t>
+  </si>
+  <si>
+    <t>Las matemáticas y juegos de cartas</t>
+  </si>
+  <si>
+    <t>Aplicaciones inesperadas de las matemáticas</t>
+  </si>
+  <si>
+    <t>Las matemáticas y la geometría</t>
+  </si>
+  <si>
+    <t>Curiosidades y buenas noticias sobre las matemáticas y el fútbol</t>
+  </si>
+  <si>
+    <t>México campeón Iberoamericano de Matemáticas</t>
+  </si>
+  <si>
+    <t>Las matemáticas y Querétaro</t>
+  </si>
+  <si>
+    <t>Matemáticas: Técnica y creatividad</t>
+  </si>
+  <si>
+    <t>Reflexiones sobre el Primer Encuentro de Mujeres Matemáticas Mexicanas</t>
+  </si>
+  <si>
+    <t>Gaceta UNAM</t>
+  </si>
+  <si>
+    <t>La Olimpiada Mexicana de Matemáticas: Un concurso y un proyecto de divulgación</t>
+  </si>
+  <si>
+    <t>Reporte de actividades de la VII Competencia Iberoamericana Interuniversitaria de Matemáticas</t>
+  </si>
+  <si>
+    <t>Plan de trabajo para candidatura a presidencia de la Olimpiada Mexicana de Matemáticas 2016-2020</t>
+  </si>
+  <si>
+    <t>Olimpiada Mexicana de Matemáticas: Curso de entrenadores 2014</t>
+  </si>
+  <si>
+    <t>Olimpiada de Matemáticas del Distrito Federal, Folleto de problemas 2011</t>
+  </si>
+  <si>
+    <t>Olimpiada de Matemáticas del Distrito Federal, Folleto de problemas 2010</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>El Universal</t>
+  </si>
+  <si>
+    <t>local_conf</t>
+  </si>
+  <si>
+    <t>int_conf</t>
+  </si>
+  <si>
+    <t>Matemáticas y juegos de cartas</t>
+  </si>
+  <si>
+    <t>¿Dónde está la Olimpiada Mexicana de Matemáticas y hacia dónde puede ir?</t>
+  </si>
+  <si>
+    <t>El método probabilista en acción</t>
+  </si>
+  <si>
+    <t>El seminario de problemas y concursos universitarios</t>
+  </si>
+  <si>
+    <t>El método probabilístico en combinatoria y teoría de números</t>
+  </si>
+  <si>
+    <t>Las matemáticas más allá de los números</t>
+  </si>
+  <si>
+    <t>Juegos y matemáticas: ¿Por qué los matemáticos saben jugar gato sin perder?</t>
+  </si>
+  <si>
+    <t>Las matemáticas no sólo son números</t>
+  </si>
+  <si>
+    <t>Algunos números irracionales</t>
+  </si>
+  <si>
+    <t>Evariste Galois: Un matemático, un revolucionario</t>
+  </si>
+  <si>
+    <t>math_promotion</t>
+  </si>
+  <si>
+    <t>Ciclo de Conferencias de la Licenciatura en Matemáticas Aplicadas</t>
+  </si>
+  <si>
+    <t>CCM</t>
+  </si>
+  <si>
+    <t>Seminario Interinstitucional</t>
+  </si>
+  <si>
+    <t>Escuela Preparatoria Regional de Chapala</t>
+  </si>
+  <si>
+    <t>Jalisco, México</t>
+  </si>
+  <si>
+    <t>Homenaje al M. en C. José Antonio Gómez Ortega</t>
+  </si>
+  <si>
+    <t>Michoacán, México</t>
+  </si>
+  <si>
+    <t>Mérida, México</t>
+  </si>
+  <si>
+    <t>Playa del Carmen, México</t>
+  </si>
+  <si>
+    <t>Maratón de las matemáticas</t>
+  </si>
+  <si>
+    <t>Seminario de las Pruebas del El Libro</t>
+  </si>
+  <si>
+    <t>COBAQ</t>
+  </si>
+  <si>
+    <t>Escuela Nacional Preparatoria 1</t>
+  </si>
+  <si>
+    <t>Día de Pi</t>
+  </si>
+  <si>
+    <t>Coordinator of Mathematical Promotion</t>
+  </si>
+  <si>
+    <t>Items for mainstream media &lt;br&gt; Organization of Mathematical fairs &lt;br&gt; Organization of workshops</t>
+  </si>
+  <si>
+    <t>Second School in Topological Data Analysis</t>
+  </si>
+  <si>
+    <t>Seminar in Random Matrices</t>
+  </si>
+  <si>
+    <t>Mathematics Summer Camp</t>
+  </si>
+  <si>
+    <t>COBACH</t>
+  </si>
+  <si>
+    <t>VI Workshop in Calculus Problem Solving</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>ArXiV</t>
+  </si>
+  <si>
+    <t>arxiv</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Extends</t>
+  </si>
+  <si>
+    <t>Additional Properties</t>
+  </si>
+  <si>
+    <t>Award</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>CVItem</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>ScientificPublication</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>authors, publisher</t>
+  </si>
+  <si>
+    <t>Media Type</t>
+  </si>
+  <si>
+    <t>Media Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>MainstreamMedia</t>
+  </si>
+  <si>
+    <t>media_type</t>
+  </si>
+  <si>
+    <t>journal, volume, pages</t>
+  </si>
+  <si>
+    <t>LINKTYPES</t>
+  </si>
+  <si>
+    <t>Returns</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>institution, location</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>location,role</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>PortfolioItem</t>
+  </si>
+  <si>
+    <t>ArtItem</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>CodingItem</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>id, title, date, description, links, tags</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>PhD in Mathematics and Modelling</t>
+  </si>
+  <si>
+    <t>Dissertation: “Explorations in combinatorial geometry: Distinct circumradii, geometric Hall-type theorems, fractional Turán-type theorems, lattice path matroids and Kneser transversals” &lt;br&gt;
+Supervisors: Dr. Luis Montejano Peimbert and Dr. Jorge Ramírez Alfonsín</t>
+  </si>
+  <si>
+    <t>Universidad Nacional Autónoma de México and Université de Montpellier</t>
+  </si>
+  <si>
+    <t>BSc in Mathematics</t>
+  </si>
+  <si>
+    <t>Dissertation: "El problema del Ángel de Conway y gráficas angelicales. &lt;br&gt; Supervisor: Dr. Javier Bracho Carpizo</t>
+  </si>
+  <si>
+    <t>International Baccalaureate</t>
+  </si>
+  <si>
+    <t>Instituto Tecnológico y de Estudios Superiores de Monterrey, Campus Ciudad de México</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>media_name, media_type</t>
+  </si>
+  <si>
+    <t>in-review</t>
+  </si>
+  <si>
+    <t>ext-abs</t>
+  </si>
+  <si>
+    <t>problem-solving</t>
+  </si>
+  <si>
+    <t>audience</t>
+  </si>
+  <si>
+    <t>Audience</t>
+  </si>
+  <si>
+    <t>Workshop for the creation of scientific and artistic posters</t>
+  </si>
+  <si>
+    <t>audience, institution</t>
+  </si>
+  <si>
+    <t>Contest</t>
+  </si>
+  <si>
+    <t>ScienceFair</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>A great lion</t>
+  </si>
+  <si>
+    <t>Vector Art</t>
+  </si>
+  <si>
+    <t>/goes/to/lion.png</t>
+  </si>
+  <si>
+    <t>red, blue, green</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>media_name</t>
+  </si>
+  <si>
+    <t>role:lecturer</t>
+  </si>
+  <si>
+    <t>Defaults</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>links:[github]</t>
+  </si>
+  <si>
+    <t>links:[file]</t>
+  </si>
+  <si>
+    <t>links:[arxiv, doi, http]</t>
+  </si>
+  <si>
+    <t>date:[start_date, end_date]</t>
+  </si>
+  <si>
+    <t>Mexico City and Montpellier</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Beer Sheva, Israel</t>
+  </si>
+  <si>
+    <t>Mexico City, Mexico</t>
+  </si>
+  <si>
+    <t>Various locations</t>
+  </si>
+  <si>
+    <t>Queretaro, Mexico</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>Web Link</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Prueba2</t>
+  </si>
+  <si>
+    <t>Magazine</t>
+  </si>
+  <si>
+    <t>Newspaper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +1372,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -682,11 +1406,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -967,298 +1697,1793 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAE7294-192C-46DF-96EB-A7CACD84CB01}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4124AE-DF8A-4F61-BE3E-B761EBF17BD8}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19" t="s">
+        <v>381</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" t="s">
+        <v>372</v>
+      </c>
+      <c r="D24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>417</v>
+      </c>
+      <c r="B25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>369</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="G3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>2016</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>142</v>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>2014</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" t="s">
-        <v>117</v>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>2012</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" t="s">
         <v>119</v>
       </c>
-      <c r="D6" t="s">
-        <v>116</v>
+      <c r="C6">
+        <v>2016</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>2010</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>2015</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>2009</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8">
+        <v>2011</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9">
+        <v>2015</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10">
+        <v>2013</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>127</v>
       </c>
-      <c r="F8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>2011</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12">
+        <v>2016</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13">
+        <v>2010</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B9:H11">
+    <sortCondition descending="1" ref="C9:C11"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{905EA6D7-19FC-40A7-9776-023EBCA825B9}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{D02A8CA5-EDC0-4CAF-8C51-DF4FD7EEB47B}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{12AC93BA-BAD2-443D-93F3-0E0A59751E0F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9DC452-8FB8-48D7-9200-F8DA05DAADE9}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3">
+        <v>2015</v>
+      </c>
+      <c r="G3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4">
+        <v>2015</v>
+      </c>
+      <c r="G4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5">
+        <v>2014</v>
+      </c>
+      <c r="G5" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6">
+        <v>2011</v>
+      </c>
+      <c r="G6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7">
+        <v>2010</v>
+      </c>
+      <c r="G7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB14F89-81DD-48BF-BD72-6AB1ED9495A4}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>2015</v>
+      </c>
+      <c r="G6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7">
+        <v>2014</v>
+      </c>
+      <c r="G7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8">
+        <v>2014</v>
+      </c>
+      <c r="G8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9">
+        <v>2014</v>
+      </c>
+      <c r="G9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2008</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10">
+        <v>2014</v>
+      </c>
+      <c r="G10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>2007</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11">
+        <v>2014</v>
+      </c>
+      <c r="G11" t="s">
+        <v>294</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>2007</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12">
+        <v>2014</v>
+      </c>
+      <c r="G12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>307</v>
+      </c>
+      <c r="J12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>2006</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>116</v>
+      <c r="B13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13">
+        <v>2014</v>
+      </c>
+      <c r="G13" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I13" t="s">
+        <v>297</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" customWidth="1"/>
+    <col min="11" max="11" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>315</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>94</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>2017</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>2017</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>434</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6">
+        <v>82</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>2017</v>
+      </c>
+      <c r="E7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" t="s">
+        <v>435</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>2017</v>
+      </c>
+      <c r="E8" t="s">
+        <v>285</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>2016</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9">
+        <v>144</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>2016</v>
+      </c>
+      <c r="E10" t="s">
+        <v>403</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>2015</v>
+      </c>
+      <c r="E11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>2015</v>
+      </c>
+      <c r="E12" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2014</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13">
+        <v>145</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>2006</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>128</v>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>2013</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>404</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14">
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15">
+        <v>2015</v>
+      </c>
+      <c r="E15" t="s">
+        <v>283</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16">
+        <v>2011</v>
+      </c>
+      <c r="E16" t="s">
+        <v>283</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17">
+        <v>2014</v>
+      </c>
+      <c r="E17" t="s">
+        <v>405</v>
+      </c>
+      <c r="I17" t="s">
+        <v>270</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18">
+        <v>2015</v>
+      </c>
+      <c r="E18" t="s">
+        <v>405</v>
+      </c>
+      <c r="I18" t="s">
+        <v>270</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19">
+        <v>2015</v>
+      </c>
+      <c r="E19" t="s">
+        <v>405</v>
+      </c>
+      <c r="I19" t="s">
+        <v>270</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20">
+        <v>2015</v>
+      </c>
+      <c r="E20" t="s">
+        <v>405</v>
+      </c>
+      <c r="I20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21">
+        <v>2016</v>
+      </c>
+      <c r="E21" t="s">
+        <v>405</v>
+      </c>
+      <c r="I21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s">
+        <v>405</v>
+      </c>
+      <c r="I22" t="s">
+        <v>270</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s">
+        <v>405</v>
+      </c>
+      <c r="I23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s">
+        <v>405</v>
+      </c>
+      <c r="I24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
+        <v>405</v>
+      </c>
+      <c r="I25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L25">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:F14">
-    <sortCondition descending="1" ref="B3:B14"/>
+  <sortState ref="B3:O14">
+    <sortCondition descending="1" ref="L3:L14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1266,11 +3491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE156D2-7E33-4447-A53C-1EA25432072D}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAE7294-192C-46DF-96EB-A7CACD84CB01}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1280,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>369</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>384</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1303,22 +3528,399 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>2014</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>2012</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>2010</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>2009</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>2008</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>2007</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12">
+        <v>2007</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13">
+        <v>2006</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14">
+        <v>2006</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G3:K14">
+    <sortCondition descending="1" ref="G3:G14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11EA93F-BDC5-46A8-B62E-22B8B1091985}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>351</v>
+      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3">
+        <v>2012</v>
+      </c>
+      <c r="D3">
+        <v>2016</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G3" t="s">
+        <v>396</v>
+      </c>
+      <c r="H3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C4">
+        <v>2007</v>
+      </c>
+      <c r="D4">
+        <v>2011</v>
+      </c>
+      <c r="E4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5">
+        <v>2004</v>
+      </c>
+      <c r="D5">
+        <v>2007</v>
+      </c>
+      <c r="G5" t="s">
+        <v>400</v>
+      </c>
+      <c r="H5" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -1326,151 +3928,232 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24053F2-2CC5-4EAC-BEAB-64F1B89D9BFF}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>393</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2013</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>393</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
+        <v>71</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D5">
+        <v>2018</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
+        <v>73</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D6">
+        <v>2017</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" t="s">
-        <v>103</v>
+        <v>76</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D7">
+        <v>2014</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
+        <v>79</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D8">
+        <v>2013</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D9">
+        <v>2015</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1478,48 +4161,768 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04072B98-6DD0-4DEA-89F3-ADD9EED64B4B}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30D27AF-95C4-4435-9869-A417A9206028}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="37.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>2017</v>
+      </c>
+      <c r="D16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18">
+        <v>2013</v>
+      </c>
+      <c r="D18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19">
+        <v>2006</v>
+      </c>
+      <c r="D19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20">
+        <v>2014</v>
+      </c>
+      <c r="D20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21">
+        <v>2010</v>
+      </c>
+      <c r="D21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22">
+        <v>2012</v>
+      </c>
+      <c r="D22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23">
+        <v>2014</v>
+      </c>
+      <c r="D23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25">
+        <v>2010</v>
+      </c>
+      <c r="D25" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C26">
+        <v>2015</v>
+      </c>
+      <c r="D26" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27">
+        <v>2014</v>
+      </c>
+      <c r="D27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C28">
+        <v>2010</v>
+      </c>
+      <c r="D28" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29">
+        <v>2009</v>
+      </c>
+      <c r="D29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30">
+        <v>2008</v>
+      </c>
+      <c r="D30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>350</v>
+      </c>
+      <c r="C31">
+        <v>2008</v>
+      </c>
+      <c r="D31" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32">
+        <v>2015</v>
+      </c>
+      <c r="D32" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" t="s">
+        <v>405</v>
+      </c>
+      <c r="G32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F22342A-9809-473D-ADB1-AF47B630B508}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>369</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>384</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>407</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1527,28 +4930,101 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>385</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1556,28 +5032,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>2018</v>
-      </c>
-      <c r="G3">
-        <v>94</v>
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>2017</v>
+      </c>
+      <c r="F3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1585,25 +5052,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>2018</v>
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>2016</v>
+      </c>
+      <c r="F4" t="s">
+        <v>318</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1611,28 +5072,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>2017</v>
+        <v>172</v>
+      </c>
+      <c r="C5">
+        <v>2016</v>
+      </c>
+      <c r="F5" t="s">
+        <v>318</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1640,28 +5092,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>2017</v>
-      </c>
-      <c r="G6">
-        <v>82</v>
+        <v>173</v>
+      </c>
+      <c r="C6">
+        <v>2016</v>
+      </c>
+      <c r="F6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" t="s">
+        <v>182</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1669,19 +5115,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>2017</v>
+        <v>174</v>
+      </c>
+      <c r="C7">
+        <v>2015</v>
+      </c>
+      <c r="F7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1689,19 +5135,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8">
-        <v>2017</v>
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2014</v>
+      </c>
+      <c r="F8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1709,28 +5155,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <v>2016</v>
-      </c>
-      <c r="G9">
-        <v>144</v>
+        <v>175</v>
+      </c>
+      <c r="C9">
+        <v>2013</v>
+      </c>
+      <c r="F9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" t="s">
+        <v>338</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1738,49 +5175,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>2016</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>2014</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11">
-        <v>2015</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>60</v>
+        <v>189</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="F11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" t="s">
+        <v>193</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1788,28 +5215,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12">
-        <v>2015</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>61</v>
+        <v>189</v>
+      </c>
+      <c r="C12">
+        <v>2017</v>
+      </c>
+      <c r="F12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" t="s">
+        <v>192</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1817,28 +5235,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13">
-        <v>2014</v>
-      </c>
-      <c r="G13">
-        <v>145</v>
+        <v>195</v>
+      </c>
+      <c r="C13">
+        <v>2016</v>
+      </c>
+      <c r="F13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1846,28 +5258,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14">
-        <v>2013</v>
-      </c>
-      <c r="G14">
-        <v>44</v>
+        <v>195</v>
+      </c>
+      <c r="C14">
+        <v>2015</v>
+      </c>
+      <c r="F14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" t="s">
+        <v>177</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1875,19 +5281,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15">
+        <v>204</v>
+      </c>
+      <c r="C15">
         <v>2015</v>
+      </c>
+      <c r="F15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1895,42 +5304,630 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16">
+        <v>2014</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17">
+        <v>2013</v>
+      </c>
+      <c r="F17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" t="s">
+        <v>224</v>
+      </c>
+      <c r="I17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18">
+        <v>2013</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19">
+        <v>2013</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>230</v>
+      </c>
+      <c r="I19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20">
+        <v>2011</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>2015</v>
+      </c>
+      <c r="F21" t="s">
+        <v>317</v>
+      </c>
+      <c r="G21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" t="s">
+        <v>202</v>
+      </c>
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22">
+        <v>2015</v>
+      </c>
+      <c r="F22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23">
+        <v>2014</v>
+      </c>
+      <c r="F23" t="s">
+        <v>317</v>
+      </c>
+      <c r="G23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24">
+        <v>2014</v>
+      </c>
+      <c r="F24" t="s">
+        <v>317</v>
+      </c>
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25">
+        <v>2014</v>
+      </c>
+      <c r="F25" t="s">
+        <v>317</v>
+      </c>
+      <c r="G25" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" t="s">
         <v>197</v>
       </c>
-      <c r="D16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="1"/>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F22" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26">
+        <v>2014</v>
+      </c>
+      <c r="F26" t="s">
+        <v>317</v>
+      </c>
+      <c r="G26" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27">
+        <v>2014</v>
+      </c>
+      <c r="F27" t="s">
+        <v>317</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" t="s">
+        <v>221</v>
+      </c>
+      <c r="I27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28">
+        <v>2013</v>
+      </c>
+      <c r="F28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G28" t="s">
+        <v>337</v>
+      </c>
+      <c r="H28" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29">
+        <v>2013</v>
+      </c>
+      <c r="F29" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" t="s">
+        <v>336</v>
+      </c>
+      <c r="H29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30">
+        <v>2013</v>
+      </c>
+      <c r="F30" t="s">
+        <v>317</v>
+      </c>
+      <c r="G30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31">
+        <v>2012</v>
+      </c>
+      <c r="F31" t="s">
+        <v>317</v>
+      </c>
+      <c r="G31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32">
+        <v>2015</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" t="s">
+        <v>330</v>
+      </c>
+      <c r="I32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33">
+        <v>2015</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G33" t="s">
+        <v>225</v>
+      </c>
+      <c r="I33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34">
+        <v>2015</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G34" t="s">
+        <v>336</v>
+      </c>
+      <c r="H34" t="s">
+        <v>332</v>
+      </c>
+      <c r="I34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C35">
+        <v>2015</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G35" t="s">
+        <v>334</v>
+      </c>
+      <c r="I35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36">
+        <v>2014</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" t="s">
+        <v>335</v>
+      </c>
+      <c r="I36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37">
+        <v>2014</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G37" t="s">
+        <v>225</v>
+      </c>
+      <c r="I37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>324</v>
+      </c>
+      <c r="C38">
+        <v>2014</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>325</v>
+      </c>
+      <c r="C39">
+        <v>2013</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G39" t="s">
+        <v>337</v>
+      </c>
+      <c r="H39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>325</v>
+      </c>
+      <c r="C40">
+        <v>2012</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>326</v>
+      </c>
+      <c r="C41">
+        <v>2013</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s">
+        <v>339</v>
+      </c>
+      <c r="I41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C42">
+        <v>2013</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" t="s">
+        <v>340</v>
+      </c>
+      <c r="I42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>328</v>
+      </c>
+      <c r="C43">
+        <v>2013</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" t="s">
+        <v>343</v>
+      </c>
+      <c r="I43" t="s">
+        <v>342</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B3:I14">
-    <sortCondition descending="1" ref="F3:F14"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE156D2-7E33-4447-A53C-1EA25432072D}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1940,22 +5937,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>369</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>401</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>384</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1963,346 +5960,48 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>385</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3">
+        <v>2017</v>
+      </c>
+      <c r="D3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G3" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3">
-        <v>2018</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4">
-        <v>2018</v>
-      </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5">
-        <v>2017</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6">
-        <v>2016</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7">
-        <v>2015</v>
-      </c>
-      <c r="D7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8">
-        <v>2011</v>
-      </c>
-      <c r="D8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9">
-        <v>2015</v>
-      </c>
-      <c r="D9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10">
-        <v>2013</v>
-      </c>
-      <c r="D10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11">
-        <v>2011</v>
-      </c>
-      <c r="D11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12">
-        <v>2016</v>
-      </c>
-      <c r="D12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13">
-        <v>2010</v>
-      </c>
-      <c r="D13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="2"/>
-    </row>
-  </sheetData>
-  <sortState ref="B9:G11">
-    <sortCondition descending="1" ref="C9:C11"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1" xr:uid="{905EA6D7-19FC-40A7-9776-023EBCA825B9}"/>
-    <hyperlink ref="G10" r:id="rId2" xr:uid="{D02A8CA5-EDC0-4CAF-8C51-DF4FD7EEB47B}"/>
-    <hyperlink ref="G9" r:id="rId3" xr:uid="{12AC93BA-BAD2-443D-93F3-0E0A59751E0F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-</worksheet>
 </file>
--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="714" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="714" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="477">
   <si>
     <t>ID</t>
   </si>
@@ -732,12 +732,6 @@
     <t>role</t>
   </si>
   <si>
-    <t>professor</t>
-  </si>
-  <si>
-    <t>undergraduate</t>
-  </si>
-  <si>
     <t>Seminar on Problem Solving Techniques</t>
   </si>
   <si>
@@ -750,9 +744,6 @@
     <t>2011-2</t>
   </si>
   <si>
-    <t>ta</t>
-  </si>
-  <si>
     <t>Mathematical Analysis</t>
   </si>
   <si>
@@ -792,21 +783,12 @@
     <t>2012-1</t>
   </si>
   <si>
-    <t>student</t>
-  </si>
-  <si>
     <t>Stanford University</t>
   </si>
   <si>
-    <t>highschool</t>
-  </si>
-  <si>
     <t>Stanford University Mathematics Camp</t>
   </si>
   <si>
-    <t>technical</t>
-  </si>
-  <si>
     <t>A new perspective on four classical theorems in additive number theory</t>
   </si>
   <si>
@@ -817,9 +799,6 @@
   </si>
   <si>
     <t>Translation and making of educational videos using a pen tablet</t>
-  </si>
-  <si>
-    <t>olympiad</t>
   </si>
   <si>
     <t>Course for coaches for the Mexican Mathematical Olympiad</t>
@@ -1273,18 +1252,9 @@
     <t>Lion</t>
   </si>
   <si>
-    <t>A great lion</t>
-  </si>
-  <si>
     <t>Vector Art</t>
   </si>
   <si>
-    <t>/goes/to/lion.png</t>
-  </si>
-  <si>
-    <t>red, blue, green</t>
-  </si>
-  <si>
     <t>Book</t>
   </si>
   <si>
@@ -1346,6 +1316,153 @@
   </si>
   <si>
     <t>Newspaper</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>undergraduate, given</t>
+  </si>
+  <si>
+    <t>highschool, taken</t>
+  </si>
+  <si>
+    <t>olympiad, given</t>
+  </si>
+  <si>
+    <t>undergraduate, taken</t>
+  </si>
+  <si>
+    <t>olympiad, taken</t>
+  </si>
+  <si>
+    <t>problem-solving, given</t>
+  </si>
+  <si>
+    <t>California, USA</t>
+  </si>
+  <si>
+    <t>Oaxaca, Mexico</t>
+  </si>
+  <si>
+    <t>Guanajuato, Mexico</t>
+  </si>
+  <si>
+    <t>Aguascalientes, Mexico</t>
+  </si>
+  <si>
+    <t>Campeche, Mexico</t>
+  </si>
+  <si>
+    <t>Teaching Assistant</t>
+  </si>
+  <si>
+    <t>2008+</t>
+  </si>
+  <si>
+    <t>I ate 100 tacos</t>
+  </si>
+  <si>
+    <t>tacos, eating</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Devourer</t>
+  </si>
+  <si>
+    <t>Hungry and fat</t>
+  </si>
+  <si>
+    <t>Eating tacos fair</t>
+  </si>
+  <si>
+    <t>Taco AC</t>
+  </si>
+  <si>
+    <t>Eating tacos olympiad</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>I made 100 tacos</t>
+  </si>
+  <si>
+    <t>red, blue, green, drawing</t>
+  </si>
+  <si>
+    <t>blue, gray, black, drawing</t>
+  </si>
+  <si>
+    <t>Man with Hat</t>
+  </si>
+  <si>
+    <t>Cat in Wall</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>Husky</t>
+  </si>
+  <si>
+    <t>Viena</t>
+  </si>
+  <si>
+    <t>/static/images/lion.png</t>
+  </si>
+  <si>
+    <t>/static/images/manhat.png</t>
+  </si>
+  <si>
+    <t>/static/images/catwall.png</t>
+  </si>
+  <si>
+    <t>/static/images/girl.png</t>
+  </si>
+  <si>
+    <t>/static/images/husky.png</t>
+  </si>
+  <si>
+    <t>/static/images/viena.png</t>
+  </si>
+  <si>
+    <t>drawing</t>
+  </si>
+  <si>
+    <t>Map-man</t>
+  </si>
+  <si>
+    <t>/static/stories/mapman.txt</t>
+  </si>
+  <si>
+    <t>short-story</t>
+  </si>
+  <si>
+    <t>Beer-Sheva Blues</t>
+  </si>
+  <si>
+    <t>/static/scores/score.pdf</t>
+  </si>
+  <si>
+    <t>music, blues</t>
+  </si>
+  <si>
+    <t>Reloj</t>
+  </si>
+  <si>
+    <t>Piano</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>youtube, music</t>
   </si>
 </sst>
 </file>
@@ -1700,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4124AE-DF8A-4F61-BE3E-B761EBF17BD8}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1714,105 +1831,105 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
@@ -1820,125 +1937,125 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C15" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C16" t="s">
+        <v>402</v>
+      </c>
+      <c r="D16" t="s">
         <v>409</v>
-      </c>
-      <c r="D16" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B22" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C22" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B23" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C23" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C24" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D24" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B25" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B28" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1948,17 +2065,17 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -1984,16 +2101,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G1" t="s">
         <v>135</v>
@@ -2007,16 +2124,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G2" t="s">
         <v>129</v>
@@ -2304,22 +2421,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2330,22 +2447,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2353,13 +2470,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C3">
         <v>2015</v>
       </c>
       <c r="G3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H3" t="s">
         <v>212</v>
@@ -2370,13 +2487,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C4">
         <v>2015</v>
       </c>
       <c r="G4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H4" t="s">
         <v>87</v>
@@ -2387,13 +2504,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C5">
         <v>2014</v>
       </c>
       <c r="G5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H5" t="s">
         <v>69</v>
@@ -2404,13 +2521,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C6">
         <v>2011</v>
       </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H6" t="s">
         <v>212</v>
@@ -2421,13 +2538,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C7">
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H7" t="s">
         <v>212</v>
@@ -2442,7 +2559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB14F89-81DD-48BF-BD72-6AB1ED9495A4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2459,28 +2576,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="J1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2491,28 +2608,28 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="J2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2520,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C3" s="2">
         <v>2015</v>
@@ -2529,16 +2646,16 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J3" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2546,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C4" s="2">
         <v>2015</v>
@@ -2555,14 +2672,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J4" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2570,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C5" s="2">
         <v>2015</v>
@@ -2579,14 +2696,14 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J5" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2594,22 +2711,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C6">
         <v>2015</v>
       </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J6" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2617,20 +2734,20 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C7">
         <v>2014</v>
       </c>
       <c r="G7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2638,22 +2755,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C8">
         <v>2014</v>
       </c>
       <c r="G8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J8" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2661,22 +2778,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C9">
         <v>2014</v>
       </c>
       <c r="G9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J9" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2684,20 +2801,20 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C10">
         <v>2014</v>
       </c>
       <c r="G10" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J10" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2705,20 +2822,20 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C11">
         <v>2014</v>
       </c>
       <c r="G11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J11" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2726,22 +2843,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C12">
         <v>2014</v>
       </c>
       <c r="G12" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H12" t="s">
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J12" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2749,22 +2866,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C13">
         <v>2014</v>
       </c>
       <c r="G13" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I13" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -2799,28 +2916,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -2840,28 +2957,28 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
@@ -2913,7 +3030,7 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
@@ -2974,7 +3091,7 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I6" t="s">
         <v>33</v>
@@ -3000,10 +3117,10 @@
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -3024,7 +3141,7 @@
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
@@ -3073,7 +3190,7 @@
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>43</v>
@@ -3095,7 +3212,7 @@
         <v>2015</v>
       </c>
       <c r="E11" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
@@ -3125,7 +3242,7 @@
         <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -3184,7 +3301,7 @@
         <v>2013</v>
       </c>
       <c r="E14" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -3214,7 +3331,7 @@
         <v>2015</v>
       </c>
       <c r="E15" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I15" t="s">
         <v>167</v>
@@ -3237,7 +3354,7 @@
         <v>2011</v>
       </c>
       <c r="E16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I16" t="s">
         <v>168</v>
@@ -3254,23 +3371,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C17">
         <v>2014</v>
       </c>
       <c r="E17" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I17" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L17" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -3278,23 +3395,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C18">
         <v>2015</v>
       </c>
       <c r="E18" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I18" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L18" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -3302,23 +3419,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C19">
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I19" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L19" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -3326,23 +3443,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C20">
         <v>2015</v>
       </c>
       <c r="E20" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -3350,23 +3467,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C21">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I21" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L21" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -3374,21 +3491,21 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C22" s="2">
         <v>2017</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I22" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>38</v>
@@ -3399,14 +3516,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C23" s="2">
         <v>2011</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I23" t="s">
         <v>168</v>
@@ -3415,13 +3532,13 @@
         <v>69</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -3429,14 +3546,14 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C24" s="2">
         <v>2011</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I24" t="s">
         <v>168</v>
@@ -3445,13 +3562,13 @@
         <v>69</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -3459,14 +3576,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C25" s="2">
         <v>2011</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I25" t="s">
         <v>168</v>
@@ -3475,7 +3592,7 @@
         <v>87</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L25">
         <v>52</v>
@@ -3508,13 +3625,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F1" t="s">
         <v>82</v>
@@ -3531,13 +3648,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
         <v>83</v>
@@ -3813,16 +3930,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -3839,16 +3956,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -3862,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C3">
         <v>2012</v>
@@ -3871,13 +3988,13 @@
         <v>2016</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H3" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -3885,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C4">
         <v>2007</v>
@@ -3894,13 +4011,13 @@
         <v>2011</v>
       </c>
       <c r="E4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G4" t="s">
         <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3908,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C5">
         <v>2004</v>
@@ -3917,10 +4034,10 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="H5" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3946,16 +4063,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -3972,16 +4089,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -4001,7 +4118,7 @@
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E3" t="s">
         <v>160</v>
@@ -4010,7 +4127,7 @@
         <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4024,7 +4141,7 @@
         <v>2013</v>
       </c>
       <c r="D4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -4033,7 +4150,7 @@
         <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4056,7 +4173,7 @@
         <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4079,7 +4196,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4102,7 +4219,7 @@
         <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4125,7 +4242,7 @@
         <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4133,7 +4250,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C9" s="2">
         <v>2014</v>
@@ -4142,13 +4259,13 @@
         <v>2015</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G9" t="s">
         <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4163,15 +4280,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04072B98-6DD0-4DEA-89F3-ADD9EED64B4B}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4179,25 +4296,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
-        <v>384</v>
-      </c>
       <c r="F1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>231</v>
       </c>
-      <c r="H1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4205,22 +4325,83 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
-        <v>385</v>
-      </c>
       <c r="F2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" t="s">
         <v>61</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>232</v>
       </c>
-      <c r="H2" t="s">
-        <v>406</v>
+      <c r="I2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3">
+        <v>2010</v>
+      </c>
+      <c r="D3">
+        <v>2012</v>
+      </c>
+      <c r="E3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4">
+        <v>2010</v>
+      </c>
+      <c r="D4">
+        <v>2012</v>
+      </c>
+      <c r="E4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I4" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4230,10 +4411,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30D27AF-95C4-4435-9869-A417A9206028}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4249,13 +4430,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
         <v>231</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -4272,13 +4453,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
         <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -4292,16 +4473,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F3" t="s">
+        <v>419</v>
       </c>
       <c r="G3" t="s">
         <v>212</v>
@@ -4312,16 +4496,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
         <v>235</v>
       </c>
-      <c r="C4" t="s">
-        <v>237</v>
-      </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F4" t="s">
+        <v>419</v>
       </c>
       <c r="G4" t="s">
         <v>212</v>
@@ -4332,16 +4519,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F5" t="s">
+        <v>419</v>
       </c>
       <c r="G5" t="s">
         <v>212</v>
@@ -4352,16 +4542,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F6" t="s">
+        <v>419</v>
       </c>
       <c r="G6" t="s">
         <v>212</v>
@@ -4372,16 +4565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F7" t="s">
+        <v>419</v>
       </c>
       <c r="G7" t="s">
         <v>212</v>
@@ -4392,16 +4588,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F8" t="s">
+        <v>419</v>
       </c>
       <c r="G8" t="s">
         <v>212</v>
@@ -4412,16 +4611,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F9" t="s">
+        <v>419</v>
       </c>
       <c r="G9" t="s">
         <v>212</v>
@@ -4432,16 +4634,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F10" t="s">
+        <v>419</v>
       </c>
       <c r="G10" t="s">
         <v>212</v>
@@ -4452,16 +4657,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F11" t="s">
+        <v>419</v>
       </c>
       <c r="G11" t="s">
         <v>212</v>
@@ -4472,16 +4680,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F12" t="s">
+        <v>419</v>
       </c>
       <c r="G12" t="s">
         <v>212</v>
@@ -4492,16 +4703,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F13" t="s">
+        <v>419</v>
       </c>
       <c r="G13" t="s">
         <v>212</v>
@@ -4512,16 +4726,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F14" t="s">
+        <v>419</v>
       </c>
       <c r="G14" t="s">
         <v>212</v>
@@ -4532,16 +4749,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F15" t="s">
+        <v>419</v>
       </c>
       <c r="G15" t="s">
         <v>212</v>
@@ -4558,13 +4778,16 @@
         <v>2017</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F16" t="s">
+        <v>421</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -4572,16 +4795,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E17" t="s">
-        <v>234</v>
+        <v>430</v>
+      </c>
+      <c r="F17" t="s">
+        <v>421</v>
       </c>
       <c r="G17" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -4589,19 +4815,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C18">
         <v>2013</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E18" t="s">
-        <v>257</v>
+        <v>430</v>
+      </c>
+      <c r="F18" t="s">
+        <v>419</v>
       </c>
       <c r="G18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -4609,19 +4838,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C19">
         <v>2006</v>
       </c>
       <c r="D19" t="s">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>431</v>
+      </c>
+      <c r="F19" t="s">
+        <v>436</v>
       </c>
       <c r="G19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -4629,19 +4861,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C20">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E20" t="s">
-        <v>262</v>
+        <v>432</v>
+      </c>
+      <c r="F20" t="s">
+        <v>437</v>
       </c>
       <c r="G20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -4649,16 +4884,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C21">
         <v>2010</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E21" t="s">
-        <v>262</v>
+        <v>432</v>
+      </c>
+      <c r="F21" t="s">
+        <v>438</v>
       </c>
       <c r="G21" t="s">
         <v>223</v>
@@ -4669,16 +4907,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C22">
         <v>2012</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E22" t="s">
-        <v>262</v>
+        <v>432</v>
+      </c>
+      <c r="F22" t="s">
+        <v>438</v>
       </c>
       <c r="G22" t="s">
         <v>223</v>
@@ -4689,16 +4930,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C23">
         <v>2014</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E23" t="s">
-        <v>262</v>
+        <v>432</v>
+      </c>
+      <c r="F23" t="s">
+        <v>438</v>
       </c>
       <c r="G23" t="s">
         <v>223</v>
@@ -4709,16 +4953,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C24" t="s">
-        <v>267</v>
+        <v>442</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E24" t="s">
-        <v>262</v>
+        <v>432</v>
+      </c>
+      <c r="F24" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -4726,19 +4976,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C25">
         <v>2010</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E25" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" t="s">
+        <v>439</v>
+      </c>
+      <c r="G25" t="s">
         <v>262</v>
-      </c>
-      <c r="G25" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -4746,16 +4999,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C26">
         <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>433</v>
+      </c>
+      <c r="F26" t="s">
+        <v>421</v>
       </c>
       <c r="G26" t="s">
         <v>223</v>
@@ -4766,16 +5022,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C27">
         <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
+        <v>433</v>
+      </c>
+      <c r="F27" t="s">
+        <v>438</v>
       </c>
       <c r="G27" t="s">
         <v>223</v>
@@ -4786,16 +5045,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C28">
         <v>2010</v>
       </c>
       <c r="D28" t="s">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
+        <v>433</v>
+      </c>
+      <c r="F28" t="s">
+        <v>438</v>
       </c>
       <c r="G28" t="s">
         <v>223</v>
@@ -4806,16 +5068,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C29">
         <v>2009</v>
       </c>
       <c r="D29" t="s">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="E29" t="s">
-        <v>262</v>
+        <v>434</v>
+      </c>
+      <c r="F29" t="s">
+        <v>438</v>
       </c>
       <c r="G29" t="s">
         <v>223</v>
@@ -4826,19 +5091,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C30">
         <v>2008</v>
       </c>
       <c r="D30" t="s">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>262</v>
+        <v>434</v>
+      </c>
+      <c r="F30" t="s">
+        <v>440</v>
       </c>
       <c r="G30" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -4846,16 +5114,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C31">
         <v>2008</v>
       </c>
       <c r="D31" t="s">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="E31" t="s">
-        <v>262</v>
+        <v>434</v>
+      </c>
+      <c r="F31" t="s">
+        <v>438</v>
       </c>
       <c r="G31" t="s">
         <v>223</v>
@@ -4866,20 +5137,26 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C32">
         <v>2015</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E32" t="s">
-        <v>405</v>
+        <v>435</v>
+      </c>
+      <c r="F32" t="s">
+        <v>421</v>
       </c>
       <c r="G32" t="s">
         <v>229</v>
       </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4888,10 +5165,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F22342A-9809-473D-ADB1-AF47B630B508}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4904,13 +5181,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -4919,7 +5196,7 @@
         <v>231</v>
       </c>
       <c r="H1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I1" t="s">
         <v>82</v>
@@ -4933,13 +5210,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -4948,10 +5225,39 @@
         <v>232</v>
       </c>
       <c r="H2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3">
+        <v>2011</v>
+      </c>
+      <c r="D3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H3" t="s">
+        <v>447</v>
+      </c>
+      <c r="I3" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4977,22 +5283,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I1" t="s">
         <v>82</v>
@@ -5006,22 +5312,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -5038,7 +5344,7 @@
         <v>2017</v>
       </c>
       <c r="F3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G3" t="s">
         <v>178</v>
@@ -5058,7 +5364,7 @@
         <v>2016</v>
       </c>
       <c r="F4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G4" t="s">
         <v>177</v>
@@ -5078,7 +5384,7 @@
         <v>2016</v>
       </c>
       <c r="F5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G5" t="s">
         <v>85</v>
@@ -5098,7 +5404,7 @@
         <v>2016</v>
       </c>
       <c r="F6" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G6" t="s">
         <v>182</v>
@@ -5121,7 +5427,7 @@
         <v>2015</v>
       </c>
       <c r="F7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G7" t="s">
         <v>184</v>
@@ -5141,7 +5447,7 @@
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G8" t="s">
         <v>186</v>
@@ -5161,10 +5467,10 @@
         <v>2013</v>
       </c>
       <c r="F9" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G9" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H9" t="s">
         <v>183</v>
@@ -5359,7 +5665,7 @@
         <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H18" t="s">
         <v>228</v>
@@ -5425,7 +5731,7 @@
         <v>2015</v>
       </c>
       <c r="F21" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G21" t="s">
         <v>203</v>
@@ -5448,7 +5754,7 @@
         <v>2015</v>
       </c>
       <c r="F22" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G22" t="s">
         <v>177</v>
@@ -5468,7 +5774,7 @@
         <v>2014</v>
       </c>
       <c r="F23" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G23" t="s">
         <v>210</v>
@@ -5491,7 +5797,7 @@
         <v>2014</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G24" t="s">
         <v>101</v>
@@ -5514,7 +5820,7 @@
         <v>2014</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G25" t="s">
         <v>216</v>
@@ -5537,7 +5843,7 @@
         <v>2014</v>
       </c>
       <c r="F26" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G26" t="s">
         <v>219</v>
@@ -5557,7 +5863,7 @@
         <v>2014</v>
       </c>
       <c r="F27" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G27" t="s">
         <v>89</v>
@@ -5580,10 +5886,10 @@
         <v>2013</v>
       </c>
       <c r="F28" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G28" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H28" t="s">
         <v>202</v>
@@ -5603,10 +5909,10 @@
         <v>2013</v>
       </c>
       <c r="F29" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G29" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H29" t="s">
         <v>218</v>
@@ -5623,7 +5929,7 @@
         <v>2013</v>
       </c>
       <c r="F30" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G30" t="s">
         <v>101</v>
@@ -5646,7 +5952,7 @@
         <v>2012</v>
       </c>
       <c r="F31" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G31" t="s">
         <v>89</v>
@@ -5663,19 +5969,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C32">
         <v>2015</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G32" t="s">
         <v>207</v>
       </c>
       <c r="H32" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I32" t="s">
         <v>205</v>
@@ -5686,13 +5992,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C33">
         <v>2015</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G33" t="s">
         <v>225</v>
@@ -5706,22 +6012,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C34">
         <v>2015</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" t="s">
         <v>329</v>
       </c>
-      <c r="G34" t="s">
-        <v>336</v>
-      </c>
       <c r="H34" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="I34" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5729,19 +6035,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C35">
         <v>2015</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G35" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I35" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5749,19 +6055,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C36">
         <v>2014</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G36" t="s">
         <v>101</v>
       </c>
       <c r="H36" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I36" t="s">
         <v>197</v>
@@ -5772,13 +6078,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C37">
         <v>2014</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G37" t="s">
         <v>225</v>
@@ -5792,19 +6098,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C38">
         <v>2014</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G38" t="s">
         <v>177</v>
       </c>
       <c r="I38" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5812,16 +6118,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C39">
         <v>2013</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G39" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H39" t="s">
         <v>202</v>
@@ -5832,13 +6138,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C40">
         <v>2012</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G40" t="s">
         <v>89</v>
@@ -5852,22 +6158,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C41">
         <v>2013</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
         <v>89</v>
       </c>
       <c r="H41" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I41" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5875,19 +6181,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C42">
         <v>2013</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G42" t="s">
         <v>101</v>
       </c>
       <c r="H42" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I42" t="s">
         <v>197</v>
@@ -5898,22 +6204,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C43">
         <v>2013</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G43" t="s">
         <v>101</v>
       </c>
       <c r="H43" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I43" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5924,10 +6230,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE156D2-7E33-4447-A53C-1EA25432072D}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5940,16 +6246,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G1" t="s">
         <v>64</v>
@@ -5963,16 +6269,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G2" t="s">
         <v>65</v>
@@ -5983,25 +6289,180 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C3">
         <v>2017</v>
       </c>
-      <c r="D3" t="s">
-        <v>413</v>
-      </c>
       <c r="E3" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="F3" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="G3" t="s">
-        <v>414</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4">
+        <v>2017</v>
+      </c>
+      <c r="E4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5">
+        <v>2017</v>
+      </c>
+      <c r="E5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6">
+        <v>2017</v>
+      </c>
+      <c r="E6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7">
+        <v>2017</v>
+      </c>
+      <c r="E7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8">
+        <v>2017</v>
+      </c>
+      <c r="E8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="E9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G11" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="511">
   <si>
     <t>ID</t>
   </si>
@@ -378,15 +378,6 @@
     <t>Research Fellow at Sistema Nacional de Investigadores in Mexico</t>
   </si>
   <si>
-    <t>GH1</t>
-  </si>
-  <si>
-    <t>GH2</t>
-  </si>
-  <si>
-    <t>GH3</t>
-  </si>
-  <si>
     <t>Python scripts to create the official webpage of the Asian Pacific Mathematical Olympiad for the period 2016 - 2018. It includes functions to create problem difficulty statistics and plots.</t>
   </si>
   <si>
@@ -396,15 +387,9 @@
     <t>Collect Definitions</t>
   </si>
   <si>
-    <t>GH4</t>
-  </si>
-  <si>
     <t>Golden Cookie Clicker</t>
   </si>
   <si>
-    <t>GH5</t>
-  </si>
-  <si>
     <t>Object Oriented library for managing a Curriculum Vitae from an .xlsx file. Implements basically everything that you can see in this page.</t>
   </si>
   <si>
@@ -435,9 +420,6 @@
     <t>VII CIIM Website</t>
   </si>
   <si>
-    <t>SNI Conacyt</t>
-  </si>
-  <si>
     <t>Technologies</t>
   </si>
   <si>
@@ -483,9 +465,6 @@
     <t>Data visualization project on the information of the researchers at Conacyt in Mexico.</t>
   </si>
   <si>
-    <t>The official webpage for the Mathematical Olympiad of Mexico City from 2010 to 2013 (check).</t>
-  </si>
-  <si>
     <t>webdev</t>
   </si>
   <si>
@@ -498,9 +477,6 @@
     <t>WordPress, HTML, CSS, FTP, SSH, Nirvana</t>
   </si>
   <si>
-    <t>This is an image detection project. In the game &lt;a href="http://orteil.dashnet.org/cookieclicker/" target="_blank"&gt; Cookie Clicker&lt;/a&gt; there is a golden cookie that appears from time to time and boosts the cookie production. It is one of the few mechanics that require that the user is paying attention. This is a Python bot that automatically clicks on a golden cookie when it appears.</t>
-  </si>
-  <si>
     <t>Flask webapp to create a personal/professional page using a CV managed with CV Utilities. This personal page is created itself with PyPersonalPage!</t>
   </si>
   <si>
@@ -574,9 +550,6 @@
   </si>
   <si>
     <t>Charles University</t>
-  </si>
-  <si>
-    <t>Mathematics of Jiri Matousek</t>
   </si>
   <si>
     <t>Prague, Czech Republic</t>
@@ -1306,12 +1279,6 @@
     <t>Web Link</t>
   </si>
   <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>Prueba2</t>
-  </si>
-  <si>
     <t>Magazine</t>
   </si>
   <si>
@@ -1447,15 +1414,9 @@
     <t>Beer-Sheva Blues</t>
   </si>
   <si>
-    <t>/static/scores/score.pdf</t>
-  </si>
-  <si>
     <t>music, blues</t>
   </si>
   <si>
-    <t>Reloj</t>
-  </si>
-  <si>
     <t>Piano</t>
   </si>
   <si>
@@ -1463,6 +1424,159 @@
   </si>
   <si>
     <t>youtube, music</t>
+  </si>
+  <si>
+    <t>A sunflower anti-Ramsey theorem and its applications</t>
+  </si>
+  <si>
+    <t>L. Martínez-Sandoval, M. Raggi, E. Roldán-Pensado</t>
+  </si>
+  <si>
+    <t>http://universo.math.org.mx/2014-3/baul-I/baul-I.html</t>
+  </si>
+  <si>
+    <t>http://universo.math.org.mx/2015-1/Baul-II/baul-II.html</t>
+  </si>
+  <si>
+    <t>http://universo.math.org.mx/2015-2/Baul-III/baul-III.html</t>
+  </si>
+  <si>
+    <t>http://universo.math.org.mx/2015-3/Baul-IV/baul-IV.html</t>
+  </si>
+  <si>
+    <t>http://www.miscelaneamatematica.org/Misc52/5203.pdf</t>
+  </si>
+  <si>
+    <t>/static/slides/GeoHall-Monte-Verita.pdf</t>
+  </si>
+  <si>
+    <t>/static/slides/Nac2015-Chapala-Cartas.pdf</t>
+  </si>
+  <si>
+    <t>/static/slides/ColOaxNov2015.pdf</t>
+  </si>
+  <si>
+    <t>Laussane, Switzerland</t>
+  </si>
+  <si>
+    <t>Snakes, lattice path matroids and a conjecture by Merino and Welsh</t>
+  </si>
+  <si>
+    <t>EPFL</t>
+  </si>
+  <si>
+    <t>DCG-DIOSPT Seminar</t>
+  </si>
+  <si>
+    <t>/static/slides/Family-Depth-TAU.pdf</t>
+  </si>
+  <si>
+    <t>Tel Aviv, Israel</t>
+  </si>
+  <si>
+    <t>Computational Geometry Seminar</t>
+  </si>
+  <si>
+    <t>Tel Aviv University</t>
+  </si>
+  <si>
+    <t>/static/slides/KaleidoscopeCircunradios.pdf</t>
+  </si>
+  <si>
+    <t>UNAM</t>
+  </si>
+  <si>
+    <t>Malmö University</t>
+  </si>
+  <si>
+    <t>Mathematics of Jiri Matousek (poster)</t>
+  </si>
+  <si>
+    <t>/static/slides/KneserMatousek.pdf</t>
+  </si>
+  <si>
+    <t>/static/slides/EPFL-LPM.pdf</t>
+  </si>
+  <si>
+    <t>/static/slides/LAGOS-Turan-Prop.pdf</t>
+  </si>
+  <si>
+    <t>/static/slides/MWLPM.pdf</t>
+  </si>
+  <si>
+    <t>/static/slides/MetodoProbabilista.pdf</t>
+  </si>
+  <si>
+    <t>Personal and Professional Page</t>
+  </si>
+  <si>
+    <t>http://www.nekomath.com</t>
+  </si>
+  <si>
+    <t>leomtz/personalpage</t>
+  </si>
+  <si>
+    <t>python, webdev</t>
+  </si>
+  <si>
+    <t>Computational vision project. In the game &lt;a href="http://orteil.dashnet.org/cookieclicker/" target="_blank"&gt; Cookie Clicker&lt;/a&gt; there is a golden cookie that appears at random times on screen. Clicking on it boosts the cookie production but requires constant attention of the user. This Python bot automatically clicks on it when it appears.</t>
+  </si>
+  <si>
+    <t>This page. Dynamically generated and served by Flask + openpyxl</t>
+  </si>
+  <si>
+    <t>The official webpage for the Mathematical Olympiad of Mexico City between 2010-2013</t>
+  </si>
+  <si>
+    <t>Geometry and Combinatorics Seminar</t>
+  </si>
+  <si>
+    <t>Candidatura a Presidencia SMM</t>
+  </si>
+  <si>
+    <t>En el marco de la Olimpiada Mexicana de Matemáticas</t>
+  </si>
+  <si>
+    <t>Seminario de Combinatoria y Probabilidad</t>
+  </si>
+  <si>
+    <t>Feria de las matemáticas</t>
+  </si>
+  <si>
+    <t>Géométrie, Topologie et Algèbre</t>
+  </si>
+  <si>
+    <t>SNI Conacyt Visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentado bajo el viejo sauce retorcido donde descubrí mis poderes, miré una vez más la minúscula cantidad de ceros que tenía el cheque expedido por la Súper Escuadra Heroica. Recordé con forzada nostalgia la breve docena de años en que mi visión hyperterrenal me permitió realizar hazañas consideradas como espectaculares como cerrar los párpados para describir la geografía precisa de mis alrededores y trazar caminos óptimos entre dos puntos lejanos con la facilidad con la que un universitario resuelve un laberinto para niños en la caja del cereal.&lt;br&gt;&lt;br&gt;
+Las cosas no habían salido como pensaba. Ser Mapman parecía tener un perfil de bajo riesgo. A diferencia de los héroes al frente de la línea de batalla, yo era partícipe principalmente de las reuniones de táctica y estrategia. Tras hacer mis cuentas a lápiz y calculadora, había concluido que podía permanecer activo como hasta los sesenta o sesenta y cinco, después de lo cual la Súper Escuadra Heroica me otorgaría una pensión nada despreciable. Pero tras el recorte efectuado en la institución debido a una serie de legislaciones vendidas por políticos como una prometedora reforma tecnológica, las entidades como la Súper Escuadra Heroica no sólo tenían permiso, sino incluso jugosos estímulos fiscales para substituir a sus empleados por algoritmos, computadoras y toscos robots humanoides que, aunque fueran más feos, eran más eficientes.&lt;br&gt;&lt;br&gt;
+A falta de habilidades de liderazgo (como las de mi colega Smartman), de una fisionomía sorprendente (como la de Bigman) o de llamativos poderes de colores (como los de Flameboy o Sparkgirl), me encontré en una precaria situación laboral. Había pocos empleos que coincidieran con mi particular capacidad. Sólo pude circular de rojo con un desgastado crayón bicolor dos ofertas de empleo en el periódico que había arrugado por frustración y tirado junto al sauce.&lt;br&gt;
+“SUPÉRATE DE UNA VEZ. ESTAMOS CONTRATANDO CONDUCTORES DE CAMION EFICIENTES. ENTREGAS EN MÚLTIPLES CIUDADES DEL PAÍS. LLÁMANOS.”&lt;br&gt;&lt;br&gt;
+“SE BUSCA. PERSONAL DE AMBOS SEXOS. QUE CONOZCA BIEN LA CIUDAD. MOTO PROPIA PARA ENTREGAS A DOMICILIO. DISPUESTO A TOMAR RESPONSABILIDAD POR ENTREGAS TARDÍAS. CUATRO SALARIOS MÍNIMOS Y PRESTACIONES DE LEY”&lt;br&gt;&lt;br&gt;
+Suspiré ampliamente, recogí el periódico y llamé al primer aviso. Me ofrecieron conducir camiones para entregas de modernas partes robóticas de Compucorp. Lo rechacé sin dudarlo un segundo, pues desde mi despido me había logrado convencer de que nunca contribuiría con la industria que ahora llamaba “la pertubadora asesina laboral”. Por una razón similar me convencí de tomar el segundo empleo en un restaurante tradicional llamado Pizzaplace, donde la misión de los visionaros dueños se basaba en “Ofrecer un producto con los más altos estándares de calidad mediante una cálida interacción humana”. Canjeé mi cheque por una moto de segunda mano, un casco y un atuendo “buisness-casual” para la entrevista de trabajo. Literal y metafóricamente, pasé el examen con los ojos cerrados.&lt;br&gt;&lt;br&gt;
+Pasaron dos años y Mapman nunca tuvo un retraso. En reuniones con sus maravillosos compañeros de antaño se congratulaba al describir su trayectoria perfecta. Presumía sin un sólo gramo de modestia las tres ocasiones en las que fue el empleado del mes y aprovechaba cada ocasión para contrastar las tristes pizzas de recetas automatizadas que a veces comían con la perfecta salsa de tomate que el chef de Pizzaplace se levantaba a preparar desde las cuatro de la mañana. Mapman había dejado atrás su depresión y había desarrollado una gran seguridad en sí mismo. Era feliz y estaba seguro de que merecía una gran vida.&lt;br&gt;&lt;br&gt;
+El gran trabajo de Mapman le dio a la pizzería un auge de popularidad espectacular. El fenómeno llegó a tal grado que un importante y agradable Científico Ejecutivo de Compucorp llamó para pedir la famosa receta de champiñones con emmental en su versión familiar. Al enterarse de a dónde había que entregar el manjar, Mapman dudó en querer realizar la entrega. Pero el amplio sentido de responsabilidad que había desarrollado en la Súper Escuadra Heroica y su deseo por mantener impecable su récord pesaron más en la balanza. Subió a la moto y en un abrir y cerrar de ojos llegó a las magníficas y modernas instalaciones de la antagónica corporación.&lt;br&gt;&lt;br&gt;
+El Científico Ejecutivo no lo podía creer. Por pura curiosidad, hábito del oficio, había decidido medir el tiempo de entrega. Él estaba a cargo del algoritmo cuántico del problema de trayectoria mínima y esta entrega superaba por varias desviaciones estándar las simulaciones incluso bajo las hipótesis más optimistas. Además, si los avances que habían presentado sus colegas en la última Conferencia Nacional de Aproximaciones Automatizadas se concretaban, este tiempo récord podía tener históricas implicaciones en el algoritmo de Optimización de Liderazgo, un problema hasta ahora en la categoría de NHP-difíciles. &lt;br&gt;&lt;br&gt;
+Con su más carismático vocabulario pidió a Mapman quedarse para un recorrido por los laboratorios. Lo mejor que pudo obtener fueron dos escépticos minutos de su atención. Mediante el más conciso y seductor vocabulario explicó de las maravillas creadas en Compucorp y de sus sensacionales condiciones laborales. Prometió compartir una medalla Startech y la garantía de ascender sin dificultad alguna en la escalera de estímulos del Sistema Nacional de Diseñadores Algorítmicos. Mapman despreció todo esto y preparaba sus cosas para irse, pero los últimos segundos del discurso se quedaron resonando en sus oídos: “En fin”, dijo el Científico Ejecutivo, “exactamente lo que necesita alguien que merece una gran vida. Piénsalo.”&lt;br&gt;&lt;br&gt;
+El único día en que quebré mi inigualable entrega de pedidos fue un par de meses después de la visita a Compucorp, un cálido martes de agosto. Al trazar la ruta óptima para el pedido no me di cuenta de que pasaría frente a mi sauce. Al ver el follaje amarillo de mi compañero de vida, un pensamiento me paralizó como un relámpago insoportable. Invadió mi mente con más fuerza que cualquier imagen que mi poder me hubiera mostrado jamás. Tuve que frenar. Me resultó imposible quitarme de la mente el pensamiento del otoño de la vida. Recordé mi épica primavera y eso me hizo dudar si estaba viviendo mi verano como quería. Pensó en mis colegas de la Escuadra. Pensé en el chef de Pizzaplace. Y sobre todo pensé en aquellas palabras que meses antes se habían sembrado en mi mente como una semilla.&lt;br&gt;
+Bajé de mi motocicleta y la dejé recargada bajo el árbol. Boté el casco sobre las hojas caídas. Cerré los ojos para usar mi poder por tercera vez en el día y comencé mi camino.
+</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>/static/scores/Blues-Beer-Sheva.pdf</t>
+  </si>
+  <si>
+    <t>This should embed YouTube videos</t>
+  </si>
+  <si>
+    <t>Interesting video</t>
+  </si>
+  <si>
+    <t>xfr64zoBTAQ</t>
   </si>
 </sst>
 </file>
@@ -1815,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4124AE-DF8A-4F61-BE3E-B761EBF17BD8}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1831,105 +1945,105 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D9" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D10" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C13" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
@@ -1937,125 +2051,125 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C15" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C16" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D16" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B19" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C22" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C23" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B24" t="s">
+        <v>347</v>
+      </c>
+      <c r="C24" t="s">
         <v>356</v>
       </c>
-      <c r="C24" t="s">
-        <v>365</v>
-      </c>
       <c r="D24" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B25" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B28" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2065,17 +2179,23 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>376</v>
+        <v>367</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -2085,15 +2205,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2101,22 +2224,25 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F1" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2124,279 +2250,309 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
         <v>130</v>
       </c>
-      <c r="G3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C4">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>493</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>2017</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>130</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C6">
         <v>2016</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" t="s">
-        <v>130</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="G6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C7">
         <v>2015</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" t="s">
-        <v>130</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="H7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C8">
         <v>2011</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" t="s">
-        <v>130</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <v>2015</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="H9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C10">
         <v>2013</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="H10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C11">
         <v>2011</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="H11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>504</v>
       </c>
       <c r="C12">
         <v>2016</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" t="s">
-        <v>152</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="G12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="H12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C13">
         <v>2010</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" t="s">
+        <v>497</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" t="s">
         <v>151</v>
       </c>
-      <c r="G13" t="s">
-        <v>159</v>
-      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>491</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="B9:H11">
+  <sortState ref="B9:I11">
     <sortCondition descending="1" ref="C9:C11"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" xr:uid="{905EA6D7-19FC-40A7-9776-023EBCA825B9}"/>
     <hyperlink ref="E10" r:id="rId2" xr:uid="{D02A8CA5-EDC0-4CAF-8C51-DF4FD7EEB47B}"/>
     <hyperlink ref="E9" r:id="rId3" xr:uid="{12AC93BA-BAD2-443D-93F3-0E0A59751E0F}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{AC230BCA-3096-4D58-8AC2-6D5A154BD6CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2421,22 +2577,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2447,22 +2603,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2470,16 +2626,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C3">
         <v>2015</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2487,13 +2643,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C4">
         <v>2015</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H4" t="s">
         <v>87</v>
@@ -2504,13 +2660,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C5">
         <v>2014</v>
       </c>
       <c r="G5" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H5" t="s">
         <v>69</v>
@@ -2521,16 +2677,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C6">
         <v>2011</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2538,16 +2694,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C7">
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2559,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB14F89-81DD-48BF-BD72-6AB1ED9495A4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2576,28 +2732,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="I1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="J1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2608,28 +2764,28 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="I2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="J2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2637,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C3" s="2">
         <v>2015</v>
@@ -2646,16 +2802,16 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J3" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2663,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C4" s="2">
         <v>2015</v>
@@ -2672,14 +2828,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="J4" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2687,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C5" s="2">
         <v>2015</v>
@@ -2696,14 +2852,14 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="J5" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2711,22 +2867,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C6">
         <v>2015</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J6" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2734,20 +2890,20 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C7">
         <v>2014</v>
       </c>
       <c r="G7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="J7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2755,22 +2911,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C8">
         <v>2014</v>
       </c>
       <c r="G8" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J8" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2778,22 +2934,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C9">
         <v>2014</v>
       </c>
       <c r="G9" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J9" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2801,20 +2957,20 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C10">
         <v>2014</v>
       </c>
       <c r="G10" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="J10" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2822,20 +2978,20 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C11">
         <v>2014</v>
       </c>
       <c r="G11" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="J11" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2843,45 +2999,45 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C12">
         <v>2014</v>
       </c>
       <c r="G12" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H12" t="s">
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="J12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C13">
         <v>2014</v>
       </c>
       <c r="G13" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I13" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -2891,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2916,28 +3072,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -2957,28 +3113,28 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
@@ -3006,6 +3162,9 @@
       <c r="F3" t="s">
         <v>31</v>
       </c>
+      <c r="G3">
+        <v>1510.0060000000001</v>
+      </c>
       <c r="I3" t="s">
         <v>32</v>
       </c>
@@ -3030,7 +3189,10 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>268</v>
+      </c>
+      <c r="G4">
+        <v>1601.0042100000001</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
@@ -3061,6 +3223,9 @@
       <c r="F5" t="s">
         <v>37</v>
       </c>
+      <c r="G5">
+        <v>1701.05529</v>
+      </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
@@ -3090,8 +3255,8 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
-        <v>424</v>
+      <c r="G6">
+        <v>1511.01315</v>
       </c>
       <c r="I6" t="s">
         <v>33</v>
@@ -3117,10 +3282,7 @@
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G7" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -3141,7 +3303,10 @@
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>269</v>
+      </c>
+      <c r="G8">
+        <v>1701.0219999999999</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
@@ -3166,6 +3331,9 @@
       <c r="F9" t="s">
         <v>26</v>
       </c>
+      <c r="G9">
+        <v>1412.6639</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>35</v>
       </c>
@@ -3190,7 +3358,10 @@
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>396</v>
+        <v>387</v>
+      </c>
+      <c r="G10">
+        <v>1612.0343499999999</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>43</v>
@@ -3212,7 +3383,7 @@
         <v>2015</v>
       </c>
       <c r="E11" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
@@ -3242,7 +3413,7 @@
         <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -3277,6 +3448,9 @@
       <c r="F13" t="s">
         <v>27</v>
       </c>
+      <c r="G13">
+        <v>1402.6276</v>
+      </c>
       <c r="I13" t="s">
         <v>34</v>
       </c>
@@ -3301,7 +3475,7 @@
         <v>2013</v>
       </c>
       <c r="E14" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -3325,22 +3499,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C15">
         <v>2015</v>
       </c>
       <c r="E15" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
         <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -3348,22 +3522,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C16">
         <v>2011</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
         <v>80</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -3371,23 +3545,26 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C17">
         <v>2014</v>
       </c>
       <c r="E17" t="s">
-        <v>398</v>
+        <v>389</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="I17" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L17" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -3395,23 +3572,26 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C18">
         <v>2015</v>
       </c>
       <c r="E18" t="s">
-        <v>398</v>
+        <v>389</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="I18" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L18" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -3419,23 +3599,26 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C19">
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>398</v>
+        <v>389</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="I19" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L19" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -3443,23 +3626,26 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C20">
         <v>2015</v>
       </c>
       <c r="E20" t="s">
-        <v>398</v>
+        <v>389</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="I20" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L20" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -3467,23 +3653,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C21">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="I21" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L21" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -3491,21 +3677,21 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C22" s="2">
         <v>2017</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="I22" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>38</v>
@@ -3516,29 +3702,29 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C23" s="2">
         <v>2011</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>69</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -3546,29 +3732,29 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2">
         <v>2011</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>69</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -3576,34 +3762,67 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C25" s="2">
         <v>2011</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>398</v>
+        <v>389</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="I25" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>87</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="L25">
         <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>464</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26">
+        <v>1505.0517</v>
+      </c>
+      <c r="I26" t="s">
+        <v>465</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B3:O14">
     <sortCondition descending="1" ref="L3:L14"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="H17" r:id="rId1" xr:uid="{82591D0A-5944-4997-8324-8E7443E8C93A}"/>
+    <hyperlink ref="H18" r:id="rId2" xr:uid="{9C462A9D-EBFD-4FA8-9119-24FDFED82637}"/>
+    <hyperlink ref="H19" r:id="rId3" xr:uid="{C84B48D9-7AD3-45B7-B5EF-FB20B28D6824}"/>
+    <hyperlink ref="H20" r:id="rId4" xr:uid="{9F03BC8E-7C6F-406B-984D-1B48026DC61B}"/>
+    <hyperlink ref="H25" r:id="rId5" xr:uid="{05CB7F1D-5638-42F6-AFF8-8818C3571CF6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3625,13 +3844,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F1" t="s">
         <v>82</v>
@@ -3648,13 +3867,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
         <v>83</v>
@@ -3757,7 +3976,7 @@
         <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
         <v>96</v>
@@ -3777,7 +3996,7 @@
         <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G8" t="s">
         <v>95</v>
@@ -3794,7 +4013,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>106</v>
@@ -3857,7 +4076,7 @@
         <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
         <v>92</v>
@@ -3930,16 +4149,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -3956,16 +4175,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -3979,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C3">
         <v>2012</v>
@@ -3988,13 +4207,13 @@
         <v>2016</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G3" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4002,7 +4221,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C4">
         <v>2007</v>
@@ -4011,13 +4230,13 @@
         <v>2011</v>
       </c>
       <c r="E4" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G4" t="s">
         <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4025,7 +4244,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C5">
         <v>2004</v>
@@ -4034,10 +4253,10 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -4063,16 +4282,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -4089,16 +4308,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -4118,16 +4337,16 @@
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
         <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4141,7 +4360,7 @@
         <v>2013</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -4150,7 +4369,7 @@
         <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4167,13 +4386,13 @@
         <v>2018</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
         <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4196,7 +4415,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4219,7 +4438,7 @@
         <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4242,7 +4461,7 @@
         <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4250,7 +4469,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C9" s="2">
         <v>2014</v>
@@ -4259,13 +4478,13 @@
         <v>2015</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G9" t="s">
         <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4296,25 +4515,25 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -4325,25 +4544,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="I2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4351,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C3">
         <v>2010</v>
@@ -4360,19 +4579,19 @@
         <v>2012</v>
       </c>
       <c r="E3" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F3" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G3" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="H3" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="I3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4380,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C4">
         <v>2010</v>
@@ -4389,19 +4608,19 @@
         <v>2012</v>
       </c>
       <c r="E4" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="F4" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G4" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H4" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="I4" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -4414,11 +4633,12 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4430,13 +4650,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -4453,13 +4673,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -4473,22 +4693,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -4496,22 +4716,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E4" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -4519,22 +4739,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E5" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4542,22 +4762,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E6" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -4565,22 +4785,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -4588,22 +4808,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F8" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -4611,22 +4831,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E9" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F9" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -4634,22 +4854,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E10" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F10" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -4657,22 +4877,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E11" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F11" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G11" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -4680,22 +4900,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E12" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F12" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G12" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -4703,22 +4923,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E13" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F13" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -4726,22 +4946,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E14" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -4749,22 +4969,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C15" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E15" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F15" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G15" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -4778,16 +4998,16 @@
         <v>2017</v>
       </c>
       <c r="D16" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E16" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F16" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G16" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -4795,19 +5015,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D17" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E17" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F17" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G17" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -4815,22 +5035,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C18">
         <v>2013</v>
       </c>
       <c r="D18" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E18" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F18" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -4838,22 +5058,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C19">
         <v>2006</v>
       </c>
       <c r="D19" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E19" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F19" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="G19" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -4861,22 +5081,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C20">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E20" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="F20" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="G20" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -4884,22 +5104,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C21">
         <v>2010</v>
       </c>
       <c r="D21" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="F21" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G21" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -4907,22 +5127,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C22">
         <v>2012</v>
       </c>
       <c r="D22" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E22" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="F22" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G22" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -4930,22 +5150,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C23">
         <v>2014</v>
       </c>
       <c r="D23" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E23" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="F23" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G23" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -4953,22 +5173,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C24" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D24" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E24" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="F24" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G24" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -4976,22 +5196,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C25">
         <v>2010</v>
       </c>
       <c r="D25" t="s">
+        <v>417</v>
+      </c>
+      <c r="E25" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" t="s">
         <v>428</v>
       </c>
-      <c r="E25" t="s">
-        <v>432</v>
-      </c>
-      <c r="F25" t="s">
-        <v>439</v>
-      </c>
       <c r="G25" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -4999,22 +5219,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C26">
         <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E26" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="F26" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G26" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -5022,22 +5242,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C27">
         <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E27" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="F27" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G27" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -5045,22 +5265,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C28">
         <v>2010</v>
       </c>
       <c r="D28" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E28" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="F28" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G28" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -5068,22 +5288,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C29">
         <v>2009</v>
       </c>
       <c r="D29" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E29" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="F29" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G29" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -5091,22 +5311,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C30">
         <v>2008</v>
       </c>
       <c r="D30" t="s">
+        <v>418</v>
+      </c>
+      <c r="E30" t="s">
+        <v>423</v>
+      </c>
+      <c r="F30" t="s">
         <v>429</v>
       </c>
-      <c r="E30" t="s">
-        <v>434</v>
-      </c>
-      <c r="F30" t="s">
-        <v>440</v>
-      </c>
       <c r="G30" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -5114,22 +5334,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C31">
         <v>2008</v>
       </c>
       <c r="D31" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E31" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="F31" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G31" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -5137,22 +5357,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C32">
         <v>2015</v>
       </c>
       <c r="D32" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E32" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F32" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G32" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.3">
@@ -5181,22 +5401,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="I1" t="s">
         <v>82</v>
@@ -5210,22 +5430,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -5236,28 +5456,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C3">
         <v>2011</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="E3" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="F3" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G3" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="H3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="I3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -5267,13 +5487,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="38.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5283,22 +5509,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="I1" t="s">
         <v>82</v>
@@ -5312,22 +5538,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -5344,13 +5570,16 @@
         <v>2017</v>
       </c>
       <c r="F3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
         <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -5364,13 +5593,13 @@
         <v>2016</v>
       </c>
       <c r="F4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -5378,19 +5607,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C5">
         <v>2016</v>
       </c>
+      <c r="E5" t="s">
+        <v>471</v>
+      </c>
       <c r="F5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G5" t="s">
         <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="I5" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -5398,22 +5633,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C6">
         <v>2016</v>
       </c>
+      <c r="E6" t="s">
+        <v>486</v>
+      </c>
       <c r="F6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H6" t="s">
-        <v>181</v>
+        <v>485</v>
       </c>
       <c r="I6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -5421,19 +5659,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C7">
         <v>2015</v>
       </c>
+      <c r="E7" t="s">
+        <v>488</v>
+      </c>
       <c r="F7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -5446,14 +5687,20 @@
       <c r="C8">
         <v>2014</v>
       </c>
+      <c r="E8" t="s">
+        <v>482</v>
+      </c>
       <c r="F8" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="I8" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -5461,19 +5708,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C9">
         <v>2013</v>
       </c>
       <c r="F9" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G9" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -5487,13 +5734,16 @@
         <v>2014</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>185</v>
+      </c>
+      <c r="H10" t="s">
+        <v>503</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -5501,19 +5751,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C11">
         <v>2018</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G11" t="s">
-        <v>193</v>
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>498</v>
       </c>
       <c r="I11" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -5521,19 +5774,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C12">
         <v>2017</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G12" t="s">
-        <v>192</v>
+        <v>183</v>
+      </c>
+      <c r="H12" t="s">
+        <v>498</v>
       </c>
       <c r="I12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -5541,22 +5797,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C13">
         <v>2016</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G13" t="s">
         <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="I13" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -5564,22 +5820,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C14">
         <v>2015</v>
       </c>
+      <c r="E14" t="s">
+        <v>473</v>
+      </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="I14" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -5587,22 +5846,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C15">
         <v>2015</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H15" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I15" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -5610,22 +5869,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C16">
         <v>2014</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
         <v>89</v>
       </c>
       <c r="H16" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="I16" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -5633,22 +5892,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C17">
         <v>2013</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H17" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="I17" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -5656,22 +5915,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C18">
         <v>2013</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H18" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I18" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -5679,22 +5938,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C19">
         <v>2013</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
         <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I19" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -5702,22 +5961,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C20">
         <v>2011</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
         <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -5725,22 +5984,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C21">
         <v>2015</v>
       </c>
+      <c r="E21" t="s">
+        <v>489</v>
+      </c>
       <c r="F21" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -5748,19 +6010,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C22">
         <v>2015</v>
       </c>
       <c r="F22" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G22" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H22" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -5768,22 +6030,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C23">
         <v>2014</v>
       </c>
       <c r="F23" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G23" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H23" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -5791,22 +6053,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C24">
         <v>2014</v>
       </c>
       <c r="F24" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G24" t="s">
         <v>101</v>
       </c>
       <c r="H24" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -5814,22 +6076,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C25">
         <v>2014</v>
       </c>
       <c r="F25" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G25" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H25" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -5837,19 +6099,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C26">
         <v>2014</v>
       </c>
       <c r="F26" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G26" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H26" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -5857,19 +6119,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C27">
         <v>2014</v>
       </c>
       <c r="F27" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G27" t="s">
         <v>89</v>
       </c>
       <c r="H27" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="I27" t="s">
         <v>87</v>
@@ -5880,19 +6142,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C28">
         <v>2013</v>
       </c>
       <c r="F28" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G28" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H28" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I28" t="s">
         <v>87</v>
@@ -5903,19 +6165,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C29">
         <v>2013</v>
       </c>
       <c r="F29" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G29" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H29" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -5923,22 +6185,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C30">
         <v>2013</v>
       </c>
       <c r="F30" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G30" t="s">
         <v>101</v>
       </c>
       <c r="H30" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="I30" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -5946,19 +6208,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C31">
         <v>2012</v>
       </c>
       <c r="F31" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G31" t="s">
         <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I31" t="s">
         <v>87</v>
@@ -5969,22 +6231,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C32">
         <v>2015</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G32" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H32" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5992,19 +6254,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C33">
         <v>2015</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G33" t="s">
-        <v>225</v>
+        <v>216</v>
+      </c>
+      <c r="H33" t="s">
+        <v>499</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -6012,22 +6277,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C34">
         <v>2015</v>
       </c>
+      <c r="E34" t="s">
+        <v>490</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H34" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I34" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -6035,19 +6303,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C35">
         <v>2015</v>
       </c>
+      <c r="E35" t="s">
+        <v>472</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G35" t="s">
-        <v>327</v>
+        <v>318</v>
+      </c>
+      <c r="H35" t="s">
+        <v>500</v>
       </c>
       <c r="I35" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -6055,22 +6329,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C36">
         <v>2014</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G36" t="s">
         <v>101</v>
       </c>
       <c r="H36" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="I36" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -6078,19 +6352,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C37">
         <v>2014</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G37" t="s">
-        <v>225</v>
+        <v>216</v>
+      </c>
+      <c r="H37" t="s">
+        <v>501</v>
       </c>
       <c r="I37" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -6098,19 +6375,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C38">
         <v>2014</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G38" t="s">
-        <v>177</v>
+        <v>169</v>
+      </c>
+      <c r="H38" t="s">
+        <v>502</v>
       </c>
       <c r="I38" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -6118,19 +6398,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C39">
         <v>2013</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G39" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H39" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -6138,19 +6418,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C40">
         <v>2012</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G40" t="s">
         <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -6158,22 +6438,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C41">
         <v>2013</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G41" t="s">
         <v>89</v>
       </c>
       <c r="H41" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="I41" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -6181,22 +6461,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C42">
         <v>2013</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G42" t="s">
         <v>101</v>
       </c>
       <c r="H42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I42" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -6204,22 +6484,74 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C43">
         <v>2013</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G43" t="s">
         <v>101</v>
       </c>
       <c r="H43" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>475</v>
+      </c>
+      <c r="C44">
+        <v>2016</v>
+      </c>
+      <c r="E44" t="s">
+        <v>487</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" t="s">
+        <v>474</v>
+      </c>
+      <c r="H44" t="s">
+        <v>477</v>
+      </c>
+      <c r="I44" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <v>2016</v>
+      </c>
+      <c r="E45" t="s">
+        <v>478</v>
+      </c>
+      <c r="F45" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" t="s">
+        <v>479</v>
+      </c>
+      <c r="H45" t="s">
+        <v>480</v>
+      </c>
+      <c r="I45" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -6230,15 +6562,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE156D2-7E33-4447-A53C-1EA25432072D}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6246,22 +6578,25 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F1" t="s">
-        <v>377</v>
+        <v>506</v>
       </c>
       <c r="G1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6269,196 +6604,207 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>462</v>
       </c>
       <c r="G2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C3">
         <v>2017</v>
       </c>
       <c r="E3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="H3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C4">
         <v>2017</v>
       </c>
       <c r="E4" t="s">
-        <v>461</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C5">
         <v>2017</v>
       </c>
       <c r="E5" t="s">
-        <v>462</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="E6" t="s">
-        <v>463</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>464</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>465</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
+      <c r="D9" s="6" t="s">
+        <v>505</v>
+      </c>
       <c r="E9" t="s">
-        <v>468</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C10">
         <v>2018</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>472</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="C11">
         <v>2018</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>475</v>
-      </c>
+      <c r="D11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="G11" t="s">
-        <v>474</v>
+        <v>510</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H11" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -1549,6 +1549,21 @@
     <t>SNI Conacyt Visualization</t>
   </si>
   <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>/static/scores/Blues-Beer-Sheva.pdf</t>
+  </si>
+  <si>
+    <t>This should embed YouTube videos</t>
+  </si>
+  <si>
+    <t>Interesting video</t>
+  </si>
+  <si>
+    <t>xfr64zoBTAQ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sentado bajo el viejo sauce retorcido donde descubrí mis poderes, miré una vez más la minúscula cantidad de ceros que tenía el cheque expedido por la Súper Escuadra Heroica. Recordé con forzada nostalgia la breve docena de años en que mi visión hyperterrenal me permitió realizar hazañas consideradas como espectaculares como cerrar los párpados para describir la geografía precisa de mis alrededores y trazar caminos óptimos entre dos puntos lejanos con la facilidad con la que un universitario resuelve un laberinto para niños en la caja del cereal.&lt;br&gt;&lt;br&gt;
 Las cosas no habían salido como pensaba. Ser Mapman parecía tener un perfil de bajo riesgo. A diferencia de los héroes al frente de la línea de batalla, yo era partícipe principalmente de las reuniones de táctica y estrategia. Tras hacer mis cuentas a lápiz y calculadora, había concluido que podía permanecer activo como hasta los sesenta o sesenta y cinco, después de lo cual la Súper Escuadra Heroica me otorgaría una pensión nada despreciable. Pero tras el recorte efectuado en la institución debido a una serie de legislaciones vendidas por políticos como una prometedora reforma tecnológica, las entidades como la Súper Escuadra Heroica no sólo tenían permiso, sino incluso jugosos estímulos fiscales para substituir a sus empleados por algoritmos, computadoras y toscos robots humanoides que, aunque fueran más feos, eran más eficientes.&lt;br&gt;&lt;br&gt;
 A falta de habilidades de liderazgo (como las de mi colega Smartman), de una fisionomía sorprendente (como la de Bigman) o de llamativos poderes de colores (como los de Flameboy o Sparkgirl), me encontré en una precaria situación laboral. Había pocos empleos que coincidieran con mi particular capacidad. Sólo pude circular de rojo con un desgastado crayón bicolor dos ofertas de empleo en el periódico que había arrugado por frustración y tirado junto al sauce.&lt;br&gt;
@@ -1559,24 +1574,9 @@
 El gran trabajo de Mapman le dio a la pizzería un auge de popularidad espectacular. El fenómeno llegó a tal grado que un importante y agradable Científico Ejecutivo de Compucorp llamó para pedir la famosa receta de champiñones con emmental en su versión familiar. Al enterarse de a dónde había que entregar el manjar, Mapman dudó en querer realizar la entrega. Pero el amplio sentido de responsabilidad que había desarrollado en la Súper Escuadra Heroica y su deseo por mantener impecable su récord pesaron más en la balanza. Subió a la moto y en un abrir y cerrar de ojos llegó a las magníficas y modernas instalaciones de la antagónica corporación.&lt;br&gt;&lt;br&gt;
 El Científico Ejecutivo no lo podía creer. Por pura curiosidad, hábito del oficio, había decidido medir el tiempo de entrega. Él estaba a cargo del algoritmo cuántico del problema de trayectoria mínima y esta entrega superaba por varias desviaciones estándar las simulaciones incluso bajo las hipótesis más optimistas. Además, si los avances que habían presentado sus colegas en la última Conferencia Nacional de Aproximaciones Automatizadas se concretaban, este tiempo récord podía tener históricas implicaciones en el algoritmo de Optimización de Liderazgo, un problema hasta ahora en la categoría de NHP-difíciles. &lt;br&gt;&lt;br&gt;
 Con su más carismático vocabulario pidió a Mapman quedarse para un recorrido por los laboratorios. Lo mejor que pudo obtener fueron dos escépticos minutos de su atención. Mediante el más conciso y seductor vocabulario explicó de las maravillas creadas en Compucorp y de sus sensacionales condiciones laborales. Prometió compartir una medalla Startech y la garantía de ascender sin dificultad alguna en la escalera de estímulos del Sistema Nacional de Diseñadores Algorítmicos. Mapman despreció todo esto y preparaba sus cosas para irse, pero los últimos segundos del discurso se quedaron resonando en sus oídos: “En fin”, dijo el Científico Ejecutivo, “exactamente lo que necesita alguien que merece una gran vida. Piénsalo.”&lt;br&gt;&lt;br&gt;
-El único día en que quebré mi inigualable entrega de pedidos fue un par de meses después de la visita a Compucorp, un cálido martes de agosto. Al trazar la ruta óptima para el pedido no me di cuenta de que pasaría frente a mi sauce. Al ver el follaje amarillo de mi compañero de vida, un pensamiento me paralizó como un relámpago insoportable. Invadió mi mente con más fuerza que cualquier imagen que mi poder me hubiera mostrado jamás. Tuve que frenar. Me resultó imposible quitarme de la mente el pensamiento del otoño de la vida. Recordé mi épica primavera y eso me hizo dudar si estaba viviendo mi verano como quería. Pensó en mis colegas de la Escuadra. Pensé en el chef de Pizzaplace. Y sobre todo pensé en aquellas palabras que meses antes se habían sembrado en mi mente como una semilla.&lt;br&gt;
+El único día en que quebré mi inigualable entrega de pedidos fue un par de meses después de la visita a Compucorp, un cálido martes de agosto. Al trazar la ruta óptima para el pedido no me di cuenta de que pasaría frente a mi sauce. Al ver el follaje amarillo de mi compañero de vida, un pensamiento me paralizó como un relámpago insoportable. Invadió mi mente con más fuerza que cualquier imagen que mi poder me hubiera mostrado jamás. Tuve que frenar. Me resultó imposible quitarme de la mente el pensamiento del otoño de la vida. Recordé mi épica primavera y eso me hizo dudar si estaba viviendo mi verano como quería. Pensó en mis colegas de la Escuadra. Pensé en el chef de Pizzaplace. Y sobre todo pensé en aquellas palabras que meses antes se habían sembrado en mi mente como una semilla.&lt;br&gt;&lt;br&gt;
 Bajé de mi motocicleta y la dejé recargada bajo el árbol. Boté el casco sobre las hojas caídas. Cerré los ojos para usar mi poder por tercera vez en el día y comencé mi camino.
 </t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>/static/scores/Blues-Beer-Sheva.pdf</t>
-  </si>
-  <si>
-    <t>This should embed YouTube videos</t>
-  </si>
-  <si>
-    <t>Interesting video</t>
-  </si>
-  <si>
-    <t>xfr64zoBTAQ</t>
   </si>
 </sst>
 </file>
@@ -6564,8 +6564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE156D2-7E33-4447-A53C-1EA25432072D}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6587,7 +6587,7 @@
         <v>385</v>
       </c>
       <c r="F1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G1" t="s">
         <v>368</v>
@@ -6753,7 +6753,7 @@
         <v>2018</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E9" t="s">
         <v>457</v>
@@ -6766,18 +6766,21 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>459</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C10" s="2">
         <v>2018</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>509</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>461</v>
@@ -6787,23 +6790,21 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>509</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="2">
         <v>2018</v>
       </c>
-      <c r="D11" t="s">
-        <v>508</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>510</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H11" t="s">
+        <v>460</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>461</v>
       </c>
     </row>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="714" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="714" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Job" sheetId="3" r:id="rId4"/>
     <sheet name="Contest" sheetId="13" r:id="rId5"/>
     <sheet name="Course" sheetId="8" r:id="rId6"/>
-    <sheet name="ScienceFair" sheetId="14" r:id="rId7"/>
-    <sheet name="Talk" sheetId="2" r:id="rId8"/>
-    <sheet name="ArtItem" sheetId="6" r:id="rId9"/>
-    <sheet name="CodingItem" sheetId="4" r:id="rId10"/>
-    <sheet name="Book" sheetId="12" r:id="rId11"/>
-    <sheet name="MainstreamMedia" sheetId="10" r:id="rId12"/>
-    <sheet name="ScientificPublication" sheetId="1" r:id="rId13"/>
+    <sheet name="Service" sheetId="16" r:id="rId7"/>
+    <sheet name="ScienceFair" sheetId="17" r:id="rId8"/>
+    <sheet name="Talk" sheetId="2" r:id="rId9"/>
+    <sheet name="ArtItem" sheetId="6" r:id="rId10"/>
+    <sheet name="CodingItem" sheetId="4" r:id="rId11"/>
+    <sheet name="Book" sheetId="12" r:id="rId12"/>
+    <sheet name="MainstreamMedia" sheetId="10" r:id="rId13"/>
+    <sheet name="ScientificPublication" sheetId="1" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="618">
   <si>
     <t>ID</t>
   </si>
@@ -1120,9 +1121,6 @@
   </si>
   <si>
     <t>Event</t>
-  </si>
-  <si>
-    <t>location,role</t>
   </si>
   <si>
     <t>Education</t>
@@ -1330,34 +1328,7 @@
     <t>2008+</t>
   </si>
   <si>
-    <t>I ate 100 tacos</t>
-  </si>
-  <si>
-    <t>tacos, eating</t>
-  </si>
-  <si>
     <t>Mexico</t>
-  </si>
-  <si>
-    <t>Devourer</t>
-  </si>
-  <si>
-    <t>Hungry and fat</t>
-  </si>
-  <si>
-    <t>Eating tacos fair</t>
-  </si>
-  <si>
-    <t>Taco AC</t>
-  </si>
-  <si>
-    <t>Eating tacos olympiad</t>
-  </si>
-  <si>
-    <t>Chef</t>
-  </si>
-  <si>
-    <t>I made 100 tacos</t>
   </si>
   <si>
     <t>red, blue, green, drawing</t>
@@ -1577,6 +1548,357 @@
 El único día en que quebré mi inigualable entrega de pedidos fue un par de meses después de la visita a Compucorp, un cálido martes de agosto. Al trazar la ruta óptima para el pedido no me di cuenta de que pasaría frente a mi sauce. Al ver el follaje amarillo de mi compañero de vida, un pensamiento me paralizó como un relámpago insoportable. Invadió mi mente con más fuerza que cualquier imagen que mi poder me hubiera mostrado jamás. Tuve que frenar. Me resultó imposible quitarme de la mente el pensamiento del otoño de la vida. Recordé mi épica primavera y eso me hizo dudar si estaba viviendo mi verano como quería. Pensó en mis colegas de la Escuadra. Pensé en el chef de Pizzaplace. Y sobre todo pensé en aquellas palabras que meses antes se habían sembrado en mi mente como una semilla.&lt;br&gt;&lt;br&gt;
 Bajé de mi motocicleta y la dejé recargada bajo el árbol. Boté el casco sobre las hojas caídas. Cerré los ojos para usar mi poder por tercera vez en el día y comencé mi camino.
 </t>
+  </si>
+  <si>
+    <t>International competition for undergraduate students in Latin America</t>
+  </si>
+  <si>
+    <t>Asian Pacific Mathematics Olympiad</t>
+  </si>
+  <si>
+    <t>High-school</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>apmo, olympiad, high-school</t>
+  </si>
+  <si>
+    <t>Long Distance</t>
+  </si>
+  <si>
+    <t>Contestant</t>
+  </si>
+  <si>
+    <t>Team Leader</t>
+  </si>
+  <si>
+    <t>Chair Organizer</t>
+  </si>
+  <si>
+    <t>Annual competition for students in the Asian-Pacific region and the Americas</t>
+  </si>
+  <si>
+    <t>Ecuador, Mexico, Colombia, Costa Rica</t>
+  </si>
+  <si>
+    <t>Zacatecas, Mexico</t>
+  </si>
+  <si>
+    <t>Gold Medalist</t>
+  </si>
+  <si>
+    <t>Organizing Committee</t>
+  </si>
+  <si>
+    <t>Founder and Organizing Committee</t>
+  </si>
+  <si>
+    <t>Resolución de Problemas y Concursos Matemáticos Universitarios, UNAM</t>
+  </si>
+  <si>
+    <t>Whole project in problem-solving and partitipation in mathematical contests for undergraduate students.</t>
+  </si>
+  <si>
+    <t>Olimpiada de Matemáticas del Distrito Federal</t>
+  </si>
+  <si>
+    <t>Mexico City annual mathematics competition</t>
+  </si>
+  <si>
+    <t>Olimpiada Iberoamericana Interuniversitaria de Matemáticas</t>
+  </si>
+  <si>
+    <t>Long-distance mathematical competition for undergraduate students</t>
+  </si>
+  <si>
+    <t>oimu, undergraduate</t>
+  </si>
+  <si>
+    <t>UNAM Representative</t>
+  </si>
+  <si>
+    <t>Silver Medalist</t>
+  </si>
+  <si>
+    <t>oimu, undegraduate</t>
+  </si>
+  <si>
+    <t>Olimpiada Iberoamericana de Matemáticas</t>
+  </si>
+  <si>
+    <t>Annual competition for high-school students in Latin-America</t>
+  </si>
+  <si>
+    <t>Romanian Masters in Mathematics</t>
+  </si>
+  <si>
+    <t>International Mathematics Competition for University Students</t>
+  </si>
+  <si>
+    <t>Olimpiada Centroamericana de Matemáticas</t>
+  </si>
+  <si>
+    <t>Deputy Leader</t>
+  </si>
+  <si>
+    <t>Observer C</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>IMO, high-school</t>
+  </si>
+  <si>
+    <t>IMC, undergraduate</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Argentina, Colombia, South Africa, Thailand</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Mathematical competition for the best teams in the world</t>
+  </si>
+  <si>
+    <t>centro, highschool</t>
+  </si>
+  <si>
+    <t>omm, olympiad, high-school</t>
+  </si>
+  <si>
+    <t>oimu, ciim, imc, undergraduate</t>
+  </si>
+  <si>
+    <t>omdf, omcdmx, highschool</t>
+  </si>
+  <si>
+    <t>ibero, high-school</t>
+  </si>
+  <si>
+    <t>romanian, highschool</t>
+  </si>
+  <si>
+    <t>olympiad, undergraduate, organization</t>
+  </si>
+  <si>
+    <t>Deputy Leaders accompany students, grade their papers and coordinate the final scores.</t>
+  </si>
+  <si>
+    <t>Team Leaders select the paper problems, approve marking schemes, do what Deputy Leaders do, among other things.</t>
+  </si>
+  <si>
+    <t>Observers C follow the same program as Team Leaders</t>
+  </si>
+  <si>
+    <t>Largest open international competition for undergraduate students. Team leaders select the problems and mark the papers.</t>
+  </si>
+  <si>
+    <t>Coordinators prepare marking schemes, grade the papers and coordinate the results with Team Leaders</t>
+  </si>
+  <si>
+    <t>International competition for young students in CentroAmerica</t>
+  </si>
+  <si>
+    <t>Coach</t>
+  </si>
+  <si>
+    <t>Panamá Mathematical Olympiad</t>
+  </si>
+  <si>
+    <t>Part of the international olympiad coaches</t>
+  </si>
+  <si>
+    <t>Annual competition for mexican students. Several roles including: web administrator, olympiad coach, coordinator, chief coordinator, problem selection committee</t>
+  </si>
+  <si>
+    <t>Annual competition for mexican students.</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Concurso Nacional de Matemáticas Pierre Fermat</t>
+  </si>
+  <si>
+    <t>Mathematical contest organized by Instituto Politécnico Nacional</t>
+  </si>
+  <si>
+    <t>undergraduate</t>
+  </si>
+  <si>
+    <t>high-school</t>
+  </si>
+  <si>
+    <t>First Place</t>
+  </si>
+  <si>
+    <t>Concurso de Problemas</t>
+  </si>
+  <si>
+    <t>Problem creation contest</t>
+  </si>
+  <si>
+    <t>problem, undergraduate</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>location, role</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Book by Radmila Bulajich Manfrino, José Antonio Gómez Ortega, Rogelio Valdez Delgado</t>
+  </si>
+  <si>
+    <t>Algebra: The basis of the mathematical olympiad</t>
+  </si>
+  <si>
+    <t>Principio de las casillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem solving methods in combinatorics </t>
+  </si>
+  <si>
+    <t>Álgebra</t>
+  </si>
+  <si>
+    <t>Inequalities</t>
+  </si>
+  <si>
+    <t>Desigualdades</t>
+  </si>
+  <si>
+    <t>Combinatoria para olimpiadas internacionales</t>
+  </si>
+  <si>
+    <t>Book by José Antonio Gómez, Rogelio Valdez Delgado, Rita Vázquez Padilla</t>
+  </si>
+  <si>
+    <t>Book by Pablo Soberón</t>
+  </si>
+  <si>
+    <t>algebra</t>
+  </si>
+  <si>
+    <t>combinatorics</t>
+  </si>
+  <si>
+    <t>2016 - 2018</t>
+  </si>
+  <si>
+    <t>SoCG '17, SoCG '18, EuroCG '18</t>
+  </si>
+  <si>
+    <t>SIAGA, Sci. Math. Hungarica</t>
+  </si>
+  <si>
+    <t>Various Locations</t>
+  </si>
+  <si>
+    <t>Thesis Reviewer</t>
+  </si>
+  <si>
+    <t>Thesis by David Rivera Bermúdez</t>
+  </si>
+  <si>
+    <t>Polímeros aleatorios suaves en dimensión 1.</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>conference</t>
+  </si>
+  <si>
+    <t>Fiesta de las Ciencias</t>
+  </si>
+  <si>
+    <t>Science fair</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>Concyteq</t>
+  </si>
+  <si>
+    <t>Expocyteq</t>
+  </si>
+  <si>
+    <t>Leader of IM-UNAM</t>
+  </si>
+  <si>
+    <t>2014 - 2015</t>
+  </si>
+  <si>
+    <t>Aquelarre Matemático UAQ</t>
+  </si>
+  <si>
+    <t>Academic conference for undergraduate students</t>
+  </si>
+  <si>
+    <t>UNAM and UAQ</t>
+  </si>
+  <si>
+    <t>Various research papers</t>
+  </si>
+  <si>
+    <t>Various conference papers</t>
+  </si>
+  <si>
+    <t>Check papers for originality, presentation and relevance</t>
+  </si>
+  <si>
+    <t>Mathematics fair</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t>General Public</t>
+  </si>
+  <si>
+    <t>Matemáticas en la calle</t>
+  </si>
+  <si>
+    <t>Festival Matemático en Morelos</t>
+  </si>
+  <si>
+    <t>Festival Matemático</t>
+  </si>
+  <si>
+    <t>Morelos, Mexico</t>
+  </si>
+  <si>
+    <t>Freshman Undergraduates</t>
+  </si>
+  <si>
+    <t>SMM</t>
   </si>
 </sst>
 </file>
@@ -1929,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4124AE-DF8A-4F61-BE3E-B761EBF17BD8}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1964,7 +2286,7 @@
         <v>343</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1972,7 +2294,7 @@
         <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1996,24 +2318,24 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>360</v>
       </c>
       <c r="D9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B10" t="s">
         <v>360</v>
       </c>
       <c r="D10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2024,18 +2346,18 @@
         <v>346</v>
       </c>
       <c r="C12" t="s">
-        <v>363</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B13" t="s">
         <v>362</v>
       </c>
       <c r="C13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2051,151 +2373,162 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>571</v>
       </c>
       <c r="B15" t="s">
         <v>362</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="B16" t="s">
         <v>362</v>
       </c>
       <c r="C16" t="s">
-        <v>393</v>
-      </c>
-      <c r="D16" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>365</v>
-      </c>
-      <c r="B18" t="s">
-        <v>346</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D17" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B19" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>347</v>
-      </c>
-      <c r="B22" t="s">
-        <v>346</v>
-      </c>
-      <c r="C22" t="s">
-        <v>350</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B24" t="s">
         <v>347</v>
       </c>
       <c r="C24" t="s">
-        <v>356</v>
-      </c>
-      <c r="D24" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="B25" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>357</v>
+      <c r="C25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>397</v>
+      </c>
+      <c r="B26" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>339</v>
-      </c>
-      <c r="B28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>338</v>
+        <v>339</v>
+      </c>
+      <c r="B29" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>367</v>
-      </c>
-      <c r="B33" s="1"/>
+        <v>372</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>462</v>
+        <v>366</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -2204,6 +2537,260 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE156D2-7E33-4447-A53C-1EA25432072D}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3">
+        <v>2017</v>
+      </c>
+      <c r="E3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4">
+        <v>2017</v>
+      </c>
+      <c r="E4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5">
+        <v>2017</v>
+      </c>
+      <c r="E5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6">
+        <v>2017</v>
+      </c>
+      <c r="E6" t="s">
+        <v>442</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7">
+        <v>2017</v>
+      </c>
+      <c r="E7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C8">
+        <v>2017</v>
+      </c>
+      <c r="E8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="E9" t="s">
+        <v>447</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -2230,13 +2817,13 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1" t="s">
         <v>129</v>
@@ -2256,13 +2843,13 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H2" t="s">
         <v>124</v>
@@ -2282,7 +2869,7 @@
         <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="G3" t="s">
         <v>125</v>
@@ -2305,7 +2892,7 @@
         <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="G4" t="s">
         <v>125</v>
@@ -2325,7 +2912,7 @@
         <v>2017</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2395,7 +2982,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="H8" t="s">
         <v>135</v>
@@ -2475,7 +3062,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C12">
         <v>2016</v>
@@ -2502,7 +3089,7 @@
         <v>2010</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="E13" s="2"/>
       <c r="G13" t="s">
@@ -2517,19 +3104,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C14">
         <v>2018</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>144</v>
@@ -2556,7 +3143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9DC452-8FB8-48D7-9200-F8DA05DAADE9}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -2583,10 +3170,10 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2609,10 +3196,10 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -2711,7 +3298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB14F89-81DD-48BF-BD72-6AB1ED9495A4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -2738,10 +3325,10 @@
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2770,10 +3357,10 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -2782,7 +3369,7 @@
         <v>299</v>
       </c>
       <c r="I2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J2" t="s">
         <v>355</v>
@@ -2811,7 +3398,7 @@
         <v>281</v>
       </c>
       <c r="J3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2835,7 +3422,7 @@
         <v>282</v>
       </c>
       <c r="J4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2859,7 +3446,7 @@
         <v>282</v>
       </c>
       <c r="J5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2882,7 +3469,7 @@
         <v>281</v>
       </c>
       <c r="J6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2903,7 +3490,7 @@
         <v>282</v>
       </c>
       <c r="J7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2926,7 +3513,7 @@
         <v>281</v>
       </c>
       <c r="J8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2949,7 +3536,7 @@
         <v>281</v>
       </c>
       <c r="J9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2970,7 +3557,7 @@
         <v>282</v>
       </c>
       <c r="J10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2991,7 +3578,7 @@
         <v>282</v>
       </c>
       <c r="J11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3014,7 +3601,7 @@
         <v>291</v>
       </c>
       <c r="J12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3037,7 +3624,7 @@
         <v>281</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3045,12 +3632,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3078,7 +3665,7 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -3087,7 +3674,7 @@
         <v>337</v>
       </c>
       <c r="H1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -3119,7 +3706,7 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -3128,7 +3715,7 @@
         <v>338</v>
       </c>
       <c r="H2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -3282,7 +3869,7 @@
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -3358,7 +3945,7 @@
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G10">
         <v>1612.0343499999999</v>
@@ -3383,7 +3970,7 @@
         <v>2015</v>
       </c>
       <c r="E11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
@@ -3413,7 +4000,7 @@
         <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -3475,7 +4062,7 @@
         <v>2013</v>
       </c>
       <c r="E14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -3551,10 +4138,10 @@
         <v>2014</v>
       </c>
       <c r="E17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="I17" t="s">
         <v>254</v>
@@ -3578,10 +4165,10 @@
         <v>2015</v>
       </c>
       <c r="E18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="I18" t="s">
         <v>254</v>
@@ -3605,10 +4192,10 @@
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="I19" t="s">
         <v>254</v>
@@ -3632,10 +4219,10 @@
         <v>2015</v>
       </c>
       <c r="E20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="I20" t="s">
         <v>254</v>
@@ -3659,7 +4246,7 @@
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I21" t="s">
         <v>254</v>
@@ -3684,7 +4271,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I22" t="s">
         <v>254</v>
@@ -3709,7 +4296,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I23" t="s">
         <v>160</v>
@@ -3739,7 +4326,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I24" t="s">
         <v>160</v>
@@ -3769,10 +4356,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="I25" t="s">
         <v>160</v>
@@ -3792,7 +4379,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C26" s="2">
         <v>2015</v>
@@ -3804,7 +4391,7 @@
         <v>1505.0517</v>
       </c>
       <c r="I26" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>45</v>
@@ -3850,7 +4437,7 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F1" t="s">
         <v>82</v>
@@ -3873,7 +4460,7 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
         <v>83</v>
@@ -4136,7 +4723,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4149,16 +4736,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" t="s">
         <v>375</v>
-      </c>
-      <c r="D1" t="s">
-        <v>376</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -4184,7 +4771,7 @@
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -4198,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C3">
         <v>2012</v>
@@ -4207,13 +4794,13 @@
         <v>2016</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" t="s">
         <v>379</v>
       </c>
-      <c r="G3" t="s">
-        <v>380</v>
-      </c>
       <c r="H3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4221,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4">
         <v>2007</v>
@@ -4230,13 +4817,13 @@
         <v>2011</v>
       </c>
       <c r="E4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G4" t="s">
         <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4244,7 +4831,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C5">
         <v>2004</v>
@@ -4253,14 +4840,15 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4282,16 +4870,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" t="s">
         <v>375</v>
-      </c>
-      <c r="D1" t="s">
-        <v>376</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -4317,7 +4905,7 @@
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -4337,7 +4925,7 @@
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E3" t="s">
         <v>152</v>
@@ -4346,7 +4934,7 @@
         <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4360,7 +4948,7 @@
         <v>2013</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -4369,7 +4957,7 @@
         <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4392,7 +4980,7 @@
         <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4415,7 +5003,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4438,7 +5026,7 @@
         <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4461,7 +5049,7 @@
         <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4484,7 +5072,7 @@
         <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4499,13 +5087,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04072B98-6DD0-4DEA-89F3-ADD9EED64B4B}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4515,16 +5106,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" t="s">
         <v>375</v>
-      </c>
-      <c r="D1" t="s">
-        <v>376</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
@@ -4533,7 +5124,7 @@
         <v>222</v>
       </c>
       <c r="I1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -4553,7 +5144,7 @@
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
@@ -4562,7 +5153,7 @@
         <v>223</v>
       </c>
       <c r="I2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4570,57 +5161,777 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>98</v>
       </c>
       <c r="C3">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D3">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E3" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="F3" t="s">
-        <v>433</v>
+        <v>550</v>
       </c>
       <c r="G3" t="s">
-        <v>434</v>
+        <v>562</v>
       </c>
       <c r="H3" t="s">
-        <v>435</v>
+        <v>513</v>
       </c>
       <c r="I3" t="s">
-        <v>436</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <v>2010</v>
       </c>
       <c r="D4">
+        <v>2010</v>
+      </c>
+      <c r="E4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F4" t="s">
+        <v>550</v>
+      </c>
+      <c r="G4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H4" t="s">
+        <v>524</v>
+      </c>
+      <c r="I4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>2011</v>
+      </c>
+      <c r="D5">
+        <v>2014</v>
+      </c>
+      <c r="E5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G5" t="s">
+        <v>511</v>
+      </c>
+      <c r="H5" t="s">
+        <v>508</v>
+      </c>
+      <c r="I5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6">
+        <v>2015</v>
+      </c>
+      <c r="D6">
+        <v>2015</v>
+      </c>
+      <c r="E6" t="s">
+        <v>501</v>
+      </c>
+      <c r="F6" t="s">
+        <v>550</v>
+      </c>
+      <c r="G6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" t="s">
+        <v>509</v>
+      </c>
+      <c r="I6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7">
+        <v>2007</v>
+      </c>
+      <c r="D7">
+        <v>2007</v>
+      </c>
+      <c r="E7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H7" t="s">
+        <v>507</v>
+      </c>
+      <c r="I7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8">
+        <v>2016</v>
+      </c>
+      <c r="D8">
+        <v>2018</v>
+      </c>
+      <c r="E8" t="s">
+        <v>510</v>
+      </c>
+      <c r="F8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G8" t="s">
+        <v>506</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>2007</v>
+      </c>
+      <c r="D9">
+        <v>2007</v>
+      </c>
+      <c r="E9" t="s">
+        <v>561</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>2009</v>
+      </c>
+      <c r="D10">
+        <v>2018</v>
+      </c>
+      <c r="E10" t="s">
+        <v>560</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="I10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11">
+        <v>2011</v>
+      </c>
+      <c r="D11">
+        <v>2018</v>
+      </c>
+      <c r="E11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C12">
+        <v>2007</v>
+      </c>
+      <c r="D12">
+        <v>2010</v>
+      </c>
+      <c r="E12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13">
+        <v>2006</v>
+      </c>
+      <c r="D13">
+        <v>2006</v>
+      </c>
+      <c r="E13" t="s">
+        <v>519</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C14">
+        <v>2011</v>
+      </c>
+      <c r="D14">
+        <v>2015</v>
+      </c>
+      <c r="E14" t="s">
+        <v>521</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15">
+        <v>2009</v>
+      </c>
+      <c r="D15">
+        <v>2009</v>
+      </c>
+      <c r="E15" t="s">
+        <v>521</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H15" t="s">
+        <v>524</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C16">
+        <v>2009</v>
+      </c>
+      <c r="D16">
+        <v>2009</v>
+      </c>
+      <c r="E16" t="s">
+        <v>527</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>528</v>
+      </c>
+      <c r="C17">
+        <v>2017</v>
+      </c>
+      <c r="D17">
+        <v>2017</v>
+      </c>
+      <c r="E17" t="s">
+        <v>543</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H17" t="s">
+        <v>508</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18">
+        <v>2011</v>
+      </c>
+      <c r="D18">
+        <v>2011</v>
+      </c>
+      <c r="E18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F18" t="s">
+        <v>534</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="H18" t="s">
+        <v>531</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19">
         <v>2012</v>
       </c>
-      <c r="E4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F4" t="s">
-        <v>433</v>
-      </c>
-      <c r="G4" t="s">
-        <v>440</v>
-      </c>
-      <c r="H4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I4" t="s">
-        <v>436</v>
+      <c r="D19">
+        <v>2015</v>
+      </c>
+      <c r="E19" t="s">
+        <v>552</v>
+      </c>
+      <c r="F19" t="s">
+        <v>534</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H19" t="s">
+        <v>508</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20">
+        <v>2016</v>
+      </c>
+      <c r="D20">
+        <v>2016</v>
+      </c>
+      <c r="E20" t="s">
+        <v>553</v>
+      </c>
+      <c r="F20" t="s">
+        <v>534</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H20" t="s">
+        <v>532</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21">
+        <v>2017</v>
+      </c>
+      <c r="D21">
+        <v>2017</v>
+      </c>
+      <c r="E21" t="s">
+        <v>555</v>
+      </c>
+      <c r="F21" t="s">
+        <v>534</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="H21" t="s">
+        <v>533</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>529</v>
+      </c>
+      <c r="C22">
+        <v>2013</v>
+      </c>
+      <c r="D22">
+        <v>2015</v>
+      </c>
+      <c r="E22" t="s">
+        <v>554</v>
+      </c>
+      <c r="F22" t="s">
+        <v>535</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H22" t="s">
+        <v>508</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>530</v>
+      </c>
+      <c r="C23">
+        <v>2010</v>
+      </c>
+      <c r="D23">
+        <v>2010</v>
+      </c>
+      <c r="E23" t="s">
+        <v>556</v>
+      </c>
+      <c r="F23" t="s">
+        <v>544</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H23" t="s">
+        <v>531</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>530</v>
+      </c>
+      <c r="C24">
+        <v>2011</v>
+      </c>
+      <c r="D24">
+        <v>2011</v>
+      </c>
+      <c r="E24" t="s">
+        <v>556</v>
+      </c>
+      <c r="F24" t="s">
+        <v>544</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H24" t="s">
+        <v>533</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>558</v>
+      </c>
+      <c r="C25">
+        <v>2010</v>
+      </c>
+      <c r="D25">
+        <v>2010</v>
+      </c>
+      <c r="E25" t="s">
+        <v>559</v>
+      </c>
+      <c r="H25" t="s">
+        <v>557</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>563</v>
+      </c>
+      <c r="C26">
+        <v>2006</v>
+      </c>
+      <c r="D26">
+        <v>2006</v>
+      </c>
+      <c r="E26" t="s">
+        <v>564</v>
+      </c>
+      <c r="F26" t="s">
+        <v>566</v>
+      </c>
+      <c r="G26" t="s">
+        <v>431</v>
+      </c>
+      <c r="H26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>563</v>
+      </c>
+      <c r="C27">
+        <v>2007</v>
+      </c>
+      <c r="D27">
+        <v>2007</v>
+      </c>
+      <c r="E27" t="s">
+        <v>564</v>
+      </c>
+      <c r="F27" t="s">
+        <v>566</v>
+      </c>
+      <c r="G27" t="s">
+        <v>431</v>
+      </c>
+      <c r="H27" t="s">
+        <v>567</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>563</v>
+      </c>
+      <c r="C28">
+        <v>2008</v>
+      </c>
+      <c r="D28">
+        <v>2008</v>
+      </c>
+      <c r="E28" t="s">
+        <v>564</v>
+      </c>
+      <c r="F28" t="s">
+        <v>565</v>
+      </c>
+      <c r="G28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H28" t="s">
+        <v>567</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>568</v>
+      </c>
+      <c r="C29">
+        <v>2010</v>
+      </c>
+      <c r="D29">
+        <v>2010</v>
+      </c>
+      <c r="E29" t="s">
+        <v>569</v>
+      </c>
+      <c r="F29" t="s">
+        <v>570</v>
+      </c>
+      <c r="G29" t="s">
+        <v>431</v>
+      </c>
+      <c r="H29" t="s">
+        <v>567</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4656,7 +5967,7 @@
         <v>222</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -4679,7 +5990,7 @@
         <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -4699,13 +6010,13 @@
         <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G3" t="s">
         <v>203</v>
@@ -4722,13 +6033,13 @@
         <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G4" t="s">
         <v>203</v>
@@ -4745,13 +6056,13 @@
         <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G5" t="s">
         <v>203</v>
@@ -4768,13 +6079,13 @@
         <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G6" t="s">
         <v>203</v>
@@ -4791,13 +6102,13 @@
         <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G7" t="s">
         <v>203</v>
@@ -4814,13 +6125,13 @@
         <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G8" t="s">
         <v>203</v>
@@ -4837,13 +6148,13 @@
         <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G9" t="s">
         <v>203</v>
@@ -4860,13 +6171,13 @@
         <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G10" t="s">
         <v>203</v>
@@ -4883,13 +6194,13 @@
         <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G11" t="s">
         <v>203</v>
@@ -4906,13 +6217,13 @@
         <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G12" t="s">
         <v>203</v>
@@ -4929,13 +6240,13 @@
         <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G13" t="s">
         <v>203</v>
@@ -4952,13 +6263,13 @@
         <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G14" t="s">
         <v>203</v>
@@ -4975,13 +6286,13 @@
         <v>229</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G15" t="s">
         <v>203</v>
@@ -4998,13 +6309,13 @@
         <v>2017</v>
       </c>
       <c r="D16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G16" t="s">
         <v>244</v>
@@ -5018,13 +6329,13 @@
         <v>243</v>
       </c>
       <c r="D17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G17" t="s">
         <v>244</v>
@@ -5041,13 +6352,13 @@
         <v>2013</v>
       </c>
       <c r="D18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G18" t="s">
         <v>245</v>
@@ -5064,13 +6375,13 @@
         <v>2006</v>
       </c>
       <c r="D19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G19" t="s">
         <v>241</v>
@@ -5087,13 +6398,13 @@
         <v>2014</v>
       </c>
       <c r="D20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G20" t="s">
         <v>248</v>
@@ -5110,13 +6421,13 @@
         <v>2010</v>
       </c>
       <c r="D21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G21" t="s">
         <v>214</v>
@@ -5133,13 +6444,13 @@
         <v>2012</v>
       </c>
       <c r="D22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G22" t="s">
         <v>214</v>
@@ -5156,13 +6467,13 @@
         <v>2014</v>
       </c>
       <c r="D23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G23" t="s">
         <v>214</v>
@@ -5176,16 +6487,16 @@
         <v>250</v>
       </c>
       <c r="C24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G24" t="s">
         <v>251</v>
@@ -5202,13 +6513,13 @@
         <v>2010</v>
       </c>
       <c r="D25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G25" t="s">
         <v>253</v>
@@ -5225,13 +6536,13 @@
         <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G26" t="s">
         <v>214</v>
@@ -5248,13 +6559,13 @@
         <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G27" t="s">
         <v>214</v>
@@ -5271,13 +6582,13 @@
         <v>2010</v>
       </c>
       <c r="D28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G28" t="s">
         <v>214</v>
@@ -5294,13 +6605,13 @@
         <v>2009</v>
       </c>
       <c r="D29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G29" t="s">
         <v>214</v>
@@ -5317,13 +6628,13 @@
         <v>2008</v>
       </c>
       <c r="D30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G30" t="s">
         <v>333</v>
@@ -5340,13 +6651,13 @@
         <v>2008</v>
       </c>
       <c r="D31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G31" t="s">
         <v>214</v>
@@ -5357,19 +6668,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C32">
         <v>2015</v>
       </c>
       <c r="D32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G32" t="s">
         <v>220</v>
@@ -5384,11 +6695,340 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F22342A-9809-473D-ADB1-AF47B630B508}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D107D88-62EE-4992-AFEF-BB9D7FB2D529}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G3" t="s">
+        <v>573</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G4" t="s">
+        <v>573</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G5" t="s">
+        <v>573</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D6" t="s">
+        <v>574</v>
+      </c>
+      <c r="E6" t="s">
+        <v>584</v>
+      </c>
+      <c r="F6" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" t="s">
+        <v>573</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>579</v>
+      </c>
+      <c r="D7" t="s">
+        <v>574</v>
+      </c>
+      <c r="E7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" t="s">
+        <v>573</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D8" t="s">
+        <v>574</v>
+      </c>
+      <c r="E8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" t="s">
+        <v>573</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D9" t="s">
+        <v>583</v>
+      </c>
+      <c r="E9" t="s">
+        <v>585</v>
+      </c>
+      <c r="F9" t="s">
+        <v>409</v>
+      </c>
+      <c r="G9" t="s">
+        <v>573</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C10" t="s">
+        <v>586</v>
+      </c>
+      <c r="D10" t="s">
+        <v>607</v>
+      </c>
+      <c r="E10" t="s">
+        <v>593</v>
+      </c>
+      <c r="F10" t="s">
+        <v>589</v>
+      </c>
+      <c r="H10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C11" t="s">
+        <v>586</v>
+      </c>
+      <c r="D11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E11" t="s">
+        <v>594</v>
+      </c>
+      <c r="F11" t="s">
+        <v>589</v>
+      </c>
+      <c r="H11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C12">
+        <v>2016</v>
+      </c>
+      <c r="D12" t="s">
+        <v>591</v>
+      </c>
+      <c r="E12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" t="s">
+        <v>590</v>
+      </c>
+      <c r="H12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>602</v>
+      </c>
+      <c r="C13">
+        <v>2014</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E13" t="s">
+        <v>594</v>
+      </c>
+      <c r="F13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H13" t="s">
+        <v>604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F434878D-D55F-47A4-AC18-D55001D3C372}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5407,7 +7047,7 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -5416,7 +7056,7 @@
         <v>222</v>
       </c>
       <c r="H1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I1" t="s">
         <v>82</v>
@@ -5436,7 +7076,7 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -5445,7 +7085,7 @@
         <v>223</v>
       </c>
       <c r="H2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -5456,28 +7096,202 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>595</v>
       </c>
       <c r="C3">
+        <v>2014</v>
+      </c>
+      <c r="D3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H3" t="s">
+        <v>611</v>
+      </c>
+      <c r="I3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G4" t="s">
+        <v>600</v>
+      </c>
+      <c r="H4" t="s">
+        <v>611</v>
+      </c>
+      <c r="I4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5">
+        <v>2013</v>
+      </c>
+      <c r="D5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E5" t="s">
+        <v>609</v>
+      </c>
+      <c r="F5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G5" t="s">
+        <v>610</v>
+      </c>
+      <c r="H5" t="s">
+        <v>611</v>
+      </c>
+      <c r="I5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C6">
+        <v>2012</v>
+      </c>
+      <c r="D6" t="s">
+        <v>608</v>
+      </c>
+      <c r="E6" t="s">
+        <v>609</v>
+      </c>
+      <c r="F6" t="s">
+        <v>411</v>
+      </c>
+      <c r="G6" t="s">
+        <v>610</v>
+      </c>
+      <c r="H6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7">
+        <v>2012</v>
+      </c>
+      <c r="D7" t="s">
+        <v>608</v>
+      </c>
+      <c r="E7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H7" t="s">
+        <v>611</v>
+      </c>
+      <c r="I7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C8">
+        <v>2012</v>
+      </c>
+      <c r="D8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E8" t="s">
+        <v>609</v>
+      </c>
+      <c r="F8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H8" t="s">
+        <v>611</v>
+      </c>
+      <c r="I8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C9">
         <v>2011</v>
       </c>
-      <c r="D3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G3" t="s">
-        <v>435</v>
-      </c>
-      <c r="H3" t="s">
-        <v>436</v>
-      </c>
-      <c r="I3" t="s">
-        <v>438</v>
+      <c r="D9" t="s">
+        <v>608</v>
+      </c>
+      <c r="E9" t="s">
+        <v>609</v>
+      </c>
+      <c r="F9" t="s">
+        <v>409</v>
+      </c>
+      <c r="G9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H9" t="s">
+        <v>616</v>
+      </c>
+      <c r="I9" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -5485,7 +7299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
   <dimension ref="A1:I45"/>
   <sheetViews>
@@ -5515,16 +7329,16 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I1" t="s">
         <v>82</v>
@@ -5544,16 +7358,16 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -5579,7 +7393,7 @@
         <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -5613,7 +7427,7 @@
         <v>2016</v>
       </c>
       <c r="E5" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F5" t="s">
         <v>302</v>
@@ -5625,7 +7439,7 @@
         <v>171</v>
       </c>
       <c r="I5" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -5639,7 +7453,7 @@
         <v>2016</v>
       </c>
       <c r="E6" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F6" t="s">
         <v>302</v>
@@ -5648,7 +7462,7 @@
         <v>173</v>
       </c>
       <c r="H6" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="I6" t="s">
         <v>172</v>
@@ -5665,7 +7479,7 @@
         <v>2015</v>
       </c>
       <c r="E7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F7" t="s">
         <v>302</v>
@@ -5688,7 +7502,7 @@
         <v>2014</v>
       </c>
       <c r="E8" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F8" t="s">
         <v>302</v>
@@ -5700,7 +7514,7 @@
         <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -5740,7 +7554,7 @@
         <v>185</v>
       </c>
       <c r="H10" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I10" t="s">
         <v>179</v>
@@ -5763,7 +7577,7 @@
         <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="I11" t="s">
         <v>181</v>
@@ -5786,7 +7600,7 @@
         <v>183</v>
       </c>
       <c r="H12" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="I12" t="s">
         <v>182</v>
@@ -5826,7 +7640,7 @@
         <v>2015</v>
       </c>
       <c r="E14" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F14" t="s">
         <v>178</v>
@@ -5990,7 +7804,7 @@
         <v>2015</v>
       </c>
       <c r="E21" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F21" t="s">
         <v>301</v>
@@ -6266,7 +8080,7 @@
         <v>216</v>
       </c>
       <c r="H33" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="I33" t="s">
         <v>214</v>
@@ -6283,7 +8097,7 @@
         <v>2015</v>
       </c>
       <c r="E34" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>313</v>
@@ -6309,7 +8123,7 @@
         <v>2015</v>
       </c>
       <c r="E35" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>313</v>
@@ -6318,7 +8132,7 @@
         <v>318</v>
       </c>
       <c r="H35" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="I35" t="s">
         <v>317</v>
@@ -6364,7 +8178,7 @@
         <v>216</v>
       </c>
       <c r="H37" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="I37" t="s">
         <v>214</v>
@@ -6387,7 +8201,7 @@
         <v>169</v>
       </c>
       <c r="H38" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="I38" t="s">
         <v>248</v>
@@ -6507,25 +8321,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C44">
         <v>2016</v>
       </c>
       <c r="E44" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G44" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="H44" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="I44" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -6539,273 +8353,19 @@
         <v>2016</v>
       </c>
       <c r="E45" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F45" t="s">
         <v>178</v>
       </c>
       <c r="G45" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="H45" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="I45" t="s">
-        <v>481</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE156D2-7E33-4447-A53C-1EA25432072D}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G2" t="s">
-        <v>369</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C3">
-        <v>2017</v>
-      </c>
-      <c r="E3" t="s">
-        <v>449</v>
-      </c>
-      <c r="G3" t="s">
-        <v>442</v>
-      </c>
-      <c r="H3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C4">
-        <v>2017</v>
-      </c>
-      <c r="E4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C5">
-        <v>2017</v>
-      </c>
-      <c r="E5" t="s">
-        <v>451</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C6">
-        <v>2017</v>
-      </c>
-      <c r="E6" t="s">
-        <v>452</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C7">
-        <v>2017</v>
-      </c>
-      <c r="E7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C8">
-        <v>2017</v>
-      </c>
-      <c r="E8" t="s">
-        <v>454</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C9">
-        <v>2018</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="E9" t="s">
-        <v>457</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="714" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="714" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="618">
   <si>
     <t>ID</t>
   </si>
@@ -3636,7 +3636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -5090,7 +5090,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6698,8 +6698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D107D88-62EE-4992-AFEF-BB9D7FB2D529}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6939,6 +6939,9 @@
       <c r="F10" t="s">
         <v>589</v>
       </c>
+      <c r="G10" t="s">
+        <v>573</v>
+      </c>
       <c r="H10" t="s">
         <v>588</v>
       </c>
@@ -6961,6 +6964,9 @@
       </c>
       <c r="F11" t="s">
         <v>589</v>
+      </c>
+      <c r="G11" t="s">
+        <v>573</v>
       </c>
       <c r="H11" t="s">
         <v>587</v>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -4,23 +4,26 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="714" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
-    <sheet name="Award" sheetId="7" r:id="rId2"/>
-    <sheet name="Education" sheetId="9" r:id="rId3"/>
-    <sheet name="Job" sheetId="3" r:id="rId4"/>
-    <sheet name="Contest" sheetId="13" r:id="rId5"/>
-    <sheet name="Course" sheetId="8" r:id="rId6"/>
-    <sheet name="Service" sheetId="16" r:id="rId7"/>
-    <sheet name="ScienceFair" sheetId="17" r:id="rId8"/>
-    <sheet name="Talk" sheetId="2" r:id="rId9"/>
-    <sheet name="ArtItem" sheetId="6" r:id="rId10"/>
-    <sheet name="CodingItem" sheetId="4" r:id="rId11"/>
-    <sheet name="Book" sheetId="12" r:id="rId12"/>
-    <sheet name="MainstreamMedia" sheetId="10" r:id="rId13"/>
-    <sheet name="ScientificPublication" sheetId="1" r:id="rId14"/>
+    <sheet name="LINK" sheetId="21" r:id="rId2"/>
+    <sheet name="SECTION" sheetId="19" r:id="rId3"/>
+    <sheet name="SECLIST" sheetId="20" r:id="rId4"/>
+    <sheet name="Award" sheetId="7" r:id="rId5"/>
+    <sheet name="Education" sheetId="9" r:id="rId6"/>
+    <sheet name="Job" sheetId="3" r:id="rId7"/>
+    <sheet name="Contest" sheetId="13" r:id="rId8"/>
+    <sheet name="Course" sheetId="8" r:id="rId9"/>
+    <sheet name="Service" sheetId="16" r:id="rId10"/>
+    <sheet name="ScienceFair" sheetId="17" r:id="rId11"/>
+    <sheet name="Talk" sheetId="2" r:id="rId12"/>
+    <sheet name="ArtItem" sheetId="6" r:id="rId13"/>
+    <sheet name="CodingItem" sheetId="4" r:id="rId14"/>
+    <sheet name="Book" sheetId="12" r:id="rId15"/>
+    <sheet name="MainstreamMedia" sheetId="10" r:id="rId16"/>
+    <sheet name="ScientificPublication" sheetId="1" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="689">
   <si>
     <t>ID</t>
   </si>
@@ -1054,9 +1057,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Entity</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -1103,15 +1103,6 @@
   </si>
   <si>
     <t>journal, volume, pages</t>
-  </si>
-  <si>
-    <t>LINKTYPES</t>
-  </si>
-  <si>
-    <t>Returns</t>
-  </si>
-  <si>
-    <t>http</t>
   </si>
   <si>
     <t>Certificate</t>
@@ -1899,6 +1890,231 @@
   </si>
   <si>
     <t>SMM</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Short Stories</t>
+  </si>
+  <si>
+    <t>stories</t>
+  </si>
+  <si>
+    <t>In Media</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Publications</t>
+  </si>
+  <si>
+    <t>prompub</t>
+  </si>
+  <si>
+    <t>Math Fairs</t>
+  </si>
+  <si>
+    <t>fairs</t>
+  </si>
+  <si>
+    <t>Academic Service</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>All Projects</t>
+  </si>
+  <si>
+    <t>wholep</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>datascp</t>
+  </si>
+  <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>webp</t>
+  </si>
+  <si>
+    <t>given</t>
+  </si>
+  <si>
+    <t>Teaching</t>
+  </si>
+  <si>
+    <t>teaching</t>
+  </si>
+  <si>
+    <t>int_conf, seminar, local_conf</t>
+  </si>
+  <si>
+    <t>Talks and Slides</t>
+  </si>
+  <si>
+    <t>presentations</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>pythonp</t>
+  </si>
+  <si>
+    <t>Math Contests</t>
+  </si>
+  <si>
+    <t>olympiad</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>Drawings</t>
+  </si>
+  <si>
+    <t>drawings</t>
+  </si>
+  <si>
+    <t>Awards</t>
+  </si>
+  <si>
+    <t>awards</t>
+  </si>
+  <si>
+    <t>Professional Experience</t>
+  </si>
+  <si>
+    <t>jobs</t>
+  </si>
+  <si>
+    <t>journal, ext-abs, thesis, in-review, accepted, preprint</t>
+  </si>
+  <si>
+    <t>Scientific Publications</t>
+  </si>
+  <si>
+    <t>papers</t>
+  </si>
+  <si>
+    <t>filter_tags</t>
+  </si>
+  <si>
+    <t>_class</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Section Caption</t>
+  </si>
+  <si>
+    <t>Section Name</t>
+  </si>
+  <si>
+    <t>drawings, music, stories, random, links</t>
+  </si>
+  <si>
+    <t>Hobbies and more</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>olympiad, fairs, prompub, media</t>
+  </si>
+  <si>
+    <t>Promotion of Math and Problem-Solving</t>
+  </si>
+  <si>
+    <t>promotion</t>
+  </si>
+  <si>
+    <t>wholep, pythonp, webp, datascp</t>
+  </si>
+  <si>
+    <t>Coding Portfolio</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>papers, presentations, teaching, service</t>
+  </si>
+  <si>
+    <t>Mathematical Research</t>
+  </si>
+  <si>
+    <t>about, education, jobs, awards</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>subsections</t>
+  </si>
+  <si>
+    <t>Subsections</t>
+  </si>
+  <si>
+    <t>Name of list of Sections</t>
+  </si>
+  <si>
+    <t>ID Name</t>
+  </si>
+  <si>
+    <t>Constructs</t>
+  </si>
+  <si>
+    <t>constructs</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/{{ }}</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/{{ }}</t>
+  </si>
+  <si>
+    <t>{{ }}</t>
+  </si>
+  <si>
+    <t>https://github.com/{{ }}</t>
+  </si>
+  <si>
+    <t>YouTubeBS</t>
+  </si>
+  <si>
+    <t>youtubebs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/{{ }}?controls=0</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -2251,284 +2467,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4124AE-DF8A-4F61-BE3E-B761EBF17BD8}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="1" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" t="s">
+        <v>687</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>343</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="B7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>688</v>
+      </c>
+      <c r="C8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" t="s">
+        <v>687</v>
+      </c>
+      <c r="C10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" t="s">
+        <v>688</v>
+      </c>
+      <c r="C12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" t="s">
+        <v>688</v>
+      </c>
+      <c r="C13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" t="s">
+        <v>688</v>
+      </c>
+      <c r="C14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s">
+        <v>688</v>
+      </c>
+      <c r="C15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" t="s">
+        <v>688</v>
+      </c>
+      <c r="C17" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" t="s">
+        <v>688</v>
+      </c>
+      <c r="C18" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" t="s">
+        <v>687</v>
+      </c>
+      <c r="C19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" t="s">
+        <v>688</v>
+      </c>
+      <c r="C20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" t="s">
+        <v>688</v>
+      </c>
+      <c r="C21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" t="s">
+        <v>355</v>
+      </c>
+      <c r="E21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22" t="s">
+        <v>688</v>
+      </c>
+      <c r="C22" t="s">
         <v>346</v>
-      </c>
-      <c r="C5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B10" t="s">
-        <v>360</v>
-      </c>
-      <c r="D10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B12" t="s">
-        <v>346</v>
-      </c>
-      <c r="C12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B13" t="s">
-        <v>362</v>
-      </c>
-      <c r="C13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B14" t="s">
-        <v>362</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>571</v>
-      </c>
-      <c r="B15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>394</v>
-      </c>
-      <c r="B16" t="s">
-        <v>362</v>
-      </c>
-      <c r="C16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>370</v>
-      </c>
-      <c r="B17" t="s">
-        <v>362</v>
-      </c>
-      <c r="C17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D17" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>364</v>
-      </c>
-      <c r="B19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>365</v>
-      </c>
-      <c r="B20" t="s">
-        <v>364</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>369</v>
-      </c>
-      <c r="B21" t="s">
-        <v>364</v>
-      </c>
-      <c r="C21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>347</v>
-      </c>
-      <c r="B23" t="s">
-        <v>346</v>
-      </c>
-      <c r="C23" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>354</v>
-      </c>
-      <c r="B24" t="s">
-        <v>347</v>
-      </c>
-      <c r="C24" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>348</v>
-      </c>
-      <c r="B25" t="s">
-        <v>347</v>
-      </c>
-      <c r="C25" t="s">
-        <v>356</v>
-      </c>
-      <c r="D25" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>397</v>
-      </c>
-      <c r="B26" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>339</v>
-      </c>
-      <c r="B29" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>366</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -2537,11 +2767,1697 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D107D88-62EE-4992-AFEF-BB9D7FB2D529}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" t="s">
+        <v>581</v>
+      </c>
+      <c r="F4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" t="s">
+        <v>569</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D5" t="s">
+        <v>579</v>
+      </c>
+      <c r="E5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G5" t="s">
+        <v>569</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D6" t="s">
+        <v>570</v>
+      </c>
+      <c r="E6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F6" t="s">
+        <v>405</v>
+      </c>
+      <c r="G6" t="s">
+        <v>569</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>575</v>
+      </c>
+      <c r="D7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E7" t="s">
+        <v>580</v>
+      </c>
+      <c r="F7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>576</v>
+      </c>
+      <c r="D8" t="s">
+        <v>570</v>
+      </c>
+      <c r="E8" t="s">
+        <v>580</v>
+      </c>
+      <c r="F8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" t="s">
+        <v>569</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>577</v>
+      </c>
+      <c r="D9" t="s">
+        <v>579</v>
+      </c>
+      <c r="E9" t="s">
+        <v>581</v>
+      </c>
+      <c r="F9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G9" t="s">
+        <v>569</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C10" t="s">
+        <v>582</v>
+      </c>
+      <c r="D10" t="s">
+        <v>603</v>
+      </c>
+      <c r="E10" t="s">
+        <v>589</v>
+      </c>
+      <c r="F10" t="s">
+        <v>585</v>
+      </c>
+      <c r="G10" t="s">
+        <v>569</v>
+      </c>
+      <c r="H10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>602</v>
+      </c>
+      <c r="C11" t="s">
+        <v>582</v>
+      </c>
+      <c r="D11" t="s">
+        <v>603</v>
+      </c>
+      <c r="E11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F11" t="s">
+        <v>585</v>
+      </c>
+      <c r="G11" t="s">
+        <v>569</v>
+      </c>
+      <c r="H11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C12">
+        <v>2016</v>
+      </c>
+      <c r="D12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" t="s">
+        <v>405</v>
+      </c>
+      <c r="G12" t="s">
+        <v>586</v>
+      </c>
+      <c r="H12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>598</v>
+      </c>
+      <c r="C13">
+        <v>2014</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E13" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" t="s">
+        <v>407</v>
+      </c>
+      <c r="G13" t="s">
+        <v>510</v>
+      </c>
+      <c r="H13" t="s">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F434878D-D55F-47A4-AC18-D55001D3C372}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C3">
+        <v>2014</v>
+      </c>
+      <c r="D3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H3" t="s">
+        <v>607</v>
+      </c>
+      <c r="I3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" t="s">
+        <v>596</v>
+      </c>
+      <c r="H4" t="s">
+        <v>607</v>
+      </c>
+      <c r="I4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5">
+        <v>2013</v>
+      </c>
+      <c r="D5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G5" t="s">
+        <v>606</v>
+      </c>
+      <c r="H5" t="s">
+        <v>607</v>
+      </c>
+      <c r="I5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C6">
+        <v>2012</v>
+      </c>
+      <c r="D6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E6" t="s">
+        <v>605</v>
+      </c>
+      <c r="F6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G6" t="s">
+        <v>606</v>
+      </c>
+      <c r="H6" t="s">
+        <v>607</v>
+      </c>
+      <c r="I6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C7">
+        <v>2012</v>
+      </c>
+      <c r="D7" t="s">
+        <v>604</v>
+      </c>
+      <c r="E7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G7" t="s">
+        <v>606</v>
+      </c>
+      <c r="H7" t="s">
+        <v>607</v>
+      </c>
+      <c r="I7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C8">
+        <v>2012</v>
+      </c>
+      <c r="D8" t="s">
+        <v>604</v>
+      </c>
+      <c r="E8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" t="s">
+        <v>510</v>
+      </c>
+      <c r="H8" t="s">
+        <v>607</v>
+      </c>
+      <c r="I8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C9">
+        <v>2011</v>
+      </c>
+      <c r="D9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G9" t="s">
+        <v>510</v>
+      </c>
+      <c r="H9" t="s">
+        <v>612</v>
+      </c>
+      <c r="I9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="38.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>2017</v>
+      </c>
+      <c r="F3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>2016</v>
+      </c>
+      <c r="F4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5">
+        <v>2016</v>
+      </c>
+      <c r="E5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6">
+        <v>2016</v>
+      </c>
+      <c r="E6" t="s">
+        <v>472</v>
+      </c>
+      <c r="F6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" t="s">
+        <v>471</v>
+      </c>
+      <c r="I6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7">
+        <v>2015</v>
+      </c>
+      <c r="E7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2014</v>
+      </c>
+      <c r="E8" t="s">
+        <v>468</v>
+      </c>
+      <c r="F8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9">
+        <v>2013</v>
+      </c>
+      <c r="F9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G9" t="s">
+        <v>322</v>
+      </c>
+      <c r="H9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>2014</v>
+      </c>
+      <c r="F10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" t="s">
+        <v>489</v>
+      </c>
+      <c r="I10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="F11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>484</v>
+      </c>
+      <c r="I11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12">
+        <v>2017</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" t="s">
+        <v>484</v>
+      </c>
+      <c r="I12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13">
+        <v>2016</v>
+      </c>
+      <c r="F13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14">
+        <v>2015</v>
+      </c>
+      <c r="E14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15">
+        <v>2015</v>
+      </c>
+      <c r="F15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16">
+        <v>2014</v>
+      </c>
+      <c r="F16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17">
+        <v>2013</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18">
+        <v>2013</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>320</v>
+      </c>
+      <c r="H18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19">
+        <v>2013</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20">
+        <v>2011</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21">
+        <v>2015</v>
+      </c>
+      <c r="E21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F21" t="s">
+        <v>301</v>
+      </c>
+      <c r="G21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" t="s">
+        <v>193</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22">
+        <v>2015</v>
+      </c>
+      <c r="F22" t="s">
+        <v>301</v>
+      </c>
+      <c r="G22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23">
+        <v>2014</v>
+      </c>
+      <c r="F23" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24">
+        <v>2014</v>
+      </c>
+      <c r="F24" t="s">
+        <v>301</v>
+      </c>
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" t="s">
+        <v>204</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25">
+        <v>2014</v>
+      </c>
+      <c r="F25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26">
+        <v>2014</v>
+      </c>
+      <c r="F26" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27">
+        <v>2014</v>
+      </c>
+      <c r="F27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" t="s">
+        <v>212</v>
+      </c>
+      <c r="I27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28">
+        <v>2013</v>
+      </c>
+      <c r="F28" t="s">
+        <v>301</v>
+      </c>
+      <c r="G28" t="s">
+        <v>321</v>
+      </c>
+      <c r="H28" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29">
+        <v>2013</v>
+      </c>
+      <c r="F29" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30">
+        <v>2013</v>
+      </c>
+      <c r="F30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31">
+        <v>2012</v>
+      </c>
+      <c r="F31" t="s">
+        <v>301</v>
+      </c>
+      <c r="G31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" t="s">
+        <v>193</v>
+      </c>
+      <c r="I31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C32">
+        <v>2015</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G32" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" t="s">
+        <v>314</v>
+      </c>
+      <c r="I32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33">
+        <v>2015</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" t="s">
+        <v>485</v>
+      </c>
+      <c r="I33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34">
+        <v>2015</v>
+      </c>
+      <c r="E34" t="s">
+        <v>476</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G34" t="s">
+        <v>320</v>
+      </c>
+      <c r="H34" t="s">
+        <v>316</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35">
+        <v>2015</v>
+      </c>
+      <c r="E35" t="s">
+        <v>458</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" t="s">
+        <v>318</v>
+      </c>
+      <c r="H35" t="s">
+        <v>486</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36">
+        <v>2014</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" t="s">
+        <v>319</v>
+      </c>
+      <c r="I36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37">
+        <v>2014</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" t="s">
+        <v>216</v>
+      </c>
+      <c r="H37" t="s">
+        <v>487</v>
+      </c>
+      <c r="I37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38">
+        <v>2014</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" t="s">
+        <v>488</v>
+      </c>
+      <c r="I38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>309</v>
+      </c>
+      <c r="C39">
+        <v>2013</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" t="s">
+        <v>321</v>
+      </c>
+      <c r="H39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>135</v>
+      </c>
+      <c r="B40" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40">
+        <v>2012</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>136</v>
+      </c>
+      <c r="B41" t="s">
+        <v>310</v>
+      </c>
+      <c r="C41">
+        <v>2013</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s">
+        <v>323</v>
+      </c>
+      <c r="I41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>311</v>
+      </c>
+      <c r="C42">
+        <v>2013</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" t="s">
+        <v>324</v>
+      </c>
+      <c r="I42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43">
+        <v>2013</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" t="s">
+        <v>327</v>
+      </c>
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C44">
+        <v>2016</v>
+      </c>
+      <c r="E44" t="s">
+        <v>473</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" t="s">
+        <v>460</v>
+      </c>
+      <c r="H44" t="s">
+        <v>463</v>
+      </c>
+      <c r="I44" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <v>2016</v>
+      </c>
+      <c r="E45" t="s">
+        <v>464</v>
+      </c>
+      <c r="F45" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" t="s">
+        <v>465</v>
+      </c>
+      <c r="H45" t="s">
+        <v>466</v>
+      </c>
+      <c r="I45" t="s">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE156D2-7E33-4447-A53C-1EA25432072D}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2554,19 +4470,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H1" t="s">
         <v>64</v>
@@ -2580,19 +4496,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H2" t="s">
         <v>65</v>
@@ -2600,188 +4516,188 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C3">
         <v>2017</v>
       </c>
       <c r="E3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C4">
         <v>2017</v>
       </c>
       <c r="E4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C5">
         <v>2017</v>
       </c>
       <c r="E5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="H5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="E6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C10" s="2">
         <v>2018</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C11" s="2">
         <v>2018</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -2790,12 +4706,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2811,19 +4727,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H1" t="s">
         <v>129</v>
@@ -2837,19 +4753,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H2" t="s">
         <v>124</v>
@@ -2857,7 +4773,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
         <v>120</v>
@@ -2869,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G3" t="s">
         <v>125</v>
@@ -2880,7 +4796,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
         <v>149</v>
@@ -2892,7 +4808,7 @@
         <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G4" t="s">
         <v>125</v>
@@ -2903,7 +4819,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
         <v>118</v>
@@ -2912,7 +4828,7 @@
         <v>2017</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2925,7 +4841,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -2946,7 +4862,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
         <v>117</v>
@@ -2968,7 +4884,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
         <v>121</v>
@@ -2982,7 +4898,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H8" t="s">
         <v>135</v>
@@ -2990,7 +4906,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
         <v>128</v>
@@ -3013,7 +4929,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
         <v>123</v>
@@ -3036,7 +4952,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -3059,10 +4975,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C12">
         <v>2016</v>
@@ -3080,7 +4996,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
         <v>138</v>
@@ -3089,7 +5005,7 @@
         <v>2010</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E13" s="2"/>
       <c r="G13" t="s">
@@ -3101,22 +5017,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C14">
         <v>2018</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>144</v>
@@ -3143,12 +5059,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9DC452-8FB8-48D7-9200-F8DA05DAADE9}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3164,16 +5080,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -3190,16 +5106,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -3210,7 +5126,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
         <v>293</v>
@@ -3227,7 +5143,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>294</v>
@@ -3244,7 +5160,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>295</v>
@@ -3261,7 +5177,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>296</v>
@@ -3278,7 +5194,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>297</v>
@@ -3298,12 +5214,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB14F89-81DD-48BF-BD72-6AB1ED9495A4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3319,16 +5235,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -3337,10 +5253,10 @@
         <v>298</v>
       </c>
       <c r="I1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3351,16 +5267,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -3369,15 +5285,15 @@
         <v>299</v>
       </c>
       <c r="I2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>279</v>
@@ -3398,12 +5314,12 @@
         <v>281</v>
       </c>
       <c r="J3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>280</v>
@@ -3422,12 +5338,12 @@
         <v>282</v>
       </c>
       <c r="J4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
         <v>283</v>
@@ -3446,12 +5362,12 @@
         <v>282</v>
       </c>
       <c r="J5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>284</v>
@@ -3469,12 +5385,12 @@
         <v>281</v>
       </c>
       <c r="J6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>285</v>
@@ -3490,12 +5406,12 @@
         <v>282</v>
       </c>
       <c r="J7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>286</v>
@@ -3513,12 +5429,12 @@
         <v>281</v>
       </c>
       <c r="J8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
         <v>287</v>
@@ -3536,12 +5452,12 @@
         <v>281</v>
       </c>
       <c r="J9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>288</v>
@@ -3557,12 +5473,12 @@
         <v>282</v>
       </c>
       <c r="J10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
         <v>289</v>
@@ -3578,12 +5494,12 @@
         <v>282</v>
       </c>
       <c r="J11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>290</v>
@@ -3601,12 +5517,12 @@
         <v>291</v>
       </c>
       <c r="J12" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
         <v>292</v>
@@ -3624,7 +5540,7 @@
         <v>281</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -3632,12 +5548,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3659,13 +5575,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -3674,7 +5590,7 @@
         <v>337</v>
       </c>
       <c r="H1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -3700,13 +5616,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -3715,7 +5631,7 @@
         <v>338</v>
       </c>
       <c r="H2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -3735,7 +5651,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -3767,7 +5683,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -3796,7 +5712,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -3828,7 +5744,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -3860,7 +5776,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -3869,7 +5785,7 @@
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -3881,7 +5797,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -3904,7 +5820,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -3936,7 +5852,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -3945,7 +5861,7 @@
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G10">
         <v>1612.0343499999999</v>
@@ -3961,7 +5877,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -3970,7 +5886,7 @@
         <v>2015</v>
       </c>
       <c r="E11" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
@@ -3991,7 +5907,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -4000,7 +5916,7 @@
         <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -4021,7 +5937,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -4053,7 +5969,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -4062,7 +5978,7 @@
         <v>2013</v>
       </c>
       <c r="E14" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -4083,7 +5999,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
         <v>157</v>
@@ -4106,7 +6022,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
         <v>158</v>
@@ -4129,7 +6045,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
         <v>255</v>
@@ -4138,10 +6054,10 @@
         <v>2014</v>
       </c>
       <c r="E17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I17" t="s">
         <v>254</v>
@@ -4156,7 +6072,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
         <v>256</v>
@@ -4165,10 +6081,10 @@
         <v>2015</v>
       </c>
       <c r="E18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I18" t="s">
         <v>254</v>
@@ -4183,7 +6099,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
         <v>257</v>
@@ -4192,10 +6108,10 @@
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I19" t="s">
         <v>254</v>
@@ -4210,7 +6126,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
         <v>258</v>
@@ -4219,10 +6135,10 @@
         <v>2015</v>
       </c>
       <c r="E20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="I20" t="s">
         <v>254</v>
@@ -4237,7 +6153,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
         <v>259</v>
@@ -4246,7 +6162,7 @@
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I21" t="s">
         <v>254</v>
@@ -4261,7 +6177,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s">
         <v>260</v>
@@ -4271,7 +6187,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I22" t="s">
         <v>254</v>
@@ -4286,7 +6202,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
         <v>270</v>
@@ -4296,7 +6212,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I23" t="s">
         <v>160</v>
@@ -4316,7 +6232,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
         <v>271</v>
@@ -4326,7 +6242,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I24" t="s">
         <v>160</v>
@@ -4346,7 +6262,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
         <v>272</v>
@@ -4356,10 +6272,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="I25" t="s">
         <v>160</v>
@@ -4376,10 +6292,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C26" s="2">
         <v>2015</v>
@@ -4391,7 +6307,7 @@
         <v>1505.0517</v>
       </c>
       <c r="I26" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>45</v>
@@ -4414,6 +6330,597 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B522FA-810E-4C4E-894C-0166144F32D4}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{02690C3B-F9F3-455A-869F-DA71E4DD6609}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{D4DF64A9-FBB9-4979-913F-F4043C99C78E}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{ED1356EA-7FF2-4600-8D6B-D3BE71E25F72}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{D443C79B-DAC0-43BF-8DB8-5EEEFFE5C708}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225DFE9A-3834-43CD-93FD-597AB91AAAEA}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D6" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>641</v>
+      </c>
+      <c r="C8" t="s">
+        <v>642</v>
+      </c>
+      <c r="D8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C10" t="s">
+        <v>637</v>
+      </c>
+      <c r="D10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C11" t="s">
+        <v>635</v>
+      </c>
+      <c r="D11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" t="s">
+        <v>634</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>633</v>
+      </c>
+      <c r="C12" t="s">
+        <v>632</v>
+      </c>
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>630</v>
+      </c>
+      <c r="C13" t="s">
+        <v>629</v>
+      </c>
+      <c r="D13" t="s">
+        <v>365</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>628</v>
+      </c>
+      <c r="C14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>626</v>
+      </c>
+      <c r="C15" t="s">
+        <v>625</v>
+      </c>
+      <c r="D15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>624</v>
+      </c>
+      <c r="C16" t="s">
+        <v>623</v>
+      </c>
+      <c r="D16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>622</v>
+      </c>
+      <c r="C17" t="s">
+        <v>621</v>
+      </c>
+      <c r="D17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>620</v>
+      </c>
+      <c r="C18" t="s">
+        <v>619</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>618</v>
+      </c>
+      <c r="C19" t="s">
+        <v>617</v>
+      </c>
+      <c r="D19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>616</v>
+      </c>
+      <c r="C20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E20" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9F6EFF-3C4A-4540-BF68-D49464B0B0F5}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C5" t="s">
+        <v>665</v>
+      </c>
+      <c r="D5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C7" t="s">
+        <v>659</v>
+      </c>
+      <c r="D7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAE7294-192C-46DF-96EB-A7CACD84CB01}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -4431,13 +6938,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F1" t="s">
         <v>82</v>
@@ -4454,13 +6961,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
         <v>83</v>
@@ -4718,12 +7225,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11EA93F-BDC5-46A8-B62E-22B8B1091985}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4736,16 +7243,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -4771,7 +7278,7 @@
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -4782,10 +7289,10 @@
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C3">
         <v>2012</v>
@@ -4794,21 +7301,21 @@
         <v>2016</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C4">
         <v>2007</v>
@@ -4817,21 +7324,21 @@
         <v>2011</v>
       </c>
       <c r="E4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G4" t="s">
         <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C5">
         <v>2004</v>
@@ -4840,10 +7347,10 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4852,12 +7359,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24053F2-2CC5-4EAC-BEAB-64F1B89D9BFF}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4870,16 +7377,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -4905,7 +7412,7 @@
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -4916,7 +7423,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -4925,7 +7432,7 @@
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E3" t="s">
         <v>152</v>
@@ -4934,12 +7441,12 @@
         <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>68</v>
@@ -4948,7 +7455,7 @@
         <v>2013</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -4957,12 +7464,12 @@
         <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>71</v>
@@ -4980,12 +7487,12 @@
         <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>73</v>
@@ -5003,12 +7510,12 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>76</v>
@@ -5026,12 +7533,12 @@
         <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>79</v>
@@ -5049,12 +7556,12 @@
         <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>328</v>
@@ -5072,7 +7579,7 @@
         <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -5085,12 +7592,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04072B98-6DD0-4DEA-89F3-ADD9EED64B4B}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5106,16 +7613,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
@@ -5124,7 +7631,7 @@
         <v>222</v>
       </c>
       <c r="I1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -5144,7 +7651,7 @@
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
@@ -5153,12 +7660,12 @@
         <v>223</v>
       </c>
       <c r="I2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>98</v>
@@ -5170,24 +7677,24 @@
         <v>2009</v>
       </c>
       <c r="E3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>98</v>
@@ -5199,24 +7706,24 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>98</v>
@@ -5228,24 +7735,24 @@
         <v>2014</v>
       </c>
       <c r="E5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>98</v>
@@ -5257,27 +7764,27 @@
         <v>2015</v>
       </c>
       <c r="E6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C7">
         <v>2007</v>
@@ -5286,27 +7793,27 @@
         <v>2007</v>
       </c>
       <c r="E7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C8">
         <v>2016</v>
@@ -5315,24 +7822,24 @@
         <v>2018</v>
       </c>
       <c r="E8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F8" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H8" t="s">
         <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -5344,24 +7851,24 @@
         <v>2007</v>
       </c>
       <c r="E9" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -5373,27 +7880,27 @@
         <v>2018</v>
       </c>
       <c r="E10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C11">
         <v>2011</v>
@@ -5402,27 +7909,27 @@
         <v>2018</v>
       </c>
       <c r="E11" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C12">
         <v>2007</v>
@@ -5431,27 +7938,27 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C13">
         <v>2006</v>
@@ -5460,27 +7967,27 @@
         <v>2006</v>
       </c>
       <c r="E13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C14">
         <v>2011</v>
@@ -5489,27 +7996,27 @@
         <v>2015</v>
       </c>
       <c r="E14" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C15">
         <v>2009</v>
@@ -5518,27 +8025,27 @@
         <v>2009</v>
       </c>
       <c r="E15" t="s">
+        <v>517</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H15" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C16">
         <v>2009</v>
@@ -5547,27 +8054,27 @@
         <v>2009</v>
       </c>
       <c r="E16" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C17">
         <v>2017</v>
@@ -5576,24 +8083,24 @@
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -5605,24 +8112,24 @@
         <v>2011</v>
       </c>
       <c r="E18" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F18" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H18" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -5634,24 +8141,24 @@
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F19" t="s">
+        <v>530</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="H19" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -5663,24 +8170,24 @@
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F20" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H20" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -5692,27 +8199,27 @@
         <v>2017</v>
       </c>
       <c r="E21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F21" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H21" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C22">
         <v>2013</v>
@@ -5721,27 +8228,27 @@
         <v>2015</v>
       </c>
       <c r="E22" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F22" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H22" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C23">
         <v>2010</v>
@@ -5750,27 +8257,27 @@
         <v>2010</v>
       </c>
       <c r="E23" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F23" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H23" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C24">
         <v>2011</v>
@@ -5779,27 +8286,27 @@
         <v>2011</v>
       </c>
       <c r="E24" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H24" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C25">
         <v>2010</v>
@@ -5808,22 +8315,22 @@
         <v>2010</v>
       </c>
       <c r="E25" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H25" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C26">
         <v>2006</v>
@@ -5832,27 +8339,27 @@
         <v>2006</v>
       </c>
       <c r="E26" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F26" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G26" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H26" t="s">
         <v>102</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C27">
         <v>2007</v>
@@ -5861,27 +8368,27 @@
         <v>2007</v>
       </c>
       <c r="E27" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F27" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G27" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H27" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C28">
         <v>2008</v>
@@ -5890,27 +8397,27 @@
         <v>2008</v>
       </c>
       <c r="E28" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F28" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G28" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H28" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C29">
         <v>2010</v>
@@ -5919,19 +8426,19 @@
         <v>2010</v>
       </c>
       <c r="E29" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F29" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G29" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H29" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5939,12 +8446,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30D27AF-95C4-4435-9869-A417A9206028}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5961,13 +8468,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
         <v>222</v>
       </c>
       <c r="E1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -5984,13 +8491,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
         <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -6001,7 +8508,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>224</v>
@@ -6010,13 +8517,13 @@
         <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G3" t="s">
         <v>203</v>
@@ -6024,7 +8531,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>224</v>
@@ -6033,13 +8540,13 @@
         <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G4" t="s">
         <v>203</v>
@@ -6047,7 +8554,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>224</v>
@@ -6056,13 +8563,13 @@
         <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G5" t="s">
         <v>203</v>
@@ -6070,7 +8577,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>228</v>
@@ -6079,13 +8586,13 @@
         <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G6" t="s">
         <v>203</v>
@@ -6093,7 +8600,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>231</v>
@@ -6102,13 +8609,13 @@
         <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G7" t="s">
         <v>203</v>
@@ -6116,7 +8623,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>232</v>
@@ -6125,13 +8632,13 @@
         <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G8" t="s">
         <v>203</v>
@@ -6139,7 +8646,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>234</v>
@@ -6148,13 +8655,13 @@
         <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G9" t="s">
         <v>203</v>
@@ -6162,7 +8669,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>235</v>
@@ -6171,13 +8678,13 @@
         <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G10" t="s">
         <v>203</v>
@@ -6185,7 +8692,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>237</v>
@@ -6194,13 +8701,13 @@
         <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G11" t="s">
         <v>203</v>
@@ -6208,7 +8715,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>236</v>
@@ -6217,13 +8724,13 @@
         <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G12" t="s">
         <v>203</v>
@@ -6231,7 +8738,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>238</v>
@@ -6240,13 +8747,13 @@
         <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F13" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G13" t="s">
         <v>203</v>
@@ -6254,7 +8761,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>238</v>
@@ -6263,13 +8770,13 @@
         <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E14" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F14" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G14" t="s">
         <v>203</v>
@@ -6277,7 +8784,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>239</v>
@@ -6286,13 +8793,13 @@
         <v>229</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E15" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F15" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G15" t="s">
         <v>203</v>
@@ -6300,7 +8807,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -6309,13 +8816,13 @@
         <v>2017</v>
       </c>
       <c r="D16" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E16" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F16" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G16" t="s">
         <v>244</v>
@@ -6323,19 +8830,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>243</v>
       </c>
       <c r="D17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F17" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G17" t="s">
         <v>244</v>
@@ -6343,7 +8850,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>246</v>
@@ -6352,13 +8859,13 @@
         <v>2013</v>
       </c>
       <c r="D18" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E18" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F18" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G18" t="s">
         <v>245</v>
@@ -6366,7 +8873,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
         <v>242</v>
@@ -6375,13 +8882,13 @@
         <v>2006</v>
       </c>
       <c r="D19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G19" t="s">
         <v>241</v>
@@ -6389,7 +8896,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>247</v>
@@ -6398,13 +8905,13 @@
         <v>2014</v>
       </c>
       <c r="D20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E20" t="s">
         <v>416</v>
       </c>
-      <c r="E20" t="s">
-        <v>420</v>
-      </c>
       <c r="F20" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G20" t="s">
         <v>248</v>
@@ -6412,7 +8919,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>249</v>
@@ -6421,13 +8928,13 @@
         <v>2010</v>
       </c>
       <c r="D21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" t="s">
         <v>416</v>
       </c>
-      <c r="E21" t="s">
-        <v>420</v>
-      </c>
       <c r="F21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G21" t="s">
         <v>214</v>
@@ -6435,7 +8942,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
         <v>249</v>
@@ -6444,13 +8951,13 @@
         <v>2012</v>
       </c>
       <c r="D22" t="s">
+        <v>412</v>
+      </c>
+      <c r="E22" t="s">
         <v>416</v>
       </c>
-      <c r="E22" t="s">
-        <v>420</v>
-      </c>
       <c r="F22" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G22" t="s">
         <v>214</v>
@@ -6458,7 +8965,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>249</v>
@@ -6467,13 +8974,13 @@
         <v>2014</v>
       </c>
       <c r="D23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E23" t="s">
         <v>416</v>
       </c>
-      <c r="E23" t="s">
-        <v>420</v>
-      </c>
       <c r="F23" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G23" t="s">
         <v>214</v>
@@ -6481,22 +8988,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>250</v>
       </c>
       <c r="C24" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E24" t="s">
         <v>416</v>
       </c>
-      <c r="E24" t="s">
-        <v>420</v>
-      </c>
       <c r="F24" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G24" t="s">
         <v>251</v>
@@ -6504,7 +9011,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>252</v>
@@ -6513,13 +9020,13 @@
         <v>2010</v>
       </c>
       <c r="D25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" t="s">
         <v>416</v>
       </c>
-      <c r="E25" t="s">
-        <v>420</v>
-      </c>
       <c r="F25" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G25" t="s">
         <v>253</v>
@@ -6527,7 +9034,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
         <v>330</v>
@@ -6536,13 +9043,13 @@
         <v>2015</v>
       </c>
       <c r="D26" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" t="s">
         <v>417</v>
       </c>
-      <c r="E26" t="s">
-        <v>421</v>
-      </c>
       <c r="F26" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G26" t="s">
         <v>214</v>
@@ -6550,7 +9057,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
         <v>331</v>
@@ -6559,13 +9066,13 @@
         <v>2014</v>
       </c>
       <c r="D27" t="s">
+        <v>413</v>
+      </c>
+      <c r="E27" t="s">
         <v>417</v>
       </c>
-      <c r="E27" t="s">
-        <v>421</v>
-      </c>
       <c r="F27" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G27" t="s">
         <v>214</v>
@@ -6573,7 +9080,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>332</v>
@@ -6582,13 +9089,13 @@
         <v>2010</v>
       </c>
       <c r="D28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E28" t="s">
         <v>417</v>
       </c>
-      <c r="E28" t="s">
-        <v>421</v>
-      </c>
       <c r="F28" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G28" t="s">
         <v>214</v>
@@ -6596,7 +9103,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
         <v>249</v>
@@ -6605,13 +9112,13 @@
         <v>2009</v>
       </c>
       <c r="D29" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
+        <v>418</v>
+      </c>
+      <c r="F29" t="s">
         <v>422</v>
-      </c>
-      <c r="F29" t="s">
-        <v>426</v>
       </c>
       <c r="G29" t="s">
         <v>214</v>
@@ -6619,7 +9126,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
         <v>249</v>
@@ -6628,13 +9135,13 @@
         <v>2008</v>
       </c>
       <c r="D30" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F30" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G30" t="s">
         <v>333</v>
@@ -6642,7 +9149,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
         <v>334</v>
@@ -6651,13 +9158,13 @@
         <v>2008</v>
       </c>
       <c r="D31" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E31" t="s">
+        <v>418</v>
+      </c>
+      <c r="F31" t="s">
         <v>422</v>
-      </c>
-      <c r="F31" t="s">
-        <v>426</v>
       </c>
       <c r="G31" t="s">
         <v>214</v>
@@ -6665,22 +9172,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C32">
         <v>2015</v>
       </c>
       <c r="D32" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E32" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F32" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G32" t="s">
         <v>220</v>
@@ -6692,1690 +9199,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D107D88-62EE-4992-AFEF-BB9D7FB2D529}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G3" t="s">
-        <v>573</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>576</v>
-      </c>
-      <c r="D4" t="s">
-        <v>582</v>
-      </c>
-      <c r="E4" t="s">
-        <v>585</v>
-      </c>
-      <c r="F4" t="s">
-        <v>409</v>
-      </c>
-      <c r="G4" t="s">
-        <v>573</v>
-      </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>577</v>
-      </c>
-      <c r="D5" t="s">
-        <v>583</v>
-      </c>
-      <c r="E5" t="s">
-        <v>585</v>
-      </c>
-      <c r="F5" t="s">
-        <v>409</v>
-      </c>
-      <c r="G5" t="s">
-        <v>573</v>
-      </c>
-      <c r="H5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D6" t="s">
-        <v>574</v>
-      </c>
-      <c r="E6" t="s">
-        <v>584</v>
-      </c>
-      <c r="F6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G6" t="s">
-        <v>573</v>
-      </c>
-      <c r="H6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>579</v>
-      </c>
-      <c r="D7" t="s">
-        <v>574</v>
-      </c>
-      <c r="E7" t="s">
-        <v>584</v>
-      </c>
-      <c r="F7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G7" t="s">
-        <v>573</v>
-      </c>
-      <c r="H7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>580</v>
-      </c>
-      <c r="D8" t="s">
-        <v>574</v>
-      </c>
-      <c r="E8" t="s">
-        <v>584</v>
-      </c>
-      <c r="F8" t="s">
-        <v>409</v>
-      </c>
-      <c r="G8" t="s">
-        <v>573</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>581</v>
-      </c>
-      <c r="D9" t="s">
-        <v>583</v>
-      </c>
-      <c r="E9" t="s">
-        <v>585</v>
-      </c>
-      <c r="F9" t="s">
-        <v>409</v>
-      </c>
-      <c r="G9" t="s">
-        <v>573</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>605</v>
-      </c>
-      <c r="C10" t="s">
-        <v>586</v>
-      </c>
-      <c r="D10" t="s">
-        <v>607</v>
-      </c>
-      <c r="E10" t="s">
-        <v>593</v>
-      </c>
-      <c r="F10" t="s">
-        <v>589</v>
-      </c>
-      <c r="G10" t="s">
-        <v>573</v>
-      </c>
-      <c r="H10" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>606</v>
-      </c>
-      <c r="C11" t="s">
-        <v>586</v>
-      </c>
-      <c r="D11" t="s">
-        <v>607</v>
-      </c>
-      <c r="E11" t="s">
-        <v>594</v>
-      </c>
-      <c r="F11" t="s">
-        <v>589</v>
-      </c>
-      <c r="G11" t="s">
-        <v>573</v>
-      </c>
-      <c r="H11" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>592</v>
-      </c>
-      <c r="C12">
-        <v>2016</v>
-      </c>
-      <c r="D12" t="s">
-        <v>591</v>
-      </c>
-      <c r="E12" t="s">
-        <v>267</v>
-      </c>
-      <c r="F12" t="s">
-        <v>409</v>
-      </c>
-      <c r="G12" t="s">
-        <v>590</v>
-      </c>
-      <c r="H12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>602</v>
-      </c>
-      <c r="C13">
-        <v>2014</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="E13" t="s">
-        <v>594</v>
-      </c>
-      <c r="F13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G13" t="s">
-        <v>514</v>
-      </c>
-      <c r="H13" t="s">
-        <v>604</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F434878D-D55F-47A4-AC18-D55001D3C372}">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>595</v>
-      </c>
-      <c r="C3">
-        <v>2014</v>
-      </c>
-      <c r="D3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E3" t="s">
-        <v>597</v>
-      </c>
-      <c r="F3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G3" t="s">
-        <v>600</v>
-      </c>
-      <c r="H3" t="s">
-        <v>611</v>
-      </c>
-      <c r="I3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>599</v>
-      </c>
-      <c r="C4" t="s">
-        <v>601</v>
-      </c>
-      <c r="D4" t="s">
-        <v>596</v>
-      </c>
-      <c r="E4" t="s">
-        <v>597</v>
-      </c>
-      <c r="F4" t="s">
-        <v>411</v>
-      </c>
-      <c r="G4" t="s">
-        <v>600</v>
-      </c>
-      <c r="H4" t="s">
-        <v>611</v>
-      </c>
-      <c r="I4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5">
-        <v>2013</v>
-      </c>
-      <c r="D5" t="s">
-        <v>608</v>
-      </c>
-      <c r="E5" t="s">
-        <v>609</v>
-      </c>
-      <c r="F5" t="s">
-        <v>409</v>
-      </c>
-      <c r="G5" t="s">
-        <v>610</v>
-      </c>
-      <c r="H5" t="s">
-        <v>611</v>
-      </c>
-      <c r="I5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>612</v>
-      </c>
-      <c r="C6">
-        <v>2012</v>
-      </c>
-      <c r="D6" t="s">
-        <v>608</v>
-      </c>
-      <c r="E6" t="s">
-        <v>609</v>
-      </c>
-      <c r="F6" t="s">
-        <v>411</v>
-      </c>
-      <c r="G6" t="s">
-        <v>610</v>
-      </c>
-      <c r="H6" t="s">
-        <v>611</v>
-      </c>
-      <c r="I6" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>613</v>
-      </c>
-      <c r="C7">
-        <v>2012</v>
-      </c>
-      <c r="D7" t="s">
-        <v>608</v>
-      </c>
-      <c r="E7" t="s">
-        <v>609</v>
-      </c>
-      <c r="F7" t="s">
-        <v>615</v>
-      </c>
-      <c r="G7" t="s">
-        <v>610</v>
-      </c>
-      <c r="H7" t="s">
-        <v>611</v>
-      </c>
-      <c r="I7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>614</v>
-      </c>
-      <c r="C8">
-        <v>2012</v>
-      </c>
-      <c r="D8" t="s">
-        <v>608</v>
-      </c>
-      <c r="E8" t="s">
-        <v>609</v>
-      </c>
-      <c r="F8" t="s">
-        <v>409</v>
-      </c>
-      <c r="G8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H8" t="s">
-        <v>611</v>
-      </c>
-      <c r="I8" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C9">
-        <v>2011</v>
-      </c>
-      <c r="D9" t="s">
-        <v>608</v>
-      </c>
-      <c r="E9" t="s">
-        <v>609</v>
-      </c>
-      <c r="F9" t="s">
-        <v>409</v>
-      </c>
-      <c r="G9" t="s">
-        <v>514</v>
-      </c>
-      <c r="H9" t="s">
-        <v>616</v>
-      </c>
-      <c r="I9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
-  <dimension ref="A1:I45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3">
-        <v>2017</v>
-      </c>
-      <c r="F3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>2016</v>
-      </c>
-      <c r="F4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5">
-        <v>2016</v>
-      </c>
-      <c r="E5" t="s">
-        <v>461</v>
-      </c>
-      <c r="F5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6">
-        <v>2016</v>
-      </c>
-      <c r="E6" t="s">
-        <v>476</v>
-      </c>
-      <c r="F6" t="s">
-        <v>302</v>
-      </c>
-      <c r="G6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" t="s">
-        <v>475</v>
-      </c>
-      <c r="I6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7">
-        <v>2015</v>
-      </c>
-      <c r="E7" t="s">
-        <v>478</v>
-      </c>
-      <c r="F7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>2014</v>
-      </c>
-      <c r="E8" t="s">
-        <v>472</v>
-      </c>
-      <c r="F8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9">
-        <v>2013</v>
-      </c>
-      <c r="F9" t="s">
-        <v>302</v>
-      </c>
-      <c r="G9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>2014</v>
-      </c>
-      <c r="F10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" t="s">
-        <v>493</v>
-      </c>
-      <c r="I10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11">
-        <v>2018</v>
-      </c>
-      <c r="F11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" t="s">
-        <v>184</v>
-      </c>
-      <c r="H11" t="s">
-        <v>488</v>
-      </c>
-      <c r="I11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12">
-        <v>2017</v>
-      </c>
-      <c r="F12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" t="s">
-        <v>488</v>
-      </c>
-      <c r="I12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13">
-        <v>2016</v>
-      </c>
-      <c r="F13" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14">
-        <v>2015</v>
-      </c>
-      <c r="E14" t="s">
-        <v>463</v>
-      </c>
-      <c r="F14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" t="s">
-        <v>190</v>
-      </c>
-      <c r="I14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15">
-        <v>2015</v>
-      </c>
-      <c r="F15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G15" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" t="s">
-        <v>197</v>
-      </c>
-      <c r="I15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16">
-        <v>2014</v>
-      </c>
-      <c r="F16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" t="s">
-        <v>189</v>
-      </c>
-      <c r="I16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17">
-        <v>2013</v>
-      </c>
-      <c r="F17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" t="s">
-        <v>216</v>
-      </c>
-      <c r="H17" t="s">
-        <v>215</v>
-      </c>
-      <c r="I17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18">
-        <v>2013</v>
-      </c>
-      <c r="F18" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" t="s">
-        <v>320</v>
-      </c>
-      <c r="H18" t="s">
-        <v>219</v>
-      </c>
-      <c r="I18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19">
-        <v>2013</v>
-      </c>
-      <c r="F19" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" t="s">
-        <v>221</v>
-      </c>
-      <c r="I19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20">
-        <v>2011</v>
-      </c>
-      <c r="F20" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" t="s">
-        <v>189</v>
-      </c>
-      <c r="I20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21">
-        <v>2015</v>
-      </c>
-      <c r="E21" t="s">
-        <v>479</v>
-      </c>
-      <c r="F21" t="s">
-        <v>301</v>
-      </c>
-      <c r="G21" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" t="s">
-        <v>193</v>
-      </c>
-      <c r="I21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22">
-        <v>2015</v>
-      </c>
-      <c r="F22" t="s">
-        <v>301</v>
-      </c>
-      <c r="G22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23">
-        <v>2014</v>
-      </c>
-      <c r="F23" t="s">
-        <v>301</v>
-      </c>
-      <c r="G23" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C24">
-        <v>2014</v>
-      </c>
-      <c r="F24" t="s">
-        <v>301</v>
-      </c>
-      <c r="G24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25">
-        <v>2014</v>
-      </c>
-      <c r="F25" t="s">
-        <v>301</v>
-      </c>
-      <c r="G25" t="s">
-        <v>207</v>
-      </c>
-      <c r="H25" t="s">
-        <v>206</v>
-      </c>
-      <c r="I25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26">
-        <v>2014</v>
-      </c>
-      <c r="F26" t="s">
-        <v>301</v>
-      </c>
-      <c r="G26" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27">
-        <v>2014</v>
-      </c>
-      <c r="F27" t="s">
-        <v>301</v>
-      </c>
-      <c r="G27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" t="s">
-        <v>212</v>
-      </c>
-      <c r="I27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28">
-        <v>2013</v>
-      </c>
-      <c r="F28" t="s">
-        <v>301</v>
-      </c>
-      <c r="G28" t="s">
-        <v>321</v>
-      </c>
-      <c r="H28" t="s">
-        <v>193</v>
-      </c>
-      <c r="I28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29">
-        <v>2013</v>
-      </c>
-      <c r="F29" t="s">
-        <v>301</v>
-      </c>
-      <c r="G29" t="s">
-        <v>320</v>
-      </c>
-      <c r="H29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30">
-        <v>2013</v>
-      </c>
-      <c r="F30" t="s">
-        <v>301</v>
-      </c>
-      <c r="G30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" t="s">
-        <v>204</v>
-      </c>
-      <c r="I30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31">
-        <v>2012</v>
-      </c>
-      <c r="F31" t="s">
-        <v>301</v>
-      </c>
-      <c r="G31" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" t="s">
-        <v>193</v>
-      </c>
-      <c r="I31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>303</v>
-      </c>
-      <c r="C32">
-        <v>2015</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G32" t="s">
-        <v>198</v>
-      </c>
-      <c r="H32" t="s">
-        <v>314</v>
-      </c>
-      <c r="I32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33">
-        <v>2015</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G33" t="s">
-        <v>216</v>
-      </c>
-      <c r="H33" t="s">
-        <v>489</v>
-      </c>
-      <c r="I33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C34">
-        <v>2015</v>
-      </c>
-      <c r="E34" t="s">
-        <v>480</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G34" t="s">
-        <v>320</v>
-      </c>
-      <c r="H34" t="s">
-        <v>316</v>
-      </c>
-      <c r="I34" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>303</v>
-      </c>
-      <c r="C35">
-        <v>2015</v>
-      </c>
-      <c r="E35" t="s">
-        <v>462</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G35" t="s">
-        <v>318</v>
-      </c>
-      <c r="H35" t="s">
-        <v>490</v>
-      </c>
-      <c r="I35" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>306</v>
-      </c>
-      <c r="C36">
-        <v>2014</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G36" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" t="s">
-        <v>319</v>
-      </c>
-      <c r="I36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>307</v>
-      </c>
-      <c r="C37">
-        <v>2014</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G37" t="s">
-        <v>216</v>
-      </c>
-      <c r="H37" t="s">
-        <v>491</v>
-      </c>
-      <c r="I37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>308</v>
-      </c>
-      <c r="C38">
-        <v>2014</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H38" t="s">
-        <v>492</v>
-      </c>
-      <c r="I38" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>309</v>
-      </c>
-      <c r="C39">
-        <v>2013</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G39" t="s">
-        <v>321</v>
-      </c>
-      <c r="H39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>309</v>
-      </c>
-      <c r="C40">
-        <v>2012</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>310</v>
-      </c>
-      <c r="C41">
-        <v>2013</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G41" t="s">
-        <v>89</v>
-      </c>
-      <c r="H41" t="s">
-        <v>323</v>
-      </c>
-      <c r="I41" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>311</v>
-      </c>
-      <c r="C42">
-        <v>2013</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" t="s">
-        <v>324</v>
-      </c>
-      <c r="I42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>312</v>
-      </c>
-      <c r="C43">
-        <v>2013</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G43" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" t="s">
-        <v>327</v>
-      </c>
-      <c r="I43" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>465</v>
-      </c>
-      <c r="C44">
-        <v>2016</v>
-      </c>
-      <c r="E44" t="s">
-        <v>477</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G44" t="s">
-        <v>464</v>
-      </c>
-      <c r="H44" t="s">
-        <v>467</v>
-      </c>
-      <c r="I44" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45">
-        <v>2016</v>
-      </c>
-      <c r="E45" t="s">
-        <v>468</v>
-      </c>
-      <c r="F45" t="s">
-        <v>178</v>
-      </c>
-      <c r="G45" t="s">
-        <v>469</v>
-      </c>
-      <c r="H45" t="s">
-        <v>470</v>
-      </c>
-      <c r="I45" t="s">
-        <v>471</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
@@ -1343,33 +1343,12 @@
     <t>Viena</t>
   </si>
   <si>
-    <t>/static/images/lion.png</t>
-  </si>
-  <si>
-    <t>/static/images/manhat.png</t>
-  </si>
-  <si>
-    <t>/static/images/catwall.png</t>
-  </si>
-  <si>
-    <t>/static/images/girl.png</t>
-  </si>
-  <si>
-    <t>/static/images/husky.png</t>
-  </si>
-  <si>
-    <t>/static/images/viena.png</t>
-  </si>
-  <si>
     <t>drawing</t>
   </si>
   <si>
     <t>Map-man</t>
   </si>
   <si>
-    <t>/static/stories/mapman.txt</t>
-  </si>
-  <si>
     <t>short-story</t>
   </si>
   <si>
@@ -1512,9 +1491,6 @@
   </si>
   <si>
     <t>Youtube</t>
-  </si>
-  <si>
-    <t>/static/scores/Blues-Beer-Sheva.pdf</t>
   </si>
   <si>
     <t>This should embed YouTube videos</t>
@@ -2115,6 +2091,30 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>lion.png</t>
+  </si>
+  <si>
+    <t>catwall.png</t>
+  </si>
+  <si>
+    <t>husky.png</t>
+  </si>
+  <si>
+    <t>girl.png</t>
+  </si>
+  <si>
+    <t>viena.png</t>
+  </si>
+  <si>
+    <t>mapman.txt</t>
+  </si>
+  <si>
+    <t>Blues-Beer-Sheva.pdf</t>
+  </si>
+  <si>
+    <t>manhat.png</t>
   </si>
 </sst>
 </file>
@@ -2483,7 +2483,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -2497,7 +2497,7 @@
         <v>340</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>341</v>
@@ -2514,7 +2514,7 @@
         <v>345</v>
       </c>
       <c r="B5" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D5" t="s">
         <v>367</v>
@@ -2525,7 +2525,7 @@
         <v>356</v>
       </c>
       <c r="B6" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C6" t="s">
         <v>345</v>
@@ -2539,7 +2539,7 @@
         <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C7" t="s">
         <v>356</v>
@@ -2550,7 +2550,7 @@
         <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C8" t="s">
         <v>356</v>
@@ -2564,7 +2564,7 @@
         <v>369</v>
       </c>
       <c r="B9" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C9" t="s">
         <v>356</v>
@@ -2578,13 +2578,13 @@
         <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C10" t="s">
         <v>345</v>
       </c>
       <c r="D10" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2592,7 +2592,7 @@
         <v>389</v>
       </c>
       <c r="B11" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C11" t="s">
         <v>358</v>
@@ -2606,7 +2606,7 @@
         <v>344</v>
       </c>
       <c r="B12" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C12" t="s">
         <v>358</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B13" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C13" t="s">
         <v>358</v>
@@ -2634,7 +2634,7 @@
         <v>390</v>
       </c>
       <c r="B14" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C14" t="s">
         <v>358</v>
@@ -2648,7 +2648,7 @@
         <v>366</v>
       </c>
       <c r="B15" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C15" t="s">
         <v>358</v>
@@ -2665,7 +2665,7 @@
         <v>360</v>
       </c>
       <c r="B16" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C16" t="s">
         <v>345</v>
@@ -2676,7 +2676,7 @@
         <v>361</v>
       </c>
       <c r="B17" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C17" t="s">
         <v>360</v>
@@ -2693,7 +2693,7 @@
         <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C18" t="s">
         <v>360</v>
@@ -2710,7 +2710,7 @@
         <v>346</v>
       </c>
       <c r="B19" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C19" t="s">
         <v>345</v>
@@ -2724,7 +2724,7 @@
         <v>353</v>
       </c>
       <c r="B20" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C20" t="s">
         <v>346</v>
@@ -2738,7 +2738,7 @@
         <v>347</v>
       </c>
       <c r="B21" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C21" t="s">
         <v>346</v>
@@ -2755,7 +2755,7 @@
         <v>393</v>
       </c>
       <c r="B22" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C22" t="s">
         <v>346</v>
@@ -2836,19 +2836,19 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E3" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F3" t="s">
         <v>405</v>
       </c>
       <c r="G3" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H3" t="s">
         <v>69</v>
@@ -2859,19 +2859,19 @@
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D4" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="E4" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F4" t="s">
         <v>405</v>
       </c>
       <c r="G4" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H4" t="s">
         <v>69</v>
@@ -2882,19 +2882,19 @@
         <v>82</v>
       </c>
       <c r="B5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E5" t="s">
         <v>573</v>
-      </c>
-      <c r="D5" t="s">
-        <v>579</v>
-      </c>
-      <c r="E5" t="s">
-        <v>581</v>
       </c>
       <c r="F5" t="s">
         <v>405</v>
       </c>
       <c r="G5" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H5" t="s">
         <v>69</v>
@@ -2905,19 +2905,19 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D6" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E6" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F6" t="s">
         <v>405</v>
       </c>
       <c r="G6" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H6" t="s">
         <v>69</v>
@@ -2928,19 +2928,19 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="D7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F7" t="s">
         <v>405</v>
       </c>
       <c r="G7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H7" t="s">
         <v>69</v>
@@ -2951,19 +2951,19 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D8" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E8" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F8" t="s">
         <v>405</v>
       </c>
       <c r="G8" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H8" t="s">
         <v>69</v>
@@ -2974,19 +2974,19 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D9" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E9" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F9" t="s">
         <v>405</v>
       </c>
       <c r="G9" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H9" t="s">
         <v>69</v>
@@ -2997,25 +2997,25 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C10" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D10" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E10" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F10" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="G10" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H10" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3023,25 +3023,25 @@
         <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C11" t="s">
+        <v>574</v>
+      </c>
+      <c r="D11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E11" t="s">
         <v>582</v>
       </c>
-      <c r="D11" t="s">
-        <v>603</v>
-      </c>
-      <c r="E11" t="s">
-        <v>590</v>
-      </c>
       <c r="F11" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="G11" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H11" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3049,13 +3049,13 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C12">
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="E12" t="s">
         <v>267</v>
@@ -3064,10 +3064,10 @@
         <v>405</v>
       </c>
       <c r="G12" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="H12" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3075,25 +3075,25 @@
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C13">
         <v>2014</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="E13" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F13" t="s">
         <v>407</v>
       </c>
       <c r="G13" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H13" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -3174,28 +3174,28 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C3">
         <v>2014</v>
       </c>
       <c r="D3" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E3" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F3" t="s">
         <v>407</v>
       </c>
       <c r="G3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="H3" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="I3" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3203,28 +3203,28 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="C4" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D4" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E4" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F4" t="s">
         <v>407</v>
       </c>
       <c r="G4" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="H4" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="I4" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3238,22 +3238,22 @@
         <v>2013</v>
       </c>
       <c r="D5" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E5" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F5" t="s">
         <v>405</v>
       </c>
       <c r="G5" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="H5" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="I5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3261,28 +3261,28 @@
         <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C6">
         <v>2012</v>
       </c>
       <c r="D6" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E6" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F6" t="s">
         <v>407</v>
       </c>
       <c r="G6" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="H6" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="I6" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3290,28 +3290,28 @@
         <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C7">
         <v>2012</v>
       </c>
       <c r="D7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="G7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="H7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="I7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3319,28 +3319,28 @@
         <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C8">
         <v>2012</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E8" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F8" t="s">
         <v>405</v>
       </c>
       <c r="G8" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H8" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="I8" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3348,28 +3348,28 @@
         <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C9">
         <v>2011</v>
       </c>
       <c r="D9" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E9" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F9" t="s">
         <v>405</v>
       </c>
       <c r="G9" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H9" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="I9" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -3471,7 +3471,7 @@
         <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3505,7 +3505,7 @@
         <v>2016</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F5" t="s">
         <v>302</v>
@@ -3517,7 +3517,7 @@
         <v>171</v>
       </c>
       <c r="I5" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3531,7 +3531,7 @@
         <v>2016</v>
       </c>
       <c r="E6" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F6" t="s">
         <v>302</v>
@@ -3540,7 +3540,7 @@
         <v>173</v>
       </c>
       <c r="H6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I6" t="s">
         <v>172</v>
@@ -3557,7 +3557,7 @@
         <v>2015</v>
       </c>
       <c r="E7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F7" t="s">
         <v>302</v>
@@ -3580,7 +3580,7 @@
         <v>2014</v>
       </c>
       <c r="E8" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F8" t="s">
         <v>302</v>
@@ -3592,7 +3592,7 @@
         <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3632,7 +3632,7 @@
         <v>185</v>
       </c>
       <c r="H10" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="I10" t="s">
         <v>179</v>
@@ -3655,7 +3655,7 @@
         <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="I11" t="s">
         <v>181</v>
@@ -3678,7 +3678,7 @@
         <v>183</v>
       </c>
       <c r="H12" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="I12" t="s">
         <v>182</v>
@@ -3718,7 +3718,7 @@
         <v>2015</v>
       </c>
       <c r="E14" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F14" t="s">
         <v>178</v>
@@ -3882,7 +3882,7 @@
         <v>2015</v>
       </c>
       <c r="E21" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F21" t="s">
         <v>301</v>
@@ -4158,7 +4158,7 @@
         <v>216</v>
       </c>
       <c r="H33" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="I33" t="s">
         <v>214</v>
@@ -4175,7 +4175,7 @@
         <v>2015</v>
       </c>
       <c r="E34" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>313</v>
@@ -4201,7 +4201,7 @@
         <v>2015</v>
       </c>
       <c r="E35" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>313</v>
@@ -4210,7 +4210,7 @@
         <v>318</v>
       </c>
       <c r="H35" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="I35" t="s">
         <v>317</v>
@@ -4256,7 +4256,7 @@
         <v>216</v>
       </c>
       <c r="H37" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="I37" t="s">
         <v>214</v>
@@ -4279,7 +4279,7 @@
         <v>169</v>
       </c>
       <c r="H38" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="I38" t="s">
         <v>248</v>
@@ -4399,25 +4399,25 @@
         <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C44">
         <v>2016</v>
       </c>
       <c r="E44" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G44" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H44" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I44" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4431,19 +4431,19 @@
         <v>2016</v>
       </c>
       <c r="E45" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F45" t="s">
         <v>178</v>
       </c>
       <c r="G45" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H45" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="I45" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -4456,8 +4456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE156D2-7E33-4447-A53C-1EA25432072D}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4479,7 +4479,7 @@
         <v>380</v>
       </c>
       <c r="F1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G1" t="s">
         <v>363</v>
@@ -4505,7 +4505,7 @@
         <v>368</v>
       </c>
       <c r="F2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G2" t="s">
         <v>364</v>
@@ -4525,7 +4525,7 @@
         <v>2017</v>
       </c>
       <c r="E3" t="s">
-        <v>435</v>
+        <v>681</v>
       </c>
       <c r="G3" t="s">
         <v>428</v>
@@ -4545,7 +4545,7 @@
         <v>2017</v>
       </c>
       <c r="E4" t="s">
-        <v>436</v>
+        <v>688</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>429</v>
@@ -4565,10 +4565,10 @@
         <v>2017</v>
       </c>
       <c r="E5" t="s">
-        <v>437</v>
+        <v>682</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H5" t="s">
         <v>392</v>
@@ -4585,10 +4585,10 @@
         <v>2017</v>
       </c>
       <c r="E6" t="s">
-        <v>438</v>
+        <v>684</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>392</v>
@@ -4605,10 +4605,10 @@
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>439</v>
+        <v>683</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H7" t="s">
         <v>392</v>
@@ -4625,10 +4625,10 @@
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>440</v>
+        <v>685</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>392</v>
@@ -4639,19 +4639,19 @@
         <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E9" t="s">
-        <v>443</v>
+        <v>686</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4659,23 +4659,23 @@
         <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C10" s="2">
         <v>2018</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4683,21 +4683,21 @@
         <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C11" s="2">
         <v>2018</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>492</v>
+        <v>687</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4710,8 +4710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G3" t="s">
         <v>125</v>
@@ -4808,7 +4808,7 @@
         <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G4" t="s">
         <v>125</v>
@@ -4828,7 +4828,7 @@
         <v>2017</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4898,7 +4898,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H8" t="s">
         <v>135</v>
@@ -4978,7 +4978,7 @@
         <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C12">
         <v>2016</v>
@@ -5005,7 +5005,7 @@
         <v>2010</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E13" s="2"/>
       <c r="G13" t="s">
@@ -5020,19 +5020,19 @@
         <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C14">
         <v>2018</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>144</v>
@@ -6057,7 +6057,7 @@
         <v>384</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="I17" t="s">
         <v>254</v>
@@ -6084,7 +6084,7 @@
         <v>384</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="I18" t="s">
         <v>254</v>
@@ -6111,7 +6111,7 @@
         <v>384</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="I19" t="s">
         <v>254</v>
@@ -6138,7 +6138,7 @@
         <v>384</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="I20" t="s">
         <v>254</v>
@@ -6275,7 +6275,7 @@
         <v>384</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="I25" t="s">
         <v>160</v>
@@ -6295,7 +6295,7 @@
         <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C26" s="2">
         <v>2015</v>
@@ -6307,7 +6307,7 @@
         <v>1505.0517</v>
       </c>
       <c r="I26" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>45</v>
@@ -6350,7 +6350,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6358,13 +6358,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6378,7 +6378,7 @@
         <v>337</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6392,7 +6392,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6403,10 +6403,10 @@
         <v>408</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6420,7 +6420,7 @@
         <v>380</v>
       </c>
       <c r="D6" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6434,7 +6434,7 @@
         <v>397</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6442,13 +6442,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6481,16 +6481,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>340</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -6498,16 +6498,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6515,16 +6515,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>347</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6532,10 +6532,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C4" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D4" t="s">
         <v>369</v>
@@ -6546,10 +6546,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C5" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="D5" t="s">
         <v>343</v>
@@ -6560,16 +6560,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C6" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D6" t="s">
         <v>361</v>
       </c>
       <c r="E6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6577,7 +6577,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C7" t="s">
         <v>359</v>
@@ -6591,16 +6591,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C8" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="D8" t="s">
         <v>361</v>
       </c>
       <c r="E8" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -6608,10 +6608,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C9" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="D9" t="s">
         <v>389</v>
@@ -6622,10 +6622,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C10" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D10" t="s">
         <v>365</v>
@@ -6640,16 +6640,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C11" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D11" t="s">
         <v>366</v>
       </c>
       <c r="E11" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -6658,16 +6658,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C12" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D12" t="s">
         <v>344</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -6675,10 +6675,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C13" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D13" t="s">
         <v>365</v>
@@ -6692,10 +6692,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C14" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D14" t="s">
         <v>365</v>
@@ -6709,10 +6709,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C15" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D15" t="s">
         <v>365</v>
@@ -6723,13 +6723,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C16" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="D16" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -6737,10 +6737,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D17" t="s">
         <v>390</v>
@@ -6751,10 +6751,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C18" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>347</v>
@@ -6768,10 +6768,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C19" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D19" t="s">
         <v>353</v>
@@ -6782,16 +6782,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C20" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E20" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -6820,13 +6820,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6834,13 +6834,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -6849,13 +6849,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C3" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="D3" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6863,13 +6863,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C4" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D4" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6877,13 +6877,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C5" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D5" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6891,13 +6891,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="C6" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="D6" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6905,13 +6905,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="D7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -7677,19 +7677,19 @@
         <v>2009</v>
       </c>
       <c r="E3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G3" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H3" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I3" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -7706,19 +7706,19 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F4" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G4" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="H4" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="I4" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7735,19 +7735,19 @@
         <v>2014</v>
       </c>
       <c r="E5" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F5" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H5" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7764,19 +7764,19 @@
         <v>2015</v>
       </c>
       <c r="E6" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F6" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G6" t="s">
         <v>427</v>
       </c>
       <c r="H6" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="I6" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7784,7 +7784,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C7">
         <v>2007</v>
@@ -7793,19 +7793,19 @@
         <v>2007</v>
       </c>
       <c r="E7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="H7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="I7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -7813,7 +7813,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C8">
         <v>2016</v>
@@ -7822,19 +7822,19 @@
         <v>2018</v>
       </c>
       <c r="E8" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F8" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G8" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="H8" t="s">
         <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7851,19 +7851,19 @@
         <v>2007</v>
       </c>
       <c r="E9" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I9" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -7880,19 +7880,19 @@
         <v>2018</v>
       </c>
       <c r="E10" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>406</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="I10" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7900,7 +7900,7 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C11">
         <v>2011</v>
@@ -7909,19 +7909,19 @@
         <v>2018</v>
       </c>
       <c r="E11" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>405</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I11" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7929,7 +7929,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C12">
         <v>2007</v>
@@ -7938,19 +7938,19 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>405</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -7958,7 +7958,7 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C13">
         <v>2006</v>
@@ -7967,19 +7967,19 @@
         <v>2006</v>
       </c>
       <c r="E13" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>405</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -7987,7 +7987,7 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C14">
         <v>2011</v>
@@ -7996,19 +7996,19 @@
         <v>2015</v>
       </c>
       <c r="E14" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>405</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -8016,7 +8016,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C15">
         <v>2009</v>
@@ -8025,19 +8025,19 @@
         <v>2009</v>
       </c>
       <c r="E15" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>405</v>
       </c>
       <c r="H15" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -8045,7 +8045,7 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C16">
         <v>2009</v>
@@ -8054,19 +8054,19 @@
         <v>2009</v>
       </c>
       <c r="E16" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>407</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -8074,7 +8074,7 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C17">
         <v>2017</v>
@@ -8083,19 +8083,19 @@
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="H17" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -8112,19 +8112,19 @@
         <v>2011</v>
       </c>
       <c r="E18" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F18" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="H18" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -8141,19 +8141,19 @@
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H19" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -8170,19 +8170,19 @@
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F20" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H20" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -8199,19 +8199,19 @@
         <v>2017</v>
       </c>
       <c r="E21" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F21" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="H21" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -8219,7 +8219,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C22">
         <v>2013</v>
@@ -8228,19 +8228,19 @@
         <v>2015</v>
       </c>
       <c r="E22" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="F22" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H22" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -8248,7 +8248,7 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C23">
         <v>2010</v>
@@ -8257,19 +8257,19 @@
         <v>2010</v>
       </c>
       <c r="E23" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F23" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H23" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -8277,7 +8277,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C24">
         <v>2011</v>
@@ -8286,19 +8286,19 @@
         <v>2011</v>
       </c>
       <c r="E24" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F24" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>427</v>
       </c>
       <c r="H24" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -8306,7 +8306,7 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C25">
         <v>2010</v>
@@ -8315,13 +8315,13 @@
         <v>2010</v>
       </c>
       <c r="E25" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="H25" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -8330,7 +8330,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C26">
         <v>2006</v>
@@ -8339,10 +8339,10 @@
         <v>2006</v>
       </c>
       <c r="E26" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F26" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G26" t="s">
         <v>427</v>
@@ -8351,7 +8351,7 @@
         <v>102</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -8359,7 +8359,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C27">
         <v>2007</v>
@@ -8368,19 +8368,19 @@
         <v>2007</v>
       </c>
       <c r="E27" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F27" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G27" t="s">
         <v>427</v>
       </c>
       <c r="H27" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -8388,7 +8388,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C28">
         <v>2008</v>
@@ -8397,19 +8397,19 @@
         <v>2008</v>
       </c>
       <c r="E28" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F28" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G28" t="s">
         <v>427</v>
       </c>
       <c r="H28" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -8417,7 +8417,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C29">
         <v>2010</v>
@@ -8426,19 +8426,19 @@
         <v>2010</v>
       </c>
       <c r="E29" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F29" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G29" t="s">
         <v>427</v>
       </c>
       <c r="H29" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78656E7-5DC8-4262-ADCF-E753C170F765}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="715">
   <si>
     <t>ID</t>
   </si>
@@ -454,9 +455,6 @@
     <t>Mexico City Mathematical Olympiad Website</t>
   </si>
   <si>
-    <t>Write a LaTeX formula, click a button, and share it with the world! Created from scratch.</t>
-  </si>
-  <si>
     <t>Do you have troubles reading english text with unusual words? By giving a list of words to this script, it gathers all the definitions that you need from … and creates an HTML file to see all of them in a beautiful way.</t>
   </si>
   <si>
@@ -626,9 +624,6 @@
   </si>
   <si>
     <t>UAEH</t>
-  </si>
-  <si>
-    <t>Seminario de Investigaciión</t>
   </si>
   <si>
     <t>Pachuca, México</t>
@@ -1388,15 +1383,6 @@
     <t>http://www.miscelaneamatematica.org/Misc52/5203.pdf</t>
   </si>
   <si>
-    <t>/static/slides/GeoHall-Monte-Verita.pdf</t>
-  </si>
-  <si>
-    <t>/static/slides/Nac2015-Chapala-Cartas.pdf</t>
-  </si>
-  <si>
-    <t>/static/slides/ColOaxNov2015.pdf</t>
-  </si>
-  <si>
     <t>Laussane, Switzerland</t>
   </si>
   <si>
@@ -1409,9 +1395,6 @@
     <t>DCG-DIOSPT Seminar</t>
   </si>
   <si>
-    <t>/static/slides/Family-Depth-TAU.pdf</t>
-  </si>
-  <si>
     <t>Tel Aviv, Israel</t>
   </si>
   <si>
@@ -1421,31 +1404,10 @@
     <t>Tel Aviv University</t>
   </si>
   <si>
-    <t>/static/slides/KaleidoscopeCircunradios.pdf</t>
-  </si>
-  <si>
     <t>UNAM</t>
   </si>
   <si>
-    <t>Malmö University</t>
-  </si>
-  <si>
     <t>Mathematics of Jiri Matousek (poster)</t>
-  </si>
-  <si>
-    <t>/static/slides/KneserMatousek.pdf</t>
-  </si>
-  <si>
-    <t>/static/slides/EPFL-LPM.pdf</t>
-  </si>
-  <si>
-    <t>/static/slides/LAGOS-Turan-Prop.pdf</t>
-  </si>
-  <si>
-    <t>/static/slides/MWLPM.pdf</t>
-  </si>
-  <si>
-    <t>/static/slides/MetodoProbabilista.pdf</t>
   </si>
   <si>
     <t>Personal and Professional Page</t>
@@ -1817,9 +1779,6 @@
     <t>Leader of IM-UNAM</t>
   </si>
   <si>
-    <t>2014 - 2015</t>
-  </si>
-  <si>
     <t>Aquelarre Matemático UAQ</t>
   </si>
   <si>
@@ -2115,6 +2074,126 @@
   </si>
   <si>
     <t>manhat.png</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Preprint</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>Journal Journal</t>
+  </si>
+  <si>
+    <t>Extended Abstract</t>
+  </si>
+  <si>
+    <t>Problem Solving</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Int. Conference</t>
+  </si>
+  <si>
+    <t>Seminar</t>
+  </si>
+  <si>
+    <t>Local Conf.</t>
+  </si>
+  <si>
+    <t>Math Awareness</t>
+  </si>
+  <si>
+    <t>6B-1-FF.pdf</t>
+  </si>
+  <si>
+    <t>GeoHall-Monte-Verita.pdf</t>
+  </si>
+  <si>
+    <t>KneserMatousek.pdf</t>
+  </si>
+  <si>
+    <t>LAGOS-Turan-Prop.pdf</t>
+  </si>
+  <si>
+    <t>KaleidoscopeCircunradios.pdf</t>
+  </si>
+  <si>
+    <t>ColOaxNov2015.pdf</t>
+  </si>
+  <si>
+    <t>MWLPM.pdf</t>
+  </si>
+  <si>
+    <t>MetodoProbabilista.pdf</t>
+  </si>
+  <si>
+    <t>Nac2015-Chapala-Cartas.pdf</t>
+  </si>
+  <si>
+    <t>EPFL-LPM.pdf</t>
+  </si>
+  <si>
+    <t>Family-Depth-TAU.pdf</t>
+  </si>
+  <si>
+    <t>UAEH2015-Cartas.pdf</t>
+  </si>
+  <si>
+    <t>GraficaCaminos.pdf</t>
+  </si>
+  <si>
+    <t>El problema del Ángel de Conway y gráficas angelicales</t>
+  </si>
+  <si>
+    <t>FC Colorful Helly - HUJI.pdf</t>
+  </si>
+  <si>
+    <t>Malmö University</t>
+  </si>
+  <si>
+    <t>UAEH2015 - Turan Prop.pdf</t>
+  </si>
+  <si>
+    <t>Seminario de Investigación</t>
+  </si>
+  <si>
+    <t>VN 2015 - Turan Prop.pdf</t>
+  </si>
+  <si>
+    <t>ExamenProfesionalLeo.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ommenlinea.org/portfolio-items/tzaloa-2011-segundo-numero/?portfolioCats=10%2C11%2C12%2C14%2C15%2C27%2C32</t>
+  </si>
+  <si>
+    <t>http://www.ommenlinea.org/portfolio-items/tzaloa-2011-tercer-numero/?portfolioCats=10%2C11%2C12%2C14%2C15%2C27%2C32</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>ConverTex</t>
+  </si>
+  <si>
+    <t>http://www.nekomath.com/conviertex</t>
+  </si>
+  <si>
+    <t>This is the mobile friendly successor of ConvierTex (see below). Now based on ajax and MathJax.</t>
+  </si>
+  <si>
+    <t>Write a LaTeX formula, click a button, and share it with the world! Created from scratch originally with locally compiling LaTeX. Yes, there used to be an "I" in the name.</t>
+  </si>
+  <si>
+    <t>LaTeX, HTML, CSS, MathJax, ajax</t>
   </si>
 </sst>
 </file>
@@ -2483,133 +2562,133 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D10" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B11" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D12" t="s">
         <v>83</v>
@@ -2617,13 +2696,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="B13" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D13" t="s">
         <v>83</v>
@@ -2631,134 +2710,134 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B14" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B15" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B18" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D18" t="s">
         <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B19" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="C19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B20" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B21" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B22" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +2850,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2787,19 +2866,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H1" t="s">
         <v>82</v>
@@ -2813,19 +2892,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H2" t="s">
         <v>83</v>
@@ -2836,22 +2915,25 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G3" t="s">
+        <v>548</v>
+      </c>
+      <c r="H3" t="s">
         <v>563</v>
-      </c>
-      <c r="D3" t="s">
-        <v>562</v>
-      </c>
-      <c r="E3" t="s">
-        <v>572</v>
-      </c>
-      <c r="F3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G3" t="s">
-        <v>561</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2859,22 +2941,25 @@
         <v>81</v>
       </c>
       <c r="B4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F4" t="s">
         <v>564</v>
       </c>
-      <c r="D4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E4" t="s">
-        <v>573</v>
-      </c>
-      <c r="F4" t="s">
-        <v>405</v>
-      </c>
       <c r="G4" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2882,22 +2967,25 @@
         <v>82</v>
       </c>
       <c r="B5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C5">
+        <v>2016</v>
+      </c>
+      <c r="D5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" t="s">
         <v>565</v>
       </c>
-      <c r="D5" t="s">
-        <v>571</v>
-      </c>
-      <c r="E5" t="s">
-        <v>573</v>
-      </c>
-      <c r="F5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G5" t="s">
-        <v>561</v>
-      </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2905,22 +2993,25 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>566</v>
-      </c>
-      <c r="D6" t="s">
-        <v>562</v>
+        <v>576</v>
+      </c>
+      <c r="C6">
+        <v>2014</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="E6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F6" t="s">
         <v>405</v>
       </c>
       <c r="G6" t="s">
-        <v>561</v>
+        <v>489</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2928,19 +3019,19 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="D7" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E7" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="F7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G7" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="H7" t="s">
         <v>69</v>
@@ -2951,19 +3042,19 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="D8" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E8" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G8" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="H8" t="s">
         <v>69</v>
@@ -2974,19 +3065,19 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="D9" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="E9" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="F9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G9" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="H9" t="s">
         <v>69</v>
@@ -2997,25 +3088,22 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C10" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="D10" t="s">
-        <v>595</v>
+        <v>549</v>
       </c>
       <c r="E10" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="F10" t="s">
-        <v>577</v>
+        <v>403</v>
       </c>
       <c r="G10" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="H10" t="s">
-        <v>576</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3023,25 +3111,22 @@
         <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>594</v>
-      </c>
-      <c r="C11" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="D11" t="s">
-        <v>595</v>
+        <v>549</v>
       </c>
       <c r="E11" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="F11" t="s">
-        <v>577</v>
+        <v>403</v>
       </c>
       <c r="G11" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="H11" t="s">
-        <v>575</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3049,25 +3134,22 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>580</v>
-      </c>
-      <c r="C12">
-        <v>2016</v>
+        <v>555</v>
       </c>
       <c r="D12" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>559</v>
       </c>
       <c r="F12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G12" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="H12" t="s">
-        <v>462</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3075,25 +3157,22 @@
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>590</v>
-      </c>
-      <c r="C13">
-        <v>2014</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>591</v>
+        <v>556</v>
+      </c>
+      <c r="D13" t="s">
+        <v>558</v>
       </c>
       <c r="E13" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="F13" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G13" t="s">
-        <v>502</v>
+        <v>548</v>
       </c>
       <c r="H13" t="s">
-        <v>592</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3103,10 +3182,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F434878D-D55F-47A4-AC18-D55001D3C372}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3119,22 +3198,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I1" t="s">
         <v>82</v>
@@ -3148,22 +3227,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -3174,28 +3253,28 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="C3">
         <v>2014</v>
       </c>
       <c r="D3" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="E3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" t="s">
+        <v>575</v>
+      </c>
+      <c r="H3" t="s">
         <v>585</v>
       </c>
-      <c r="F3" t="s">
-        <v>407</v>
-      </c>
-      <c r="G3" t="s">
-        <v>588</v>
-      </c>
-      <c r="H3" t="s">
-        <v>599</v>
-      </c>
       <c r="I3" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3203,173 +3282,202 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>587</v>
-      </c>
-      <c r="C4" t="s">
-        <v>589</v>
+        <v>574</v>
+      </c>
+      <c r="C4">
+        <v>2014</v>
       </c>
       <c r="D4" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="E4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" t="s">
+        <v>575</v>
+      </c>
+      <c r="H4" t="s">
         <v>585</v>
       </c>
-      <c r="F4" t="s">
-        <v>407</v>
-      </c>
-      <c r="G4" t="s">
-        <v>588</v>
-      </c>
-      <c r="H4" t="s">
-        <v>599</v>
-      </c>
       <c r="I4" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>574</v>
       </c>
       <c r="C5">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D5" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="E5" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="F5" t="s">
         <v>405</v>
       </c>
       <c r="G5" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="H5" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="I5" t="s">
-        <v>462</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>600</v>
+        <v>325</v>
       </c>
       <c r="C6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D6" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E6" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G6" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="H6" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="I6" t="s">
-        <v>605</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="C7">
         <v>2012</v>
       </c>
       <c r="D7" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F7" t="s">
-        <v>603</v>
+        <v>405</v>
       </c>
       <c r="G7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="H7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="I7" t="s">
-        <v>462</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="C8">
         <v>2012</v>
       </c>
       <c r="D8" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E8" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F8" t="s">
-        <v>405</v>
+        <v>589</v>
       </c>
       <c r="G8" t="s">
-        <v>502</v>
+        <v>584</v>
       </c>
       <c r="H8" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="I8" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C9">
+        <v>2012</v>
+      </c>
+      <c r="D9" t="s">
+        <v>582</v>
+      </c>
+      <c r="E9" t="s">
+        <v>583</v>
+      </c>
+      <c r="F9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H9" t="s">
+        <v>585</v>
+      </c>
+      <c r="I9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
-        <v>602</v>
-      </c>
-      <c r="C9">
+      <c r="B10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C10">
         <v>2011</v>
       </c>
-      <c r="D9" t="s">
-        <v>596</v>
-      </c>
-      <c r="E9" t="s">
-        <v>597</v>
-      </c>
-      <c r="F9" t="s">
-        <v>405</v>
-      </c>
-      <c r="G9" t="s">
-        <v>502</v>
-      </c>
-      <c r="H9" t="s">
-        <v>604</v>
-      </c>
-      <c r="I9" t="s">
-        <v>462</v>
+      <c r="D10" t="s">
+        <v>582</v>
+      </c>
+      <c r="E10" t="s">
+        <v>583</v>
+      </c>
+      <c r="F10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10" t="s">
+        <v>489</v>
+      </c>
+      <c r="H10" t="s">
+        <v>590</v>
+      </c>
+      <c r="I10" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -3379,16 +3487,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A45"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="64.88671875" customWidth="1"/>
     <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.44140625" customWidth="1"/>
   </cols>
@@ -3401,22 +3509,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I1" t="s">
         <v>82</v>
@@ -3430,22 +3538,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -3456,22 +3564,28 @@
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="C3">
-        <v>2017</v>
+        <v>2018</v>
+      </c>
+      <c r="D3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E3" t="s">
+        <v>701</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>464</v>
       </c>
       <c r="I3" t="s">
-        <v>463</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3479,19 +3593,28 @@
         <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="D4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E4" t="s">
+        <v>687</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G4" t="s">
         <v>169</v>
       </c>
       <c r="H4" t="s">
-        <v>168</v>
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3499,25 +3622,28 @@
         <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C5">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="D5" t="s">
+        <v>684</v>
       </c>
       <c r="E5" t="s">
-        <v>450</v>
+        <v>701</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>464</v>
       </c>
       <c r="I5" t="s">
-        <v>455</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3525,25 +3651,25 @@
         <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>2016</v>
       </c>
+      <c r="D6" t="s">
+        <v>683</v>
+      </c>
       <c r="E6" t="s">
-        <v>465</v>
+        <v>697</v>
       </c>
       <c r="F6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H6" t="s">
-        <v>464</v>
-      </c>
-      <c r="I6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3551,22 +3677,28 @@
         <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7">
-        <v>2015</v>
+        <v>2016</v>
+      </c>
+      <c r="D7" t="s">
+        <v>683</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>688</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="I7" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3574,25 +3706,28 @@
         <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="C8">
-        <v>2014</v>
+        <v>2016</v>
+      </c>
+      <c r="D8" t="s">
+        <v>683</v>
       </c>
       <c r="E8" t="s">
-        <v>461</v>
+        <v>689</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>176</v>
+        <v>456</v>
       </c>
       <c r="I8" t="s">
-        <v>462</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3600,19 +3735,28 @@
         <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C9">
-        <v>2013</v>
+        <v>2016</v>
+      </c>
+      <c r="D9" t="s">
+        <v>684</v>
+      </c>
+      <c r="E9" t="s">
+        <v>692</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>322</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>188</v>
+      </c>
+      <c r="I9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3620,22 +3764,28 @@
         <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>449</v>
       </c>
       <c r="C10">
-        <v>2014</v>
-      </c>
-      <c r="F10" t="s">
-        <v>178</v>
+        <v>2016</v>
+      </c>
+      <c r="D10" t="s">
+        <v>684</v>
+      </c>
+      <c r="E10" t="s">
+        <v>696</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>448</v>
       </c>
       <c r="H10" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="I10" t="s">
-        <v>179</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3643,22 +3793,28 @@
         <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>2018</v>
+        <v>2016</v>
+      </c>
+      <c r="D11" t="s">
+        <v>684</v>
+      </c>
+      <c r="E11" t="s">
+        <v>697</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>452</v>
       </c>
       <c r="H11" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="I11" t="s">
-        <v>181</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3666,22 +3822,25 @@
         <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C12">
-        <v>2017</v>
+        <v>2015</v>
+      </c>
+      <c r="D12" t="s">
+        <v>683</v>
+      </c>
+      <c r="E12" t="s">
+        <v>690</v>
       </c>
       <c r="F12" t="s">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H12" t="s">
-        <v>477</v>
-      </c>
-      <c r="I12" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3689,16 +3848,22 @@
         <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13">
-        <v>2016</v>
+        <v>2015</v>
+      </c>
+      <c r="D13" t="s">
+        <v>684</v>
+      </c>
+      <c r="E13" t="s">
+        <v>692</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="H13" t="s">
         <v>189</v>
@@ -3712,25 +3877,28 @@
         <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C14">
         <v>2015</v>
       </c>
+      <c r="D14" t="s">
+        <v>684</v>
+      </c>
       <c r="E14" t="s">
-        <v>452</v>
+        <v>703</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="H14" t="s">
-        <v>190</v>
+        <v>704</v>
       </c>
       <c r="I14" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3738,22 +3906,28 @@
         <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C15">
         <v>2015</v>
       </c>
+      <c r="D15" t="s">
+        <v>685</v>
+      </c>
+      <c r="E15" t="s">
+        <v>693</v>
+      </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="G15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3761,22 +3935,25 @@
         <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C16">
-        <v>2014</v>
+        <v>2015</v>
+      </c>
+      <c r="D16" t="s">
+        <v>685</v>
+      </c>
+      <c r="E16" t="s">
+        <v>705</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s">
-        <v>189</v>
-      </c>
-      <c r="I16" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3784,22 +3961,28 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="C17">
-        <v>2013</v>
-      </c>
-      <c r="F17" t="s">
-        <v>178</v>
+        <v>2015</v>
+      </c>
+      <c r="D17" t="s">
+        <v>686</v>
+      </c>
+      <c r="E17" t="s">
+        <v>698</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G17" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="H17" t="s">
-        <v>215</v>
+        <v>312</v>
       </c>
       <c r="I17" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -3807,22 +3990,25 @@
         <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="C18">
-        <v>2013</v>
-      </c>
-      <c r="F18" t="s">
-        <v>178</v>
+        <v>2015</v>
+      </c>
+      <c r="D18" t="s">
+        <v>686</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G18" t="s">
-        <v>320</v>
+        <v>214</v>
       </c>
       <c r="H18" t="s">
-        <v>219</v>
+        <v>465</v>
       </c>
       <c r="I18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -3830,22 +4016,28 @@
         <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="C19">
-        <v>2013</v>
-      </c>
-      <c r="F19" t="s">
-        <v>178</v>
+        <v>2015</v>
+      </c>
+      <c r="D19" t="s">
+        <v>686</v>
+      </c>
+      <c r="E19" t="s">
+        <v>694</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="H19" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="I19" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3853,22 +4045,28 @@
         <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="C20">
-        <v>2011</v>
-      </c>
-      <c r="F20" t="s">
-        <v>178</v>
+        <v>2015</v>
+      </c>
+      <c r="D20" t="s">
+        <v>686</v>
+      </c>
+      <c r="E20" t="s">
+        <v>695</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="H20" t="s">
-        <v>189</v>
+        <v>466</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -3876,25 +4074,28 @@
         <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="D21" t="s">
+        <v>683</v>
       </c>
       <c r="E21" t="s">
-        <v>468</v>
+        <v>691</v>
       </c>
       <c r="F21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G21" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="H21" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3902,19 +4103,25 @@
         <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="D22" t="s">
+        <v>684</v>
       </c>
       <c r="F22" t="s">
-        <v>301</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H22" t="s">
-        <v>209</v>
+        <v>469</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3922,19 +4129,22 @@
         <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23">
         <v>2014</v>
       </c>
+      <c r="D23" t="s">
+        <v>684</v>
+      </c>
       <c r="F23" t="s">
-        <v>301</v>
+        <v>177</v>
       </c>
       <c r="G23" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I23" t="s">
         <v>200</v>
@@ -3945,22 +4155,28 @@
         <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C24">
         <v>2014</v>
       </c>
+      <c r="D24" t="s">
+        <v>685</v>
+      </c>
+      <c r="E24" t="s">
+        <v>699</v>
+      </c>
       <c r="F24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="H24" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3968,22 +4184,28 @@
         <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C25">
         <v>2014</v>
       </c>
+      <c r="D25" t="s">
+        <v>685</v>
+      </c>
+      <c r="E25" t="s">
+        <v>699</v>
+      </c>
       <c r="F25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G25" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="H25" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3991,19 +4213,25 @@
         <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C26">
         <v>2014</v>
       </c>
+      <c r="D26" t="s">
+        <v>685</v>
+      </c>
       <c r="F26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G26" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H26" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="I26" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -4011,22 +4239,22 @@
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C27">
         <v>2014</v>
       </c>
+      <c r="D27" t="s">
+        <v>685</v>
+      </c>
       <c r="F27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="H27" t="s">
-        <v>212</v>
-      </c>
-      <c r="I27" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -4034,19 +4262,22 @@
         <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C28">
-        <v>2013</v>
+        <v>2014</v>
+      </c>
+      <c r="D28" t="s">
+        <v>685</v>
       </c>
       <c r="F28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G28" t="s">
-        <v>321</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="I28" t="s">
         <v>87</v>
@@ -4057,19 +4288,25 @@
         <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="C29">
-        <v>2013</v>
-      </c>
-      <c r="F29" t="s">
-        <v>301</v>
+        <v>2014</v>
+      </c>
+      <c r="D29" t="s">
+        <v>686</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G29" t="s">
-        <v>320</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>209</v>
+        <v>317</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -4077,22 +4314,25 @@
         <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="C30">
-        <v>2013</v>
-      </c>
-      <c r="F30" t="s">
-        <v>301</v>
+        <v>2014</v>
+      </c>
+      <c r="D30" t="s">
+        <v>686</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="H30" t="s">
-        <v>204</v>
+        <v>467</v>
       </c>
       <c r="I30" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -4100,22 +4340,25 @@
         <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="C31">
-        <v>2012</v>
-      </c>
-      <c r="F31" t="s">
-        <v>301</v>
+        <v>2014</v>
+      </c>
+      <c r="D31" t="s">
+        <v>686</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>468</v>
       </c>
       <c r="I31" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -4123,22 +4366,22 @@
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>303</v>
+        <v>166</v>
       </c>
       <c r="C32">
-        <v>2015</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>313</v>
+        <v>2013</v>
+      </c>
+      <c r="D32" t="s">
+        <v>684</v>
+      </c>
+      <c r="F32" t="s">
+        <v>300</v>
       </c>
       <c r="G32" t="s">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="H32" t="s">
-        <v>314</v>
-      </c>
-      <c r="I32" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -4146,22 +4389,25 @@
         <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>304</v>
+        <v>211</v>
       </c>
       <c r="C33">
-        <v>2015</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>313</v>
+        <v>2013</v>
+      </c>
+      <c r="D33" t="s">
+        <v>684</v>
+      </c>
+      <c r="F33" t="s">
+        <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H33" t="s">
-        <v>478</v>
+        <v>213</v>
       </c>
       <c r="I33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -4169,25 +4415,28 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>700</v>
       </c>
       <c r="C34">
-        <v>2015</v>
+        <v>2013</v>
+      </c>
+      <c r="D34" t="s">
+        <v>684</v>
       </c>
       <c r="E34" t="s">
-        <v>469</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>313</v>
+        <v>706</v>
+      </c>
+      <c r="F34" t="s">
+        <v>177</v>
       </c>
       <c r="G34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H34" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -4195,25 +4444,28 @@
         <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>700</v>
       </c>
       <c r="C35">
-        <v>2015</v>
+        <v>2013</v>
+      </c>
+      <c r="D35" t="s">
+        <v>684</v>
       </c>
       <c r="E35" t="s">
-        <v>451</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>313</v>
+        <v>706</v>
+      </c>
+      <c r="F35" t="s">
+        <v>177</v>
       </c>
       <c r="G35" t="s">
-        <v>318</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>479</v>
+        <v>219</v>
       </c>
       <c r="I35" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -4221,22 +4473,25 @@
         <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="C36">
-        <v>2014</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>313</v>
+        <v>2013</v>
+      </c>
+      <c r="D36" t="s">
+        <v>685</v>
+      </c>
+      <c r="F36" t="s">
+        <v>299</v>
       </c>
       <c r="G36" t="s">
-        <v>101</v>
+        <v>319</v>
       </c>
       <c r="H36" t="s">
-        <v>319</v>
+        <v>192</v>
       </c>
       <c r="I36" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -4244,22 +4499,22 @@
         <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="C37">
-        <v>2014</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>313</v>
+        <v>2013</v>
+      </c>
+      <c r="D37" t="s">
+        <v>685</v>
+      </c>
+      <c r="F37" t="s">
+        <v>299</v>
       </c>
       <c r="G37" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="H37" t="s">
-        <v>480</v>
-      </c>
-      <c r="I37" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -4267,22 +4522,25 @@
         <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="C38">
-        <v>2014</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>313</v>
+        <v>2013</v>
+      </c>
+      <c r="D38" t="s">
+        <v>685</v>
+      </c>
+      <c r="F38" t="s">
+        <v>299</v>
       </c>
       <c r="G38" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="H38" t="s">
-        <v>481</v>
+        <v>202</v>
       </c>
       <c r="I38" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -4290,19 +4548,22 @@
         <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C39">
         <v>2013</v>
       </c>
+      <c r="D39" t="s">
+        <v>686</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -4310,19 +4571,25 @@
         <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C40">
-        <v>2012</v>
+        <v>2013</v>
+      </c>
+      <c r="D40" t="s">
+        <v>686</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G40" t="s">
         <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>193</v>
+        <v>321</v>
+      </c>
+      <c r="I40" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -4330,22 +4597,25 @@
         <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C41">
         <v>2013</v>
       </c>
+      <c r="D41" t="s">
+        <v>686</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I41" t="s">
-        <v>325</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -4353,22 +4623,25 @@
         <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C42">
         <v>2013</v>
       </c>
+      <c r="D42" t="s">
+        <v>686</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G42" t="s">
         <v>101</v>
       </c>
       <c r="H42" t="s">
+        <v>325</v>
+      </c>
+      <c r="I42" t="s">
         <v>324</v>
-      </c>
-      <c r="I42" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -4376,22 +4649,28 @@
         <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>312</v>
+        <v>215</v>
       </c>
       <c r="C43">
-        <v>2013</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>313</v>
+        <v>2012</v>
+      </c>
+      <c r="D43" t="s">
+        <v>685</v>
+      </c>
+      <c r="E43" t="s">
+        <v>706</v>
+      </c>
+      <c r="F43" t="s">
+        <v>299</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="I43" t="s">
-        <v>326</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -4399,25 +4678,22 @@
         <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>454</v>
+        <v>307</v>
       </c>
       <c r="C44">
-        <v>2016</v>
-      </c>
-      <c r="E44" t="s">
-        <v>466</v>
+        <v>2012</v>
+      </c>
+      <c r="D44" t="s">
+        <v>686</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="G44" t="s">
-        <v>453</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s">
-        <v>456</v>
-      </c>
-      <c r="I44" t="s">
-        <v>455</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4425,28 +4701,37 @@
         <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>700</v>
       </c>
       <c r="C45">
-        <v>2016</v>
+        <v>2011</v>
+      </c>
+      <c r="D45" t="s">
+        <v>684</v>
       </c>
       <c r="E45" t="s">
-        <v>457</v>
+        <v>706</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G45" t="s">
-        <v>458</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>459</v>
+        <v>188</v>
       </c>
       <c r="I45" t="s">
-        <v>460</v>
-      </c>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D46" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="B3:I45">
+    <sortCondition descending="1" ref="C3:C45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4456,8 +4741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE156D2-7E33-4447-A53C-1EA25432072D}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4470,19 +4755,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F1" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H1" t="s">
         <v>64</v>
@@ -4496,82 +4781,88 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="C3">
-        <v>2017</v>
+        <v>2018</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>475</v>
       </c>
       <c r="E3" t="s">
-        <v>681</v>
-      </c>
-      <c r="G3" t="s">
-        <v>428</v>
-      </c>
-      <c r="H3" t="s">
-        <v>392</v>
+        <v>672</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>142</v>
       </c>
-      <c r="B4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C4">
-        <v>2017</v>
-      </c>
-      <c r="E4" t="s">
-        <v>688</v>
+      <c r="B4" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>143</v>
       </c>
-      <c r="B5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C5">
-        <v>2017</v>
-      </c>
-      <c r="E5" t="s">
-        <v>682</v>
-      </c>
+      <c r="B5" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="H5" t="s">
-        <v>392</v>
+        <v>437</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4579,19 +4870,19 @@
         <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="E6" t="s">
-        <v>684</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>392</v>
+        <v>667</v>
+      </c>
+      <c r="G6" t="s">
+        <v>426</v>
+      </c>
+      <c r="H6" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4599,19 +4890,19 @@
         <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="H7" t="s">
-        <v>392</v>
+        <v>427</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4619,19 +4910,19 @@
         <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>392</v>
+        <v>433</v>
+      </c>
+      <c r="H8" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4639,68 +4930,65 @@
         <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C9">
-        <v>2018</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>488</v>
+        <v>2017</v>
       </c>
       <c r="E9" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>148</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>487</v>
+      <c r="B10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10">
+        <v>2017</v>
+      </c>
+      <c r="E10" t="s">
+        <v>669</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
+      </c>
+      <c r="H10" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>149</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="B11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11">
+        <v>2017</v>
+      </c>
+      <c r="E11" t="s">
+        <v>671</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B3:H11">
+    <sortCondition descending="1" ref="C3:C11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4708,10 +4996,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4727,19 +5015,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H1" t="s">
         <v>129</v>
@@ -4753,19 +5041,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2" t="s">
         <v>362</v>
-      </c>
-      <c r="G2" t="s">
-        <v>364</v>
       </c>
       <c r="H2" t="s">
         <v>124</v>
@@ -4773,105 +5061,111 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>710</v>
       </c>
       <c r="C3">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" t="s">
-        <v>472</v>
+        <v>712</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>460</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="G4" t="s">
         <v>125</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C5">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>459</v>
+      </c>
       <c r="G5" t="s">
         <v>125</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>457</v>
       </c>
       <c r="C6">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" t="s">
-        <v>125</v>
+        <v>462</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>461</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4879,183 +5173,203 @@
         <v>125</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C8">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
       <c r="G8" t="s">
-        <v>473</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>470</v>
       </c>
       <c r="C9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="G9" t="s">
         <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C10">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C11">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>483</v>
+        <v>123</v>
       </c>
       <c r="C12">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="G12" t="s">
-        <v>145</v>
-      </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C13">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>713</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>460</v>
       </c>
       <c r="H13" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>160</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14">
+        <v>2011</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>161</v>
       </c>
-      <c r="B14" t="s">
-        <v>470</v>
-      </c>
-      <c r="C14">
-        <v>2018</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15">
+        <v>2010</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="B9:I11">
-    <sortCondition descending="1" ref="C9:C11"/>
+  <sortState ref="B4:H15">
+    <sortCondition descending="1" ref="C4:C15"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{905EA6D7-19FC-40A7-9776-023EBCA825B9}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{D02A8CA5-EDC0-4CAF-8C51-DF4FD7EEB47B}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{12AC93BA-BAD2-443D-93F3-0E0A59751E0F}"/>
-    <hyperlink ref="E14" r:id="rId4" xr:uid="{AC230BCA-3096-4D58-8AC2-6D5A154BD6CC}"/>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{905EA6D7-19FC-40A7-9776-023EBCA825B9}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{D02A8CA5-EDC0-4CAF-8C51-DF4FD7EEB47B}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{12AC93BA-BAD2-443D-93F3-0E0A59751E0F}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{AC230BCA-3096-4D58-8AC2-6D5A154BD6CC}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{9A5E5772-C7F4-4299-B89E-6B46D03E2735}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -5080,22 +5394,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -5106,22 +5420,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -5129,16 +5443,16 @@
         <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C3">
         <v>2015</v>
       </c>
       <c r="G3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -5146,13 +5460,13 @@
         <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C4">
         <v>2015</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4" t="s">
         <v>87</v>
@@ -5163,13 +5477,13 @@
         <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C5">
         <v>2014</v>
       </c>
       <c r="G5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H5" t="s">
         <v>69</v>
@@ -5180,16 +5494,16 @@
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C6">
         <v>2011</v>
       </c>
       <c r="G6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -5197,16 +5511,16 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C7">
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5235,28 +5549,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -5267,28 +5581,28 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5296,7 +5610,7 @@
         <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C3" s="2">
         <v>2015</v>
@@ -5305,16 +5619,16 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5322,7 +5636,7 @@
         <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C4" s="2">
         <v>2015</v>
@@ -5331,14 +5645,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5346,7 +5660,7 @@
         <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C5" s="2">
         <v>2015</v>
@@ -5355,14 +5669,14 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5370,22 +5684,22 @@
         <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C6">
         <v>2015</v>
       </c>
       <c r="G6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5393,20 +5707,20 @@
         <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C7">
         <v>2014</v>
       </c>
       <c r="G7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5414,22 +5728,22 @@
         <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C8">
         <v>2014</v>
       </c>
       <c r="G8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5437,22 +5751,22 @@
         <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C9">
         <v>2014</v>
       </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5460,20 +5774,20 @@
         <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C10">
         <v>2014</v>
       </c>
       <c r="G10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5481,20 +5795,20 @@
         <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C11">
         <v>2014</v>
       </c>
       <c r="G11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5502,22 +5816,22 @@
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C12">
         <v>2014</v>
       </c>
       <c r="G12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H12" t="s">
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5525,22 +5839,22 @@
         <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C13">
         <v>2014</v>
       </c>
       <c r="G13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5550,10 +5864,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5562,12 +5876,12 @@
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="24.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" customWidth="1"/>
-    <col min="11" max="11" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" customWidth="1"/>
+    <col min="10" max="11" width="8.44140625" customWidth="1"/>
+    <col min="12" max="12" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5575,40 +5889,43 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K1" t="s">
+        <v>681</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5616,40 +5933,43 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K2" t="s">
+        <v>682</v>
+      </c>
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>178</v>
       </c>
@@ -5672,16 +5992,19 @@
         <v>32</v>
       </c>
       <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>94</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>179</v>
       </c>
@@ -5692,7 +6015,7 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G4">
         <v>1601.0042100000001</v>
@@ -5701,16 +6024,19 @@
         <v>33</v>
       </c>
       <c r="K4" t="s">
+        <v>675</v>
+      </c>
+      <c r="L4" t="s">
         <v>40</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>180</v>
       </c>
@@ -5733,16 +6059,19 @@
         <v>16</v>
       </c>
       <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
         <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>181</v>
       </c>
@@ -5765,16 +6094,19 @@
         <v>33</v>
       </c>
       <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
         <v>28</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>82</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>182</v>
       </c>
@@ -5785,17 +6117,20 @@
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>183</v>
       </c>
@@ -5806,7 +6141,7 @@
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G8">
         <v>1701.0219999999999</v>
@@ -5815,235 +6150,253 @@
         <v>48</v>
       </c>
       <c r="K8" t="s">
+        <v>676</v>
+      </c>
+      <c r="L8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>2016</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9">
-        <v>1412.6639</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="I9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J9" s="2"/>
       <c r="K9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9">
-        <v>144</v>
-      </c>
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>382</v>
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>1612.0343499999999</v>
+        <v>1412.6639</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>144</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E11" t="s">
-        <v>383</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
+        <v>380</v>
+      </c>
+      <c r="G11">
+        <v>1612.0343499999999</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11">
-        <v>50</v>
-      </c>
-      <c r="M11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="C12">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E12" t="s">
-        <v>383</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
+        <v>382</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12">
-        <v>50</v>
+      <c r="K12" t="s">
+        <v>680</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>188</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>381</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13">
-        <v>1402.6276</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13">
-        <v>145</v>
-      </c>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
+        <v>679</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L14">
-        <v>44</v>
-      </c>
-      <c r="M14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15">
         <v>2015</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>677</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="C16">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E16" t="s">
-        <v>267</v>
+        <v>382</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
-      </c>
-      <c r="J16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" t="s">
+        <v>680</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>192</v>
       </c>
@@ -6051,26 +6404,29 @@
         <v>255</v>
       </c>
       <c r="C17">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>445</v>
       </c>
       <c r="I17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>680</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>193</v>
       </c>
@@ -6081,251 +6437,295 @@
         <v>2015</v>
       </c>
       <c r="E18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>446</v>
       </c>
       <c r="I18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s">
+        <v>680</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M18" t="s">
         <v>261</v>
       </c>
-      <c r="L18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19">
+        <v>441</v>
+      </c>
+      <c r="C19" s="2">
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>384</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>447</v>
+        <v>267</v>
+      </c>
+      <c r="G19">
+        <v>1505.0517</v>
       </c>
       <c r="I19" t="s">
-        <v>254</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="K19" t="s">
+        <v>676</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E20" t="s">
-        <v>384</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>448</v>
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>1402.6276</v>
       </c>
       <c r="I20" t="s">
-        <v>254</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>261</v>
+        <v>34</v>
+      </c>
+      <c r="K20" t="s">
+        <v>678</v>
       </c>
       <c r="L20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="M20">
+        <v>145</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>196</v>
       </c>
       <c r="B21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21">
+        <v>2014</v>
+      </c>
+      <c r="E21" t="s">
+        <v>382</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="I21" t="s">
+        <v>252</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" t="s">
+        <v>680</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C21">
-        <v>2016</v>
-      </c>
-      <c r="E21" t="s">
-        <v>384</v>
-      </c>
-      <c r="I21" t="s">
-        <v>254</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>197</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <v>2013</v>
+      </c>
       <c r="E22" t="s">
-        <v>384</v>
+        <v>381</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>261</v>
+      <c r="K22" t="s">
+        <v>679</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="M22">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>198</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
-      </c>
-      <c r="C23" s="2">
+        <v>157</v>
+      </c>
+      <c r="C23">
         <v>2011</v>
       </c>
-      <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="I23" t="s">
-        <v>160</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>273</v>
+        <v>159</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
+        <v>677</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>199</v>
       </c>
       <c r="B24" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C24" s="2">
         <v>2011</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>384</v>
+        <v>382</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>708</v>
       </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" t="s">
+        <v>680</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>200</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2">
         <v>2011</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>449</v>
+        <v>707</v>
       </c>
       <c r="I25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>680</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="L25">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>443</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2">
-        <v>2015</v>
-      </c>
+        <v>2011</v>
+      </c>
+      <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>269</v>
-      </c>
-      <c r="G26">
-        <v>1505.0517</v>
+        <v>382</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="I26" t="s">
-        <v>444</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>45</v>
+        <v>159</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" t="s">
+        <v>680</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="M26">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:O14">
-    <sortCondition descending="1" ref="L3:L14"/>
+  <sortState ref="B3:N26">
+    <sortCondition descending="1" ref="C3:C26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1" xr:uid="{82591D0A-5944-4997-8324-8E7443E8C93A}"/>
-    <hyperlink ref="H18" r:id="rId2" xr:uid="{9C462A9D-EBFD-4FA8-9119-24FDFED82637}"/>
-    <hyperlink ref="H19" r:id="rId3" xr:uid="{C84B48D9-7AD3-45B7-B5EF-FB20B28D6824}"/>
-    <hyperlink ref="H20" r:id="rId4" xr:uid="{9F03BC8E-7C6F-406B-984D-1B48026DC61B}"/>
-    <hyperlink ref="H25" r:id="rId5" xr:uid="{05CB7F1D-5638-42F6-AFF8-8818C3571CF6}"/>
+    <hyperlink ref="H21" r:id="rId1" xr:uid="{82591D0A-5944-4997-8324-8E7443E8C93A}"/>
+    <hyperlink ref="H16" r:id="rId2" xr:uid="{9C462A9D-EBFD-4FA8-9119-24FDFED82637}"/>
+    <hyperlink ref="H17" r:id="rId3" xr:uid="{C84B48D9-7AD3-45B7-B5EF-FB20B28D6824}"/>
+    <hyperlink ref="H18" r:id="rId4" xr:uid="{9F03BC8E-7C6F-406B-984D-1B48026DC61B}"/>
+    <hyperlink ref="H26" r:id="rId5" xr:uid="{05CB7F1D-5638-42F6-AFF8-8818C3571CF6}"/>
+    <hyperlink ref="H25" r:id="rId6" xr:uid="{56D72671-6D8B-4A51-8ABC-E98DD5C8C597}"/>
+    <hyperlink ref="H24" r:id="rId7" xr:uid="{7E5CC3CA-FA71-45C6-9D52-69565C367031}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -6344,13 +6744,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6358,13 +6758,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6372,13 +6772,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6392,7 +6792,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6400,13 +6800,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="D5" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6414,13 +6814,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D6" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6428,13 +6828,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6442,13 +6842,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6481,16 +6881,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -6498,16 +6898,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6515,16 +6915,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6532,13 +6932,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="C4" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="D4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6546,13 +6946,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="C5" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="D5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6560,16 +6960,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="C6" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="D6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6577,13 +6977,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="C7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -6591,16 +6991,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="C8" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -6608,13 +7008,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="C9" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -6622,13 +7022,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="C10" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="D10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E10" t="s">
         <v>125</v>
@@ -6640,16 +7040,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="C11" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="D11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E11" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -6658,16 +7058,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="C12" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="D12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -6675,16 +7075,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C13" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -6692,16 +7092,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="C14" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="D14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -6709,13 +7109,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="C15" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="D15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -6723,13 +7123,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="C16" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="D16" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -6737,13 +7137,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="C17" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="D17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -6751,16 +7151,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="C18" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -6768,13 +7168,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="C19" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -6782,16 +7182,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="C20" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -6820,13 +7220,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6834,13 +7234,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -6849,13 +7249,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="C3" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="D3" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6863,13 +7263,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="C4" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="D4" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6877,13 +7277,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="C5" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="D5" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6891,13 +7291,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="C6" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="D6" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6905,13 +7305,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="C7" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="D7" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -6925,7 +7325,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6938,13 +7338,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F1" t="s">
         <v>82</v>
@@ -6961,13 +7361,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
         <v>83</v>
@@ -7070,7 +7470,7 @@
         <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
         <v>96</v>
@@ -7090,7 +7490,7 @@
         <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" t="s">
         <v>95</v>
@@ -7107,7 +7507,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>106</v>
@@ -7170,7 +7570,7 @@
         <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G12" t="s">
         <v>92</v>
@@ -7243,16 +7643,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -7269,16 +7669,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -7292,7 +7692,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C3">
         <v>2012</v>
@@ -7301,13 +7701,13 @@
         <v>2016</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7315,7 +7715,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C4">
         <v>2007</v>
@@ -7324,13 +7724,13 @@
         <v>2011</v>
       </c>
       <c r="E4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G4" t="s">
         <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -7338,7 +7738,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C5">
         <v>2004</v>
@@ -7347,10 +7747,10 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -7364,7 +7764,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7377,16 +7777,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -7403,16 +7803,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -7432,16 +7832,16 @@
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
         <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7455,7 +7855,7 @@
         <v>2013</v>
       </c>
       <c r="D4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -7464,7 +7864,7 @@
         <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -7481,13 +7881,13 @@
         <v>2018</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
         <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -7510,7 +7910,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -7533,7 +7933,7 @@
         <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -7541,16 +7941,16 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="C8" s="2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D8">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="G8" t="s">
         <v>80</v>
@@ -7564,22 +7964,22 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
         <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -7587,6 +7987,9 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="B8:H9">
+    <sortCondition descending="1" ref="D8:D9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7596,8 +7999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04072B98-6DD0-4DEA-89F3-ADD9EED64B4B}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7613,25 +8016,25 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -7642,25 +8045,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -7668,28 +8071,28 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>477</v>
       </c>
       <c r="C3">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="D3">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F3" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
       <c r="G3" t="s">
-        <v>550</v>
+        <v>481</v>
       </c>
       <c r="H3" t="s">
-        <v>501</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -7697,28 +8100,28 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D4">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F4" t="s">
-        <v>538</v>
-      </c>
-      <c r="G4" t="s">
-        <v>528</v>
-      </c>
-      <c r="H4" t="s">
-        <v>512</v>
-      </c>
       <c r="I4" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7726,28 +8129,28 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>491</v>
       </c>
       <c r="C5">
         <v>2011</v>
       </c>
       <c r="D5">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E5" t="s">
-        <v>489</v>
-      </c>
-      <c r="F5" t="s">
-        <v>538</v>
-      </c>
-      <c r="G5" t="s">
-        <v>499</v>
-      </c>
-      <c r="H5" t="s">
-        <v>496</v>
+        <v>492</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="I5" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7755,28 +8158,28 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="C6">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D6">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E6" t="s">
-        <v>489</v>
-      </c>
-      <c r="F6" t="s">
-        <v>538</v>
-      </c>
-      <c r="G6" t="s">
-        <v>427</v>
+        <v>518</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="H6" t="s">
-        <v>497</v>
-      </c>
-      <c r="I6" t="s">
-        <v>492</v>
+        <v>483</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7784,28 +8187,28 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>74</v>
       </c>
       <c r="C7">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="D7">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="F7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G7" t="s">
-        <v>494</v>
+        <v>509</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="H7" t="s">
-        <v>495</v>
-      </c>
-      <c r="I7" t="s">
-        <v>491</v>
+        <v>508</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -7813,28 +8216,28 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>490</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>2016</v>
       </c>
       <c r="D8">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="F8" t="s">
-        <v>493</v>
-      </c>
-      <c r="G8" t="s">
-        <v>494</v>
+        <v>509</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s">
-        <v>491</v>
+        <v>507</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7842,28 +8245,28 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C9">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="D9">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E9" t="s">
-        <v>549</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>501</v>
+        <v>476</v>
+      </c>
+      <c r="F9" t="s">
+        <v>525</v>
+      </c>
+      <c r="G9" t="s">
+        <v>425</v>
+      </c>
+      <c r="H9" t="s">
+        <v>484</v>
       </c>
       <c r="I9" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -7871,28 +8274,28 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>495</v>
       </c>
       <c r="C10">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D10">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E10" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="I10" t="s">
-        <v>491</v>
+        <v>498</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7900,28 +8303,28 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>504</v>
+        <v>74</v>
       </c>
       <c r="C11">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D11">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E11" t="s">
-        <v>505</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
+      </c>
+      <c r="F11" t="s">
+        <v>509</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I11" t="s">
-        <v>492</v>
+        <v>513</v>
+      </c>
+      <c r="H11" t="s">
+        <v>483</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7929,28 +8332,28 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C12">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D12">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>507</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
+      </c>
+      <c r="F12" t="s">
+        <v>510</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
+      </c>
+      <c r="H12" t="s">
+        <v>483</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -7958,28 +8361,28 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="C13">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="D13">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="E13" t="s">
-        <v>507</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>491</v>
+        <v>476</v>
+      </c>
+      <c r="F13" t="s">
+        <v>525</v>
+      </c>
+      <c r="G13" t="s">
+        <v>486</v>
+      </c>
+      <c r="H13" t="s">
+        <v>483</v>
+      </c>
+      <c r="I13" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -7987,28 +8390,28 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>508</v>
+        <v>74</v>
       </c>
       <c r="C14">
         <v>2011</v>
       </c>
       <c r="D14">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="E14" t="s">
+        <v>526</v>
+      </c>
+      <c r="F14" t="s">
         <v>509</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
+      </c>
+      <c r="H14" t="s">
+        <v>506</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -8016,28 +8419,28 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15">
+        <v>2011</v>
+      </c>
+      <c r="D15">
+        <v>2011</v>
+      </c>
+      <c r="E15" t="s">
+        <v>531</v>
+      </c>
+      <c r="F15" t="s">
+        <v>519</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H15" t="s">
         <v>508</v>
       </c>
-      <c r="C15">
-        <v>2009</v>
-      </c>
-      <c r="D15">
-        <v>2009</v>
-      </c>
-      <c r="E15" t="s">
-        <v>509</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H15" t="s">
-        <v>512</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -8045,28 +8448,28 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>514</v>
+        <v>98</v>
       </c>
       <c r="C16">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D16">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F16" t="s">
+        <v>525</v>
+      </c>
+      <c r="G16" t="s">
         <v>515</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>491</v>
+      <c r="H16" t="s">
+        <v>499</v>
+      </c>
+      <c r="I16" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -8074,28 +8477,28 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="C17">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="D17">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>531</v>
+        <v>494</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="H17" t="s">
-        <v>496</v>
+        <v>403</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -8103,28 +8506,28 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>505</v>
       </c>
       <c r="C18">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D18">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E18" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F18" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H18" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -8132,28 +8535,22 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>533</v>
       </c>
       <c r="C19">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D19">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E19" t="s">
-        <v>540</v>
-      </c>
-      <c r="F19" t="s">
-        <v>522</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="H19" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -8161,28 +8558,28 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>543</v>
       </c>
       <c r="C20">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="D20">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E20" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F20" t="s">
-        <v>522</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>527</v>
+        <v>545</v>
+      </c>
+      <c r="G20" t="s">
+        <v>425</v>
       </c>
       <c r="H20" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -8190,28 +8587,28 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C21">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="D21">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="E21" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
       <c r="F21" t="s">
-        <v>522</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
+      </c>
+      <c r="G21" t="s">
+        <v>537</v>
       </c>
       <c r="H21" t="s">
-        <v>521</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
+      </c>
+      <c r="I21" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -8219,28 +8616,28 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="C22">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D22">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="E22" t="s">
-        <v>542</v>
-      </c>
-      <c r="F22" t="s">
-        <v>523</v>
+        <v>496</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="H22" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -8248,28 +8645,28 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="C23">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D23">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E23" t="s">
-        <v>544</v>
-      </c>
-      <c r="F23" t="s">
-        <v>532</v>
+        <v>502</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H23" t="s">
-        <v>519</v>
+        <v>405</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -8277,28 +8674,28 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="C24">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D24">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E24" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F24" t="s">
-        <v>532</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>427</v>
+        <v>540</v>
+      </c>
+      <c r="G24" t="s">
+        <v>425</v>
       </c>
       <c r="H24" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -8306,22 +8703,28 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>546</v>
+        <v>477</v>
       </c>
       <c r="C25">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D25">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E25" t="s">
-        <v>547</v>
+        <v>485</v>
+      </c>
+      <c r="F25" t="s">
+        <v>480</v>
+      </c>
+      <c r="G25" t="s">
+        <v>481</v>
       </c>
       <c r="H25" t="s">
-        <v>545</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
+      </c>
+      <c r="I25" t="s">
+        <v>478</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -8330,28 +8733,28 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>551</v>
+        <v>69</v>
       </c>
       <c r="C26">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D26">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E26" t="s">
-        <v>552</v>
-      </c>
-      <c r="F26" t="s">
-        <v>554</v>
-      </c>
-      <c r="G26" t="s">
-        <v>427</v>
-      </c>
-      <c r="H26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>491</v>
+        <v>536</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I26" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -8359,7 +8762,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C27">
         <v>2007</v>
@@ -8368,19 +8771,19 @@
         <v>2007</v>
       </c>
       <c r="E27" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="F27" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="G27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H27" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -8388,28 +8791,28 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>551</v>
+        <v>493</v>
       </c>
       <c r="C28">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D28">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E28" t="s">
-        <v>552</v>
-      </c>
-      <c r="F28" t="s">
-        <v>553</v>
-      </c>
-      <c r="G28" t="s">
-        <v>427</v>
-      </c>
-      <c r="H28" t="s">
-        <v>555</v>
+        <v>494</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -8417,31 +8820,34 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="C29">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D29">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E29" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="F29" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="G29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H29" t="s">
-        <v>555</v>
+        <v>102</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B3:I29">
+    <sortCondition descending="1" ref="D3:D29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8450,8 +8856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30D27AF-95C4-4435-9869-A417A9206028}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8468,13 +8874,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -8491,13 +8897,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -8511,22 +8917,22 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="D3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" t="s">
         <v>412</v>
       </c>
-      <c r="E3" t="s">
-        <v>414</v>
-      </c>
       <c r="F3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -8534,22 +8940,22 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C4" t="s">
-        <v>226</v>
-      </c>
       <c r="D4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" t="s">
         <v>412</v>
       </c>
-      <c r="E4" t="s">
-        <v>414</v>
-      </c>
       <c r="F4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8557,22 +8963,22 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="D5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E5" t="s">
         <v>412</v>
       </c>
-      <c r="E5" t="s">
-        <v>414</v>
-      </c>
       <c r="F5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -8580,22 +8986,22 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C6" t="s">
-        <v>230</v>
-      </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -8603,22 +9009,22 @@
         <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" t="s">
-        <v>226</v>
+        <v>229</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -8626,22 +9032,22 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" t="s">
-        <v>233</v>
+        <v>230</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -8649,22 +9055,22 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" t="s">
-        <v>227</v>
+        <v>232</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -8672,22 +9078,22 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" t="s">
-        <v>240</v>
+        <v>233</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -8695,22 +9101,22 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -8718,22 +9124,22 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -8741,22 +9147,22 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" t="s">
-        <v>233</v>
+        <v>236</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -8764,22 +9170,22 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" t="s">
-        <v>226</v>
+        <v>236</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -8787,22 +9193,22 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" t="s">
-        <v>229</v>
+        <v>237</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -8812,20 +9218,20 @@
       <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>2017</v>
       </c>
       <c r="D16" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" t="s">
         <v>412</v>
       </c>
-      <c r="E16" t="s">
-        <v>414</v>
-      </c>
       <c r="F16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -8833,19 +9239,20 @@
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" t="s">
         <v>412</v>
       </c>
-      <c r="E17" t="s">
-        <v>414</v>
-      </c>
       <c r="F17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -8853,22 +9260,22 @@
         <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18">
+        <v>244</v>
+      </c>
+      <c r="C18" s="4">
         <v>2013</v>
       </c>
       <c r="D18" t="s">
+        <v>410</v>
+      </c>
+      <c r="E18" t="s">
         <v>412</v>
       </c>
-      <c r="E18" t="s">
-        <v>414</v>
-      </c>
       <c r="F18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -8876,22 +9283,22 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19">
+        <v>240</v>
+      </c>
+      <c r="C19" s="4">
         <v>2006</v>
       </c>
       <c r="D19" t="s">
+        <v>411</v>
+      </c>
+      <c r="E19" t="s">
         <v>413</v>
       </c>
-      <c r="E19" t="s">
-        <v>415</v>
-      </c>
       <c r="F19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -8899,22 +9306,22 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20">
+        <v>245</v>
+      </c>
+      <c r="C20" s="4">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -8922,22 +9329,22 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21">
+        <v>247</v>
+      </c>
+      <c r="C21" s="4">
         <v>2010</v>
       </c>
       <c r="D21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -8945,22 +9352,22 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22">
+        <v>247</v>
+      </c>
+      <c r="C22" s="4">
         <v>2012</v>
       </c>
       <c r="D22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -8968,22 +9375,22 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23">
+        <v>247</v>
+      </c>
+      <c r="C23" s="4">
         <v>2014</v>
       </c>
       <c r="D23" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -8991,22 +9398,22 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
-      </c>
-      <c r="C24" t="s">
-        <v>426</v>
+        <v>248</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="D24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -9014,22 +9421,22 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25">
+        <v>250</v>
+      </c>
+      <c r="C25" s="4">
         <v>2010</v>
       </c>
       <c r="D25" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -9037,22 +9444,22 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C26">
+        <v>328</v>
+      </c>
+      <c r="C26" s="4">
         <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -9060,22 +9467,22 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>331</v>
-      </c>
-      <c r="C27">
+        <v>329</v>
+      </c>
+      <c r="C27" s="4">
         <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -9083,22 +9490,22 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
-      </c>
-      <c r="C28">
+        <v>330</v>
+      </c>
+      <c r="C28" s="4">
         <v>2010</v>
       </c>
       <c r="D28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E28" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F28" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -9106,22 +9513,22 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29">
+        <v>247</v>
+      </c>
+      <c r="C29" s="4">
         <v>2009</v>
       </c>
       <c r="D29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -9129,22 +9536,22 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30">
+        <v>247</v>
+      </c>
+      <c r="C30" s="4">
         <v>2008</v>
       </c>
       <c r="D30" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E30" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G30" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -9152,22 +9559,22 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>334</v>
-      </c>
-      <c r="C31">
+        <v>332</v>
+      </c>
+      <c r="C31" s="4">
         <v>2008</v>
       </c>
       <c r="D31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E31" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F31" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -9175,22 +9582,22 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>387</v>
-      </c>
-      <c r="C32">
+        <v>385</v>
+      </c>
+      <c r="C32" s="4">
         <v>2015</v>
       </c>
       <c r="D32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.3">
@@ -9198,5 +9605,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78656E7-5DC8-4262-ADCF-E753C170F765}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AADE452-7665-4ED8-8E0F-2D1E41AD8D95}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2184,9 +2184,6 @@
     <t>ConverTex</t>
   </si>
   <si>
-    <t>http://www.nekomath.com/conviertex</t>
-  </si>
-  <si>
     <t>This is the mobile friendly successor of ConvierTex (see below). Now based on ajax and MathJax.</t>
   </si>
   <si>
@@ -2194,6 +2191,9 @@
   </si>
   <si>
     <t>LaTeX, HTML, CSS, MathJax, ajax</t>
+  </si>
+  <si>
+    <t>http://www.nekomath.com/convertex</t>
   </si>
 </sst>
 </file>
@@ -4999,7 +4999,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5070,16 +5070,16 @@
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="G3" t="s">
         <v>460</v>
       </c>
       <c r="H3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -5297,7 +5297,7 @@
         <v>2011</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>709</v>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AADE452-7665-4ED8-8E0F-2D1E41AD8D95}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E18B4F-36B1-4BC6-AD73-B3FFADF9E013}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="717">
   <si>
     <t>ID</t>
   </si>
@@ -464,9 +464,6 @@
     <t>The official website of the VII Competencia Iberoamericana Interuniversitaria de Matemáticas.</t>
   </si>
   <si>
-    <t>Data visualization project on the information of the researchers at Conacyt in Mexico.</t>
-  </si>
-  <si>
     <t>webdev</t>
   </si>
   <si>
@@ -522,9 +519,6 @@
   </si>
   <si>
     <t>BSc Dissertation</t>
-  </si>
-  <si>
-    <t>python, pandas, matplotlib, Jupyter</t>
   </si>
   <si>
     <t>A Hall-type theorem for points in general position</t>
@@ -1447,9 +1441,6 @@
   </si>
   <si>
     <t>Géométrie, Topologie et Algèbre</t>
-  </si>
-  <si>
-    <t>SNI Conacyt Visualization</t>
   </si>
   <si>
     <t>Youtube</t>
@@ -2178,9 +2169,6 @@
     <t>http://www.ommenlinea.org/portfolio-items/tzaloa-2011-tercer-numero/?portfolioCats=10%2C11%2C12%2C14%2C15%2C27%2C32</t>
   </si>
   <si>
-    <t>http</t>
-  </si>
-  <si>
     <t>ConverTex</t>
   </si>
   <si>
@@ -2193,7 +2181,25 @@
     <t>LaTeX, HTML, CSS, MathJax, ajax</t>
   </si>
   <si>
-    <t>http://www.nekomath.com/convertex</t>
+    <t>Data visualization project for the scholars of the Mexican science funding institution Conacyt</t>
+  </si>
+  <si>
+    <t>Sobrinos de la Tía Cony</t>
+  </si>
+  <si>
+    <t>python, pandas, matplotlib, Jupyter, D3, Typescript</t>
+  </si>
+  <si>
+    <t>http://www.nekomath.com/cony</t>
+  </si>
+  <si>
+    <t>http://www.nekomath.com/ct</t>
+  </si>
+  <si>
+    <t>leomtz/sobrinoscony</t>
+  </si>
+  <si>
+    <t>datasc, webdev</t>
   </si>
 </sst>
 </file>
@@ -2562,133 +2568,133 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D12" t="s">
         <v>83</v>
@@ -2696,13 +2702,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B13" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
         <v>83</v>
@@ -2710,134 +2716,134 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B16" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B17" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D18" t="s">
         <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B19" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B20" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B22" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2866,19 +2872,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
         <v>82</v>
@@ -2892,19 +2898,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
         <v>83</v>
@@ -2915,25 +2921,25 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F3" t="s">
         <v>561</v>
       </c>
-      <c r="D3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F3" t="s">
-        <v>564</v>
-      </c>
       <c r="G3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2941,25 +2947,25 @@
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" t="s">
+        <v>566</v>
+      </c>
+      <c r="F4" t="s">
         <v>561</v>
       </c>
-      <c r="D4" t="s">
-        <v>581</v>
-      </c>
-      <c r="E4" t="s">
-        <v>569</v>
-      </c>
-      <c r="F4" t="s">
-        <v>564</v>
-      </c>
       <c r="G4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2967,25 +2973,25 @@
         <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C5">
         <v>2016</v>
       </c>
       <c r="D5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2993,25 +2999,25 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C6">
         <v>2014</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3019,19 +3025,19 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H7" t="s">
         <v>69</v>
@@ -3042,19 +3048,19 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E8" t="s">
         <v>557</v>
       </c>
-      <c r="E8" t="s">
-        <v>560</v>
-      </c>
       <c r="F8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H8" t="s">
         <v>69</v>
@@ -3065,19 +3071,19 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E9" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H9" t="s">
         <v>69</v>
@@ -3088,19 +3094,19 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H10" t="s">
         <v>69</v>
@@ -3111,19 +3117,19 @@
         <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H11" t="s">
         <v>69</v>
@@ -3134,19 +3140,19 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E12" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G12" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H12" t="s">
         <v>69</v>
@@ -3157,19 +3163,19 @@
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D13" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E13" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G13" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H13" t="s">
         <v>69</v>
@@ -3198,22 +3204,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I1" t="s">
         <v>82</v>
@@ -3227,22 +3233,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -3253,28 +3259,28 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C3">
         <v>2014</v>
       </c>
       <c r="D3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" t="s">
         <v>572</v>
       </c>
-      <c r="F3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G3" t="s">
-        <v>575</v>
-      </c>
       <c r="H3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3282,28 +3288,28 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C4">
         <v>2014</v>
       </c>
       <c r="D4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" t="s">
         <v>572</v>
       </c>
-      <c r="F4" t="s">
-        <v>405</v>
-      </c>
-      <c r="G4" t="s">
-        <v>575</v>
-      </c>
       <c r="H4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3311,28 +3317,28 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C5">
         <v>2015</v>
       </c>
       <c r="D5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" t="s">
         <v>572</v>
       </c>
-      <c r="F5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G5" t="s">
-        <v>575</v>
-      </c>
       <c r="H5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3340,28 +3346,28 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C6">
         <v>2013</v>
       </c>
       <c r="D6" t="s">
+        <v>579</v>
+      </c>
+      <c r="E6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F6" t="s">
+        <v>401</v>
+      </c>
+      <c r="G6" t="s">
+        <v>581</v>
+      </c>
+      <c r="H6" t="s">
         <v>582</v>
       </c>
-      <c r="E6" t="s">
-        <v>583</v>
-      </c>
-      <c r="F6" t="s">
-        <v>403</v>
-      </c>
-      <c r="G6" t="s">
-        <v>584</v>
-      </c>
-      <c r="H6" t="s">
-        <v>585</v>
-      </c>
       <c r="I6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3369,28 +3375,28 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C7">
         <v>2012</v>
       </c>
       <c r="D7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E7" t="s">
+        <v>580</v>
+      </c>
+      <c r="F7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" t="s">
+        <v>581</v>
+      </c>
+      <c r="H7" t="s">
         <v>582</v>
       </c>
-      <c r="E7" t="s">
-        <v>583</v>
-      </c>
-      <c r="F7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G7" t="s">
-        <v>584</v>
-      </c>
-      <c r="H7" t="s">
-        <v>585</v>
-      </c>
       <c r="I7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3398,28 +3404,28 @@
         <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C8">
         <v>2012</v>
       </c>
       <c r="D8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E8" t="s">
+        <v>580</v>
+      </c>
+      <c r="F8" t="s">
+        <v>586</v>
+      </c>
+      <c r="G8" t="s">
+        <v>581</v>
+      </c>
+      <c r="H8" t="s">
         <v>582</v>
       </c>
-      <c r="E8" t="s">
-        <v>583</v>
-      </c>
-      <c r="F8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G8" t="s">
-        <v>584</v>
-      </c>
-      <c r="H8" t="s">
-        <v>585</v>
-      </c>
       <c r="I8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3427,28 +3433,28 @@
         <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C9">
         <v>2012</v>
       </c>
       <c r="D9" t="s">
+        <v>579</v>
+      </c>
+      <c r="E9" t="s">
+        <v>580</v>
+      </c>
+      <c r="F9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" t="s">
+        <v>486</v>
+      </c>
+      <c r="H9" t="s">
         <v>582</v>
       </c>
-      <c r="E9" t="s">
-        <v>583</v>
-      </c>
-      <c r="F9" t="s">
-        <v>403</v>
-      </c>
-      <c r="G9" t="s">
-        <v>489</v>
-      </c>
-      <c r="H9" t="s">
-        <v>585</v>
-      </c>
       <c r="I9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3456,28 +3462,28 @@
         <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C10">
         <v>2011</v>
       </c>
       <c r="D10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -3509,22 +3515,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I1" t="s">
         <v>82</v>
@@ -3538,22 +3544,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -3564,28 +3570,28 @@
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3599,22 +3605,22 @@
         <v>2017</v>
       </c>
       <c r="D4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
         <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3622,28 +3628,28 @@
         <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5">
         <v>2017</v>
       </c>
       <c r="D5" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3657,19 +3663,19 @@
         <v>2016</v>
       </c>
       <c r="D6" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3677,28 +3683,28 @@
         <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C7">
         <v>2016</v>
       </c>
       <c r="D7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G7" t="s">
         <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3706,28 +3712,28 @@
         <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C8">
         <v>2016</v>
       </c>
       <c r="D8" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E8" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3735,28 +3741,28 @@
         <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9">
         <v>2016</v>
       </c>
       <c r="D9" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E9" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
         <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3764,28 +3770,28 @@
         <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C10">
         <v>2016</v>
       </c>
       <c r="D10" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E10" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
+        <v>446</v>
+      </c>
+      <c r="H10" t="s">
+        <v>449</v>
+      </c>
+      <c r="I10" t="s">
         <v>448</v>
-      </c>
-      <c r="H10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I10" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3799,22 +3805,22 @@
         <v>2016</v>
       </c>
       <c r="D11" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E11" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
+        <v>450</v>
+      </c>
+      <c r="H11" t="s">
+        <v>451</v>
+      </c>
+      <c r="I11" t="s">
         <v>452</v>
-      </c>
-      <c r="H11" t="s">
-        <v>453</v>
-      </c>
-      <c r="I11" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3822,25 +3828,25 @@
         <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12">
         <v>2015</v>
       </c>
       <c r="D12" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E12" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3848,28 +3854,28 @@
         <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C13">
         <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E13" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3877,28 +3883,28 @@
         <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C14">
         <v>2015</v>
       </c>
       <c r="D14" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E14" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H14" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3906,28 +3912,28 @@
         <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15">
         <v>2015</v>
       </c>
       <c r="D15" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3935,25 +3941,25 @@
         <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C16">
         <v>2015</v>
       </c>
       <c r="D16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E16" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3961,28 +3967,28 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C17">
         <v>2015</v>
       </c>
       <c r="D17" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E17" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -3990,25 +3996,25 @@
         <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C18">
         <v>2015</v>
       </c>
       <c r="D18" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -4016,28 +4022,28 @@
         <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C19">
         <v>2015</v>
       </c>
       <c r="D19" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E19" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" t="s">
+        <v>316</v>
+      </c>
+      <c r="H19" t="s">
+        <v>312</v>
+      </c>
+      <c r="I19" t="s">
         <v>311</v>
-      </c>
-      <c r="G19" t="s">
-        <v>318</v>
-      </c>
-      <c r="H19" t="s">
-        <v>314</v>
-      </c>
-      <c r="I19" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -4045,28 +4051,28 @@
         <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C20">
         <v>2015</v>
       </c>
       <c r="D20" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E20" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -4080,22 +4086,22 @@
         <v>2014</v>
       </c>
       <c r="D21" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E21" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -4109,19 +4115,19 @@
         <v>2014</v>
       </c>
       <c r="D22" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -4129,25 +4135,25 @@
         <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C23">
         <v>2014</v>
       </c>
       <c r="D23" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
         <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -4155,28 +4161,28 @@
         <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C24">
         <v>2014</v>
       </c>
       <c r="D24" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E24" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -4184,28 +4190,28 @@
         <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C25">
         <v>2014</v>
       </c>
       <c r="D25" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E25" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G25" t="s">
         <v>101</v>
       </c>
       <c r="H25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -4213,25 +4219,25 @@
         <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C26">
         <v>2014</v>
       </c>
       <c r="D26" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -4239,22 +4245,22 @@
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C27">
         <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -4262,22 +4268,22 @@
         <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C28">
         <v>2014</v>
       </c>
       <c r="D28" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
         <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I28" t="s">
         <v>87</v>
@@ -4288,25 +4294,25 @@
         <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C29">
         <v>2014</v>
       </c>
       <c r="D29" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G29" t="s">
         <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -4314,25 +4320,25 @@
         <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C30">
         <v>2014</v>
       </c>
       <c r="D30" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -4340,25 +4346,25 @@
         <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C31">
         <v>2014</v>
       </c>
       <c r="D31" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -4366,22 +4372,22 @@
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C32">
         <v>2013</v>
       </c>
       <c r="D32" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -4389,25 +4395,25 @@
         <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C33">
         <v>2013</v>
       </c>
       <c r="D33" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -4415,28 +4421,28 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C34">
         <v>2013</v>
       </c>
       <c r="D34" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E34" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -4444,28 +4450,28 @@
         <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C35">
         <v>2013</v>
       </c>
       <c r="D35" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E35" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G35" t="s">
         <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -4473,22 +4479,22 @@
         <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C36">
         <v>2013</v>
       </c>
       <c r="D36" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I36" t="s">
         <v>87</v>
@@ -4499,22 +4505,22 @@
         <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C37">
         <v>2013</v>
       </c>
       <c r="D37" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -4522,25 +4528,25 @@
         <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C38">
         <v>2013</v>
       </c>
       <c r="D38" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G38" t="s">
         <v>101</v>
       </c>
       <c r="H38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -4548,22 +4554,22 @@
         <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C39">
         <v>2013</v>
       </c>
       <c r="D39" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -4571,25 +4577,25 @@
         <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C40">
         <v>2013</v>
       </c>
       <c r="D40" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G40" t="s">
         <v>89</v>
       </c>
       <c r="H40" t="s">
+        <v>319</v>
+      </c>
+      <c r="I40" t="s">
         <v>321</v>
-      </c>
-      <c r="I40" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -4597,25 +4603,25 @@
         <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C41">
         <v>2013</v>
       </c>
       <c r="D41" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G41" t="s">
         <v>101</v>
       </c>
       <c r="H41" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -4623,25 +4629,25 @@
         <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C42">
         <v>2013</v>
       </c>
       <c r="D42" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G42" t="s">
         <v>101</v>
       </c>
       <c r="H42" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I42" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -4649,25 +4655,25 @@
         <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C43">
         <v>2012</v>
       </c>
       <c r="D43" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E43" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G43" t="s">
         <v>89</v>
       </c>
       <c r="H43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I43" t="s">
         <v>87</v>
@@ -4678,22 +4684,22 @@
         <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C44">
         <v>2012</v>
       </c>
       <c r="D44" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G44" t="s">
         <v>89</v>
       </c>
       <c r="H44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4701,28 +4707,28 @@
         <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C45">
         <v>2011</v>
       </c>
       <c r="D45" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E45" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G45" t="s">
         <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I45" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -4755,19 +4761,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H1" t="s">
         <v>64</v>
@@ -4781,19 +4787,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H2" t="s">
         <v>65</v>
@@ -4804,19 +4810,19 @@
         <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C3">
         <v>2018</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4824,23 +4830,23 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C4" s="2">
         <v>2018</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4848,21 +4854,21 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C5" s="2">
         <v>2018</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4870,19 +4876,19 @@
         <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="E6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4890,19 +4896,19 @@
         <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4910,19 +4916,19 @@
         <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4930,19 +4936,19 @@
         <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C9">
         <v>2017</v>
       </c>
       <c r="E9" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4950,19 +4956,19 @@
         <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="E10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4970,19 +4976,19 @@
         <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C11">
         <v>2017</v>
       </c>
       <c r="E11" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -4998,8 +5004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D0DD9B-3A24-4EEE-B532-5A3AF00D7B57}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5015,19 +5021,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H1" t="s">
         <v>129</v>
@@ -5041,19 +5047,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" t="s">
         <v>360</v>
-      </c>
-      <c r="G2" t="s">
-        <v>362</v>
       </c>
       <c r="H2" t="s">
         <v>124</v>
@@ -5064,22 +5070,25 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C3">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>714</v>
       </c>
+      <c r="F3" t="s">
+        <v>457</v>
+      </c>
       <c r="G3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -5096,7 +5105,7 @@
         <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G4" t="s">
         <v>125</v>
@@ -5110,16 +5119,16 @@
         <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G5" t="s">
         <v>125</v>
@@ -5133,22 +5142,22 @@
         <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C6">
         <v>2018</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
         <v>131</v>
@@ -5165,7 +5174,7 @@
         <v>2017</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -5202,20 +5211,25 @@
         <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>711</v>
       </c>
       <c r="C9">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F9" t="s">
+        <v>715</v>
+      </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>716</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -5254,13 +5268,13 @@
         <v>141</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" t="s">
         <v>145</v>
-      </c>
-      <c r="G11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -5280,7 +5294,7 @@
         <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" t="s">
         <v>137</v>
@@ -5297,14 +5311,12 @@
         <v>2011</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>709</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H13" t="s">
         <v>135</v>
@@ -5321,13 +5333,13 @@
         <v>2011</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" t="s">
         <v>136</v>
@@ -5344,14 +5356,14 @@
         <v>2010</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E15" s="2"/>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -5367,9 +5379,10 @@
     <hyperlink ref="E11" r:id="rId3" xr:uid="{12AC93BA-BAD2-443D-93F3-0E0A59751E0F}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{AC230BCA-3096-4D58-8AC2-6D5A154BD6CC}"/>
     <hyperlink ref="E3" r:id="rId5" xr:uid="{9A5E5772-C7F4-4299-B89E-6B46D03E2735}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{354CE4DA-88E4-4501-BFE5-C2787B047FCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -5394,22 +5407,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -5420,22 +5433,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -5443,16 +5456,16 @@
         <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3">
         <v>2015</v>
       </c>
       <c r="G3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -5460,13 +5473,13 @@
         <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4">
         <v>2015</v>
       </c>
       <c r="G4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H4" t="s">
         <v>87</v>
@@ -5477,13 +5490,13 @@
         <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C5">
         <v>2014</v>
       </c>
       <c r="G5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H5" t="s">
         <v>69</v>
@@ -5494,16 +5507,16 @@
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6">
         <v>2011</v>
       </c>
       <c r="G6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -5511,16 +5524,16 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C7">
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5532,7 +5545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB14F89-81DD-48BF-BD72-6AB1ED9495A4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -5549,28 +5562,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -5581,28 +5594,28 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5610,7 +5623,7 @@
         <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C3" s="2">
         <v>2015</v>
@@ -5619,16 +5632,16 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5636,7 +5649,7 @@
         <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" s="2">
         <v>2015</v>
@@ -5645,14 +5658,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5660,7 +5673,7 @@
         <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C5" s="2">
         <v>2015</v>
@@ -5669,14 +5682,14 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5684,22 +5697,22 @@
         <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6">
         <v>2015</v>
       </c>
       <c r="G6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5707,20 +5720,20 @@
         <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C7">
         <v>2014</v>
       </c>
       <c r="G7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5728,22 +5741,22 @@
         <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C8">
         <v>2014</v>
       </c>
       <c r="G8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5751,22 +5764,22 @@
         <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C9">
         <v>2014</v>
       </c>
       <c r="G9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5774,20 +5787,20 @@
         <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C10">
         <v>2014</v>
       </c>
       <c r="G10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5795,20 +5808,20 @@
         <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11">
         <v>2014</v>
       </c>
       <c r="G11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5816,22 +5829,22 @@
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C12">
         <v>2014</v>
       </c>
       <c r="G12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H12" t="s">
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5839,22 +5852,22 @@
         <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C13">
         <v>2014</v>
       </c>
       <c r="G13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -5889,31 +5902,31 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L1" t="s">
         <v>6</v>
@@ -5933,31 +5946,31 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
@@ -6015,7 +6028,7 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G4">
         <v>1601.0042100000001</v>
@@ -6024,7 +6037,7 @@
         <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="L4" t="s">
         <v>40</v>
@@ -6117,7 +6130,7 @@
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -6141,7 +6154,7 @@
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G8">
         <v>1701.0219999999999</v>
@@ -6150,7 +6163,7 @@
         <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L8" t="s">
         <v>49</v>
@@ -6161,24 +6174,24 @@
         <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C9" s="2">
         <v>2017</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>38</v>
@@ -6230,7 +6243,7 @@
         <v>2016</v>
       </c>
       <c r="E11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G11">
         <v>1612.0343499999999</v>
@@ -6252,26 +6265,26 @@
         <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C12">
         <v>2016</v>
       </c>
       <c r="E12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -6285,7 +6298,7 @@
         <v>2015</v>
       </c>
       <c r="E13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
@@ -6295,7 +6308,7 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>52</v>
@@ -6318,7 +6331,7 @@
         <v>2015</v>
       </c>
       <c r="E14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F14" t="s">
         <v>57</v>
@@ -6328,7 +6341,7 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>52</v>
@@ -6345,25 +6358,25 @@
         <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15">
         <v>2015</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
         <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -6371,29 +6384,29 @@
         <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C16">
         <v>2015</v>
       </c>
       <c r="E16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -6401,29 +6414,29 @@
         <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C17">
         <v>2015</v>
       </c>
       <c r="E17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -6431,29 +6444,29 @@
         <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C18">
         <v>2015</v>
       </c>
       <c r="E18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M18" t="s">
         <v>259</v>
-      </c>
-      <c r="M18" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -6461,22 +6474,22 @@
         <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C19" s="2">
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G19">
         <v>1505.0517</v>
       </c>
       <c r="I19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K19" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>45</v>
@@ -6505,7 +6518,7 @@
         <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="L20" t="s">
         <v>36</v>
@@ -6522,29 +6535,29 @@
         <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21">
         <v>2014</v>
       </c>
       <c r="E21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -6558,7 +6571,7 @@
         <v>2013</v>
       </c>
       <c r="E22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
@@ -6568,7 +6581,7 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>52</v>
@@ -6585,25 +6598,25 @@
         <v>198</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23">
         <v>2011</v>
       </c>
       <c r="E23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J23" t="s">
         <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -6611,35 +6624,35 @@
         <v>199</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2">
         <v>2011</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -6647,35 +6660,35 @@
         <v>200</v>
       </c>
       <c r="B25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2">
         <v>2011</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -6683,29 +6696,29 @@
         <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2">
         <v>2011</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>87</v>
       </c>
       <c r="K26" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M26">
         <v>52</v>
@@ -6744,13 +6757,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6758,13 +6771,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6772,13 +6785,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6792,7 +6805,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6800,13 +6813,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D5" t="s">
         <v>656</v>
-      </c>
-      <c r="D5" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6814,13 +6827,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6828,13 +6841,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6842,13 +6855,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6871,7 +6884,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6881,16 +6894,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -6898,16 +6911,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6915,16 +6928,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6932,13 +6945,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6946,13 +6959,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6960,16 +6973,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6977,13 +6990,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -6991,16 +7004,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C8" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7008,13 +7021,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C9" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -7022,13 +7035,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E10" t="s">
         <v>125</v>
@@ -7040,16 +7053,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -7058,16 +7071,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C12" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -7075,16 +7088,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -7092,16 +7105,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C14" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -7109,13 +7122,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C15" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -7123,13 +7136,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C16" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D16" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -7137,13 +7150,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C17" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -7151,16 +7164,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C18" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -7168,13 +7181,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C19" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -7182,16 +7195,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C20" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -7220,13 +7233,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7234,13 +7247,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -7249,13 +7262,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7263,13 +7276,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7277,13 +7290,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7291,13 +7304,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7305,13 +7318,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -7338,13 +7351,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F1" t="s">
         <v>82</v>
@@ -7361,13 +7374,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
         <v>83</v>
@@ -7470,7 +7483,7 @@
         <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
         <v>96</v>
@@ -7490,7 +7503,7 @@
         <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
         <v>95</v>
@@ -7507,7 +7520,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>106</v>
@@ -7570,7 +7583,7 @@
         <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
         <v>92</v>
@@ -7643,16 +7656,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -7669,16 +7682,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -7692,7 +7705,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C3">
         <v>2012</v>
@@ -7701,13 +7714,13 @@
         <v>2016</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7715,7 +7728,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C4">
         <v>2007</v>
@@ -7724,13 +7737,13 @@
         <v>2011</v>
       </c>
       <c r="E4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G4" t="s">
         <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -7738,7 +7751,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C5">
         <v>2004</v>
@@ -7747,10 +7760,10 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -7777,16 +7790,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -7803,16 +7816,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -7832,16 +7845,16 @@
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
         <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7855,7 +7868,7 @@
         <v>2013</v>
       </c>
       <c r="D4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -7864,7 +7877,7 @@
         <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -7881,13 +7894,13 @@
         <v>2018</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
         <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -7910,7 +7923,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -7933,7 +7946,7 @@
         <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -7941,7 +7954,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C8" s="2">
         <v>2014</v>
@@ -7950,13 +7963,13 @@
         <v>2015</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G8" t="s">
         <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7979,7 +7992,7 @@
         <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -8016,25 +8029,25 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -8045,25 +8058,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -8071,7 +8084,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C3">
         <v>2016</v>
@@ -8080,19 +8093,19 @@
         <v>2018</v>
       </c>
       <c r="E3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H3" t="s">
         <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -8109,19 +8122,19 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -8129,7 +8142,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C5">
         <v>2011</v>
@@ -8138,19 +8151,19 @@
         <v>2018</v>
       </c>
       <c r="E5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -8158,7 +8171,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C6">
         <v>2017</v>
@@ -8167,19 +8180,19 @@
         <v>2017</v>
       </c>
       <c r="E6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -8196,19 +8209,19 @@
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -8225,19 +8238,19 @@
         <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -8254,19 +8267,19 @@
         <v>2015</v>
       </c>
       <c r="E9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F9" t="s">
+        <v>522</v>
+      </c>
+      <c r="G9" t="s">
+        <v>423</v>
+      </c>
+      <c r="H9" t="s">
+        <v>481</v>
+      </c>
+      <c r="I9" t="s">
         <v>476</v>
-      </c>
-      <c r="F9" t="s">
-        <v>525</v>
-      </c>
-      <c r="G9" t="s">
-        <v>425</v>
-      </c>
-      <c r="H9" t="s">
-        <v>484</v>
-      </c>
-      <c r="I9" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -8274,7 +8287,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C10">
         <v>2011</v>
@@ -8283,19 +8296,19 @@
         <v>2015</v>
       </c>
       <c r="E10" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -8312,19 +8325,19 @@
         <v>2015</v>
       </c>
       <c r="E11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -8332,7 +8345,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C12">
         <v>2013</v>
@@ -8341,19 +8354,19 @@
         <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -8370,19 +8383,19 @@
         <v>2014</v>
       </c>
       <c r="E13" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" t="s">
+        <v>522</v>
+      </c>
+      <c r="G13" t="s">
+        <v>483</v>
+      </c>
+      <c r="H13" t="s">
+        <v>480</v>
+      </c>
+      <c r="I13" t="s">
         <v>476</v>
-      </c>
-      <c r="F13" t="s">
-        <v>525</v>
-      </c>
-      <c r="G13" t="s">
-        <v>486</v>
-      </c>
-      <c r="H13" t="s">
-        <v>483</v>
-      </c>
-      <c r="I13" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -8399,19 +8412,19 @@
         <v>2011</v>
       </c>
       <c r="E14" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F14" t="s">
+        <v>506</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="H14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -8419,7 +8432,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C15">
         <v>2011</v>
@@ -8428,19 +8441,19 @@
         <v>2011</v>
       </c>
       <c r="E15" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F15" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H15" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -8457,19 +8470,19 @@
         <v>2010</v>
       </c>
       <c r="E16" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" t="s">
+        <v>522</v>
+      </c>
+      <c r="G16" t="s">
+        <v>512</v>
+      </c>
+      <c r="H16" t="s">
+        <v>496</v>
+      </c>
+      <c r="I16" t="s">
         <v>476</v>
-      </c>
-      <c r="F16" t="s">
-        <v>525</v>
-      </c>
-      <c r="G16" t="s">
-        <v>515</v>
-      </c>
-      <c r="H16" t="s">
-        <v>499</v>
-      </c>
-      <c r="I16" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -8477,7 +8490,7 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C17">
         <v>2007</v>
@@ -8486,19 +8499,19 @@
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -8506,7 +8519,7 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C18">
         <v>2010</v>
@@ -8515,19 +8528,19 @@
         <v>2010</v>
       </c>
       <c r="E18" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F18" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -8535,7 +8548,7 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C19">
         <v>2010</v>
@@ -8544,13 +8557,13 @@
         <v>2010</v>
       </c>
       <c r="E19" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H19" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -8558,7 +8571,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C20">
         <v>2010</v>
@@ -8567,19 +8580,19 @@
         <v>2010</v>
       </c>
       <c r="E20" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F20" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H20" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -8596,19 +8609,19 @@
         <v>2009</v>
       </c>
       <c r="E21" t="s">
+        <v>473</v>
+      </c>
+      <c r="F21" t="s">
+        <v>522</v>
+      </c>
+      <c r="G21" t="s">
+        <v>534</v>
+      </c>
+      <c r="H21" t="s">
+        <v>485</v>
+      </c>
+      <c r="I21" t="s">
         <v>476</v>
-      </c>
-      <c r="F21" t="s">
-        <v>525</v>
-      </c>
-      <c r="G21" t="s">
-        <v>537</v>
-      </c>
-      <c r="H21" t="s">
-        <v>488</v>
-      </c>
-      <c r="I21" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -8616,7 +8629,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C22">
         <v>2009</v>
@@ -8625,19 +8638,19 @@
         <v>2009</v>
       </c>
       <c r="E22" t="s">
+        <v>493</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H22" t="s">
         <v>496</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="H22" t="s">
-        <v>499</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -8645,7 +8658,7 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C23">
         <v>2009</v>
@@ -8654,19 +8667,19 @@
         <v>2009</v>
       </c>
       <c r="E23" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -8674,7 +8687,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C24">
         <v>2008</v>
@@ -8683,19 +8696,19 @@
         <v>2008</v>
       </c>
       <c r="E24" t="s">
+        <v>536</v>
+      </c>
+      <c r="F24" t="s">
+        <v>537</v>
+      </c>
+      <c r="G24" t="s">
+        <v>423</v>
+      </c>
+      <c r="H24" t="s">
         <v>539</v>
       </c>
-      <c r="F24" t="s">
-        <v>540</v>
-      </c>
-      <c r="G24" t="s">
-        <v>425</v>
-      </c>
-      <c r="H24" t="s">
-        <v>542</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -8703,7 +8716,7 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C25">
         <v>2007</v>
@@ -8712,19 +8725,19 @@
         <v>2007</v>
       </c>
       <c r="E25" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F25" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G25" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H25" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I25" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -8742,19 +8755,19 @@
         <v>2007</v>
       </c>
       <c r="E26" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I26" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -8762,7 +8775,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C27">
         <v>2007</v>
@@ -8771,19 +8784,19 @@
         <v>2007</v>
       </c>
       <c r="E27" t="s">
+        <v>536</v>
+      </c>
+      <c r="F27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G27" t="s">
+        <v>423</v>
+      </c>
+      <c r="H27" t="s">
         <v>539</v>
       </c>
-      <c r="F27" t="s">
-        <v>541</v>
-      </c>
-      <c r="G27" t="s">
-        <v>425</v>
-      </c>
-      <c r="H27" t="s">
-        <v>542</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -8791,7 +8804,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C28">
         <v>2006</v>
@@ -8800,19 +8813,19 @@
         <v>2006</v>
       </c>
       <c r="E28" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -8820,7 +8833,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C29">
         <v>2006</v>
@@ -8829,19 +8842,19 @@
         <v>2006</v>
       </c>
       <c r="E29" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F29" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H29" t="s">
         <v>102</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -8874,13 +8887,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -8897,13 +8910,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -8917,22 +8930,22 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" t="s">
         <v>410</v>
       </c>
-      <c r="E3" t="s">
-        <v>412</v>
-      </c>
       <c r="F3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -8940,22 +8953,22 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="D4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" t="s">
         <v>410</v>
       </c>
-      <c r="E4" t="s">
-        <v>412</v>
-      </c>
       <c r="F4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8963,22 +8976,22 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E5" t="s">
         <v>410</v>
       </c>
-      <c r="E5" t="s">
-        <v>412</v>
-      </c>
       <c r="F5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -8986,22 +8999,22 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="D6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -9009,22 +9022,22 @@
         <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -9032,22 +9045,22 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -9055,22 +9068,22 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -9078,22 +9091,22 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -9101,22 +9114,22 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -9124,22 +9137,22 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -9147,22 +9160,22 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -9170,22 +9183,22 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -9193,22 +9206,22 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -9222,16 +9235,16 @@
         <v>2017</v>
       </c>
       <c r="D16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E16" t="s">
         <v>410</v>
       </c>
-      <c r="E16" t="s">
-        <v>412</v>
-      </c>
       <c r="F16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -9239,20 +9252,20 @@
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" t="s">
+        <v>408</v>
+      </c>
+      <c r="E17" t="s">
         <v>410</v>
       </c>
-      <c r="E17" t="s">
-        <v>412</v>
-      </c>
       <c r="F17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -9260,22 +9273,22 @@
         <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C18" s="4">
         <v>2013</v>
       </c>
       <c r="D18" t="s">
+        <v>408</v>
+      </c>
+      <c r="E18" t="s">
         <v>410</v>
       </c>
-      <c r="E18" t="s">
-        <v>412</v>
-      </c>
       <c r="F18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -9283,22 +9296,22 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C19" s="4">
         <v>2006</v>
       </c>
       <c r="D19" t="s">
+        <v>409</v>
+      </c>
+      <c r="E19" t="s">
         <v>411</v>
       </c>
-      <c r="E19" t="s">
-        <v>413</v>
-      </c>
       <c r="F19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -9306,22 +9319,22 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C20" s="4">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -9329,22 +9342,22 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C21" s="4">
         <v>2010</v>
       </c>
       <c r="D21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -9352,22 +9365,22 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C22" s="4">
         <v>2012</v>
       </c>
       <c r="D22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -9375,22 +9388,22 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C23" s="4">
         <v>2014</v>
       </c>
       <c r="D23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -9398,22 +9411,22 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -9421,22 +9434,22 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C25" s="4">
         <v>2010</v>
       </c>
       <c r="D25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E25" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -9444,22 +9457,22 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C26" s="4">
         <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F26" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -9467,22 +9480,22 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C27" s="4">
         <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -9490,22 +9503,22 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C28" s="4">
         <v>2010</v>
       </c>
       <c r="D28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F28" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -9513,22 +9526,22 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C29" s="4">
         <v>2009</v>
       </c>
       <c r="D29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -9536,22 +9549,22 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C30" s="4">
         <v>2008</v>
       </c>
       <c r="D30" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G30" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -9559,22 +9572,22 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C31" s="4">
         <v>2008</v>
       </c>
       <c r="D31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F31" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -9582,22 +9595,22 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C32" s="4">
         <v>2015</v>
       </c>
       <c r="D32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.3">

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E18B4F-36B1-4BC6-AD73-B3FFADF9E013}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B47654A-7D8D-4050-9BDE-43E0026BB4EB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="721">
   <si>
     <t>ID</t>
   </si>
@@ -2200,6 +2200,18 @@
   </si>
   <si>
     <t>datasc, webdev</t>
+  </si>
+  <si>
+    <t>FC Colorful Helly - Ein Gedi.pdf</t>
+  </si>
+  <si>
+    <t>Ein Gedi, Israel</t>
+  </si>
+  <si>
+    <t>Workshop in Geometric Transversal Theory</t>
+  </si>
+  <si>
+    <t>BGU</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2285,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2558,7 +2570,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -2859,7 +2871,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
   </cols>
@@ -3194,7 +3206,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3493,13 +3505,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38.21875" customWidth="1"/>
     <col min="5" max="5" width="64.88671875" customWidth="1"/>
@@ -3566,8 +3578,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>98</v>
+      <c r="A3">
+        <v>3134</v>
       </c>
       <c r="B3" t="s">
         <v>177</v>
@@ -3579,111 +3591,114 @@
         <v>681</v>
       </c>
       <c r="E3" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>681</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>718</v>
       </c>
       <c r="H3" t="s">
-        <v>462</v>
+        <v>719</v>
       </c>
       <c r="I3" t="s">
-        <v>178</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="C4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E4" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>462</v>
       </c>
       <c r="I4" t="s">
-        <v>699</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>2017</v>
       </c>
       <c r="D5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E5" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="G5" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>462</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>179</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="C6">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E6" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F6" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>462</v>
+      </c>
+      <c r="I6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>2016</v>
@@ -3692,27 +3707,24 @@
         <v>680</v>
       </c>
       <c r="E7" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="F7" t="s">
         <v>298</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I7" t="s">
-        <v>448</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8">
         <v>2016</v>
@@ -3721,56 +3733,56 @@
         <v>680</v>
       </c>
       <c r="E8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F8" t="s">
         <v>298</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>454</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>169</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C9">
         <v>2016</v>
       </c>
       <c r="D9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E9" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>454</v>
       </c>
       <c r="I9" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>183</v>
       </c>
       <c r="C10">
         <v>2016</v>
@@ -3779,27 +3791,27 @@
         <v>681</v>
       </c>
       <c r="E10" t="s">
-        <v>693</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F10" t="s">
         <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>446</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>449</v>
+        <v>186</v>
       </c>
       <c r="I10" t="s">
-        <v>448</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>447</v>
       </c>
       <c r="C11">
         <v>2016</v>
@@ -3808,82 +3820,82 @@
         <v>681</v>
       </c>
       <c r="E11" t="s">
-        <v>694</v>
-      </c>
-      <c r="F11" t="s">
+        <v>693</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="C12">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E12" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F12" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>451</v>
+      </c>
+      <c r="I12" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C13">
         <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E13" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I13" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C14">
         <v>2015</v>
@@ -3892,56 +3904,56 @@
         <v>681</v>
       </c>
       <c r="E14" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="F14" t="s">
         <v>175</v>
       </c>
       <c r="G14" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="H14" t="s">
-        <v>701</v>
+        <v>187</v>
       </c>
       <c r="I14" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C15">
         <v>2015</v>
       </c>
       <c r="D15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E15" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="F15" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H15" t="s">
-        <v>190</v>
+        <v>701</v>
       </c>
       <c r="I15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C16">
         <v>2015</v>
@@ -3950,53 +3962,53 @@
         <v>682</v>
       </c>
       <c r="E16" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="F16" t="s">
         <v>297</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="H16" t="s">
-        <v>205</v>
+        <v>190</v>
+      </c>
+      <c r="I16" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="C17">
         <v>2015</v>
       </c>
       <c r="D17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E17" t="s">
-        <v>695</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>309</v>
+        <v>702</v>
+      </c>
+      <c r="F17" t="s">
+        <v>297</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="H17" t="s">
-        <v>310</v>
-      </c>
-      <c r="I17" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C18">
         <v>2015</v>
@@ -4004,25 +4016,28 @@
       <c r="D18" t="s">
         <v>683</v>
       </c>
+      <c r="E18" t="s">
+        <v>695</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>309</v>
       </c>
       <c r="G18" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
-        <v>463</v>
+        <v>310</v>
       </c>
       <c r="I18" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C19">
         <v>2015</v>
@@ -4030,28 +4045,25 @@
       <c r="D19" t="s">
         <v>683</v>
       </c>
-      <c r="E19" t="s">
-        <v>691</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>309</v>
       </c>
       <c r="G19" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="H19" t="s">
-        <v>312</v>
+        <v>463</v>
       </c>
       <c r="I19" t="s">
-        <v>311</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C20">
         <v>2015</v>
@@ -4060,53 +4072,53 @@
         <v>683</v>
       </c>
       <c r="E20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>309</v>
       </c>
       <c r="G20" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H20" t="s">
-        <v>464</v>
+        <v>312</v>
       </c>
       <c r="I20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="C21">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D21" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E21" t="s">
-        <v>688</v>
-      </c>
-      <c r="F21" t="s">
-        <v>298</v>
+        <v>692</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G21" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>464</v>
       </c>
       <c r="I21" t="s">
-        <v>453</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -4115,27 +4127,30 @@
         <v>2014</v>
       </c>
       <c r="D22" t="s">
-        <v>681</v>
+        <v>680</v>
+      </c>
+      <c r="E22" t="s">
+        <v>688</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="G22" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H22" t="s">
-        <v>467</v>
+        <v>173</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>2014</v>
@@ -4147,18 +4162,18 @@
         <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>467</v>
       </c>
       <c r="I23" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
         <v>195</v>
@@ -4167,27 +4182,24 @@
         <v>2014</v>
       </c>
       <c r="D24" t="s">
-        <v>682</v>
-      </c>
-      <c r="E24" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="F24" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
         <v>195</v>
@@ -4205,21 +4217,21 @@
         <v>297</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="H25" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C26">
         <v>2014</v>
@@ -4227,25 +4239,28 @@
       <c r="D26" t="s">
         <v>682</v>
       </c>
+      <c r="E26" t="s">
+        <v>696</v>
+      </c>
       <c r="F26" t="s">
         <v>297</v>
       </c>
       <c r="G26" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="H26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I26" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C27">
         <v>2014</v>
@@ -4257,18 +4272,21 @@
         <v>297</v>
       </c>
       <c r="G27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H27" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="I27" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C28">
         <v>2014</v>
@@ -4280,47 +4298,44 @@
         <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="H28" t="s">
-        <v>208</v>
-      </c>
-      <c r="I28" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="C29">
         <v>2014</v>
       </c>
       <c r="D29" t="s">
-        <v>683</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>309</v>
+        <v>682</v>
+      </c>
+      <c r="F29" t="s">
+        <v>297</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="I29" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C30">
         <v>2014</v>
@@ -4332,21 +4347,21 @@
         <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="H30" t="s">
-        <v>465</v>
+        <v>315</v>
       </c>
       <c r="I30" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C31">
         <v>2014</v>
@@ -4358,44 +4373,47 @@
         <v>309</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="H31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I31" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="C32">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D32" t="s">
-        <v>681</v>
-      </c>
-      <c r="F32" t="s">
-        <v>298</v>
+        <v>683</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G32" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>466</v>
+      </c>
+      <c r="I32" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C33">
         <v>2013</v>
@@ -4404,24 +4422,21 @@
         <v>681</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>318</v>
       </c>
       <c r="H33" t="s">
-        <v>211</v>
-      </c>
-      <c r="I33" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>697</v>
+        <v>209</v>
       </c>
       <c r="C34">
         <v>2013</v>
@@ -4429,25 +4444,22 @@
       <c r="D34" t="s">
         <v>681</v>
       </c>
-      <c r="E34" t="s">
-        <v>703</v>
-      </c>
       <c r="F34" t="s">
         <v>175</v>
       </c>
       <c r="G34" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="H34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I34" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
         <v>697</v>
@@ -4465,44 +4477,47 @@
         <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="H35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>697</v>
       </c>
       <c r="C36">
         <v>2013</v>
       </c>
       <c r="D36" t="s">
-        <v>682</v>
+        <v>681</v>
+      </c>
+      <c r="E36" t="s">
+        <v>703</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G36" t="s">
-        <v>317</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
         <v>207</v>
@@ -4517,18 +4532,21 @@
         <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H37" t="s">
-        <v>205</v>
+        <v>190</v>
+      </c>
+      <c r="I37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C38">
         <v>2013</v>
@@ -4540,44 +4558,44 @@
         <v>297</v>
       </c>
       <c r="G38" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="H38" t="s">
-        <v>200</v>
-      </c>
-      <c r="I38" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="C39">
         <v>2013</v>
       </c>
       <c r="D39" t="s">
-        <v>683</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>309</v>
+        <v>682</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
       </c>
       <c r="G39" t="s">
-        <v>317</v>
+        <v>101</v>
       </c>
       <c r="H39" t="s">
-        <v>190</v>
+        <v>200</v>
+      </c>
+      <c r="I39" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C40">
         <v>2013</v>
@@ -4589,21 +4607,18 @@
         <v>309</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
+        <v>317</v>
       </c>
       <c r="H40" t="s">
-        <v>319</v>
-      </c>
-      <c r="I40" t="s">
-        <v>321</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C41">
         <v>2013</v>
@@ -4615,21 +4630,21 @@
         <v>309</v>
       </c>
       <c r="G41" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I41" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C42">
         <v>2013</v>
@@ -4644,56 +4659,56 @@
         <v>101</v>
       </c>
       <c r="H42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I42" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="C43">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D43" t="s">
-        <v>682</v>
-      </c>
-      <c r="E43" t="s">
-        <v>703</v>
-      </c>
-      <c r="F43" t="s">
-        <v>297</v>
+        <v>683</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H43" t="s">
-        <v>190</v>
+        <v>323</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="C44">
         <v>2012</v>
       </c>
       <c r="D44" t="s">
-        <v>683</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>309</v>
+        <v>682</v>
+      </c>
+      <c r="E44" t="s">
+        <v>703</v>
+      </c>
+      <c r="F44" t="s">
+        <v>297</v>
       </c>
       <c r="G44" t="s">
         <v>89</v>
@@ -4701,42 +4716,68 @@
       <c r="H44" t="s">
         <v>190</v>
       </c>
+      <c r="I44" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>697</v>
+        <v>305</v>
       </c>
       <c r="C45">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D45" t="s">
-        <v>681</v>
-      </c>
-      <c r="E45" t="s">
-        <v>703</v>
-      </c>
-      <c r="F45" t="s">
-        <v>175</v>
+        <v>683</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G45" t="s">
         <v>89</v>
       </c>
       <c r="H45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>697</v>
+      </c>
+      <c r="C46">
+        <v>2011</v>
+      </c>
+      <c r="D46" t="s">
+        <v>681</v>
+      </c>
+      <c r="E46" t="s">
+        <v>703</v>
+      </c>
+      <c r="F46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s">
         <v>186</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I46" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D46" s="2"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D47" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="B3:I45">
-    <sortCondition descending="1" ref="C3:C45"/>
+  <sortState ref="B4:I46">
+    <sortCondition descending="1" ref="C4:C46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4751,7 +4792,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5008,7 +5049,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
@@ -5394,7 +5435,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.109375" customWidth="1"/>
   </cols>
@@ -5545,11 +5586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB14F89-81DD-48BF-BD72-6AB1ED9495A4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.109375" customWidth="1"/>
   </cols>
@@ -5883,7 +5924,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="39.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
@@ -6750,7 +6791,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6887,7 +6928,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
@@ -7221,7 +7262,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.21875" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
@@ -7341,7 +7382,7 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7646,7 +7687,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7780,7 +7821,7 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8016,7 +8057,7 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="44.109375" customWidth="1"/>
   </cols>
@@ -8873,7 +8914,7 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.5546875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B47654A-7D8D-4050-9BDE-43E0026BB4EB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A5291C-A620-4E7D-8377-B86776AC656A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A5291C-A620-4E7D-8377-B86776AC656A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF306136-9ABD-48B8-9DA1-D32F4DE6EE7E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="729">
   <si>
     <t>ID</t>
   </si>
@@ -2211,7 +2211,31 @@
     <t>Workshop in Geometric Transversal Theory</t>
   </si>
   <si>
-    <t>BGU</t>
+    <t>Barcelona, Spain</t>
+  </si>
+  <si>
+    <t>Intensive Research Program in DCG</t>
+  </si>
+  <si>
+    <t>Universidad Autónoma de Barcelona</t>
+  </si>
+  <si>
+    <t>FC Colorful Helly - IRP.pdf</t>
+  </si>
+  <si>
+    <t>1510.00600</t>
+  </si>
+  <si>
+    <t>1701.02200</t>
+  </si>
+  <si>
+    <t>1412.66390</t>
+  </si>
+  <si>
+    <t>1505.05170</t>
+  </si>
+  <si>
+    <t>1402.62760</t>
   </si>
 </sst>
 </file>
@@ -2867,7 +2891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D107D88-62EE-4992-AFEF-BB9D7FB2D529}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -3505,10 +3529,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3579,7 +3603,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3134</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
         <v>177</v>
@@ -3591,24 +3615,24 @@
         <v>681</v>
       </c>
       <c r="E3" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="F3" t="s">
-        <v>681</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="I3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>98</v>
+      <c r="A4">
+        <v>211</v>
       </c>
       <c r="B4" t="s">
         <v>177</v>
@@ -3620,111 +3644,114 @@
         <v>681</v>
       </c>
       <c r="E4" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>718</v>
       </c>
       <c r="H4" t="s">
-        <v>462</v>
+        <v>719</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="C5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E5" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>462</v>
       </c>
       <c r="I5" t="s">
-        <v>699</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="D6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E6" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
-        <v>462</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>179</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="C7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F7" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>462</v>
+      </c>
+      <c r="I7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>2016</v>
@@ -3733,27 +3760,24 @@
         <v>680</v>
       </c>
       <c r="E8" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="F8" t="s">
         <v>298</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" t="s">
-        <v>448</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9">
         <v>2016</v>
@@ -3762,56 +3786,56 @@
         <v>680</v>
       </c>
       <c r="E9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F9" t="s">
         <v>298</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>454</v>
+        <v>168</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C10">
         <v>2016</v>
       </c>
       <c r="D10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E10" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>454</v>
       </c>
       <c r="I10" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>447</v>
+        <v>183</v>
       </c>
       <c r="C11">
         <v>2016</v>
@@ -3820,27 +3844,27 @@
         <v>681</v>
       </c>
       <c r="E11" t="s">
-        <v>693</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F11" t="s">
         <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>446</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>449</v>
+        <v>186</v>
       </c>
       <c r="I11" t="s">
-        <v>448</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>447</v>
       </c>
       <c r="C12">
         <v>2016</v>
@@ -3849,82 +3873,82 @@
         <v>681</v>
       </c>
       <c r="E12" t="s">
-        <v>694</v>
-      </c>
-      <c r="F12" t="s">
+        <v>693</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I12" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D13" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E13" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F13" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="H13" t="s">
-        <v>171</v>
+        <v>451</v>
+      </c>
+      <c r="I13" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C14">
         <v>2015</v>
       </c>
       <c r="D14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H14" t="s">
-        <v>187</v>
-      </c>
-      <c r="I14" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C15">
         <v>2015</v>
@@ -3933,56 +3957,56 @@
         <v>681</v>
       </c>
       <c r="E15" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="F15" t="s">
         <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="H15" t="s">
-        <v>701</v>
+        <v>187</v>
       </c>
       <c r="I15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C16">
         <v>2015</v>
       </c>
       <c r="D16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E16" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="F16" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H16" t="s">
-        <v>190</v>
+        <v>701</v>
       </c>
       <c r="I16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C17">
         <v>2015</v>
@@ -3991,53 +4015,53 @@
         <v>682</v>
       </c>
       <c r="E17" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="F17" t="s">
         <v>297</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="H17" t="s">
-        <v>205</v>
+        <v>190</v>
+      </c>
+      <c r="I17" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="C18">
         <v>2015</v>
       </c>
       <c r="D18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E18" t="s">
-        <v>695</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>309</v>
+        <v>702</v>
+      </c>
+      <c r="F18" t="s">
+        <v>297</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="H18" t="s">
-        <v>310</v>
-      </c>
-      <c r="I18" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C19">
         <v>2015</v>
@@ -4045,25 +4069,28 @@
       <c r="D19" t="s">
         <v>683</v>
       </c>
+      <c r="E19" t="s">
+        <v>695</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>309</v>
       </c>
       <c r="G19" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="H19" t="s">
-        <v>463</v>
+        <v>310</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C20">
         <v>2015</v>
@@ -4071,28 +4098,25 @@
       <c r="D20" t="s">
         <v>683</v>
       </c>
-      <c r="E20" t="s">
-        <v>691</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>309</v>
       </c>
       <c r="G20" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="H20" t="s">
-        <v>312</v>
+        <v>463</v>
       </c>
       <c r="I20" t="s">
-        <v>311</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C21">
         <v>2015</v>
@@ -4101,53 +4125,53 @@
         <v>683</v>
       </c>
       <c r="E21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>309</v>
       </c>
       <c r="G21" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H21" t="s">
-        <v>464</v>
+        <v>312</v>
       </c>
       <c r="I21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="C22">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D22" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E22" t="s">
-        <v>688</v>
-      </c>
-      <c r="F22" t="s">
-        <v>298</v>
+        <v>692</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>464</v>
       </c>
       <c r="I22" t="s">
-        <v>453</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -4156,27 +4180,30 @@
         <v>2014</v>
       </c>
       <c r="D23" t="s">
-        <v>681</v>
+        <v>680</v>
+      </c>
+      <c r="E23" t="s">
+        <v>688</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H23" t="s">
-        <v>467</v>
+        <v>173</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>2014</v>
@@ -4188,18 +4215,18 @@
         <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="H24" t="s">
-        <v>186</v>
+        <v>467</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
         <v>195</v>
@@ -4208,27 +4235,24 @@
         <v>2014</v>
       </c>
       <c r="D25" t="s">
-        <v>682</v>
-      </c>
-      <c r="E25" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="F25" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G25" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
         <v>195</v>
@@ -4246,21 +4270,21 @@
         <v>297</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C27">
         <v>2014</v>
@@ -4268,25 +4292,28 @@
       <c r="D27" t="s">
         <v>682</v>
       </c>
+      <c r="E27" t="s">
+        <v>696</v>
+      </c>
       <c r="F27" t="s">
         <v>297</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I27" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C28">
         <v>2014</v>
@@ -4298,18 +4325,21 @@
         <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H28" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="I28" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C29">
         <v>2014</v>
@@ -4321,47 +4351,44 @@
         <v>297</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="H29" t="s">
-        <v>208</v>
-      </c>
-      <c r="I29" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="C30">
         <v>2014</v>
       </c>
       <c r="D30" t="s">
-        <v>683</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>309</v>
+        <v>682</v>
+      </c>
+      <c r="F30" t="s">
+        <v>297</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="I30" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C31">
         <v>2014</v>
@@ -4373,21 +4400,21 @@
         <v>309</v>
       </c>
       <c r="G31" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="H31" t="s">
-        <v>465</v>
+        <v>315</v>
       </c>
       <c r="I31" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C32">
         <v>2014</v>
@@ -4399,44 +4426,47 @@
         <v>309</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="H32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I32" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="C33">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D33" t="s">
-        <v>681</v>
-      </c>
-      <c r="F33" t="s">
-        <v>298</v>
+        <v>683</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G33" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="H33" t="s">
-        <v>171</v>
+        <v>466</v>
+      </c>
+      <c r="I33" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C34">
         <v>2013</v>
@@ -4445,24 +4475,21 @@
         <v>681</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="G34" t="s">
-        <v>212</v>
+        <v>318</v>
       </c>
       <c r="H34" t="s">
-        <v>211</v>
-      </c>
-      <c r="I34" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>697</v>
+        <v>209</v>
       </c>
       <c r="C35">
         <v>2013</v>
@@ -4470,25 +4497,22 @@
       <c r="D35" t="s">
         <v>681</v>
       </c>
-      <c r="E35" t="s">
-        <v>703</v>
-      </c>
       <c r="F35" t="s">
         <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="H35" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I35" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
         <v>697</v>
@@ -4506,44 +4530,47 @@
         <v>175</v>
       </c>
       <c r="G36" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="H36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>697</v>
       </c>
       <c r="C37">
         <v>2013</v>
       </c>
       <c r="D37" t="s">
-        <v>682</v>
+        <v>681</v>
+      </c>
+      <c r="E37" t="s">
+        <v>703</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G37" t="s">
-        <v>317</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="I37" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
         <v>207</v>
@@ -4558,18 +4585,21 @@
         <v>297</v>
       </c>
       <c r="G38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H38" t="s">
-        <v>205</v>
+        <v>190</v>
+      </c>
+      <c r="I38" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C39">
         <v>2013</v>
@@ -4581,44 +4611,44 @@
         <v>297</v>
       </c>
       <c r="G39" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
-      </c>
-      <c r="I39" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="C40">
         <v>2013</v>
       </c>
       <c r="D40" t="s">
-        <v>683</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>309</v>
+        <v>682</v>
+      </c>
+      <c r="F40" t="s">
+        <v>297</v>
       </c>
       <c r="G40" t="s">
-        <v>317</v>
+        <v>101</v>
       </c>
       <c r="H40" t="s">
-        <v>190</v>
+        <v>200</v>
+      </c>
+      <c r="I40" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C41">
         <v>2013</v>
@@ -4630,21 +4660,18 @@
         <v>309</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>317</v>
       </c>
       <c r="H41" t="s">
-        <v>319</v>
-      </c>
-      <c r="I41" t="s">
-        <v>321</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C42">
         <v>2013</v>
@@ -4656,21 +4683,21 @@
         <v>309</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I42" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C43">
         <v>2013</v>
@@ -4685,56 +4712,56 @@
         <v>101</v>
       </c>
       <c r="H43" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I43" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="C44">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D44" t="s">
-        <v>682</v>
-      </c>
-      <c r="E44" t="s">
-        <v>703</v>
-      </c>
-      <c r="F44" t="s">
-        <v>297</v>
+        <v>683</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H44" t="s">
-        <v>190</v>
+        <v>323</v>
       </c>
       <c r="I44" t="s">
-        <v>87</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="C45">
         <v>2012</v>
       </c>
       <c r="D45" t="s">
-        <v>683</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>309</v>
+        <v>682</v>
+      </c>
+      <c r="E45" t="s">
+        <v>703</v>
+      </c>
+      <c r="F45" t="s">
+        <v>297</v>
       </c>
       <c r="G45" t="s">
         <v>89</v>
@@ -4742,42 +4769,68 @@
       <c r="H45" t="s">
         <v>190</v>
       </c>
+      <c r="I45" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>697</v>
+        <v>305</v>
       </c>
       <c r="C46">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D46" t="s">
-        <v>681</v>
-      </c>
-      <c r="E46" t="s">
-        <v>703</v>
-      </c>
-      <c r="F46" t="s">
-        <v>175</v>
+        <v>683</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G46" t="s">
         <v>89</v>
       </c>
       <c r="H46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>140</v>
+      </c>
+      <c r="B47" t="s">
+        <v>697</v>
+      </c>
+      <c r="C47">
+        <v>2011</v>
+      </c>
+      <c r="D47" t="s">
+        <v>681</v>
+      </c>
+      <c r="E47" t="s">
+        <v>703</v>
+      </c>
+      <c r="F47" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" t="s">
         <v>186</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I47" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D47" s="2"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D48" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="B4:I46">
-    <sortCondition descending="1" ref="C4:C46"/>
+  <sortState ref="B5:I47">
+    <sortCondition descending="1" ref="C5:C47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5920,8 +5973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5929,6 +5982,8 @@
     <col min="2" max="2" width="39.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
     <col min="9" max="9" width="24.44140625" customWidth="1"/>
     <col min="10" max="11" width="8.44140625" customWidth="1"/>
     <col min="12" max="12" width="33.5546875" bestFit="1" customWidth="1"/>
@@ -6039,8 +6094,8 @@
       <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3">
-        <v>1510.0060000000001</v>
+      <c r="G3" s="4" t="s">
+        <v>724</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
@@ -6071,7 +6126,7 @@
       <c r="E4" t="s">
         <v>264</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>1601.0042100000001</v>
       </c>
       <c r="I4" t="s">
@@ -6106,7 +6161,7 @@
       <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>1701.05529</v>
       </c>
       <c r="I5" t="s">
@@ -6141,7 +6196,7 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>1511.01315</v>
       </c>
       <c r="I6" t="s">
@@ -6173,6 +6228,7 @@
       <c r="E7" t="s">
         <v>378</v>
       </c>
+      <c r="G7" s="4"/>
       <c r="I7" t="s">
         <v>44</v>
       </c>
@@ -6197,8 +6253,8 @@
       <c r="E8" t="s">
         <v>265</v>
       </c>
-      <c r="G8">
-        <v>1701.0219999999999</v>
+      <c r="G8" s="4" t="s">
+        <v>725</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
@@ -6224,6 +6280,7 @@
       <c r="E9" t="s">
         <v>380</v>
       </c>
+      <c r="G9" s="4"/>
       <c r="I9" t="s">
         <v>250</v>
       </c>
@@ -6254,8 +6311,8 @@
       <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="G10">
-        <v>1412.6639</v>
+      <c r="G10" s="4" t="s">
+        <v>726</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>35</v>
@@ -6286,7 +6343,7 @@
       <c r="E11" t="s">
         <v>378</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>1612.0343499999999</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -6314,6 +6371,7 @@
       <c r="E12" t="s">
         <v>380</v>
       </c>
+      <c r="G12" s="4"/>
       <c r="I12" t="s">
         <v>250</v>
       </c>
@@ -6344,6 +6402,7 @@
       <c r="F13" t="s">
         <v>56</v>
       </c>
+      <c r="G13" s="4"/>
       <c r="I13" t="s">
         <v>50</v>
       </c>
@@ -6377,6 +6436,7 @@
       <c r="F14" t="s">
         <v>57</v>
       </c>
+      <c r="G14" s="4"/>
       <c r="I14" t="s">
         <v>33</v>
       </c>
@@ -6407,6 +6467,7 @@
       <c r="E15" t="s">
         <v>263</v>
       </c>
+      <c r="G15" s="4"/>
       <c r="I15" t="s">
         <v>157</v>
       </c>
@@ -6433,6 +6494,7 @@
       <c r="E16" t="s">
         <v>380</v>
       </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
         <v>442</v>
       </c>
@@ -6463,6 +6525,7 @@
       <c r="E17" t="s">
         <v>380</v>
       </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
         <v>443</v>
       </c>
@@ -6493,6 +6556,7 @@
       <c r="E18" t="s">
         <v>380</v>
       </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="3" t="s">
         <v>444</v>
       </c>
@@ -6523,8 +6587,8 @@
       <c r="E19" t="s">
         <v>265</v>
       </c>
-      <c r="G19">
-        <v>1505.0517</v>
+      <c r="G19" s="4" t="s">
+        <v>727</v>
       </c>
       <c r="I19" t="s">
         <v>440</v>
@@ -6552,8 +6616,8 @@
       <c r="F20" t="s">
         <v>27</v>
       </c>
-      <c r="G20">
-        <v>1402.6276</v>
+      <c r="G20" s="4" t="s">
+        <v>728</v>
       </c>
       <c r="I20" t="s">
         <v>34</v>
@@ -6584,6 +6648,7 @@
       <c r="E21" t="s">
         <v>380</v>
       </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="3" t="s">
         <v>441</v>
       </c>
@@ -6617,6 +6682,7 @@
       <c r="F22" t="s">
         <v>58</v>
       </c>
+      <c r="G22" s="4"/>
       <c r="I22" t="s">
         <v>51</v>
       </c>
@@ -6647,6 +6713,7 @@
       <c r="E23" t="s">
         <v>263</v>
       </c>
+      <c r="G23" s="4"/>
       <c r="I23" t="s">
         <v>158</v>
       </c>
@@ -6674,6 +6741,7 @@
       <c r="E24" t="s">
         <v>380</v>
       </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="3" t="s">
         <v>705</v>
       </c>
@@ -6710,6 +6778,7 @@
       <c r="E25" t="s">
         <v>380</v>
       </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="3" t="s">
         <v>704</v>
       </c>
@@ -6746,6 +6815,7 @@
       <c r="E26" t="s">
         <v>380</v>
       </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="3" t="s">
         <v>445</v>
       </c>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF306136-9ABD-48B8-9DA1-D32F4DE6EE7E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4508E5-A33E-44F2-8080-EC853E22B940}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="740">
   <si>
     <t>ID</t>
   </si>
@@ -830,9 +830,6 @@
     <t>thesis</t>
   </si>
   <si>
-    <t>accepted</t>
-  </si>
-  <si>
     <t>preprint</t>
   </si>
   <si>
@@ -969,9 +966,6 @@
   </si>
   <si>
     <t>Ciclo de Conferencias de la Licenciatura en Matemáticas Aplicadas</t>
-  </si>
-  <si>
-    <t>CCM</t>
   </si>
   <si>
     <t>Seminario Interinstitucional</t>
@@ -2067,9 +2061,6 @@
     <t>manhat.png</t>
   </si>
   <si>
-    <t>Accepted</t>
-  </si>
-  <si>
     <t>Preprint</t>
   </si>
   <si>
@@ -2236,6 +2227,48 @@
   </si>
   <si>
     <t>1402.62760</t>
+  </si>
+  <si>
+    <t>10.1137/16M1101854</t>
+  </si>
+  <si>
+    <t>CNRS Postdoctoral Researcher</t>
+  </si>
+  <si>
+    <t>CNRS Project ANR JCJC CAPS</t>
+  </si>
+  <si>
+    <t>Sorbonne Université</t>
+  </si>
+  <si>
+    <t>Paris, France</t>
+  </si>
+  <si>
+    <t>Transversales geométricas y más allá del Teorema de Helly Coloreado</t>
+  </si>
+  <si>
+    <t>Emparejamientos perfectos y simplejos coloreados</t>
+  </si>
+  <si>
+    <t>seminard</t>
+  </si>
+  <si>
+    <t>Universidad Michoacana San Nicolás de Hidalgo</t>
+  </si>
+  <si>
+    <t>Seminario de Gráficas y Combinatoria</t>
+  </si>
+  <si>
+    <t>CCM, UNAM</t>
+  </si>
+  <si>
+    <t>Coloquio del Programa Conjunto en Ciencias Matemáticas</t>
+  </si>
+  <si>
+    <t>Seminario de Matemáticas Discretas</t>
+  </si>
+  <si>
+    <t>Institut Henri Poincaré</t>
   </si>
 </sst>
 </file>
@@ -2604,133 +2637,133 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B12" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D12" t="s">
         <v>83</v>
@@ -2738,13 +2771,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B13" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D13" t="s">
         <v>83</v>
@@ -2752,134 +2785,134 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B14" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B16" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D18" t="s">
         <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B21" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B22" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2891,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D107D88-62EE-4992-AFEF-BB9D7FB2D529}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2908,13 +2941,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -2934,13 +2967,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -2957,25 +2990,25 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D3" t="s">
         <v>576</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H3" t="s">
         <v>558</v>
-      </c>
-      <c r="D3" t="s">
-        <v>578</v>
-      </c>
-      <c r="E3" t="s">
-        <v>565</v>
-      </c>
-      <c r="F3" t="s">
-        <v>561</v>
-      </c>
-      <c r="G3" t="s">
-        <v>545</v>
-      </c>
-      <c r="H3" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2983,25 +3016,25 @@
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3009,25 +3042,25 @@
         <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C5">
         <v>2016</v>
       </c>
       <c r="D5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E5" t="s">
         <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3035,25 +3068,25 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C6">
         <v>2014</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3061,19 +3094,19 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H7" t="s">
         <v>69</v>
@@ -3084,19 +3117,19 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H8" t="s">
         <v>69</v>
@@ -3107,19 +3140,19 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D9" t="s">
+        <v>553</v>
+      </c>
+      <c r="E9" t="s">
         <v>555</v>
       </c>
-      <c r="E9" t="s">
-        <v>557</v>
-      </c>
       <c r="F9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H9" t="s">
         <v>69</v>
@@ -3130,19 +3163,19 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H10" t="s">
         <v>69</v>
@@ -3153,19 +3186,19 @@
         <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H11" t="s">
         <v>69</v>
@@ -3176,19 +3209,19 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H12" t="s">
         <v>69</v>
@@ -3199,19 +3232,19 @@
         <v>90</v>
       </c>
       <c r="B13" t="s">
+        <v>551</v>
+      </c>
+      <c r="D13" t="s">
         <v>553</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>555</v>
       </c>
-      <c r="E13" t="s">
-        <v>557</v>
-      </c>
       <c r="F13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H13" t="s">
         <v>69</v>
@@ -3240,13 +3273,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -3255,7 +3288,7 @@
         <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I1" t="s">
         <v>82</v>
@@ -3269,13 +3302,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -3284,7 +3317,7 @@
         <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -3295,28 +3328,28 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C3">
         <v>2014</v>
       </c>
       <c r="D3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G3" t="s">
+        <v>570</v>
+      </c>
+      <c r="H3" t="s">
+        <v>580</v>
+      </c>
+      <c r="I3" t="s">
         <v>568</v>
-      </c>
-      <c r="E3" t="s">
-        <v>569</v>
-      </c>
-      <c r="F3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G3" t="s">
-        <v>572</v>
-      </c>
-      <c r="H3" t="s">
-        <v>582</v>
-      </c>
-      <c r="I3" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3324,28 +3357,28 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C4">
         <v>2014</v>
       </c>
       <c r="D4" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" t="s">
+        <v>567</v>
+      </c>
+      <c r="F4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G4" t="s">
+        <v>570</v>
+      </c>
+      <c r="H4" t="s">
+        <v>580</v>
+      </c>
+      <c r="I4" t="s">
         <v>568</v>
-      </c>
-      <c r="E4" t="s">
-        <v>569</v>
-      </c>
-      <c r="F4" t="s">
-        <v>403</v>
-      </c>
-      <c r="G4" t="s">
-        <v>572</v>
-      </c>
-      <c r="H4" t="s">
-        <v>582</v>
-      </c>
-      <c r="I4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3353,28 +3386,28 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C5">
         <v>2015</v>
       </c>
       <c r="D5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" t="s">
+        <v>570</v>
+      </c>
+      <c r="H5" t="s">
+        <v>580</v>
+      </c>
+      <c r="I5" t="s">
         <v>568</v>
-      </c>
-      <c r="E5" t="s">
-        <v>569</v>
-      </c>
-      <c r="F5" t="s">
-        <v>403</v>
-      </c>
-      <c r="G5" t="s">
-        <v>572</v>
-      </c>
-      <c r="H5" t="s">
-        <v>582</v>
-      </c>
-      <c r="I5" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3382,28 +3415,28 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C6">
         <v>2013</v>
       </c>
       <c r="D6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E6" t="s">
+        <v>578</v>
+      </c>
+      <c r="F6" t="s">
+        <v>399</v>
+      </c>
+      <c r="G6" t="s">
         <v>579</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>580</v>
       </c>
-      <c r="F6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G6" t="s">
-        <v>581</v>
-      </c>
-      <c r="H6" t="s">
-        <v>582</v>
-      </c>
       <c r="I6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3411,28 +3444,28 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C7">
         <v>2012</v>
       </c>
       <c r="D7" t="s">
+        <v>577</v>
+      </c>
+      <c r="E7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G7" t="s">
         <v>579</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>580</v>
       </c>
-      <c r="F7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G7" t="s">
-        <v>581</v>
-      </c>
-      <c r="H7" t="s">
-        <v>582</v>
-      </c>
       <c r="I7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3440,28 +3473,28 @@
         <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C8">
         <v>2012</v>
       </c>
       <c r="D8" t="s">
+        <v>577</v>
+      </c>
+      <c r="E8" t="s">
+        <v>578</v>
+      </c>
+      <c r="F8" t="s">
+        <v>584</v>
+      </c>
+      <c r="G8" t="s">
         <v>579</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>580</v>
       </c>
-      <c r="F8" t="s">
-        <v>586</v>
-      </c>
-      <c r="G8" t="s">
-        <v>581</v>
-      </c>
-      <c r="H8" t="s">
-        <v>582</v>
-      </c>
       <c r="I8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3469,28 +3502,28 @@
         <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C9">
         <v>2012</v>
       </c>
       <c r="D9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E9" t="s">
+        <v>578</v>
+      </c>
+      <c r="F9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G9" t="s">
+        <v>484</v>
+      </c>
+      <c r="H9" t="s">
         <v>580</v>
       </c>
-      <c r="F9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G9" t="s">
-        <v>486</v>
-      </c>
-      <c r="H9" t="s">
-        <v>582</v>
-      </c>
       <c r="I9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3498,28 +3531,28 @@
         <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C10">
         <v>2011</v>
       </c>
       <c r="D10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -3529,10 +3562,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3551,22 +3584,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I1" t="s">
         <v>82</v>
@@ -3580,22 +3613,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -3603,7 +3636,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>177</v>
@@ -3612,1225 +3645,1332 @@
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>681</v>
-      </c>
-      <c r="E3" t="s">
-        <v>723</v>
+        <v>678</v>
       </c>
       <c r="F3" t="s">
         <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="H3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="I3" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>731</v>
       </c>
       <c r="C4">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>681</v>
-      </c>
-      <c r="E4" t="s">
-        <v>717</v>
+        <v>678</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>733</v>
       </c>
       <c r="G4" t="s">
-        <v>718</v>
+        <v>212</v>
       </c>
       <c r="H4" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="I4" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>98</v>
+      <c r="A5">
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>732</v>
       </c>
       <c r="C5">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>681</v>
-      </c>
-      <c r="E5" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="F5" t="s">
         <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>314</v>
       </c>
       <c r="H5" t="s">
-        <v>462</v>
+        <v>738</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>99</v>
+      <c r="A6">
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>731</v>
       </c>
       <c r="C6">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E6" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="F6" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>737</v>
       </c>
       <c r="I6" t="s">
-        <v>699</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>100</v>
+      <c r="A7">
+        <v>210</v>
       </c>
       <c r="B7" t="s">
         <v>177</v>
       </c>
       <c r="C7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E7" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="F7" t="s">
         <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>717</v>
       </c>
       <c r="H7" t="s">
-        <v>462</v>
+        <v>718</v>
       </c>
       <c r="I7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>211</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8" t="s">
+        <v>678</v>
+      </c>
+      <c r="E8" t="s">
+        <v>714</v>
+      </c>
+      <c r="F8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" t="s">
+        <v>715</v>
+      </c>
+      <c r="H8" t="s">
+        <v>716</v>
+      </c>
+      <c r="I8" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
-        <v>2016</v>
-      </c>
-      <c r="D8" t="s">
-        <v>680</v>
-      </c>
-      <c r="E8" t="s">
-        <v>694</v>
-      </c>
-      <c r="F8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C9">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E9" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="F9" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="H9" t="s">
-        <v>168</v>
+        <v>460</v>
       </c>
       <c r="I9" t="s">
-        <v>448</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E10" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H10" t="s">
-        <v>454</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>169</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D11" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E11" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="F11" t="s">
         <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>186</v>
+        <v>460</v>
       </c>
       <c r="I11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>447</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E12" t="s">
-        <v>693</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>175</v>
+        <v>691</v>
+      </c>
+      <c r="F12" t="s">
+        <v>297</v>
       </c>
       <c r="G12" t="s">
-        <v>446</v>
+        <v>166</v>
       </c>
       <c r="H12" t="s">
-        <v>449</v>
-      </c>
-      <c r="I12" t="s">
-        <v>448</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="C13">
         <v>2016</v>
       </c>
       <c r="D13" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E13" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="G13" t="s">
-        <v>450</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>451</v>
+        <v>168</v>
       </c>
       <c r="I13" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D14" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E14" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H14" t="s">
-        <v>171</v>
+        <v>452</v>
+      </c>
+      <c r="I14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>183</v>
       </c>
       <c r="C15">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E15" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F15" t="s">
         <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>445</v>
       </c>
       <c r="C16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D16" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E16" t="s">
-        <v>700</v>
-      </c>
-      <c r="F16" t="s">
+        <v>690</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>194</v>
+        <v>444</v>
       </c>
       <c r="H16" t="s">
-        <v>701</v>
+        <v>447</v>
       </c>
       <c r="I16" t="s">
-        <v>193</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D17" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E17" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F17" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>191</v>
+        <v>448</v>
       </c>
       <c r="H17" t="s">
-        <v>190</v>
+        <v>449</v>
       </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C18">
         <v>2015</v>
       </c>
       <c r="D18" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E18" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="F18" t="s">
         <v>297</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H18" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>183</v>
       </c>
       <c r="C19">
         <v>2015</v>
       </c>
       <c r="D19" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E19" t="s">
-        <v>695</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>309</v>
+        <v>686</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>300</v>
+        <v>192</v>
       </c>
       <c r="C20">
         <v>2015</v>
       </c>
       <c r="D20" t="s">
-        <v>683</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>309</v>
+        <v>678</v>
+      </c>
+      <c r="E20" t="s">
+        <v>697</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="H20" t="s">
-        <v>463</v>
+        <v>698</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="C21">
         <v>2015</v>
       </c>
       <c r="D21" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E21" t="s">
-        <v>691</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>309</v>
+        <v>687</v>
+      </c>
+      <c r="F21" t="s">
+        <v>296</v>
       </c>
       <c r="G21" t="s">
-        <v>316</v>
+        <v>191</v>
       </c>
       <c r="H21" t="s">
-        <v>312</v>
+        <v>190</v>
       </c>
       <c r="I21" t="s">
-        <v>311</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="C22">
         <v>2015</v>
       </c>
       <c r="D22" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E22" t="s">
-        <v>692</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>309</v>
+        <v>699</v>
+      </c>
+      <c r="F22" t="s">
+        <v>296</v>
       </c>
       <c r="G22" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c r="H22" t="s">
-        <v>464</v>
-      </c>
-      <c r="I22" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="C23">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D23" t="s">
         <v>680</v>
       </c>
       <c r="E23" t="s">
-        <v>688</v>
-      </c>
-      <c r="F23" t="s">
-        <v>298</v>
+        <v>692</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>309</v>
       </c>
       <c r="I23" t="s">
-        <v>453</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="C24">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D24" t="s">
-        <v>681</v>
-      </c>
-      <c r="F24" t="s">
-        <v>175</v>
+        <v>680</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="H24" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="C25">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D25" t="s">
-        <v>681</v>
-      </c>
-      <c r="F25" t="s">
-        <v>175</v>
+        <v>680</v>
+      </c>
+      <c r="E25" t="s">
+        <v>688</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>314</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="C26">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E26" t="s">
-        <v>696</v>
-      </c>
-      <c r="F26" t="s">
-        <v>297</v>
+        <v>689</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G26" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="H26" t="s">
-        <v>190</v>
+        <v>462</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E27" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="F27" t="s">
         <v>297</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="H27" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="I27" t="s">
-        <v>199</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>2014</v>
       </c>
       <c r="D28" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F28" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="H28" t="s">
-        <v>202</v>
+        <v>465</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C29">
         <v>2014</v>
       </c>
       <c r="D29" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F29" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G29" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>186</v>
+      </c>
+      <c r="I29" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C30">
         <v>2014</v>
       </c>
       <c r="D30" t="s">
-        <v>682</v>
+        <v>679</v>
+      </c>
+      <c r="E30" t="s">
+        <v>693</v>
       </c>
       <c r="F30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="H30" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
+        <v>195</v>
       </c>
       <c r="C31">
         <v>2014</v>
       </c>
       <c r="D31" t="s">
-        <v>683</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>309</v>
+        <v>679</v>
+      </c>
+      <c r="E31" t="s">
+        <v>693</v>
+      </c>
+      <c r="F31" t="s">
+        <v>296</v>
       </c>
       <c r="G31" t="s">
         <v>101</v>
       </c>
       <c r="H31" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="I31" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="C32">
         <v>2014</v>
       </c>
       <c r="D32" t="s">
-        <v>683</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>309</v>
+        <v>679</v>
+      </c>
+      <c r="F32" t="s">
+        <v>296</v>
       </c>
       <c r="G32" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H32" t="s">
-        <v>465</v>
+        <v>202</v>
       </c>
       <c r="I32" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="C33">
         <v>2014</v>
       </c>
       <c r="D33" t="s">
-        <v>683</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>309</v>
+        <v>679</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="H33" t="s">
-        <v>466</v>
-      </c>
-      <c r="I33" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C34">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D34" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G34" t="s">
-        <v>318</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s">
-        <v>171</v>
+        <v>208</v>
+      </c>
+      <c r="I34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="C35">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D35" t="s">
-        <v>681</v>
-      </c>
-      <c r="F35" t="s">
-        <v>175</v>
+        <v>680</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G35" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="H35" t="s">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="I35" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>697</v>
+        <v>302</v>
       </c>
       <c r="C36">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D36" t="s">
-        <v>681</v>
-      </c>
-      <c r="E36" t="s">
-        <v>703</v>
-      </c>
-      <c r="F36" t="s">
-        <v>175</v>
+        <v>680</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G36" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="H36" t="s">
-        <v>215</v>
+        <v>463</v>
       </c>
       <c r="I36" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>697</v>
+        <v>303</v>
       </c>
       <c r="C37">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D37" t="s">
-        <v>681</v>
-      </c>
-      <c r="E37" t="s">
-        <v>703</v>
-      </c>
-      <c r="F37" t="s">
-        <v>175</v>
+        <v>680</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="H37" t="s">
-        <v>217</v>
+        <v>464</v>
       </c>
       <c r="I37" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="C38">
         <v>2013</v>
       </c>
       <c r="D38" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F38" t="s">
         <v>297</v>
       </c>
       <c r="G38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H38" t="s">
-        <v>190</v>
-      </c>
-      <c r="I38" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C39">
         <v>2013</v>
       </c>
       <c r="D39" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G39" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="H39" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="I39" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>694</v>
       </c>
       <c r="C40">
         <v>2013</v>
       </c>
       <c r="D40" t="s">
-        <v>682</v>
+        <v>678</v>
+      </c>
+      <c r="E40" t="s">
+        <v>700</v>
       </c>
       <c r="F40" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G40" t="s">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="I40" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>305</v>
+        <v>694</v>
       </c>
       <c r="C41">
         <v>2013</v>
       </c>
       <c r="D41" t="s">
-        <v>683</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>309</v>
+        <v>678</v>
+      </c>
+      <c r="E41" t="s">
+        <v>700</v>
+      </c>
+      <c r="F41" t="s">
+        <v>175</v>
       </c>
       <c r="G41" t="s">
-        <v>317</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s">
-        <v>190</v>
+        <v>217</v>
+      </c>
+      <c r="I41" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="C42">
         <v>2013</v>
       </c>
       <c r="D42" t="s">
-        <v>683</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>309</v>
+        <v>679</v>
+      </c>
+      <c r="F42" t="s">
+        <v>296</v>
       </c>
       <c r="G42" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="H42" t="s">
-        <v>319</v>
+        <v>190</v>
       </c>
       <c r="I42" t="s">
-        <v>321</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="C43">
         <v>2013</v>
       </c>
       <c r="D43" t="s">
-        <v>683</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>309</v>
+        <v>679</v>
+      </c>
+      <c r="F43" t="s">
+        <v>296</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="H43" t="s">
-        <v>320</v>
-      </c>
-      <c r="I43" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="C44">
         <v>2013</v>
       </c>
       <c r="D44" t="s">
-        <v>683</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>309</v>
+        <v>679</v>
+      </c>
+      <c r="F44" t="s">
+        <v>296</v>
       </c>
       <c r="G44" t="s">
         <v>101</v>
       </c>
       <c r="H44" t="s">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="I44" t="s">
-        <v>322</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="C45">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D45" t="s">
-        <v>682</v>
-      </c>
-      <c r="E45" t="s">
-        <v>703</v>
-      </c>
-      <c r="F45" t="s">
-        <v>297</v>
+        <v>680</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="H45" t="s">
         <v>190</v>
       </c>
-      <c r="I45" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
         <v>305</v>
       </c>
       <c r="C46">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D46" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G46" t="s">
         <v>89</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>317</v>
+      </c>
+      <c r="I46" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47">
+        <v>2013</v>
+      </c>
+      <c r="D47" t="s">
+        <v>680</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" t="s">
+        <v>318</v>
+      </c>
+      <c r="I47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
+        <v>307</v>
+      </c>
+      <c r="C48">
+        <v>2013</v>
+      </c>
+      <c r="D48" t="s">
+        <v>680</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" t="s">
+        <v>321</v>
+      </c>
+      <c r="I48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49">
+        <v>2012</v>
+      </c>
+      <c r="D49" t="s">
+        <v>679</v>
+      </c>
+      <c r="E49" t="s">
+        <v>700</v>
+      </c>
+      <c r="F49" t="s">
+        <v>296</v>
+      </c>
+      <c r="G49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50">
+        <v>2012</v>
+      </c>
+      <c r="D50" t="s">
+        <v>680</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G50" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>140</v>
       </c>
-      <c r="B47" t="s">
-        <v>697</v>
-      </c>
-      <c r="C47">
+      <c r="B51" t="s">
+        <v>694</v>
+      </c>
+      <c r="C51">
         <v>2011</v>
       </c>
-      <c r="D47" t="s">
-        <v>681</v>
-      </c>
-      <c r="E47" t="s">
-        <v>703</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="D51" t="s">
+        <v>678</v>
+      </c>
+      <c r="E51" t="s">
+        <v>700</v>
+      </c>
+      <c r="F51" t="s">
         <v>175</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G51" t="s">
         <v>89</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H51" t="s">
         <v>186</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I51" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D48" s="2"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D52" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="B5:I47">
-    <sortCondition descending="1" ref="C5:C47"/>
+  <sortState ref="B9:I51">
+    <sortCondition descending="1" ref="C9:C51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4855,19 +4995,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H1" t="s">
         <v>64</v>
@@ -4881,19 +5021,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H2" t="s">
         <v>65</v>
@@ -4904,19 +5044,19 @@
         <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C3">
         <v>2018</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4924,23 +5064,23 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C4" s="2">
         <v>2018</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4948,21 +5088,21 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C5" s="2">
         <v>2018</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4970,19 +5110,19 @@
         <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="E6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4990,19 +5130,19 @@
         <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -5010,19 +5150,19 @@
         <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5030,19 +5170,19 @@
         <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C9">
         <v>2017</v>
       </c>
       <c r="E9" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -5050,19 +5190,19 @@
         <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="E10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -5070,19 +5210,19 @@
         <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C11">
         <v>2017</v>
       </c>
       <c r="E11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -5115,19 +5255,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H1" t="s">
         <v>129</v>
@@ -5141,19 +5281,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2" t="s">
         <v>358</v>
-      </c>
-      <c r="G2" t="s">
-        <v>360</v>
       </c>
       <c r="H2" t="s">
         <v>124</v>
@@ -5164,25 +5304,25 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C3">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -5199,7 +5339,7 @@
         <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G4" t="s">
         <v>125</v>
@@ -5222,7 +5362,7 @@
         <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G5" t="s">
         <v>125</v>
@@ -5236,19 +5376,19 @@
         <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C6">
         <v>2018</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>142</v>
@@ -5268,7 +5408,7 @@
         <v>2017</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -5305,25 +5445,25 @@
         <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" t="s">
+        <v>712</v>
+      </c>
+      <c r="G9" t="s">
         <v>713</v>
       </c>
-      <c r="F9" t="s">
-        <v>715</v>
-      </c>
-      <c r="G9" t="s">
-        <v>716</v>
-      </c>
       <c r="H9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -5405,12 +5545,12 @@
         <v>2011</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H13" t="s">
         <v>135</v>
@@ -5450,7 +5590,7 @@
         <v>2010</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E15" s="2"/>
       <c r="G15" t="s">
@@ -5501,22 +5641,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -5527,22 +5667,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -5550,13 +5690,13 @@
         <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3">
         <v>2015</v>
       </c>
       <c r="G3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H3" t="s">
         <v>199</v>
@@ -5567,13 +5707,13 @@
         <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4">
         <v>2015</v>
       </c>
       <c r="G4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H4" t="s">
         <v>87</v>
@@ -5584,13 +5724,13 @@
         <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5">
         <v>2014</v>
       </c>
       <c r="G5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H5" t="s">
         <v>69</v>
@@ -5601,13 +5741,13 @@
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6">
         <v>2011</v>
       </c>
       <c r="G6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
         <v>199</v>
@@ -5618,13 +5758,13 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C7">
         <v>2010</v>
       </c>
       <c r="G7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H7" t="s">
         <v>199</v>
@@ -5656,28 +5796,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -5688,28 +5828,28 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5717,7 +5857,7 @@
         <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="2">
         <v>2015</v>
@@ -5726,16 +5866,16 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5743,7 +5883,7 @@
         <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="2">
         <v>2015</v>
@@ -5752,14 +5892,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5767,7 +5907,7 @@
         <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" s="2">
         <v>2015</v>
@@ -5776,14 +5916,14 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5791,22 +5931,22 @@
         <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6">
         <v>2015</v>
       </c>
       <c r="G6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5814,20 +5954,20 @@
         <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7">
         <v>2014</v>
       </c>
       <c r="G7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5835,22 +5975,22 @@
         <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C8">
         <v>2014</v>
       </c>
       <c r="G8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5858,22 +5998,22 @@
         <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C9">
         <v>2014</v>
       </c>
       <c r="G9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5881,20 +6021,20 @@
         <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C10">
         <v>2014</v>
       </c>
       <c r="G10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5902,20 +6042,20 @@
         <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11">
         <v>2014</v>
       </c>
       <c r="G11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5923,22 +6063,22 @@
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12">
         <v>2014</v>
       </c>
       <c r="G12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5946,22 +6086,22 @@
         <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C13">
         <v>2014</v>
       </c>
       <c r="G13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -5973,8 +6113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5998,31 +6138,31 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="L1" t="s">
         <v>6</v>
@@ -6042,31 +6182,31 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
@@ -6095,7 +6235,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
@@ -6124,7 +6264,10 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>726</v>
       </c>
       <c r="G4" s="4">
         <v>1601.0042100000001</v>
@@ -6133,7 +6276,7 @@
         <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>672</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
         <v>40</v>
@@ -6226,7 +6369,7 @@
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G7" s="4"/>
       <c r="I7" t="s">
@@ -6251,16 +6394,16 @@
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="L8" t="s">
         <v>49</v>
@@ -6278,7 +6421,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G9" s="4"/>
       <c r="I9" t="s">
@@ -6286,7 +6429,7 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>257</v>
@@ -6312,7 +6455,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>35</v>
@@ -6341,7 +6484,7 @@
         <v>2016</v>
       </c>
       <c r="E11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G11" s="4">
         <v>1612.0343499999999</v>
@@ -6369,7 +6512,7 @@
         <v>2016</v>
       </c>
       <c r="E12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G12" s="4"/>
       <c r="I12" t="s">
@@ -6377,7 +6520,7 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>257</v>
@@ -6397,7 +6540,7 @@
         <v>2015</v>
       </c>
       <c r="E13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
@@ -6408,7 +6551,7 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>52</v>
@@ -6431,7 +6574,7 @@
         <v>2015</v>
       </c>
       <c r="E14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F14" t="s">
         <v>57</v>
@@ -6442,7 +6585,7 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>52</v>
@@ -6475,7 +6618,7 @@
         <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>159</v>
@@ -6492,18 +6635,18 @@
         <v>2015</v>
       </c>
       <c r="E16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I16" t="s">
         <v>250</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>257</v>
@@ -6523,18 +6666,18 @@
         <v>2015</v>
       </c>
       <c r="E17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I17" t="s">
         <v>250</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>257</v>
@@ -6554,18 +6697,18 @@
         <v>2015</v>
       </c>
       <c r="E18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I18" t="s">
         <v>250</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>257</v>
@@ -6579,22 +6722,22 @@
         <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C19" s="2">
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K19" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>45</v>
@@ -6617,13 +6760,13 @@
         <v>27</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="I20" t="s">
         <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="L20" t="s">
         <v>36</v>
@@ -6646,18 +6789,18 @@
         <v>2014</v>
       </c>
       <c r="E21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I21" t="s">
         <v>250</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>257</v>
@@ -6677,7 +6820,7 @@
         <v>2013</v>
       </c>
       <c r="E22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
@@ -6688,7 +6831,7 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>52</v>
@@ -6721,7 +6864,7 @@
         <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>160</v>
@@ -6732,18 +6875,18 @@
         <v>199</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2">
         <v>2011</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I24" t="s">
         <v>158</v>
@@ -6752,16 +6895,16 @@
         <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -6769,18 +6912,18 @@
         <v>200</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2">
         <v>2011</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I25" t="s">
         <v>158</v>
@@ -6789,16 +6932,16 @@
         <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M25" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -6806,18 +6949,18 @@
         <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2">
         <v>2011</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I26" t="s">
         <v>158</v>
@@ -6826,10 +6969,10 @@
         <v>87</v>
       </c>
       <c r="K26" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M26">
         <v>52</v>
@@ -6868,13 +7011,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6882,13 +7025,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6896,13 +7039,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6916,7 +7059,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6924,13 +7067,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6938,13 +7081,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6952,13 +7095,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6966,13 +7109,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -7005,16 +7148,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -7022,16 +7165,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -7039,16 +7182,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7056,13 +7199,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -7070,13 +7213,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -7084,16 +7227,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -7101,13 +7244,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -7115,16 +7258,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7132,13 +7275,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -7146,13 +7289,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E10" t="s">
         <v>125</v>
@@ -7164,16 +7307,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -7182,16 +7325,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -7199,13 +7342,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C13" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>142</v>
@@ -7216,13 +7359,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E14" t="s">
         <v>143</v>
@@ -7233,13 +7376,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C15" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -7247,13 +7390,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C16" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -7261,13 +7404,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -7275,16 +7418,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C18" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -7292,13 +7435,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -7306,16 +7449,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -7344,13 +7487,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7358,13 +7501,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -7373,13 +7516,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7387,13 +7530,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7401,13 +7544,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7415,13 +7558,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7429,13 +7572,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -7462,13 +7605,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F1" t="s">
         <v>82</v>
@@ -7485,13 +7628,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
         <v>83</v>
@@ -7767,16 +7910,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -7793,16 +7936,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -7816,7 +7959,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3">
         <v>2012</v>
@@ -7825,13 +7968,13 @@
         <v>2016</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7839,7 +7982,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C4">
         <v>2007</v>
@@ -7848,13 +7991,13 @@
         <v>2011</v>
       </c>
       <c r="E4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G4" t="s">
         <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -7862,7 +8005,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C5">
         <v>2004</v>
@@ -7871,10 +8014,10 @@
         <v>2007</v>
       </c>
       <c r="G5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -7885,10 +8028,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24053F2-2CC5-4EAC-BEAB-64F1B89D9BFF}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7901,16 +8044,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G1" t="s">
         <v>82</v>
@@ -7927,16 +8070,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G2" t="s">
         <v>83</v>
@@ -7947,157 +8090,157 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>16</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>727</v>
       </c>
       <c r="C3">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>728</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>729</v>
       </c>
       <c r="H3" t="s">
-        <v>400</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D4" t="s">
-        <v>368</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>2016</v>
+      </c>
+      <c r="D4">
+        <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2">
-        <v>2016</v>
-      </c>
-      <c r="D5">
-        <v>2018</v>
+        <v>2013</v>
+      </c>
+      <c r="D5" t="s">
+        <v>366</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D6">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2">
         <v>2012</v>
       </c>
       <c r="D7">
-        <v>2014</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>78</v>
+        <v>2017</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="C9" s="2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D9">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="G9" t="s">
         <v>80</v>
@@ -8107,12 +8250,35 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D10">
+        <v>2013</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="B8:H9">
-    <sortCondition descending="1" ref="D8:D9"/>
+  <sortState ref="B9:H10">
+    <sortCondition descending="1" ref="D9:D10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8121,10 +8287,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04072B98-6DD0-4DEA-89F3-ADD9EED64B4B}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8140,16 +8306,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G1" t="s">
         <v>60</v>
@@ -8158,7 +8324,7 @@
         <v>218</v>
       </c>
       <c r="I1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -8169,16 +8335,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
@@ -8187,131 +8353,131 @@
         <v>219</v>
       </c>
       <c r="I2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>23</v>
+        <v>3212</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>74</v>
       </c>
       <c r="C3">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D3">
         <v>2018</v>
       </c>
       <c r="E3" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="F3" t="s">
-        <v>477</v>
-      </c>
-      <c r="G3" t="s">
-        <v>478</v>
+        <v>504</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>475</v>
+        <v>503</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>472</v>
       </c>
       <c r="C4">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="D4">
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>532</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
+      </c>
+      <c r="F4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>488</v>
+        <v>69</v>
       </c>
       <c r="C5">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D5">
         <v>2018</v>
       </c>
       <c r="E5" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="C6">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="D6">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E6" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="H6" t="s">
-        <v>480</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>475</v>
+        <v>399</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I6" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>498</v>
       </c>
       <c r="C7">
         <v>2017</v>
@@ -8320,230 +8486,230 @@
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>527</v>
-      </c>
-      <c r="F7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="H7" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
       </c>
       <c r="C8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E8" t="s">
         <v>525</v>
       </c>
       <c r="F8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E9" t="s">
+        <v>523</v>
+      </c>
+      <c r="F9" t="s">
+        <v>504</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H9" t="s">
+        <v>502</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="F9" t="s">
-        <v>522</v>
-      </c>
-      <c r="G9" t="s">
-        <v>423</v>
-      </c>
-      <c r="H9" t="s">
-        <v>481</v>
-      </c>
-      <c r="I9" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>492</v>
+        <v>98</v>
       </c>
       <c r="C10">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D10">
         <v>2015</v>
       </c>
       <c r="E10" t="s">
-        <v>493</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
+      </c>
+      <c r="F10" t="s">
+        <v>520</v>
+      </c>
+      <c r="G10" t="s">
+        <v>421</v>
+      </c>
+      <c r="H10" t="s">
+        <v>479</v>
+      </c>
+      <c r="I10" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="C11">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D11">
         <v>2015</v>
       </c>
       <c r="E11" t="s">
-        <v>524</v>
-      </c>
-      <c r="F11" t="s">
-        <v>506</v>
+        <v>491</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="H11" t="s">
-        <v>480</v>
+        <v>399</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>501</v>
+        <v>74</v>
       </c>
       <c r="C12">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D12">
         <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>499</v>
       </c>
       <c r="C13">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D13">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E13" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="F13" t="s">
-        <v>522</v>
-      </c>
-      <c r="G13" t="s">
-        <v>483</v>
+        <v>505</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="H13" t="s">
-        <v>480</v>
-      </c>
-      <c r="I13" t="s">
-        <v>476</v>
+        <v>478</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C14">
         <v>2011</v>
       </c>
       <c r="D14">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E14" t="s">
-        <v>523</v>
+        <v>471</v>
       </c>
       <c r="F14" t="s">
-        <v>506</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>509</v>
+        <v>520</v>
+      </c>
+      <c r="G14" t="s">
+        <v>481</v>
       </c>
       <c r="H14" t="s">
-        <v>503</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
+      </c>
+      <c r="I14" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>502</v>
+        <v>74</v>
       </c>
       <c r="C15">
         <v>2011</v>
@@ -8552,114 +8718,114 @@
         <v>2011</v>
       </c>
       <c r="E15" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F15" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>423</v>
+        <v>507</v>
       </c>
       <c r="H15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>500</v>
       </c>
       <c r="C16">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D16">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E16" t="s">
+        <v>526</v>
+      </c>
+      <c r="F16" t="s">
+        <v>514</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H16" t="s">
+        <v>503</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="F16" t="s">
-        <v>522</v>
-      </c>
-      <c r="G16" t="s">
-        <v>512</v>
-      </c>
-      <c r="H16" t="s">
-        <v>496</v>
-      </c>
-      <c r="I16" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>98</v>
       </c>
       <c r="C17">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D17">
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>491</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
+      </c>
+      <c r="F17" t="s">
+        <v>520</v>
+      </c>
+      <c r="G17" t="s">
+        <v>510</v>
+      </c>
+      <c r="H17" t="s">
+        <v>494</v>
+      </c>
+      <c r="I17" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="C18">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D18">
         <v>2010</v>
       </c>
       <c r="E18" t="s">
-        <v>528</v>
-      </c>
-      <c r="F18" t="s">
-        <v>516</v>
+        <v>489</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="H18" t="s">
-        <v>503</v>
+        <v>399</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="C19">
         <v>2010</v>
@@ -8668,21 +8834,27 @@
         <v>2010</v>
       </c>
       <c r="E19" t="s">
-        <v>531</v>
+        <v>526</v>
+      </c>
+      <c r="F19" t="s">
+        <v>514</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="H19" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C20">
         <v>2010</v>
@@ -8691,56 +8863,50 @@
         <v>2010</v>
       </c>
       <c r="E20" t="s">
-        <v>541</v>
-      </c>
-      <c r="F20" t="s">
-        <v>542</v>
-      </c>
-      <c r="G20" t="s">
-        <v>423</v>
+        <v>529</v>
       </c>
       <c r="H20" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>538</v>
       </c>
       <c r="C21">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D21">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E21" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="F21" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="G21" t="s">
-        <v>534</v>
+        <v>421</v>
       </c>
       <c r="H21" t="s">
-        <v>485</v>
-      </c>
-      <c r="I21" t="s">
-        <v>476</v>
+        <v>537</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>492</v>
+        <v>98</v>
       </c>
       <c r="C22">
         <v>2009</v>
@@ -8749,27 +8915,27 @@
         <v>2009</v>
       </c>
       <c r="E22" t="s">
-        <v>493</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>401</v>
+        <v>471</v>
+      </c>
+      <c r="F22" t="s">
+        <v>520</v>
+      </c>
+      <c r="G22" t="s">
+        <v>532</v>
       </c>
       <c r="H22" t="s">
-        <v>496</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>476</v>
+        <v>483</v>
+      </c>
+      <c r="I22" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C23">
         <v>2009</v>
@@ -8778,86 +8944,85 @@
         <v>2009</v>
       </c>
       <c r="E23" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>486</v>
+        <v>399</v>
+      </c>
+      <c r="H23" t="s">
+        <v>494</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="C24">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D24">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E24" t="s">
-        <v>536</v>
-      </c>
-      <c r="F24" t="s">
-        <v>537</v>
-      </c>
-      <c r="G24" t="s">
-        <v>423</v>
-      </c>
-      <c r="H24" t="s">
-        <v>539</v>
+        <v>497</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
+        <v>533</v>
+      </c>
+      <c r="C25">
+        <v>2008</v>
+      </c>
+      <c r="D25">
+        <v>2008</v>
+      </c>
+      <c r="E25" t="s">
+        <v>534</v>
+      </c>
+      <c r="F25" t="s">
+        <v>535</v>
+      </c>
+      <c r="G25" t="s">
+        <v>421</v>
+      </c>
+      <c r="H25" t="s">
+        <v>537</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C25">
-        <v>2007</v>
-      </c>
-      <c r="D25">
-        <v>2007</v>
-      </c>
-      <c r="E25" t="s">
-        <v>482</v>
-      </c>
-      <c r="F25" t="s">
-        <v>477</v>
-      </c>
-      <c r="G25" t="s">
-        <v>478</v>
-      </c>
-      <c r="H25" t="s">
-        <v>479</v>
-      </c>
-      <c r="I25" t="s">
-        <v>475</v>
-      </c>
-      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>472</v>
       </c>
       <c r="C26">
         <v>2007</v>
@@ -8866,27 +9031,28 @@
         <v>2007</v>
       </c>
       <c r="E26" t="s">
-        <v>533</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
+      </c>
+      <c r="F26" t="s">
+        <v>475</v>
+      </c>
+      <c r="G26" t="s">
+        <v>476</v>
+      </c>
+      <c r="H26" t="s">
+        <v>477</v>
       </c>
       <c r="I26" t="s">
-        <v>475</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>535</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>2007</v>
@@ -8895,56 +9061,56 @@
         <v>2007</v>
       </c>
       <c r="E27" t="s">
-        <v>536</v>
-      </c>
-      <c r="F27" t="s">
-        <v>538</v>
-      </c>
-      <c r="G27" t="s">
-        <v>423</v>
-      </c>
-      <c r="H27" t="s">
-        <v>539</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>476</v>
+        <v>531</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I27" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="C28">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D28">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E28" t="s">
-        <v>491</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>485</v>
+        <v>534</v>
+      </c>
+      <c r="F28" t="s">
+        <v>536</v>
+      </c>
+      <c r="G28" t="s">
+        <v>421</v>
+      </c>
+      <c r="H28" t="s">
+        <v>537</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="C29">
         <v>2006</v>
@@ -8953,24 +9119,53 @@
         <v>2006</v>
       </c>
       <c r="E29" t="s">
+        <v>489</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>533</v>
+      </c>
+      <c r="C30">
+        <v>2006</v>
+      </c>
+      <c r="D30">
+        <v>2006</v>
+      </c>
+      <c r="E30" t="s">
+        <v>534</v>
+      </c>
+      <c r="F30" t="s">
         <v>536</v>
       </c>
-      <c r="F29" t="s">
-        <v>538</v>
-      </c>
-      <c r="G29" t="s">
-        <v>423</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G30" t="s">
+        <v>421</v>
+      </c>
+      <c r="H30" t="s">
         <v>102</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>475</v>
+      <c r="I30" s="2" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:I29">
-    <sortCondition descending="1" ref="D3:D29"/>
+  <sortState ref="B4:I30">
+    <sortCondition descending="1" ref="D4:D30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8998,13 +9193,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -9021,13 +9216,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -9047,13 +9242,13 @@
         <v>221</v>
       </c>
       <c r="D3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E3" t="s">
         <v>408</v>
       </c>
-      <c r="E3" t="s">
-        <v>410</v>
-      </c>
       <c r="F3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G3" t="s">
         <v>199</v>
@@ -9070,13 +9265,13 @@
         <v>222</v>
       </c>
       <c r="D4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" t="s">
         <v>408</v>
       </c>
-      <c r="E4" t="s">
-        <v>410</v>
-      </c>
       <c r="F4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G4" t="s">
         <v>199</v>
@@ -9093,13 +9288,13 @@
         <v>223</v>
       </c>
       <c r="D5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" t="s">
         <v>408</v>
       </c>
-      <c r="E5" t="s">
-        <v>410</v>
-      </c>
       <c r="F5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G5" t="s">
         <v>199</v>
@@ -9116,13 +9311,13 @@
         <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G6" t="s">
         <v>199</v>
@@ -9139,13 +9334,13 @@
         <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G7" t="s">
         <v>199</v>
@@ -9162,13 +9357,13 @@
         <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G8" t="s">
         <v>199</v>
@@ -9185,13 +9380,13 @@
         <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G9" t="s">
         <v>199</v>
@@ -9208,13 +9403,13 @@
         <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G10" t="s">
         <v>199</v>
@@ -9231,13 +9426,13 @@
         <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G11" t="s">
         <v>199</v>
@@ -9254,13 +9449,13 @@
         <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G12" t="s">
         <v>199</v>
@@ -9277,13 +9472,13 @@
         <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G13" t="s">
         <v>199</v>
@@ -9300,13 +9495,13 @@
         <v>222</v>
       </c>
       <c r="D14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G14" t="s">
         <v>199</v>
@@ -9323,13 +9518,13 @@
         <v>225</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G15" t="s">
         <v>199</v>
@@ -9346,13 +9541,13 @@
         <v>2017</v>
       </c>
       <c r="D16" t="s">
+        <v>406</v>
+      </c>
+      <c r="E16" t="s">
         <v>408</v>
       </c>
-      <c r="E16" t="s">
-        <v>410</v>
-      </c>
       <c r="F16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G16" t="s">
         <v>240</v>
@@ -9367,13 +9562,13 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" t="s">
+        <v>406</v>
+      </c>
+      <c r="E17" t="s">
         <v>408</v>
       </c>
-      <c r="E17" t="s">
-        <v>410</v>
-      </c>
       <c r="F17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G17" t="s">
         <v>240</v>
@@ -9390,13 +9585,13 @@
         <v>2013</v>
       </c>
       <c r="D18" t="s">
+        <v>406</v>
+      </c>
+      <c r="E18" t="s">
         <v>408</v>
       </c>
-      <c r="E18" t="s">
-        <v>410</v>
-      </c>
       <c r="F18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G18" t="s">
         <v>241</v>
@@ -9413,13 +9608,13 @@
         <v>2006</v>
       </c>
       <c r="D19" t="s">
+        <v>407</v>
+      </c>
+      <c r="E19" t="s">
         <v>409</v>
       </c>
-      <c r="E19" t="s">
-        <v>411</v>
-      </c>
       <c r="F19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G19" t="s">
         <v>237</v>
@@ -9436,13 +9631,13 @@
         <v>2014</v>
       </c>
       <c r="D20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G20" t="s">
         <v>244</v>
@@ -9459,13 +9654,13 @@
         <v>2010</v>
       </c>
       <c r="D21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G21" t="s">
         <v>210</v>
@@ -9482,13 +9677,13 @@
         <v>2012</v>
       </c>
       <c r="D22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G22" t="s">
         <v>210</v>
@@ -9505,13 +9700,13 @@
         <v>2014</v>
       </c>
       <c r="D23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E23" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G23" t="s">
         <v>210</v>
@@ -9525,16 +9720,16 @@
         <v>246</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G24" t="s">
         <v>247</v>
@@ -9551,13 +9746,13 @@
         <v>2010</v>
       </c>
       <c r="D25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E25" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G25" t="s">
         <v>249</v>
@@ -9568,19 +9763,19 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C26" s="4">
         <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G26" t="s">
         <v>210</v>
@@ -9591,19 +9786,19 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C27" s="4">
         <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G27" t="s">
         <v>210</v>
@@ -9614,19 +9809,19 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C28" s="4">
         <v>2010</v>
       </c>
       <c r="D28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G28" t="s">
         <v>210</v>
@@ -9643,13 +9838,13 @@
         <v>2009</v>
       </c>
       <c r="D29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E29" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G29" t="s">
         <v>210</v>
@@ -9666,16 +9861,16 @@
         <v>2008</v>
       </c>
       <c r="D30" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -9683,19 +9878,19 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C31" s="4">
         <v>2008</v>
       </c>
       <c r="D31" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F31" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G31" t="s">
         <v>210</v>
@@ -9706,19 +9901,19 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C32" s="4">
         <v>2015</v>
       </c>
       <c r="D32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F32" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G32" t="s">
         <v>216</v>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="747">
   <si>
     <t xml:space="preserve">ID Name</t>
   </si>
@@ -2070,61 +2070,67 @@
     <t xml:space="preserve">Accepted</t>
   </si>
   <si>
+    <t xml:space="preserve">In Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1701.02200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Márton Naszódi, Leonardo Martínez-Sandoval, Shakhar-Smorodinsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended Abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un baúl de problemas olvidado: Parte VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://universo.math.org.mx/2018-2/Baul-VI/baul-VI.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Hernández-Santiago, D. López Aguayo, L. Martínez Sandoval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem Solving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">universo.math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A geometric Hall-type theorem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1090/proc12733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1412.66390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Holmsen, L. Martínez-Sandoval, L. Montejano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceedings of the AMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503-511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L. Martínez-Sandoval, R. Tamam</t>
+  </si>
+  <si>
     <t xml:space="preserve">ArXiV e-prints</t>
   </si>
   <si>
-    <t xml:space="preserve">In Press</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1701.02200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Márton Naszódi, Leonardo Martínez-Sandoval, Shakhar-Smorodinsky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extended Abstract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un baúl de problemas olvidado: Parte VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Hernández-Santiago, D. López Aguayo, L. Martínez Sandoval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problem Solving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">universo.math</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A geometric Hall-type theorem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1090/proc12733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1412.66390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. Holmsen, L. Martínez-Sandoval, L. Montejano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proceedings of the AMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">503-511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L. Martínez-Sandoval, R. Tamam</t>
-  </si>
-  <si>
     <t xml:space="preserve">Un baúl de problemas olvidado: Parte V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://universo.math.org.mx/2018-1/Baul-V/baul-V.html</t>
   </si>
   <si>
     <t xml:space="preserve">3(1)</t>
@@ -2502,10 +2508,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -2814,7 +2820,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -3477,12 +3483,12 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.4493927125506"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.9838056680162"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="61.4858299595142"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -5158,14 +5164,14 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -5555,7 +5561,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -5721,7 +5727,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -6060,22 +6066,22 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.89068825910931"/>
   </cols>
@@ -6330,13 +6336,13 @@
         <v>672</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="M7" s="0" t="s">
-        <v>674</v>
-      </c>
       <c r="N7" s="0" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6350,27 +6356,27 @@
         <v>2017</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="I8" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>677</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>678</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>184</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2017</v>
@@ -6380,6 +6386,9 @@
         <v>111</v>
       </c>
       <c r="G9" s="6"/>
+      <c r="H9" s="0" t="s">
+        <v>679</v>
+      </c>
       <c r="I9" s="0" t="s">
         <v>680</v>
       </c>
@@ -6453,16 +6462,16 @@
         <v>683</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>187</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2016</v>
@@ -6471,6 +6480,9 @@
         <v>111</v>
       </c>
       <c r="G12" s="6"/>
+      <c r="H12" s="0" t="s">
+        <v>693</v>
+      </c>
       <c r="I12" s="0" t="s">
         <v>680</v>
       </c>
@@ -6482,7 +6494,7 @@
         <v>682</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6490,33 +6502,33 @@
         <v>188</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G13" s="6"/>
       <c r="I13" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>50</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6530,10 +6542,10 @@
         <v>2015</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G14" s="6"/>
       <c r="I14" s="0" t="s">
@@ -6541,16 +6553,16 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>50</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6558,7 +6570,7 @@
         <v>190</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2015</v>
@@ -6568,16 +6580,16 @@
       </c>
       <c r="G15" s="6"/>
       <c r="I15" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>189</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6585,7 +6597,7 @@
         <v>191</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2015</v>
@@ -6595,7 +6607,7 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>680</v>
@@ -6608,7 +6620,7 @@
         <v>682</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6616,7 +6628,7 @@
         <v>192</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2015</v>
@@ -6626,7 +6638,7 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>680</v>
@@ -6639,7 +6651,7 @@
         <v>682</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6647,7 +6659,7 @@
         <v>193</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2015</v>
@@ -6657,7 +6669,7 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>680</v>
@@ -6670,7 +6682,7 @@
         <v>682</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,25 +6690,25 @@
         <v>194</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2015</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,25 +6725,25 @@
         <v>646</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>145</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6739,7 +6751,7 @@
         <v>196</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2014</v>
@@ -6749,7 +6761,7 @@
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>680</v>
@@ -6762,7 +6774,7 @@
         <v>682</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6770,33 +6782,33 @@
         <v>197</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G22" s="6"/>
       <c r="I22" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>44</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,7 +6816,7 @@
         <v>198</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2011</v>
@@ -6814,16 +6826,16 @@
       </c>
       <c r="G23" s="6"/>
       <c r="I23" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>189</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6831,7 +6843,7 @@
         <v>199</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2011</v>
@@ -6842,10 +6854,10 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>204</v>
@@ -6854,13 +6866,13 @@
         <v>681</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6868,7 +6880,7 @@
         <v>200</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2011</v>
@@ -6879,10 +6891,10 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="3" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>204</v>
@@ -6891,13 +6903,13 @@
         <v>681</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6905,7 +6917,7 @@
         <v>201</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2011</v>
@@ -6916,10 +6928,10 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="3" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>155</v>
@@ -6928,7 +6940,7 @@
         <v>681</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>52</v>
@@ -6936,13 +6948,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H16" r:id="rId1" display="http://universo.math.org.mx/2015-1/Baul-II/baul-II.html"/>
-    <hyperlink ref="H17" r:id="rId2" display="http://universo.math.org.mx/2015-2/Baul-III/baul-III.html"/>
-    <hyperlink ref="H18" r:id="rId3" display="http://universo.math.org.mx/2015-3/Baul-IV/baul-IV.html"/>
-    <hyperlink ref="H21" r:id="rId4" display="http://universo.math.org.mx/2014-3/baul-I/baul-I.html"/>
-    <hyperlink ref="H24" r:id="rId5" display="http://www.ommenlinea.org/portfolio-items/tzaloa-2011-tercer-numero/?portfolioCats=10%2C11%2C12%2C14%2C15%2C27%2C32"/>
-    <hyperlink ref="H25" r:id="rId6" display="http://www.ommenlinea.org/portfolio-items/tzaloa-2011-segundo-numero/?portfolioCats=10%2C11%2C12%2C14%2C15%2C27%2C32"/>
-    <hyperlink ref="H26" r:id="rId7" display="http://www.miscelaneamatematica.org/Misc52/5203.pdf"/>
+    <hyperlink ref="H9" r:id="rId1" display="http://universo.math.org.mx/2018-2/Baul-VI/baul-VI.html"/>
+    <hyperlink ref="H12" r:id="rId2" display="http://universo.math.org.mx/2018-1/Baul-V/baul-V.html"/>
+    <hyperlink ref="H16" r:id="rId3" display="http://universo.math.org.mx/2015-1/Baul-II/baul-II.html"/>
+    <hyperlink ref="H17" r:id="rId4" display="http://universo.math.org.mx/2015-2/Baul-III/baul-III.html"/>
+    <hyperlink ref="H18" r:id="rId5" display="http://universo.math.org.mx/2015-3/Baul-IV/baul-IV.html"/>
+    <hyperlink ref="H21" r:id="rId6" display="http://universo.math.org.mx/2014-3/baul-I/baul-I.html"/>
+    <hyperlink ref="H24" r:id="rId7" display="http://www.ommenlinea.org/portfolio-items/tzaloa-2011-tercer-numero/?portfolioCats=10%2C11%2C12%2C14%2C15%2C27%2C32"/>
+    <hyperlink ref="H25" r:id="rId8" display="http://www.ommenlinea.org/portfolio-items/tzaloa-2011-segundo-numero/?portfolioCats=10%2C11%2C12%2C14%2C15%2C27%2C32"/>
+    <hyperlink ref="H26" r:id="rId9" display="http://www.miscelaneamatematica.org/Misc52/5203.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7106,7 +7120,7 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -7459,7 +7473,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.89068825910931"/>
@@ -8310,7 +8324,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -9204,7 +9218,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5708502024291"/>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4508E5-A33E-44F2-8080-EC853E22B940}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578390F7-715D-4EF8-BE2C-DFBA16AEC98E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="741">
   <si>
     <t>ID</t>
   </si>
@@ -2269,6 +2269,9 @@
   </si>
   <si>
     <t>Institut Henri Poincaré</t>
+  </si>
+  <si>
+    <t>Seminaire GAC</t>
   </si>
 </sst>
 </file>
@@ -3564,8 +3567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3654,7 +3657,7 @@
         <v>730</v>
       </c>
       <c r="H3" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="I3" t="s">
         <v>739</v>
@@ -6113,8 +6116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578390F7-715D-4EF8-BE2C-DFBA16AEC98E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE983F2-E474-417B-9277-6CC8A393DD1A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048" tabRatio="873" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="752">
   <si>
     <t>ID</t>
   </si>
@@ -2250,9 +2250,6 @@
     <t>Emparejamientos perfectos y simplejos coloreados</t>
   </si>
   <si>
-    <t>seminard</t>
-  </si>
-  <si>
     <t>Universidad Michoacana San Nicolás de Hidalgo</t>
   </si>
   <si>
@@ -2272,6 +2269,42 @@
   </si>
   <si>
     <t>Seminaire GAC</t>
+  </si>
+  <si>
+    <t>Maseille, France</t>
+  </si>
+  <si>
+    <t>10.1007/s00454-019-00085-y</t>
+  </si>
+  <si>
+    <t>1803.06229</t>
+  </si>
+  <si>
+    <t>32(2)</t>
+  </si>
+  <si>
+    <t>1351-1363</t>
+  </si>
+  <si>
+    <t>60(3)</t>
+  </si>
+  <si>
+    <t>698-719</t>
+  </si>
+  <si>
+    <t>Presented at EuroCG</t>
+  </si>
+  <si>
+    <t>Aix-Marseille Université</t>
+  </si>
+  <si>
+    <t>FC Colorful Helly - IHP.pdf</t>
+  </si>
+  <si>
+    <t>FC Colorful Helly - Marseille.pdf</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -3565,10 +3598,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820DCA41-7065-4B6F-8FCC-B838DB872725}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3639,36 +3672,39 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
         <v>177</v>
       </c>
       <c r="C3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D3" t="s">
         <v>678</v>
       </c>
+      <c r="E3" t="s">
+        <v>750</v>
+      </c>
       <c r="F3" t="s">
         <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="H3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I3" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>731</v>
+        <v>177</v>
       </c>
       <c r="C4">
         <v>2018</v>
@@ -3676,25 +3712,28 @@
       <c r="D4" t="s">
         <v>678</v>
       </c>
+      <c r="E4" t="s">
+        <v>749</v>
+      </c>
       <c r="F4" t="s">
-        <v>733</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>730</v>
       </c>
       <c r="H4" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -3706,21 +3745,21 @@
         <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I5" t="s">
-        <v>734</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C6">
         <v>2018</v>
@@ -3728,9 +3767,6 @@
       <c r="D6" t="s">
         <v>678</v>
       </c>
-      <c r="E6" t="s">
-        <v>714</v>
-      </c>
       <c r="F6" t="s">
         <v>175</v>
       </c>
@@ -3741,15 +3777,15 @@
         <v>737</v>
       </c>
       <c r="I6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>731</v>
       </c>
       <c r="C7">
         <v>2018</v>
@@ -3758,24 +3794,24 @@
         <v>678</v>
       </c>
       <c r="E7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="F7" t="s">
         <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>717</v>
+        <v>314</v>
       </c>
       <c r="H7" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="I7" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
         <v>177</v>
@@ -3787,24 +3823,24 @@
         <v>678</v>
       </c>
       <c r="E8" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H8" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="I8" t="s">
-        <v>179</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>98</v>
+      <c r="A9">
+        <v>211</v>
       </c>
       <c r="B9" t="s">
         <v>177</v>
@@ -3816,111 +3852,114 @@
         <v>678</v>
       </c>
       <c r="E9" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>715</v>
       </c>
       <c r="H9" t="s">
-        <v>460</v>
+        <v>716</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="C10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E10" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="F10" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>460</v>
       </c>
       <c r="I10" t="s">
-        <v>696</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>2017</v>
       </c>
       <c r="D11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E11" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="G11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H11" t="s">
-        <v>460</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="C12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D12" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E12" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F12" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H12" t="s">
-        <v>165</v>
+        <v>460</v>
+      </c>
+      <c r="I12" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>2016</v>
@@ -3929,27 +3968,24 @@
         <v>677</v>
       </c>
       <c r="E13" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F13" t="s">
         <v>297</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
-        <v>168</v>
-      </c>
-      <c r="I13" t="s">
-        <v>446</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14">
         <v>2016</v>
@@ -3958,56 +3994,56 @@
         <v>677</v>
       </c>
       <c r="E14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F14" t="s">
         <v>297</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>452</v>
+        <v>168</v>
       </c>
       <c r="I14" t="s">
-        <v>169</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C15">
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E15" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>452</v>
       </c>
       <c r="I15" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>445</v>
+        <v>183</v>
       </c>
       <c r="C16">
         <v>2016</v>
@@ -4016,27 +4052,27 @@
         <v>678</v>
       </c>
       <c r="E16" t="s">
-        <v>690</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F16" t="s">
         <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>444</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
-        <v>447</v>
+        <v>186</v>
       </c>
       <c r="I16" t="s">
-        <v>446</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>445</v>
       </c>
       <c r="C17">
         <v>2016</v>
@@ -4045,82 +4081,82 @@
         <v>678</v>
       </c>
       <c r="E17" t="s">
-        <v>691</v>
-      </c>
-      <c r="F17" t="s">
+        <v>690</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I17" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D18" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E18" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F18" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>448</v>
       </c>
       <c r="H18" t="s">
-        <v>171</v>
+        <v>449</v>
+      </c>
+      <c r="I18" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C19">
         <v>2015</v>
       </c>
       <c r="D19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I19" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C20">
         <v>2015</v>
@@ -4129,56 +4165,56 @@
         <v>678</v>
       </c>
       <c r="E20" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="F20" t="s">
         <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="H20" t="s">
-        <v>698</v>
+        <v>187</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C21">
         <v>2015</v>
       </c>
       <c r="D21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E21" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="F21" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
-        <v>190</v>
+        <v>698</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C22">
         <v>2015</v>
@@ -4187,53 +4223,53 @@
         <v>679</v>
       </c>
       <c r="E22" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="F22" t="s">
         <v>296</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>205</v>
+        <v>190</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>192</v>
       </c>
       <c r="C23">
         <v>2015</v>
       </c>
       <c r="D23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E23" t="s">
-        <v>692</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>308</v>
+        <v>699</v>
+      </c>
+      <c r="F23" t="s">
+        <v>296</v>
       </c>
       <c r="G23" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="H23" t="s">
-        <v>309</v>
-      </c>
-      <c r="I23" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C24">
         <v>2015</v>
@@ -4241,25 +4277,28 @@
       <c r="D24" t="s">
         <v>680</v>
       </c>
+      <c r="E24" t="s">
+        <v>692</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>308</v>
       </c>
       <c r="G24" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="H24" t="s">
-        <v>461</v>
+        <v>309</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C25">
         <v>2015</v>
@@ -4267,28 +4306,25 @@
       <c r="D25" t="s">
         <v>680</v>
       </c>
-      <c r="E25" t="s">
-        <v>688</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>308</v>
       </c>
       <c r="G25" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="H25" t="s">
-        <v>310</v>
+        <v>461</v>
       </c>
       <c r="I25" t="s">
-        <v>736</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C26">
         <v>2015</v>
@@ -4297,53 +4333,53 @@
         <v>680</v>
       </c>
       <c r="E26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>308</v>
       </c>
       <c r="G26" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H26" t="s">
-        <v>462</v>
+        <v>310</v>
       </c>
       <c r="I26" t="s">
-        <v>311</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="C27">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D27" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E27" t="s">
-        <v>685</v>
-      </c>
-      <c r="F27" t="s">
-        <v>297</v>
+        <v>689</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="H27" t="s">
-        <v>173</v>
+        <v>462</v>
       </c>
       <c r="I27" t="s">
-        <v>451</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -4352,27 +4388,30 @@
         <v>2014</v>
       </c>
       <c r="D28" t="s">
-        <v>678</v>
+        <v>677</v>
+      </c>
+      <c r="E28" t="s">
+        <v>685</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H28" t="s">
-        <v>465</v>
+        <v>173</v>
       </c>
       <c r="I28" t="s">
-        <v>176</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>2014</v>
@@ -4384,18 +4423,18 @@
         <v>175</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>465</v>
       </c>
       <c r="I29" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
         <v>195</v>
@@ -4404,27 +4443,24 @@
         <v>2014</v>
       </c>
       <c r="D30" t="s">
-        <v>679</v>
-      </c>
-      <c r="E30" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="G30" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
         <v>195</v>
@@ -4442,21 +4478,21 @@
         <v>296</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="H31" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C32">
         <v>2014</v>
@@ -4464,25 +4500,28 @@
       <c r="D32" t="s">
         <v>679</v>
       </c>
+      <c r="E32" t="s">
+        <v>693</v>
+      </c>
       <c r="F32" t="s">
         <v>296</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="H32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C33">
         <v>2014</v>
@@ -4494,18 +4533,21 @@
         <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="I33" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C34">
         <v>2014</v>
@@ -4517,47 +4559,44 @@
         <v>296</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="H34" t="s">
-        <v>208</v>
-      </c>
-      <c r="I34" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="C35">
         <v>2014</v>
       </c>
       <c r="D35" t="s">
-        <v>680</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>308</v>
+        <v>679</v>
+      </c>
+      <c r="F35" t="s">
+        <v>296</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="I35" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C36">
         <v>2014</v>
@@ -4569,21 +4608,21 @@
         <v>308</v>
       </c>
       <c r="G36" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="H36" t="s">
-        <v>463</v>
+        <v>313</v>
       </c>
       <c r="I36" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C37">
         <v>2014</v>
@@ -4595,44 +4634,47 @@
         <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="H37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I37" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="C38">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D38" t="s">
-        <v>678</v>
-      </c>
-      <c r="F38" t="s">
-        <v>297</v>
+        <v>680</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G38" t="s">
-        <v>316</v>
+        <v>166</v>
       </c>
       <c r="H38" t="s">
-        <v>171</v>
+        <v>464</v>
+      </c>
+      <c r="I38" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C39">
         <v>2013</v>
@@ -4641,24 +4683,21 @@
         <v>678</v>
       </c>
       <c r="F39" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="G39" t="s">
-        <v>212</v>
+        <v>316</v>
       </c>
       <c r="H39" t="s">
-        <v>211</v>
-      </c>
-      <c r="I39" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>694</v>
+        <v>209</v>
       </c>
       <c r="C40">
         <v>2013</v>
@@ -4666,25 +4705,22 @@
       <c r="D40" t="s">
         <v>678</v>
       </c>
-      <c r="E40" t="s">
-        <v>700</v>
-      </c>
       <c r="F40" t="s">
         <v>175</v>
       </c>
       <c r="G40" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="H40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I40" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
         <v>694</v>
@@ -4702,44 +4738,47 @@
         <v>175</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>314</v>
       </c>
       <c r="H41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>694</v>
       </c>
       <c r="C42">
         <v>2013</v>
       </c>
       <c r="D42" t="s">
-        <v>679</v>
+        <v>678</v>
+      </c>
+      <c r="E42" t="s">
+        <v>700</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>315</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
         <v>207</v>
@@ -4754,18 +4793,21 @@
         <v>296</v>
       </c>
       <c r="G43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H43" t="s">
-        <v>205</v>
+        <v>190</v>
+      </c>
+      <c r="I43" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C44">
         <v>2013</v>
@@ -4777,44 +4819,44 @@
         <v>296</v>
       </c>
       <c r="G44" t="s">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="H44" t="s">
-        <v>200</v>
-      </c>
-      <c r="I44" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="C45">
         <v>2013</v>
       </c>
       <c r="D45" t="s">
-        <v>680</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>308</v>
+        <v>679</v>
+      </c>
+      <c r="F45" t="s">
+        <v>296</v>
       </c>
       <c r="G45" t="s">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="H45" t="s">
-        <v>190</v>
+        <v>200</v>
+      </c>
+      <c r="I45" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C46">
         <v>2013</v>
@@ -4826,21 +4868,18 @@
         <v>308</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="H46" t="s">
-        <v>317</v>
-      </c>
-      <c r="I46" t="s">
-        <v>319</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C47">
         <v>2013</v>
@@ -4852,21 +4891,21 @@
         <v>308</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I47" t="s">
-        <v>185</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C48">
         <v>2013</v>
@@ -4881,56 +4920,56 @@
         <v>101</v>
       </c>
       <c r="H48" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I48" t="s">
-        <v>320</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="C49">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D49" t="s">
-        <v>679</v>
-      </c>
-      <c r="E49" t="s">
-        <v>700</v>
-      </c>
-      <c r="F49" t="s">
-        <v>296</v>
+        <v>680</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G49" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H49" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
       <c r="I49" t="s">
-        <v>87</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="C50">
         <v>2012</v>
       </c>
       <c r="D50" t="s">
-        <v>680</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>308</v>
+        <v>679</v>
+      </c>
+      <c r="E50" t="s">
+        <v>700</v>
+      </c>
+      <c r="F50" t="s">
+        <v>296</v>
       </c>
       <c r="G50" t="s">
         <v>89</v>
@@ -4938,42 +4977,68 @@
       <c r="H50" t="s">
         <v>190</v>
       </c>
+      <c r="I50" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>694</v>
+        <v>304</v>
       </c>
       <c r="C51">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D51" t="s">
-        <v>678</v>
-      </c>
-      <c r="E51" t="s">
-        <v>700</v>
-      </c>
-      <c r="F51" t="s">
-        <v>175</v>
+        <v>680</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G51" t="s">
         <v>89</v>
       </c>
       <c r="H51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>140</v>
+      </c>
+      <c r="B52" t="s">
+        <v>694</v>
+      </c>
+      <c r="C52">
+        <v>2011</v>
+      </c>
+      <c r="D52" t="s">
+        <v>678</v>
+      </c>
+      <c r="E52" t="s">
+        <v>700</v>
+      </c>
+      <c r="F52" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" t="s">
         <v>186</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I52" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D52" s="2"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D53" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="B9:I51">
-    <sortCondition descending="1" ref="C9:C51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:I52">
+    <sortCondition descending="1" ref="C10:C52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5229,7 +5294,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:H11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H11">
     <sortCondition descending="1" ref="C3:C11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5607,7 +5672,7 @@
       <c r="D16" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="B4:H15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H15">
     <sortCondition descending="1" ref="C4:C15"/>
   </sortState>
   <hyperlinks>
@@ -5627,7 +5692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9DC452-8FB8-48D7-9200-F8DA05DAADE9}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -6117,16 +6182,17 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
     <col min="9" max="9" width="24.44140625" customWidth="1"/>
     <col min="10" max="11" width="8.44140625" customWidth="1"/>
     <col min="12" max="12" width="33.5546875" bestFit="1" customWidth="1"/>
@@ -6223,45 +6289,46 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>741</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J3" s="2"/>
       <c r="K3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2018</v>
@@ -6270,68 +6337,68 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>726</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1601.0042100000001</v>
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>721</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="M4">
+        <v>94</v>
       </c>
       <c r="N4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>726</v>
       </c>
       <c r="G5" s="4">
-        <v>1701.05529</v>
+        <v>1601.0042100000001</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
         <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>743</v>
       </c>
       <c r="N5" t="s">
-        <v>15</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2017</v>
@@ -6340,50 +6407,60 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4">
-        <v>1511.01315</v>
+        <v>1701.05529</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6">
-        <v>82</v>
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>745</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1511.01315</v>
+      </c>
       <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="2"/>
+        <v>33</v>
+      </c>
       <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7">
+        <v>82</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -6409,7 +6486,7 @@
         <v>670</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -6982,8 +7059,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:N26">
-    <sortCondition descending="1" ref="C3:C26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:N26">
+    <sortCondition descending="1" ref="C4:C26"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="H21" r:id="rId1" xr:uid="{82591D0A-5944-4997-8324-8E7443E8C93A}"/>
@@ -7887,7 +7964,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="G3:K14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:K14">
     <sortCondition descending="1" ref="G3:G14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8034,7 +8111,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8280,7 +8357,7 @@
       <c r="H11" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="B9:H10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:H10">
     <sortCondition descending="1" ref="D9:D10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8290,10 +8367,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04072B98-6DD0-4DEA-89F3-ADD9EED64B4B}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8361,16 +8438,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3212</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
       </c>
       <c r="C3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E3" t="s">
         <v>525</v>
@@ -8379,7 +8456,7 @@
         <v>504</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>506</v>
+        <v>751</v>
       </c>
       <c r="H3" t="s">
         <v>503</v>
@@ -8390,57 +8467,57 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
+        <v>74</v>
       </c>
       <c r="C4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D4">
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="F4" t="s">
-        <v>475</v>
-      </c>
-      <c r="G4" t="s">
-        <v>476</v>
+        <v>504</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s">
+        <v>503</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>472</v>
       </c>
       <c r="C5">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="D5">
         <v>2018</v>
       </c>
       <c r="E5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
+      </c>
+      <c r="F5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" t="s">
+        <v>476</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
       </c>
       <c r="I5" t="s">
         <v>473</v>
@@ -8448,68 +8525,68 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>69</v>
       </c>
       <c r="C6">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D6">
         <v>2018</v>
       </c>
       <c r="E6" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C7">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="D7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="H7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>473</v>
+        <v>399</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I7" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>498</v>
       </c>
       <c r="C8">
         <v>2017</v>
@@ -8518,16 +8595,16 @@
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>525</v>
-      </c>
-      <c r="F8" t="s">
-        <v>504</v>
+        <v>513</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H8" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>473</v>
@@ -8535,28 +8612,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
       </c>
       <c r="C9">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D9">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F9" t="s">
         <v>504</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>473</v>
@@ -8564,184 +8641,184 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="F10" t="s">
-        <v>520</v>
-      </c>
-      <c r="G10" t="s">
-        <v>421</v>
+        <v>504</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="H10" t="s">
-        <v>479</v>
-      </c>
-      <c r="I10" t="s">
-        <v>474</v>
+        <v>502</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>490</v>
+        <v>98</v>
       </c>
       <c r="C11">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D11">
         <v>2015</v>
       </c>
       <c r="E11" t="s">
-        <v>491</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="I11" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F11" t="s">
+        <v>520</v>
+      </c>
+      <c r="G11" t="s">
+        <v>421</v>
+      </c>
+      <c r="H11" t="s">
+        <v>479</v>
+      </c>
+      <c r="I11" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="C12">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D12">
         <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
-      </c>
-      <c r="F12" t="s">
-        <v>504</v>
+        <v>491</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="H12" t="s">
-        <v>478</v>
+        <v>399</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>499</v>
+        <v>74</v>
       </c>
       <c r="C13">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D13">
         <v>2015</v>
       </c>
       <c r="E13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H13" t="s">
         <v>478</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>499</v>
       </c>
       <c r="C14">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="F14" t="s">
-        <v>520</v>
-      </c>
-      <c r="G14" t="s">
-        <v>481</v>
+        <v>505</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="H14" t="s">
         <v>478</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C15">
         <v>2011</v>
       </c>
       <c r="D15">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E15" t="s">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="F15" t="s">
-        <v>504</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>507</v>
+        <v>520</v>
+      </c>
+      <c r="G15" t="s">
+        <v>481</v>
       </c>
       <c r="H15" t="s">
-        <v>501</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
+      </c>
+      <c r="I15" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>500</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>2011</v>
@@ -8750,16 +8827,16 @@
         <v>2011</v>
       </c>
       <c r="E16" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F16" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="H16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>473</v>
@@ -8767,86 +8844,86 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>500</v>
       </c>
       <c r="C17">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D17">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E17" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F17" t="s">
-        <v>520</v>
-      </c>
-      <c r="G17" t="s">
-        <v>510</v>
+        <v>514</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="H17" t="s">
-        <v>494</v>
-      </c>
-      <c r="I17" t="s">
-        <v>474</v>
+        <v>503</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>488</v>
+        <v>98</v>
       </c>
       <c r="C18">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D18">
         <v>2010</v>
       </c>
       <c r="E18" t="s">
-        <v>489</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
+      </c>
+      <c r="F18" t="s">
+        <v>520</v>
+      </c>
+      <c r="G18" t="s">
+        <v>510</v>
+      </c>
+      <c r="H18" t="s">
+        <v>494</v>
+      </c>
+      <c r="I18" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C19">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D19">
         <v>2010</v>
       </c>
       <c r="E19" t="s">
-        <v>526</v>
-      </c>
-      <c r="F19" t="s">
-        <v>514</v>
+        <v>489</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H19" t="s">
-        <v>501</v>
+        <v>399</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>473</v>
@@ -8854,10 +8931,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="C20">
         <v>2010</v>
@@ -8866,10 +8943,16 @@
         <v>2010</v>
       </c>
       <c r="E20" t="s">
-        <v>529</v>
+        <v>526</v>
+      </c>
+      <c r="F20" t="s">
+        <v>514</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="H20" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>473</v>
@@ -8877,10 +8960,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C21">
         <v>2010</v>
@@ -8889,56 +8972,50 @@
         <v>2010</v>
       </c>
       <c r="E21" t="s">
-        <v>539</v>
-      </c>
-      <c r="F21" t="s">
-        <v>540</v>
-      </c>
-      <c r="G21" t="s">
-        <v>421</v>
+        <v>529</v>
       </c>
       <c r="H21" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>538</v>
       </c>
       <c r="C22">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D22">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E22" t="s">
-        <v>471</v>
+        <v>539</v>
       </c>
       <c r="F22" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="G22" t="s">
-        <v>532</v>
+        <v>421</v>
       </c>
       <c r="H22" t="s">
-        <v>483</v>
-      </c>
-      <c r="I22" t="s">
+        <v>537</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>490</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>2009</v>
@@ -8947,27 +9024,27 @@
         <v>2009</v>
       </c>
       <c r="E23" t="s">
-        <v>491</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>399</v>
+        <v>471</v>
+      </c>
+      <c r="F23" t="s">
+        <v>520</v>
+      </c>
+      <c r="G23" t="s">
+        <v>532</v>
       </c>
       <c r="H23" t="s">
-        <v>494</v>
-      </c>
-      <c r="I23" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I23" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C24">
         <v>2009</v>
@@ -8976,86 +9053,85 @@
         <v>2009</v>
       </c>
       <c r="E24" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>484</v>
+        <v>399</v>
+      </c>
+      <c r="H24" t="s">
+        <v>494</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
       <c r="C25">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D25">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E25" t="s">
-        <v>534</v>
-      </c>
-      <c r="F25" t="s">
-        <v>535</v>
-      </c>
-      <c r="G25" t="s">
-        <v>421</v>
-      </c>
-      <c r="H25" t="s">
-        <v>537</v>
+        <v>497</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="C26">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D26">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E26" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="F26" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="G26" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="H26" t="s">
-        <v>477</v>
-      </c>
-      <c r="I26" t="s">
-        <v>473</v>
-      </c>
-      <c r="J26" s="1"/>
+        <v>537</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>472</v>
       </c>
       <c r="C27">
         <v>2007</v>
@@ -9064,27 +9140,28 @@
         <v>2007</v>
       </c>
       <c r="E27" t="s">
-        <v>531</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
+      </c>
+      <c r="F27" t="s">
+        <v>475</v>
+      </c>
+      <c r="G27" t="s">
+        <v>476</v>
+      </c>
+      <c r="H27" t="s">
+        <v>477</v>
       </c>
       <c r="I27" t="s">
         <v>473</v>
       </c>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>533</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>2007</v>
@@ -9093,56 +9170,56 @@
         <v>2007</v>
       </c>
       <c r="E28" t="s">
-        <v>534</v>
-      </c>
-      <c r="F28" t="s">
-        <v>536</v>
-      </c>
-      <c r="G28" t="s">
-        <v>421</v>
-      </c>
-      <c r="H28" t="s">
-        <v>537</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>474</v>
+        <v>531</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I28" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="C29">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D29">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E29" t="s">
-        <v>489</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>483</v>
+        <v>534</v>
+      </c>
+      <c r="F29" t="s">
+        <v>536</v>
+      </c>
+      <c r="G29" t="s">
+        <v>421</v>
+      </c>
+      <c r="H29" t="s">
+        <v>537</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="C30">
         <v>2006</v>
@@ -9151,24 +9228,53 @@
         <v>2006</v>
       </c>
       <c r="E30" t="s">
-        <v>534</v>
-      </c>
-      <c r="F30" t="s">
-        <v>536</v>
-      </c>
-      <c r="G30" t="s">
-        <v>421</v>
-      </c>
-      <c r="H30" t="s">
-        <v>102</v>
+        <v>489</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>473</v>
       </c>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>533</v>
+      </c>
+      <c r="C31">
+        <v>2006</v>
+      </c>
+      <c r="D31">
+        <v>2006</v>
+      </c>
+      <c r="E31" t="s">
+        <v>534</v>
+      </c>
+      <c r="F31" t="s">
+        <v>536</v>
+      </c>
+      <c r="G31" t="s">
+        <v>421</v>
+      </c>
+      <c r="H31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B4:I30">
-    <sortCondition descending="1" ref="D4:D30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:I31">
+    <sortCondition descending="1" ref="D5:D31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="769">
   <si>
     <t xml:space="preserve">ID Name</t>
   </si>
@@ -627,7 +627,7 @@
     <t xml:space="preserve">CNRS Project ANR JCJC CAPS</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorbonne Université</t>
+    <t xml:space="preserve">Institut de Mathématiques de Jussieu PRG, Sorbonne Université</t>
   </si>
   <si>
     <t xml:space="preserve">Paris, France</t>
@@ -660,7 +660,7 @@
     <t xml:space="preserve">Chair</t>
   </si>
   <si>
-    <t xml:space="preserve">Lead the organization of annual competition for students in 45 countries &lt;br&gt; Set up of official website to publish resullts and statistics</t>
+    <t xml:space="preserve">Lead the organization of annual competition for students in 45 countries &lt;br&gt; Set up of official website (&lt;a href=’www.apmo-official’&gt;link &lt;/a&gt;) to publish resullts and statistics</t>
   </si>
   <si>
     <t xml:space="preserve">Asian Pacific Mathematical Olympiad</t>
@@ -1749,6 +1749,24 @@
     <t xml:space="preserve">Technologies</t>
   </si>
   <si>
+    <t xml:space="preserve">APMO Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before 2016, the information for the Asian Pacific Mathematics Olympiad was spread all over the internet. When I became chair of the competition, I committed to creating a website to gather all the information and make it availiable through a friendly and scalable interface. This is the result of this work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.apmo-official.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leomtz/apmowebsite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasc, python, webdeb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python, Flask, pandas, Matplotlib, Jinja2, Jupyter, Bootstrap</t>
+  </si>
+  <si>
     <t xml:space="preserve">ConverTex</t>
   </si>
   <si>
@@ -1764,7 +1782,7 @@
     <t xml:space="preserve">python, webdev</t>
   </si>
   <si>
-    <t xml:space="preserve">LaTeX, HTML, CSS, MathJax, ajax</t>
+    <t xml:space="preserve">LaTeX, HTML, CSS, JS, MathJax</t>
   </si>
   <si>
     <t xml:space="preserve">CV Utilities (cvutils)</t>
@@ -1773,7 +1791,7 @@
     <t xml:space="preserve">Object Oriented library for managing a Curriculum Vitae from an .xlsx file. Implements basically everything that you can see in this page.</t>
   </si>
   <si>
-    <t xml:space="preserve">matplotlib, openpyxl</t>
+    <t xml:space="preserve">Matplotlib, openpyxl</t>
   </si>
   <si>
     <t xml:space="preserve">PyPersonalPage</t>
@@ -1782,13 +1800,13 @@
     <t xml:space="preserve">Flask webapp to create a personal/professional page using a CV managed with CV Utilities. This personal page is created itself with PyPersonalPage!</t>
   </si>
   <si>
-    <t xml:space="preserve">flask, cvutils, HTML, CSS, JavaScript, AJAX, jinja2</t>
+    <t xml:space="preserve">Python, Flask, cvutils, HTML, Bootstrap, JS, AJAX, Jinja2</t>
   </si>
   <si>
     <t xml:space="preserve">Personal and Professional Page</t>
   </si>
   <si>
-    <t xml:space="preserve">This page. Dynamically generated and served by Flask + openpyxl</t>
+    <t xml:space="preserve">This page. Dynamically generated and served by Flask + openpyxl.</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.nekomath.com</t>
@@ -1800,16 +1818,16 @@
     <t xml:space="preserve">Computational vision project. In the game &lt;a href="http://orteil.dashnet.org/cookieclicker/" target="_blank"&gt; Cookie Clicker&lt;/a&gt; there is a golden cookie that appears at random times on screen. Clicking on it boosts the cookie production but requires constant attention of the user. This Python bot automatically clicks on it when it appears.</t>
   </si>
   <si>
-    <t xml:space="preserve">open_cv, SIFT, winsound, time, pyautogui, ImageGrab</t>
+    <t xml:space="preserve">open_cv, SIFT, pyautogui, ImageGrab</t>
   </si>
   <si>
     <t xml:space="preserve">APMO Website Scripts</t>
   </si>
   <si>
-    <t xml:space="preserve">Python scripts to create the official webpage of the Asian Pacific Mathematical Olympiad for the period 2016 - 2018. It includes functions to create problem difficulty statistics and plots.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openpyxl, numpy, matplotlib, HTML, CSS, JavaScript</t>
+    <t xml:space="preserve">Python scripts to create the official webpage of the Asian Pacific Mathematical Olympiad for the period 2016 - 2018. Now they are legacy and they have been replaced by the project APMO Website above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python, openpyxl, NumPy, Matplotlib, HTML, CSS, JavaScript</t>
   </si>
   <si>
     <t xml:space="preserve">Sobrinos de la Tía Cony</t>
@@ -1827,7 +1845,7 @@
     <t xml:space="preserve">datasc, webdev</t>
   </si>
   <si>
-    <t xml:space="preserve">python, pandas, matplotlib, Jupyter, D3, Typescript</t>
+    <t xml:space="preserve">Python, pandas, Jupyter, D3, TypeScript</t>
   </si>
   <si>
     <t xml:space="preserve">Collect Definitions</t>
@@ -1836,7 +1854,7 @@
     <t xml:space="preserve">Do you have troubles reading english text with unusual words? By giving a list of words to this script, it gathers all the definitions that you need from … and creates an HTML file to see all of them in a beautiful way.</t>
   </si>
   <si>
-    <t xml:space="preserve">API, CSS, HTML, BeautifulSoup</t>
+    <t xml:space="preserve">Python, CSS, HTML, BeautifulSoup</t>
   </si>
   <si>
     <t xml:space="preserve">VII CIIM Website</t>
@@ -1848,7 +1866,7 @@
     <t xml:space="preserve">http://ciim2015.ommenlinea.org</t>
   </si>
   <si>
-    <t xml:space="preserve">WordPress, HTML, CSS, FTP, SSH, Nirvana</t>
+    <t xml:space="preserve">WordPress, HTML, CSS, FTP, SSH</t>
   </si>
   <si>
     <t xml:space="preserve">Mexican Mathematical Olympiad Website</t>
@@ -1860,16 +1878,16 @@
     <t xml:space="preserve">http://www.ommenlinea.org</t>
   </si>
   <si>
-    <t xml:space="preserve">WordPress, HTML, CSS, WPStats, PHP, Avada, FTP, SSH, MathJax, SQL</t>
+    <t xml:space="preserve">WordPress, HTML, CSS, WPStats, PHP, FTP, SSH, MathJax, SQL</t>
   </si>
   <si>
     <t xml:space="preserve">ConvierTex</t>
   </si>
   <si>
-    <t xml:space="preserve">Write a LaTeX formula, click a button, and share it with the world! Created from scratch originally with locally compiling LaTeX. Yes, there used to be an "I" in the name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LaTeX, sha, HTML, CSS, BeautifulSoup</t>
+    <t xml:space="preserve">Write a LaTeX formula, click a button, and share it with the world! Originally it compiled LaTeX locally and stored images with hashing. Yes, there used to be an "I" in the name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flask, LaTeX, HTML, CSS, BeautifulSoup</t>
   </si>
   <si>
     <t xml:space="preserve">Personal Blog</t>
@@ -2550,16 +2568,16 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -2868,7 +2886,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -3524,19 +3542,19 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2064777327935"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="61.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -4980,7 +4998,7 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5219,17 +5237,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.70445344129555"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6882591093117"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5286,18 +5306,18 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>566</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="0" t="s">
         <v>568</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -5310,9 +5330,9 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>572</v>
@@ -5323,82 +5343,86 @@
       <c r="D4" s="0" t="s">
         <v>573</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>574</v>
+      </c>
       <c r="F4" s="0" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>90</v>
+        <v>576</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>90</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="D6" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>583</v>
@@ -5406,193 +5430,216 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="0" t="s">
         <v>90</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>590</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="G9" s="0" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>593</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>596</v>
+      </c>
       <c r="G10" s="0" t="s">
-        <v>90</v>
+        <v>597</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>598</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="0" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>99</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="B14" s="0" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>609</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="0" t="s">
-        <v>99</v>
+        <v>576</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>615</v>
+      </c>
       <c r="G15" s="0" t="s">
         <v>99</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>613</v>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="http://www.nekomath.com/ct"/>
-    <hyperlink ref="E6" r:id="rId2" display="http://www.nekomath.com"/>
-    <hyperlink ref="E9" r:id="rId3" display="http://www.nekomath.com/cony"/>
-    <hyperlink ref="E11" r:id="rId4" display="http://ciim2015.ommenlinea.org"/>
-    <hyperlink ref="E12" r:id="rId5" display="http://www.ommenlinea.org"/>
-    <hyperlink ref="E14" r:id="rId6" display="http://blog.nekomath.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://www.apmo-official.org"/>
+    <hyperlink ref="E4" r:id="rId2" display="http://www.nekomath.com/ct"/>
+    <hyperlink ref="E7" r:id="rId3" display="http://www.nekomath.com"/>
+    <hyperlink ref="E10" r:id="rId4" display="http://www.nekomath.com/cony"/>
+    <hyperlink ref="E12" r:id="rId5" display="http://ciim2015.ommenlinea.org"/>
+    <hyperlink ref="E13" r:id="rId6" display="http://www.ommenlinea.org"/>
+    <hyperlink ref="E15" r:id="rId7" display="http://blog.nekomath.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5618,7 +5665,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -5642,10 +5689,10 @@
         <v>137</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5668,10 +5715,10 @@
         <v>142</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,7 +5726,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2015</v>
@@ -5696,7 +5743,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2015</v>
@@ -5713,7 +5760,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2014</v>
@@ -5730,7 +5777,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2011</v>
@@ -5747,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2010</v>
@@ -5784,7 +5831,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -5808,16 +5855,16 @@
         <v>137</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,16 +5887,16 @@
         <v>142</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5857,7 +5904,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2015</v>
@@ -5869,13 +5916,13 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5883,7 +5930,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2015</v>
@@ -5896,10 +5943,10 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5907,7 +5954,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2015</v>
@@ -5920,10 +5967,10 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,7 +5978,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2015</v>
@@ -5940,13 +5987,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5954,7 +6001,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2014</v>
@@ -5964,10 +6011,10 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5975,7 +6022,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2014</v>
@@ -5984,13 +6031,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5998,7 +6045,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2014</v>
@@ -6007,13 +6054,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6021,7 +6068,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2014</v>
@@ -6031,10 +6078,10 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6042,7 +6089,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2014</v>
@@ -6052,10 +6099,10 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6063,7 +6110,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2014</v>
@@ -6075,10 +6122,10 @@
         <v>189</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6086,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2014</v>
@@ -6095,13 +6142,13 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -6122,24 +6169,24 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.89068825910931"/>
   </cols>
@@ -6170,22 +6217,22 @@
         <v>564</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,22 +6261,22 @@
         <v>57</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6237,25 +6284,25 @@
         <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1902.03166</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6263,22 +6310,22 @@
         <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6286,22 +6333,22 @@
         <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,22 +6356,22 @@
         <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="I6" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>660</v>
-      </c>
       <c r="L6" s="0" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6332,35 +6379,35 @@
         <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>151</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6368,34 +6415,34 @@
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>94</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,34 +6450,34 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>1601.00421</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6438,34 +6485,34 @@
         <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1701.05529</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>151</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6473,32 +6520,32 @@
         <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="G11" s="6"/>
       <c r="I11" s="0" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>99</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6506,34 +6553,34 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>1511.01315</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>82</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6547,19 +6594,19 @@
         <v>2017</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6567,7 +6614,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2017</v>
@@ -6578,17 +6625,17 @@
       </c>
       <c r="G14" s="6"/>
       <c r="I14" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6596,34 +6643,34 @@
         <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>144</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6637,20 +6684,20 @@
         <v>2016</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1612.03435</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="0" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="M16" s="4"/>
     </row>
@@ -6659,7 +6706,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2016</v>
@@ -6669,17 +6716,17 @@
       </c>
       <c r="G17" s="6"/>
       <c r="I17" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,33 +6734,33 @@
         <v>14</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="G18" s="6"/>
       <c r="I18" s="0" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>50</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6721,33 +6768,33 @@
         <v>13</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="G19" s="6"/>
       <c r="I19" s="0" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>50</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6755,7 +6802,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2015</v>
@@ -6765,16 +6812,16 @@
       </c>
       <c r="G20" s="6"/>
       <c r="I20" s="0" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>189</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6782,7 +6829,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2015</v>
@@ -6792,20 +6839,20 @@
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="3" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,7 +6860,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2015</v>
@@ -6823,20 +6870,20 @@
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="3" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6844,7 +6891,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2015</v>
@@ -6854,20 +6901,20 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="3" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6875,25 +6922,25 @@
         <v>8</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2015</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,28 +6954,28 @@
         <v>2015</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>145</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6936,7 +6983,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2014</v>
@@ -6946,20 +6993,20 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="3" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6967,33 +7014,33 @@
         <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="G27" s="6"/>
       <c r="I27" s="0" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>44</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7001,7 +7048,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2011</v>
@@ -7011,16 +7058,16 @@
       </c>
       <c r="G28" s="6"/>
       <c r="I28" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>189</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7028,7 +7075,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2011</v>
@@ -7039,25 +7086,25 @@
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="3" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>204</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7065,7 +7112,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2011</v>
@@ -7076,25 +7123,25 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="3" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>204</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7102,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2011</v>
@@ -7113,19 +7160,19 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="3" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>155</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>52</v>
@@ -7656,7 +7703,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.89068825910931"/>
@@ -8093,7 +8140,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8238,7 +8285,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8507,7 +8554,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.0971659919028"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -9430,7 +9477,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5708502024291"/>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="777">
   <si>
     <t xml:space="preserve">ID Name</t>
   </si>
@@ -660,7 +660,7 @@
     <t xml:space="preserve">Chair</t>
   </si>
   <si>
-    <t xml:space="preserve">Lead the organization of annual competition for students in 45 countries &lt;br&gt; Set up of official website (&lt;a href=’www.apmo-official’&gt;link &lt;/a&gt;) to publish resullts and statistics</t>
+    <t xml:space="preserve">Lead the organization of annual competition for students in 45 countries &lt;br&gt; Set up of official website (&lt;a href=’www.apmo-official’&gt;link&lt;/a&gt;) to publish resullts and statistics</t>
   </si>
   <si>
     <t xml:space="preserve">Asian Pacific Mathematical Olympiad</t>
@@ -2025,46 +2025,70 @@
     <t xml:space="preserve">pages</t>
   </si>
   <si>
+    <t xml:space="preserve">The convex dimension of hypergraphs and the hypersimplicial Van Kampen-Flores Theorem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L. Martínez-Sandoval, A. Padrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArXiV e-prints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometric systems of unbiased representatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-abs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.nekomath.com/static/papers/GSURs.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Banik, B. B. Bhattacharya, S. Bhore, L. Martínez-Sandoval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceedings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCCG 2019 Proceedings</t>
+  </si>
+  <si>
     <t xml:space="preserve">Triangle areas determined by arrangements of planar lines</t>
   </si>
   <si>
-    <t xml:space="preserve">preprint</t>
-  </si>
-  <si>
     <t xml:space="preserve">G. Damásdi, L. Martínez-Sandoval, D. T. Nagy, Z. L. Nagy</t>
   </si>
   <si>
-    <t xml:space="preserve">Preprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArXiV e-prints</t>
-  </si>
-  <si>
     <t xml:space="preserve">On Erdös-Szekeres-type problems for k-convex point sets</t>
   </si>
   <si>
-    <t xml:space="preserve">ext-abs</t>
+    <t xml:space="preserve">10.1007/978-3-030-25005-8_4</t>
   </si>
   <si>
     <t xml:space="preserve">M. Balko, S. Bhore, L. Martínez-Sandoval, P. Valtr</t>
   </si>
   <si>
-    <t xml:space="preserve">Proceedings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IWOCA 2019</t>
+    <t xml:space="preserve">IWOCA 2019 Proceedings</t>
   </si>
   <si>
     <t xml:space="preserve">The convex dimension of k-uniform hypergraphs</t>
   </si>
   <si>
-    <t xml:space="preserve">L. Martínez-Sandoval, A. Padrol</t>
+    <t xml:space="preserve">http://www.nekomath.com/static/papers/SM-ConvDim.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">SMCG 2019 Book of Abstracts</t>
   </si>
   <si>
     <t xml:space="preserve">Perfect rainbow polygons for colored point sets in the plane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.nekomath.com/static/papers/SM-RainPol.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">D. Flores-Peñaloza, M. Kano, L. Martínez-Sandoval, D. Orden, J. Tejel, C.D. Tóth, J.Urrutia, B. Vogtenhuber</t>
@@ -2568,16 +2592,16 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -2886,7 +2910,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -3549,12 +3573,12 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.8502024291498"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -5245,10 +5269,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.70445344129555"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6882591093117"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -5665,7 +5689,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -5831,7 +5855,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -6167,26 +6191,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.89068825910931"/>
   </cols>
@@ -6279,11 +6303,11 @@
         <v>657</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>658</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -6293,7 +6317,7 @@
         <v>659</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1902.03166</v>
+        <v>1909.01189</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>660</v>
@@ -6305,11 +6329,11 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>663</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -6318,42 +6342,48 @@
       <c r="E4" s="0" t="s">
         <v>664</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>665</v>
+      </c>
       <c r="I4" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="L4" s="0" t="s">
         <v>667</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>664</v>
+        <v>659</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1902.03166</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>670</v>
+        <v>661</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>671</v>
@@ -6364,128 +6394,113 @@
       <c r="E6" s="0" t="s">
         <v>664</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>672</v>
+      </c>
       <c r="I6" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>675</v>
+        <v>664</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>676</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="J7" s="2"/>
+        <v>660</v>
+      </c>
       <c r="K7" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M7" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="L7" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>678</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="F8" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="I8" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>681</v>
-      </c>
       <c r="K8" s="0" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>655</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>1601.00421</v>
+        <v>682</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>683</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>686</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>689</v>
+      <c r="L9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2018</v>
@@ -6494,55 +6509,57 @@
         <v>655</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>1701.05529</v>
+        <v>687</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>688</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>651</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>693</v>
+        <v>690</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>94</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>1601.00421</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="L11" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="I11" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="L11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>696</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>99</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>697</v>
@@ -6550,13 +6567,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>698</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>655</v>
@@ -6565,145 +6582,150 @@
         <v>699</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1511.01315</v>
+        <v>1701.05529</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>651</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>82</v>
+        <v>151</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>701</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>430</v>
+        <v>681</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>701</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="G13" s="6"/>
       <c r="I13" s="0" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="C14" s="2" t="n">
+        <v>706</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="D14" s="2"/>
       <c r="E14" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="6"/>
+        <v>655</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1511.01315</v>
+      </c>
       <c r="I14" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="J14" s="2"/>
+        <v>694</v>
+      </c>
       <c r="K14" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="M14" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="N14" s="0" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="K15" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>711</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>144</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>2016</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>1612.03435</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>716</v>
+        <v>111</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="I16" s="0" t="s">
+        <v>713</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="0" t="s">
-        <v>661</v>
+        <v>714</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="M16" s="4"/>
+        <v>715</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>717</v>
@@ -6712,94 +6734,89 @@
         <v>2016</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="I17" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="J17" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>720</v>
+      </c>
       <c r="K17" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>718</v>
+        <v>651</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>719</v>
+        <v>319</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="I18" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1612.03435</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>724</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="0" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>723</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>725</v>
+        <v>111</v>
       </c>
       <c r="G19" s="6"/>
       <c r="I19" s="0" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="0" t="s">
-        <v>666</v>
+        <v>714</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="N19" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="M19" s="0" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>727</v>
@@ -6808,90 +6825,96 @@
         <v>2015</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>364</v>
+        <v>664</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>728</v>
       </c>
       <c r="G20" s="6"/>
       <c r="I20" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>189</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="0" t="s">
-        <v>729</v>
+        <v>667</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>111</v>
+        <v>664</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>733</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="3" t="s">
-        <v>732</v>
-      </c>
       <c r="I21" s="0" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="0" t="s">
-        <v>706</v>
+        <v>667</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>730</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>111</v>
+        <v>364</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="3" t="s">
-        <v>735</v>
-      </c>
       <c r="I22" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="J22" s="2"/>
+        <v>736</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>189</v>
+      </c>
       <c r="K22" s="0" t="s">
-        <v>706</v>
+        <v>737</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2015</v>
@@ -6901,252 +6924,240 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="0" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="C24" s="2" t="n">
+        <v>742</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>741</v>
+        <v>111</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="3" t="s">
+        <v>743</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>742</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="0" t="s">
-        <v>661</v>
+        <v>714</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>715</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>494</v>
+        <v>745</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>744</v>
+        <v>111</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="3" t="s">
+        <v>746</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>745</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="N25" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="M25" s="0" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <v>2014</v>
+      <c r="C26" s="2" t="n">
+        <v>2015</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>749</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="J26" s="2"/>
+        <v>750</v>
+      </c>
       <c r="K26" s="0" t="s">
-        <v>706</v>
+        <v>661</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>750</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="F27" s="0" t="s">
+      <c r="G27" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="G27" s="6"/>
       <c r="I27" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="J27" s="2"/>
       <c r="K27" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>722</v>
+        <v>651</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>754</v>
       </c>
       <c r="M27" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="I29" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="M29" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="N27" s="0" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="N29" s="0" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="I28" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="D30" s="2"/>
       <c r="E30" s="0" t="s">
-        <v>111</v>
+        <v>364</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>204</v>
+      <c r="J30" s="0" t="s">
+        <v>189</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>706</v>
+        <v>737</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="M30" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>766</v>
@@ -7163,30 +7174,107 @@
         <v>767</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="M33" s="0" t="n">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H21" r:id="rId1" display="http://universo.math.org.mx/2015-1/Baul-II/baul-II.html"/>
-    <hyperlink ref="H22" r:id="rId2" display="http://universo.math.org.mx/2015-2/Baul-III/baul-III.html"/>
-    <hyperlink ref="H23" r:id="rId3" display="http://universo.math.org.mx/2015-3/Baul-IV/baul-IV.html"/>
-    <hyperlink ref="H26" r:id="rId4" display="http://universo.math.org.mx/2014-3/baul-I/baul-I.html"/>
-    <hyperlink ref="H29" r:id="rId5" display="http://www.ommenlinea.org/portfolio-items/tzaloa-2011-tercer-numero/?portfolioCats=10%2C11%2C12%2C14%2C15%2C27%2C32"/>
-    <hyperlink ref="H30" r:id="rId6" display="http://www.ommenlinea.org/portfolio-items/tzaloa-2011-segundo-numero/?portfolioCats=10%2C11%2C12%2C14%2C15%2C27%2C32"/>
-    <hyperlink ref="H31" r:id="rId7" display="http://www.miscelaneamatematica.org/Misc52/5203.pdf"/>
+    <hyperlink ref="H4" r:id="rId1" display="http://www.nekomath.com/static/papers/GSURs.pdf"/>
+    <hyperlink ref="H7" r:id="rId2" display="http://www.nekomath.com/static/papers/SM-ConvDim"/>
+    <hyperlink ref="H8" r:id="rId3" display="http://www.nekomath.com/static/papers/SM-RainPol"/>
+    <hyperlink ref="H23" r:id="rId4" display="http://universo.math.org.mx/2015-1/Baul-II/baul-II.html"/>
+    <hyperlink ref="H24" r:id="rId5" display="http://universo.math.org.mx/2015-2/Baul-III/baul-III.html"/>
+    <hyperlink ref="H25" r:id="rId6" display="http://universo.math.org.mx/2015-3/Baul-IV/baul-IV.html"/>
+    <hyperlink ref="H28" r:id="rId7" display="http://universo.math.org.mx/2014-3/baul-I/baul-I.html"/>
+    <hyperlink ref="H31" r:id="rId8" display="http://www.ommenlinea.org/portfolio-items/tzaloa-2011-tercer-numero/?portfolioCats=10%2C11%2C12%2C14%2C15%2C27%2C32"/>
+    <hyperlink ref="H32" r:id="rId9" display="http://www.ommenlinea.org/portfolio-items/tzaloa-2011-segundo-numero/?portfolioCats=10%2C11%2C12%2C14%2C15%2C27%2C32"/>
+    <hyperlink ref="H33" r:id="rId10" display="http://www.miscelaneamatematica.org/Misc52/5203.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7703,7 +7791,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.89068825910931"/>
@@ -8284,8 +8372,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8554,7 +8642,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -9477,7 +9565,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5708502024291"/>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -6193,7 +6193,7 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/data/CV.xlsx
+++ b/data/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" state="visible" r:id="rId2"/>
@@ -3107,7 +3107,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="22.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.55"/>
@@ -3413,11 +3413,11 @@
   </sheetPr>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.92"/>
   </cols>
@@ -4868,6 +4868,9 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>60</v>
+      </c>
       <c r="B62" s="0" t="s">
         <v>475</v>
       </c>
@@ -4912,7 +4915,7 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.08"/>
   </cols>
@@ -5312,11 +5315,11 @@
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D35" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J56" activeCellId="0" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.11"/>
@@ -7259,7 +7262,7 @@
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7497,7 +7500,7 @@
       <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.66"/>
@@ -7961,7 +7964,7 @@
       <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.11"/>
   </cols>
@@ -8125,7 +8128,7 @@
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.21"/>
   </cols>
@@ -9710,7 +9713,7 @@
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9852,7 +9855,7 @@
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10322,7 +10325,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -10532,7 +10535,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.77"/>
@@ -10699,7 +10702,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.34"/>
@@ -10940,7 +10943,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46"/>
   </cols>
@@ -11810,7 +11813,7 @@
       <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.04"/>
